--- a/Assets/06.Table/PetAwakeTable.xlsx
+++ b/Assets/06.Table/PetAwakeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6EC78A-1C66-41C0-89C5-6156B3ED3F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FF11A3-DA11-4AF1-A30B-8FAE4EB0583E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="PetAwakeTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="32">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>총합</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1일 스테이지 몬스터 처치 수(마리)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,12 +150,24 @@
     <t>복붙용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>총합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,13 +188,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -583,7 +584,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:J13"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,7 +625,7 @@
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -641,7 +642,7 @@
         <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -658,7 +659,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -675,7 +676,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -686,10 +687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C80F775-A6C9-4707-A5A5-F54433AC4EB9}">
-  <dimension ref="A1:X104"/>
+  <dimension ref="A1:AA104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -703,9 +704,10 @@
     <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -714,31 +716,34 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="F2" s="2"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>21</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>22</v>
       </c>
-      <c r="S3" t="s">
-        <v>23</v>
-      </c>
       <c r="T3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -761,20 +766,24 @@
         <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4">
-        <f>(M5+M55)*4</f>
-        <v>105.55555555555556</v>
+        <v>29</v>
+      </c>
+      <c r="M4" s="1">
+        <f>SUM(K5:K104)*4</f>
+        <v>4200000</v>
+      </c>
+      <c r="N4">
+        <f>M4/$H$25</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="P4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
         <v>5</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" t="s">
-        <v>7</v>
       </c>
       <c r="S4" t="s">
         <v>8</v>
@@ -796,10 +805,16 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500</v>
       </c>
       <c r="X4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -810,24 +825,28 @@
         <v>0.01</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H24" si="1">G5*$A$11</f>
+        <f t="shared" ref="H5:H43" si="1">G5*$A$11</f>
         <v>30000</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="1">
+        <f>SUM(K5:K9)</f>
         <v>5000</v>
       </c>
-      <c r="L5" s="1">
-        <f>SUM(K5:K54)</f>
-        <v>350000</v>
-      </c>
       <c r="M5">
-        <f>L5/$H$25</f>
-        <v>9.7222222222222214</v>
-      </c>
-      <c r="O5">
+        <f>L5*4/$H$25</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="N5">
+        <f>SUM(M5:$M$5)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5">
@@ -859,10 +878,17 @@
         <v>15</v>
       </c>
       <c r="X5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z68" si="2">Y5+P5*100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -880,7 +906,11 @@
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>5000</v>
+        <v>1000</v>
+      </c>
+      <c r="N6">
+        <f>SUM(M$5:$M6)</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -898,26 +928,37 @@
         <v>30</v>
       </c>
       <c r="T6" t="str">
-        <f>T5&amp;","&amp;P6</f>
+        <f t="shared" ref="T6:W37" si="3">T5&amp;","&amp;P6</f>
         <v>0.01,0.02</v>
       </c>
       <c r="U6" t="str">
-        <f>U5&amp;","&amp;Q6</f>
+        <f t="shared" si="3"/>
         <v>1000000000000,2000000000000</v>
       </c>
       <c r="V6" t="str">
-        <f>V5&amp;","&amp;R6</f>
+        <f t="shared" si="3"/>
         <v>10000,15000</v>
       </c>
       <c r="W6" t="str">
-        <f>W5&amp;","&amp;S6</f>
+        <f t="shared" si="3"/>
         <v>15,30</v>
       </c>
       <c r="X6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <f>(Z6-Z5)*100/Z5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F7" s="5">
         <v>193</v>
       </c>
@@ -932,7 +973,11 @@
         <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>5000</v>
+        <v>1000</v>
+      </c>
+      <c r="N7">
+        <f>SUM(M$5:$M7)</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -950,26 +995,37 @@
         <v>45</v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" ref="T7:W70" si="2">T6&amp;","&amp;P7</f>
+        <f t="shared" si="3"/>
         <v>0.01,0.02,0.03</v>
       </c>
       <c r="U7" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45</v>
+      </c>
+      <c r="X7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
         <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000</v>
-      </c>
-      <c r="V7" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000</v>
-      </c>
-      <c r="W7" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45</v>
-      </c>
-      <c r="X7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" ref="AA7:AA70" si="4">(Z7-Z6)*100/Z6</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F8" s="5">
         <v>194</v>
       </c>
@@ -984,7 +1040,11 @@
         <v>3</v>
       </c>
       <c r="K8" s="1">
-        <v>5000</v>
+        <v>1000</v>
+      </c>
+      <c r="N8">
+        <f>SUM(M$5:$M8)</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O8">
         <v>3</v>
@@ -1002,26 +1062,37 @@
         <v>60</v>
       </c>
       <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60</v>
+      </c>
+      <c r="X8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04</v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000</v>
-      </c>
-      <c r="V8" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000</v>
-      </c>
-      <c r="W8" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60</v>
-      </c>
-      <c r="X8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="4"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F9" s="5">
         <v>195</v>
       </c>
@@ -1036,7 +1107,11 @@
         <v>4</v>
       </c>
       <c r="K9" s="1">
-        <v>5000</v>
+        <v>1000</v>
+      </c>
+      <c r="N9">
+        <f>SUM(M$5:$M9)</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O9">
         <v>4</v>
@@ -1054,28 +1129,39 @@
         <v>75</v>
       </c>
       <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75</v>
+      </c>
+      <c r="X9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000</v>
-      </c>
-      <c r="V9" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000</v>
-      </c>
-      <c r="W9" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75</v>
-      </c>
-      <c r="X9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="5">
         <v>196</v>
@@ -1091,9 +1177,22 @@
         <v>5</v>
       </c>
       <c r="K10" s="1">
-        <v>5000</v>
-      </c>
-      <c r="O10">
+        <f>K5+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="L10" s="1">
+        <f>SUM(K10:K14)</f>
+        <v>10000</v>
+      </c>
+      <c r="M10">
+        <f>L10*4/$H$25</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="N10">
+        <f>SUM(M$5:$M10)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O10" s="6">
         <v>5</v>
       </c>
       <c r="P10">
@@ -1109,26 +1208,37 @@
         <v>90</v>
       </c>
       <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90</v>
+      </c>
+      <c r="X10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y10">
+        <v>10</v>
+      </c>
+      <c r="Z10">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000</v>
-      </c>
-      <c r="V10" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000</v>
-      </c>
-      <c r="W10" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90</v>
-      </c>
-      <c r="X10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="AA10" s="6">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3000000</v>
       </c>
@@ -1146,7 +1256,12 @@
         <v>6</v>
       </c>
       <c r="K11" s="1">
-        <v>5000</v>
+        <f t="shared" ref="K11:K74" si="5">K6+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="N11">
+        <f>SUM(M$5:$M11)</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="O11">
         <v>6</v>
@@ -1164,26 +1279,37 @@
         <v>105</v>
       </c>
       <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105</v>
+      </c>
+      <c r="X11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="Z11">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07</v>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000</v>
-      </c>
-      <c r="V11" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000</v>
-      </c>
-      <c r="W11" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105</v>
-      </c>
-      <c r="X11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F12" s="5">
         <v>198</v>
       </c>
@@ -1198,7 +1324,12 @@
         <v>7</v>
       </c>
       <c r="K12" s="1">
-        <v>5000</v>
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="N12">
+        <f>SUM(M$5:$M12)</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="O12">
         <v>7</v>
@@ -1216,26 +1347,37 @@
         <v>120</v>
       </c>
       <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120</v>
+      </c>
+      <c r="X12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08</v>
-      </c>
-      <c r="U12" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000</v>
-      </c>
-      <c r="V12" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000</v>
-      </c>
-      <c r="W12" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120</v>
-      </c>
-      <c r="X12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="4"/>
+        <v>5.882352941176471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F13" s="5">
         <v>199</v>
       </c>
@@ -1250,7 +1392,12 @@
         <v>8</v>
       </c>
       <c r="K13" s="1">
-        <v>5000</v>
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="N13">
+        <f>SUM(M$5:$M13)</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="O13">
         <v>8</v>
@@ -1268,26 +1415,37 @@
         <v>135</v>
       </c>
       <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09</v>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000</v>
-      </c>
-      <c r="V13" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000</v>
-      </c>
-      <c r="W13" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135</v>
-      </c>
-      <c r="X13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="4"/>
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F14" s="5">
         <v>200</v>
       </c>
@@ -1302,7 +1460,12 @@
         <v>9</v>
       </c>
       <c r="K14" s="1">
-        <v>5000</v>
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="N14">
+        <f>SUM(M$5:$M14)</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="O14">
         <v>9</v>
@@ -1320,26 +1483,37 @@
         <v>150</v>
       </c>
       <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y14">
+        <v>10</v>
+      </c>
+      <c r="Z14">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1</v>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000</v>
-      </c>
-      <c r="V14" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000</v>
-      </c>
-      <c r="W14" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150</v>
-      </c>
-      <c r="X14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="4"/>
+        <v>5.2631578947368425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F15" s="5">
         <v>201</v>
       </c>
@@ -1354,10 +1528,22 @@
         <v>10</v>
       </c>
       <c r="K15" s="1">
-        <f>K5+1000</f>
-        <v>6000</v>
-      </c>
-      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="L15" s="1">
+        <f>SUM(K15:K19)</f>
+        <v>15000</v>
+      </c>
+      <c r="M15">
+        <f>L15*4/$H$25</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N15">
+        <f>SUM(M$5:$M15)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="O15" s="6">
         <v>10</v>
       </c>
       <c r="P15">
@@ -1373,26 +1559,37 @@
         <v>165</v>
       </c>
       <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y15">
+        <v>15</v>
+      </c>
+      <c r="Z15">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11</v>
-      </c>
-      <c r="U15" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000</v>
-      </c>
-      <c r="V15" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000</v>
-      </c>
-      <c r="W15" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165</v>
-      </c>
-      <c r="X15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="AA15" s="6">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F16" s="5">
         <v>202</v>
       </c>
@@ -1407,8 +1604,12 @@
         <v>11</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" ref="K16:K79" si="3">K6+1000</f>
-        <v>6000</v>
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="N16">
+        <f>SUM(M$5:$M16)</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="O16">
         <v>11</v>
@@ -1426,26 +1627,37 @@
         <v>180</v>
       </c>
       <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180</v>
+      </c>
+      <c r="X16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y16">
+        <v>15</v>
+      </c>
+      <c r="Z16">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12</v>
-      </c>
-      <c r="U16" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000</v>
-      </c>
-      <c r="V16" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000</v>
-      </c>
-      <c r="W16" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180</v>
-      </c>
-      <c r="X16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="AA16">
+        <f t="shared" si="4"/>
+        <v>3.8461538461538463</v>
+      </c>
+    </row>
+    <row r="17" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F17" s="5">
         <v>203</v>
       </c>
@@ -1460,8 +1672,12 @@
         <v>12</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
-        <v>6000</v>
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="N17">
+        <f>SUM(M$5:$M17)</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="O17">
         <v>12</v>
@@ -1479,26 +1695,37 @@
         <v>195</v>
       </c>
       <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195</v>
+      </c>
+      <c r="X17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y17">
+        <v>15</v>
+      </c>
+      <c r="Z17">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13</v>
-      </c>
-      <c r="U17" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000</v>
-      </c>
-      <c r="V17" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000</v>
-      </c>
-      <c r="W17" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195</v>
-      </c>
-      <c r="X17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="6:24" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="4"/>
+        <v>3.7037037037037037</v>
+      </c>
+    </row>
+    <row r="18" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F18" s="5">
         <v>204</v>
       </c>
@@ -1513,8 +1740,12 @@
         <v>13</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
-        <v>6000</v>
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="N18">
+        <f>SUM(M$5:$M18)</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="O18">
         <v>13</v>
@@ -1532,26 +1763,37 @@
         <v>210</v>
       </c>
       <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210</v>
+      </c>
+      <c r="X18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y18">
+        <v>15</v>
+      </c>
+      <c r="Z18">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14</v>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000</v>
-      </c>
-      <c r="V18" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000</v>
-      </c>
-      <c r="W18" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210</v>
-      </c>
-      <c r="X18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="6:24" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="4"/>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="19" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F19" s="5">
         <v>205</v>
       </c>
@@ -1566,8 +1808,12 @@
         <v>14</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
-        <v>6000</v>
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="N19">
+        <f>SUM(M$5:$M19)</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="O19">
         <v>14</v>
@@ -1585,26 +1831,37 @@
         <v>225</v>
       </c>
       <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225</v>
+      </c>
+      <c r="X19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y19">
+        <v>15</v>
+      </c>
+      <c r="Z19">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15</v>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000</v>
-      </c>
-      <c r="V19" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000</v>
-      </c>
-      <c r="W19" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225</v>
-      </c>
-      <c r="X19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="6:24" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="4"/>
+        <v>3.4482758620689653</v>
+      </c>
+    </row>
+    <row r="20" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F20" s="5">
         <v>206</v>
       </c>
@@ -1619,10 +1876,22 @@
         <v>15</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
-        <v>6000</v>
-      </c>
-      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>4000</v>
+      </c>
+      <c r="L20" s="1">
+        <f>SUM(K20:K24)</f>
+        <v>20000</v>
+      </c>
+      <c r="M20">
+        <f>L20*4/$H$25</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="N20">
+        <f>SUM(M$5:$M20)</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="O20" s="6">
         <v>15</v>
       </c>
       <c r="P20">
@@ -1638,26 +1907,37 @@
         <v>240</v>
       </c>
       <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240</v>
+      </c>
+      <c r="X20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y20">
+        <v>20</v>
+      </c>
+      <c r="Z20">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16</v>
-      </c>
-      <c r="U20" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000</v>
-      </c>
-      <c r="V20" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000</v>
-      </c>
-      <c r="W20" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240</v>
-      </c>
-      <c r="X20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="6:24" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="AA20" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F21" s="5">
         <v>207</v>
       </c>
@@ -1672,8 +1952,12 @@
         <v>16</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
-        <v>6000</v>
+        <f t="shared" si="5"/>
+        <v>4000</v>
+      </c>
+      <c r="N21">
+        <f>SUM(M$5:$M21)</f>
+        <v>5.5555555555555554</v>
       </c>
       <c r="O21">
         <v>16</v>
@@ -1691,26 +1975,37 @@
         <v>255</v>
       </c>
       <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255</v>
+      </c>
+      <c r="X21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y21">
+        <v>20</v>
+      </c>
+      <c r="Z21">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17</v>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000</v>
-      </c>
-      <c r="V21" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000</v>
-      </c>
-      <c r="W21" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255</v>
-      </c>
-      <c r="X21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="6:24" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="4"/>
+        <v>2.7777777777777777</v>
+      </c>
+    </row>
+    <row r="22" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F22" s="5">
         <v>208</v>
       </c>
@@ -1725,8 +2020,12 @@
         <v>17</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
-        <v>6000</v>
+        <f t="shared" si="5"/>
+        <v>4000</v>
+      </c>
+      <c r="N22">
+        <f>SUM(M$5:$M22)</f>
+        <v>5.5555555555555554</v>
       </c>
       <c r="O22">
         <v>17</v>
@@ -1744,26 +2043,37 @@
         <v>270</v>
       </c>
       <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270</v>
+      </c>
+      <c r="X22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y22">
+        <v>20</v>
+      </c>
+      <c r="Z22">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18</v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000</v>
-      </c>
-      <c r="V22" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000</v>
-      </c>
-      <c r="W22" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270</v>
-      </c>
-      <c r="X22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="6:24" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="4"/>
+        <v>2.7027027027027026</v>
+      </c>
+    </row>
+    <row r="23" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F23" s="5">
         <v>209</v>
       </c>
@@ -1778,8 +2088,12 @@
         <v>18</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
-        <v>6000</v>
+        <f t="shared" si="5"/>
+        <v>4000</v>
+      </c>
+      <c r="N23">
+        <f>SUM(M$5:$M23)</f>
+        <v>5.5555555555555554</v>
       </c>
       <c r="O23">
         <v>18</v>
@@ -1797,26 +2111,37 @@
         <v>285</v>
       </c>
       <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285</v>
+      </c>
+      <c r="X23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y23">
+        <v>20</v>
+      </c>
+      <c r="Z23">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19</v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000</v>
-      </c>
-      <c r="V23" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000</v>
-      </c>
-      <c r="W23" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285</v>
-      </c>
-      <c r="X23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="6:24" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="4"/>
+        <v>2.6315789473684212</v>
+      </c>
+    </row>
+    <row r="24" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F24" s="5">
         <v>210</v>
       </c>
@@ -1831,8 +2156,12 @@
         <v>19</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
-        <v>6000</v>
+        <f t="shared" si="5"/>
+        <v>4000</v>
+      </c>
+      <c r="N24">
+        <f>SUM(M$5:$M24)</f>
+        <v>5.5555555555555554</v>
       </c>
       <c r="O24">
         <v>19</v>
@@ -1850,26 +2179,37 @@
         <v>300</v>
       </c>
       <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300</v>
+      </c>
+      <c r="X24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y24">
+        <v>20</v>
+      </c>
+      <c r="Z24">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2</v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000</v>
-      </c>
-      <c r="V24" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000</v>
-      </c>
-      <c r="W24" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300</v>
-      </c>
-      <c r="X24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="6:24" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="4"/>
+        <v>2.5641025641025643</v>
+      </c>
+    </row>
+    <row r="25" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F25" s="5">
         <v>211</v>
       </c>
@@ -1877,17 +2217,29 @@
         <v>1.2E-2</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:H43" si="4">G25*$A$11</f>
+        <f t="shared" si="1"/>
         <v>36000</v>
       </c>
       <c r="J25">
         <v>20</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
-        <v>7000</v>
-      </c>
-      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="L25" s="1">
+        <f>SUM(K25:K34)</f>
+        <v>55000</v>
+      </c>
+      <c r="M25">
+        <f>L25*4/$H$25</f>
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="N25">
+        <f>SUM(M$5:$M25)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="O25" s="6">
         <v>20</v>
       </c>
       <c r="P25">
@@ -1903,26 +2255,37 @@
         <v>315</v>
       </c>
       <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315</v>
+      </c>
+      <c r="X25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y25">
+        <v>30</v>
+      </c>
+      <c r="Z25">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000</v>
-      </c>
-      <c r="V25" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000</v>
-      </c>
-      <c r="W25" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315</v>
-      </c>
-      <c r="X25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="6:24" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="AA25" s="6">
+        <f t="shared" si="4"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="26" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F26" s="5">
         <v>212</v>
       </c>
@@ -1930,15 +2293,19 @@
         <v>1.21E-2</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>36300</v>
       </c>
       <c r="J26">
         <v>21</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
-        <v>7000</v>
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="N26">
+        <f>SUM(M$5:$M26)</f>
+        <v>11.666666666666666</v>
       </c>
       <c r="O26">
         <v>21</v>
@@ -1956,26 +2323,37 @@
         <v>330</v>
       </c>
       <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330</v>
+      </c>
+      <c r="X26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y26">
+        <v>30</v>
+      </c>
+      <c r="Z26">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22</v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000</v>
-      </c>
-      <c r="V26" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000</v>
-      </c>
-      <c r="W26" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330</v>
-      </c>
-      <c r="X26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="6:24" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="4"/>
+        <v>1.9607843137254901</v>
+      </c>
+    </row>
+    <row r="27" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F27" s="5">
         <v>213</v>
       </c>
@@ -1983,15 +2361,19 @@
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>36600</v>
       </c>
       <c r="J27">
         <v>22</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
-        <v>7000</v>
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="N27">
+        <f>SUM(M$5:$M27)</f>
+        <v>11.666666666666666</v>
       </c>
       <c r="O27">
         <v>22</v>
@@ -2009,26 +2391,37 @@
         <v>345</v>
       </c>
       <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345</v>
+      </c>
+      <c r="X27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y27">
+        <v>30</v>
+      </c>
+      <c r="Z27">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000</v>
-      </c>
-      <c r="V27" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000</v>
-      </c>
-      <c r="W27" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345</v>
-      </c>
-      <c r="X27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="6:24" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="4"/>
+        <v>1.9230769230769231</v>
+      </c>
+    </row>
+    <row r="28" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F28" s="5">
         <v>214</v>
       </c>
@@ -2036,15 +2429,19 @@
         <v>1.23E-2</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>36900</v>
       </c>
       <c r="J28">
         <v>23</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
-        <v>7000</v>
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="N28">
+        <f>SUM(M$5:$M28)</f>
+        <v>11.666666666666666</v>
       </c>
       <c r="O28">
         <v>23</v>
@@ -2062,26 +2459,37 @@
         <v>360</v>
       </c>
       <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360</v>
+      </c>
+      <c r="X28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y28">
+        <v>30</v>
+      </c>
+      <c r="Z28">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000</v>
-      </c>
-      <c r="V28" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000</v>
-      </c>
-      <c r="W28" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360</v>
-      </c>
-      <c r="X28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="6:24" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="4"/>
+        <v>1.8867924528301887</v>
+      </c>
+    </row>
+    <row r="29" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F29" s="5">
         <v>215</v>
       </c>
@@ -2089,15 +2497,19 @@
         <v>1.24E-2</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>37200</v>
       </c>
       <c r="J29">
         <v>24</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
-        <v>7000</v>
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="N29">
+        <f>SUM(M$5:$M29)</f>
+        <v>11.666666666666666</v>
       </c>
       <c r="O29">
         <v>24</v>
@@ -2115,26 +2527,37 @@
         <v>375</v>
       </c>
       <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375</v>
+      </c>
+      <c r="X29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y29">
+        <v>30</v>
+      </c>
+      <c r="Z29">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25</v>
-      </c>
-      <c r="U29" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000</v>
-      </c>
-      <c r="V29" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000</v>
-      </c>
-      <c r="W29" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375</v>
-      </c>
-      <c r="X29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="6:24" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="4"/>
+        <v>1.8518518518518519</v>
+      </c>
+    </row>
+    <row r="30" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F30" s="5">
         <v>216</v>
       </c>
@@ -2142,15 +2565,19 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>37500</v>
       </c>
       <c r="J30">
         <v>25</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
-        <v>7000</v>
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="N30">
+        <f>SUM(M$5:$M30)</f>
+        <v>11.666666666666666</v>
       </c>
       <c r="O30">
         <v>25</v>
@@ -2168,26 +2595,37 @@
         <v>390</v>
       </c>
       <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390</v>
+      </c>
+      <c r="X30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y30">
+        <v>30</v>
+      </c>
+      <c r="Z30">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000</v>
-      </c>
-      <c r="V30" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000</v>
-      </c>
-      <c r="W30" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390</v>
-      </c>
-      <c r="X30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="6:24" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="4"/>
+        <v>1.8181818181818181</v>
+      </c>
+    </row>
+    <row r="31" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F31" s="5">
         <v>217</v>
       </c>
@@ -2195,15 +2633,19 @@
         <v>1.26E-2</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>37800</v>
       </c>
       <c r="J31">
         <v>26</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
-        <v>7000</v>
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="N31">
+        <f>SUM(M$5:$M31)</f>
+        <v>11.666666666666666</v>
       </c>
       <c r="O31">
         <v>26</v>
@@ -2221,26 +2663,37 @@
         <v>405</v>
       </c>
       <c r="T31" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405</v>
+      </c>
+      <c r="X31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y31">
+        <v>30</v>
+      </c>
+      <c r="Z31">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27</v>
-      </c>
-      <c r="U31" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000</v>
-      </c>
-      <c r="V31" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000</v>
-      </c>
-      <c r="W31" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405</v>
-      </c>
-      <c r="X31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="6:24" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="4"/>
+        <v>1.7857142857142858</v>
+      </c>
+    </row>
+    <row r="32" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F32" s="5">
         <v>218</v>
       </c>
@@ -2248,15 +2701,19 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>38100</v>
       </c>
       <c r="J32">
         <v>27</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
-        <v>7000</v>
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="N32">
+        <f>SUM(M$5:$M32)</f>
+        <v>11.666666666666666</v>
       </c>
       <c r="O32">
         <v>27</v>
@@ -2274,26 +2731,37 @@
         <v>420</v>
       </c>
       <c r="T32" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420</v>
+      </c>
+      <c r="X32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y32">
+        <v>30</v>
+      </c>
+      <c r="Z32">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28</v>
-      </c>
-      <c r="U32" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000</v>
-      </c>
-      <c r="V32" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000</v>
-      </c>
-      <c r="W32" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420</v>
-      </c>
-      <c r="X32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="6:24" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="4"/>
+        <v>1.7543859649122806</v>
+      </c>
+    </row>
+    <row r="33" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F33" s="5">
         <v>219</v>
       </c>
@@ -2301,15 +2769,19 @@
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>38400</v>
       </c>
       <c r="J33">
         <v>28</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
-        <v>7000</v>
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="N33">
+        <f>SUM(M$5:$M33)</f>
+        <v>11.666666666666666</v>
       </c>
       <c r="O33">
         <v>28</v>
@@ -2327,26 +2799,37 @@
         <v>435</v>
       </c>
       <c r="T33" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435</v>
+      </c>
+      <c r="X33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y33">
+        <v>30</v>
+      </c>
+      <c r="Z33">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29</v>
-      </c>
-      <c r="U33" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000</v>
-      </c>
-      <c r="V33" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000</v>
-      </c>
-      <c r="W33" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435</v>
-      </c>
-      <c r="X33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="6:24" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="4"/>
+        <v>1.7241379310344827</v>
+      </c>
+    </row>
+    <row r="34" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F34" s="5">
         <v>220</v>
       </c>
@@ -2354,15 +2837,19 @@
         <v>1.29E-2</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>38700</v>
       </c>
       <c r="J34">
         <v>29</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
-        <v>7000</v>
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="N34">
+        <f>SUM(M$5:$M34)</f>
+        <v>11.666666666666666</v>
       </c>
       <c r="O34">
         <v>29</v>
@@ -2380,26 +2867,37 @@
         <v>450</v>
       </c>
       <c r="T34" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450</v>
+      </c>
+      <c r="X34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y34">
+        <v>30</v>
+      </c>
+      <c r="Z34">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3</v>
-      </c>
-      <c r="U34" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000</v>
-      </c>
-      <c r="V34" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000</v>
-      </c>
-      <c r="W34" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450</v>
-      </c>
-      <c r="X34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="6:24" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="4"/>
+        <v>1.6949152542372881</v>
+      </c>
+    </row>
+    <row r="35" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F35" s="5">
         <v>221</v>
       </c>
@@ -2407,17 +2905,29 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>39000</v>
       </c>
       <c r="J35">
         <v>30</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
-        <v>8000</v>
-      </c>
-      <c r="O35">
+        <f t="shared" si="5"/>
+        <v>7000</v>
+      </c>
+      <c r="L35" s="1">
+        <f>SUM(K35:K44)</f>
+        <v>75000</v>
+      </c>
+      <c r="M35">
+        <f>L35*4/$H$25</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="N35">
+        <f>SUM(M$5:$M35)</f>
+        <v>20</v>
+      </c>
+      <c r="O35" s="6">
         <v>30</v>
       </c>
       <c r="P35">
@@ -2433,26 +2943,37 @@
         <v>465</v>
       </c>
       <c r="T35" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465</v>
+      </c>
+      <c r="X35" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y35">
+        <v>45</v>
+      </c>
+      <c r="Z35">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31</v>
-      </c>
-      <c r="U35" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000</v>
-      </c>
-      <c r="V35" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000</v>
-      </c>
-      <c r="W35" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465</v>
-      </c>
-      <c r="X35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="6:24" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="AA35" s="6">
+        <f t="shared" si="4"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="36" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F36" s="5">
         <v>222</v>
       </c>
@@ -2460,15 +2981,19 @@
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>39300</v>
       </c>
       <c r="J36">
         <v>31</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
-        <v>8000</v>
+        <f t="shared" si="5"/>
+        <v>7000</v>
+      </c>
+      <c r="N36">
+        <f>SUM(M$5:$M36)</f>
+        <v>20</v>
       </c>
       <c r="O36">
         <v>31</v>
@@ -2486,26 +3011,37 @@
         <v>480</v>
       </c>
       <c r="T36" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32</v>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480</v>
+      </c>
+      <c r="X36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y36">
+        <v>45</v>
+      </c>
+      <c r="Z36">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32</v>
-      </c>
-      <c r="U36" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000</v>
-      </c>
-      <c r="V36" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000</v>
-      </c>
-      <c r="W36" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480</v>
-      </c>
-      <c r="X36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="6:24" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="4"/>
+        <v>1.3157894736842106</v>
+      </c>
+    </row>
+    <row r="37" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F37" s="5">
         <v>223</v>
       </c>
@@ -2513,15 +3049,19 @@
         <v>1.32E-2</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>39600</v>
       </c>
       <c r="J37">
         <v>32</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
-        <v>8000</v>
+        <f t="shared" si="5"/>
+        <v>7000</v>
+      </c>
+      <c r="N37">
+        <f>SUM(M$5:$M37)</f>
+        <v>20</v>
       </c>
       <c r="O37">
         <v>32</v>
@@ -2539,26 +3079,37 @@
         <v>495</v>
       </c>
       <c r="T37" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33</v>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="3"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="3"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495</v>
+      </c>
+      <c r="X37" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y37">
+        <v>45</v>
+      </c>
+      <c r="Z37">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33</v>
-      </c>
-      <c r="U37" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000</v>
-      </c>
-      <c r="V37" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000</v>
-      </c>
-      <c r="W37" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495</v>
-      </c>
-      <c r="X37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="6:24" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="4"/>
+        <v>1.2987012987012987</v>
+      </c>
+    </row>
+    <row r="38" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F38" s="5">
         <v>224</v>
       </c>
@@ -2566,15 +3117,19 @@
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>39900</v>
       </c>
       <c r="J38">
         <v>33</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
-        <v>8000</v>
+        <f t="shared" si="5"/>
+        <v>7000</v>
+      </c>
+      <c r="N38">
+        <f>SUM(M$5:$M38)</f>
+        <v>20</v>
       </c>
       <c r="O38">
         <v>33</v>
@@ -2592,26 +3147,37 @@
         <v>510</v>
       </c>
       <c r="T38" t="str">
+        <f t="shared" ref="T38:W69" si="6">T37&amp;","&amp;P38</f>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34</v>
+      </c>
+      <c r="U38" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000</v>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000</v>
+      </c>
+      <c r="W38" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510</v>
+      </c>
+      <c r="X38" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y38">
+        <v>45</v>
+      </c>
+      <c r="Z38">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34</v>
-      </c>
-      <c r="U38" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000</v>
-      </c>
-      <c r="V38" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000</v>
-      </c>
-      <c r="W38" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510</v>
-      </c>
-      <c r="X38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="6:24" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="4"/>
+        <v>1.2820512820512822</v>
+      </c>
+    </row>
+    <row r="39" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F39" s="5">
         <v>225</v>
       </c>
@@ -2619,15 +3185,19 @@
         <v>1.34E-2</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>40200</v>
       </c>
       <c r="J39">
         <v>34</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="3"/>
-        <v>8000</v>
+        <f t="shared" si="5"/>
+        <v>7000</v>
+      </c>
+      <c r="N39">
+        <f>SUM(M$5:$M39)</f>
+        <v>20</v>
       </c>
       <c r="O39">
         <v>34</v>
@@ -2645,26 +3215,37 @@
         <v>525</v>
       </c>
       <c r="T39" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35</v>
+      </c>
+      <c r="U39" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000</v>
+      </c>
+      <c r="V39" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525</v>
+      </c>
+      <c r="X39" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y39">
+        <v>45</v>
+      </c>
+      <c r="Z39">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35</v>
-      </c>
-      <c r="U39" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000</v>
-      </c>
-      <c r="V39" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000</v>
-      </c>
-      <c r="W39" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525</v>
-      </c>
-      <c r="X39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="6:24" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="4"/>
+        <v>1.2658227848101267</v>
+      </c>
+    </row>
+    <row r="40" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F40" s="5">
         <v>226</v>
       </c>
@@ -2672,15 +3253,19 @@
         <v>1.35E-2</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>40500</v>
       </c>
       <c r="J40">
         <v>35</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8000</v>
+      </c>
+      <c r="N40">
+        <f>SUM(M$5:$M40)</f>
+        <v>20</v>
       </c>
       <c r="O40">
         <v>35</v>
@@ -2698,26 +3283,37 @@
         <v>540</v>
       </c>
       <c r="T40" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000</v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540</v>
+      </c>
+      <c r="X40" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y40">
+        <v>45</v>
+      </c>
+      <c r="Z40">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36</v>
-      </c>
-      <c r="U40" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000</v>
-      </c>
-      <c r="V40" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000</v>
-      </c>
-      <c r="W40" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540</v>
-      </c>
-      <c r="X40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="6:24" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="41" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F41" s="5">
         <v>227</v>
       </c>
@@ -2725,15 +3321,19 @@
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>40800</v>
       </c>
       <c r="J41">
         <v>36</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8000</v>
+      </c>
+      <c r="N41">
+        <f>SUM(M$5:$M41)</f>
+        <v>20</v>
       </c>
       <c r="O41">
         <v>36</v>
@@ -2751,26 +3351,37 @@
         <v>555</v>
       </c>
       <c r="T41" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37</v>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555</v>
+      </c>
+      <c r="X41" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y41">
+        <v>45</v>
+      </c>
+      <c r="Z41">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37</v>
-      </c>
-      <c r="U41" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000</v>
-      </c>
-      <c r="V41" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000</v>
-      </c>
-      <c r="W41" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555</v>
-      </c>
-      <c r="X41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="6:24" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="4"/>
+        <v>1.2345679012345678</v>
+      </c>
+    </row>
+    <row r="42" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F42" s="5">
         <v>228</v>
       </c>
@@ -2778,15 +3389,19 @@
         <v>1.37E-2</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>41100</v>
       </c>
       <c r="J42">
         <v>37</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8000</v>
+      </c>
+      <c r="N42">
+        <f>SUM(M$5:$M42)</f>
+        <v>20</v>
       </c>
       <c r="O42">
         <v>37</v>
@@ -2804,26 +3419,37 @@
         <v>570</v>
       </c>
       <c r="T42" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570</v>
+      </c>
+      <c r="X42" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y42">
+        <v>45</v>
+      </c>
+      <c r="Z42">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38</v>
-      </c>
-      <c r="U42" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000</v>
-      </c>
-      <c r="V42" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000</v>
-      </c>
-      <c r="W42" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570</v>
-      </c>
-      <c r="X42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="6:24" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="4"/>
+        <v>1.2195121951219512</v>
+      </c>
+    </row>
+    <row r="43" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F43" s="5">
         <v>229</v>
       </c>
@@ -2831,15 +3457,19 @@
         <v>1.38E-2</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>41400</v>
       </c>
       <c r="J43">
         <v>38</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8000</v>
+      </c>
+      <c r="N43">
+        <f>SUM(M$5:$M43)</f>
+        <v>20</v>
       </c>
       <c r="O43">
         <v>38</v>
@@ -2857,26 +3487,37 @@
         <v>585</v>
       </c>
       <c r="T43" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39</v>
+      </c>
+      <c r="U43" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585</v>
+      </c>
+      <c r="X43" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y43">
+        <v>45</v>
+      </c>
+      <c r="Z43">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39</v>
-      </c>
-      <c r="U43" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000</v>
-      </c>
-      <c r="V43" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000</v>
-      </c>
-      <c r="W43" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585</v>
-      </c>
-      <c r="X43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="6:24" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="4"/>
+        <v>1.2048192771084338</v>
+      </c>
+    </row>
+    <row r="44" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F44" s="5">
         <v>230</v>
       </c>
@@ -2891,8 +3532,12 @@
         <v>39</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8000</v>
+      </c>
+      <c r="N44">
+        <f>SUM(M$5:$M44)</f>
+        <v>20</v>
       </c>
       <c r="O44">
         <v>39</v>
@@ -2910,26 +3555,37 @@
         <v>600</v>
       </c>
       <c r="T44" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4</v>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600</v>
+      </c>
+      <c r="X44" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y44">
+        <v>45</v>
+      </c>
+      <c r="Z44">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4</v>
-      </c>
-      <c r="U44" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000</v>
-      </c>
-      <c r="V44" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000</v>
-      </c>
-      <c r="W44" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600</v>
-      </c>
-      <c r="X44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="6:24" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="4"/>
+        <v>1.1904761904761905</v>
+      </c>
+    </row>
+    <row r="45" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F45" s="5">
         <v>231</v>
       </c>
@@ -2944,10 +3600,22 @@
         <v>40</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9000</v>
       </c>
-      <c r="O45">
+      <c r="L45" s="1">
+        <f>SUM(K45:K54)</f>
+        <v>95000</v>
+      </c>
+      <c r="M45">
+        <f>L45*4/$H$25</f>
+        <v>10.555555555555555</v>
+      </c>
+      <c r="N45">
+        <f>SUM(M$5:$M45)</f>
+        <v>30.555555555555557</v>
+      </c>
+      <c r="O45" s="6">
         <v>40</v>
       </c>
       <c r="P45">
@@ -2963,33 +3631,48 @@
         <v>615</v>
       </c>
       <c r="T45" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41</v>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000</v>
+      </c>
+      <c r="W45" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615</v>
+      </c>
+      <c r="X45" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y45">
+        <v>65</v>
+      </c>
+      <c r="Z45">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41</v>
-      </c>
-      <c r="U45" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000</v>
-      </c>
-      <c r="V45" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000</v>
-      </c>
-      <c r="W45" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615</v>
-      </c>
-      <c r="X45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="6:24" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="AA45" s="6">
+        <f t="shared" si="4"/>
+        <v>24.705882352941178</v>
+      </c>
+    </row>
+    <row r="46" spans="6:27" x14ac:dyDescent="0.3">
       <c r="H46" s="1"/>
       <c r="J46">
         <v>41</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9000</v>
+      </c>
+      <c r="N46">
+        <f>SUM(M$5:$M46)</f>
+        <v>30.555555555555557</v>
       </c>
       <c r="O46">
         <v>41</v>
@@ -3007,33 +3690,48 @@
         <v>630</v>
       </c>
       <c r="T46" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42</v>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000</v>
+      </c>
+      <c r="V46" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000</v>
+      </c>
+      <c r="W46" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630</v>
+      </c>
+      <c r="X46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y46">
+        <v>65</v>
+      </c>
+      <c r="Z46">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42</v>
-      </c>
-      <c r="U46" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000</v>
-      </c>
-      <c r="V46" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000</v>
-      </c>
-      <c r="W46" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630</v>
-      </c>
-      <c r="X46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="6:24" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="4"/>
+        <v>0.94339622641509435</v>
+      </c>
+    </row>
+    <row r="47" spans="6:27" x14ac:dyDescent="0.3">
       <c r="H47" s="1"/>
       <c r="J47">
         <v>42</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9000</v>
+      </c>
+      <c r="N47">
+        <f>SUM(M$5:$M47)</f>
+        <v>30.555555555555557</v>
       </c>
       <c r="O47">
         <v>42</v>
@@ -3051,33 +3749,48 @@
         <v>645</v>
       </c>
       <c r="T47" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000</v>
+      </c>
+      <c r="V47" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645</v>
+      </c>
+      <c r="X47" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y47">
+        <v>65</v>
+      </c>
+      <c r="Z47">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43</v>
-      </c>
-      <c r="U47" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000</v>
-      </c>
-      <c r="V47" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000</v>
-      </c>
-      <c r="W47" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645</v>
-      </c>
-      <c r="X47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="6:24" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="4"/>
+        <v>0.93457943925233644</v>
+      </c>
+    </row>
+    <row r="48" spans="6:27" x14ac:dyDescent="0.3">
       <c r="H48" s="1"/>
       <c r="J48">
         <v>43</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9000</v>
+      </c>
+      <c r="N48">
+        <f>SUM(M$5:$M48)</f>
+        <v>30.555555555555557</v>
       </c>
       <c r="O48">
         <v>43</v>
@@ -3095,32 +3808,47 @@
         <v>660</v>
       </c>
       <c r="T48" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44</v>
+      </c>
+      <c r="U48" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000</v>
+      </c>
+      <c r="V48" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000</v>
+      </c>
+      <c r="W48" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660</v>
+      </c>
+      <c r="X48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y48">
+        <v>65</v>
+      </c>
+      <c r="Z48">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44</v>
-      </c>
-      <c r="U48" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000</v>
-      </c>
-      <c r="V48" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000</v>
-      </c>
-      <c r="W48" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660</v>
-      </c>
-      <c r="X48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="10:24" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="4"/>
+        <v>0.92592592592592593</v>
+      </c>
+    </row>
+    <row r="49" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J49">
         <v>44</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9000</v>
+      </c>
+      <c r="N49">
+        <f>SUM(M$5:$M49)</f>
+        <v>30.555555555555557</v>
       </c>
       <c r="O49">
         <v>44</v>
@@ -3138,32 +3866,47 @@
         <v>675</v>
       </c>
       <c r="T49" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45</v>
+      </c>
+      <c r="U49" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000</v>
+      </c>
+      <c r="V49" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000</v>
+      </c>
+      <c r="W49" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675</v>
+      </c>
+      <c r="X49" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y49">
+        <v>65</v>
+      </c>
+      <c r="Z49">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45</v>
-      </c>
-      <c r="U49" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000</v>
-      </c>
-      <c r="V49" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000</v>
-      </c>
-      <c r="W49" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675</v>
-      </c>
-      <c r="X49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="10:24" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="4"/>
+        <v>0.91743119266055051</v>
+      </c>
+    </row>
+    <row r="50" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J50">
         <v>45</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="3"/>
-        <v>9000</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="N50">
+        <f>SUM(M$5:$M50)</f>
+        <v>30.555555555555557</v>
       </c>
       <c r="O50">
         <v>45</v>
@@ -3181,32 +3924,47 @@
         <v>690</v>
       </c>
       <c r="T50" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46</v>
+      </c>
+      <c r="U50" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000</v>
+      </c>
+      <c r="V50" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000</v>
+      </c>
+      <c r="W50" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690</v>
+      </c>
+      <c r="X50" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y50">
+        <v>65</v>
+      </c>
+      <c r="Z50">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46</v>
-      </c>
-      <c r="U50" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000</v>
-      </c>
-      <c r="V50" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000</v>
-      </c>
-      <c r="W50" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690</v>
-      </c>
-      <c r="X50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="10:24" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="4"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="51" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J51">
         <v>46</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="3"/>
-        <v>9000</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="N51">
+        <f>SUM(M$5:$M51)</f>
+        <v>30.555555555555557</v>
       </c>
       <c r="O51">
         <v>46</v>
@@ -3224,32 +3982,47 @@
         <v>705</v>
       </c>
       <c r="T51" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47</v>
+      </c>
+      <c r="U51" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000</v>
+      </c>
+      <c r="V51" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000</v>
+      </c>
+      <c r="W51" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705</v>
+      </c>
+      <c r="X51" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y51">
+        <v>65</v>
+      </c>
+      <c r="Z51">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47</v>
-      </c>
-      <c r="U51" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000</v>
-      </c>
-      <c r="V51" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000</v>
-      </c>
-      <c r="W51" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705</v>
-      </c>
-      <c r="X51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="10:24" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="4"/>
+        <v>0.90090090090090091</v>
+      </c>
+    </row>
+    <row r="52" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J52">
         <v>47</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="3"/>
-        <v>9000</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="N52">
+        <f>SUM(M$5:$M52)</f>
+        <v>30.555555555555557</v>
       </c>
       <c r="O52">
         <v>47</v>
@@ -3267,32 +4040,47 @@
         <v>720</v>
       </c>
       <c r="T52" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48</v>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000</v>
+      </c>
+      <c r="W52" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720</v>
+      </c>
+      <c r="X52" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y52">
+        <v>65</v>
+      </c>
+      <c r="Z52">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48</v>
-      </c>
-      <c r="U52" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000</v>
-      </c>
-      <c r="V52" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000</v>
-      </c>
-      <c r="W52" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720</v>
-      </c>
-      <c r="X52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="10:24" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="4"/>
+        <v>0.8928571428571429</v>
+      </c>
+    </row>
+    <row r="53" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J53">
         <v>48</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="3"/>
-        <v>9000</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="N53">
+        <f>SUM(M$5:$M53)</f>
+        <v>30.555555555555557</v>
       </c>
       <c r="O53">
         <v>48</v>
@@ -3310,32 +4098,47 @@
         <v>735</v>
       </c>
       <c r="T53" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49</v>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000</v>
+      </c>
+      <c r="W53" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735</v>
+      </c>
+      <c r="X53" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y53">
+        <v>65</v>
+      </c>
+      <c r="Z53">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49</v>
-      </c>
-      <c r="U53" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000</v>
-      </c>
-      <c r="V53" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000</v>
-      </c>
-      <c r="W53" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735</v>
-      </c>
-      <c r="X53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="10:24" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="4"/>
+        <v>0.88495575221238942</v>
+      </c>
+    </row>
+    <row r="54" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J54">
         <v>49</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="3"/>
-        <v>9000</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="N54">
+        <f>SUM(M$5:$M54)</f>
+        <v>30.555555555555557</v>
       </c>
       <c r="O54">
         <v>49</v>
@@ -3353,42 +4156,57 @@
         <v>750</v>
       </c>
       <c r="T54" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5</v>
+      </c>
+      <c r="U54" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000</v>
+      </c>
+      <c r="V54" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000</v>
+      </c>
+      <c r="W54" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750</v>
+      </c>
+      <c r="X54" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y54">
+        <v>65</v>
+      </c>
+      <c r="Z54">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5</v>
-      </c>
-      <c r="U54" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000</v>
-      </c>
-      <c r="V54" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000</v>
-      </c>
-      <c r="W54" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750</v>
-      </c>
-      <c r="X54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="10:24" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="4"/>
+        <v>0.8771929824561403</v>
+      </c>
+    </row>
+    <row r="55" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J55" s="6">
         <v>50</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="3"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>11000</v>
       </c>
       <c r="L55" s="1">
-        <f>SUM(K55:K104)</f>
-        <v>600000</v>
+        <f>SUM(K55:K64)</f>
+        <v>115000</v>
       </c>
       <c r="M55">
-        <f>L55/$H$25</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="O55">
+        <f>L55*4/$H$25</f>
+        <v>12.777777777777779</v>
+      </c>
+      <c r="N55">
+        <f>SUM(M$5:$M55)</f>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="O55" s="6">
         <v>50</v>
       </c>
       <c r="P55">
@@ -3404,32 +4222,47 @@
         <v>765</v>
       </c>
       <c r="T55" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52</v>
+      </c>
+      <c r="U55" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000</v>
+      </c>
+      <c r="V55" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000</v>
+      </c>
+      <c r="W55" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765</v>
+      </c>
+      <c r="X55" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y55">
+        <v>90</v>
+      </c>
+      <c r="Z55">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52</v>
-      </c>
-      <c r="U55" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000</v>
-      </c>
-      <c r="V55" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000</v>
-      </c>
-      <c r="W55" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765</v>
-      </c>
-      <c r="X55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="10:24" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="AA55" s="6">
+        <f t="shared" si="4"/>
+        <v>23.478260869565219</v>
+      </c>
+    </row>
+    <row r="56" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J56">
         <v>51</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="3"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>11000</v>
+      </c>
+      <c r="N56">
+        <f>SUM(M$5:$M56)</f>
+        <v>43.333333333333336</v>
       </c>
       <c r="O56">
         <v>51</v>
@@ -3447,32 +4280,47 @@
         <v>780</v>
       </c>
       <c r="T56" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54</v>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000</v>
+      </c>
+      <c r="W56" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780</v>
+      </c>
+      <c r="X56" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y56">
+        <v>90</v>
+      </c>
+      <c r="Z56">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54</v>
-      </c>
-      <c r="U56" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000</v>
-      </c>
-      <c r="V56" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000</v>
-      </c>
-      <c r="W56" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780</v>
-      </c>
-      <c r="X56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="10:24" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="4"/>
+        <v>1.408450704225352</v>
+      </c>
+    </row>
+    <row r="57" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J57">
         <v>52</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="3"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>11000</v>
+      </c>
+      <c r="N57">
+        <f>SUM(M$5:$M57)</f>
+        <v>43.333333333333336</v>
       </c>
       <c r="O57">
         <v>52</v>
@@ -3490,32 +4338,47 @@
         <v>795</v>
       </c>
       <c r="T57" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56</v>
+      </c>
+      <c r="U57" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000</v>
+      </c>
+      <c r="V57" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000</v>
+      </c>
+      <c r="W57" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795</v>
+      </c>
+      <c r="X57" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y57">
+        <v>90</v>
+      </c>
+      <c r="Z57">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56</v>
-      </c>
-      <c r="U57" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000</v>
-      </c>
-      <c r="V57" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000</v>
-      </c>
-      <c r="W57" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795</v>
-      </c>
-      <c r="X57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="10:24" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="4"/>
+        <v>1.3888888888888888</v>
+      </c>
+    </row>
+    <row r="58" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J58">
         <v>53</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="3"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>11000</v>
+      </c>
+      <c r="N58">
+        <f>SUM(M$5:$M58)</f>
+        <v>43.333333333333336</v>
       </c>
       <c r="O58">
         <v>53</v>
@@ -3533,32 +4396,47 @@
         <v>810</v>
       </c>
       <c r="T58" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58</v>
+      </c>
+      <c r="U58" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000</v>
+      </c>
+      <c r="V58" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000</v>
+      </c>
+      <c r="W58" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810</v>
+      </c>
+      <c r="X58" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y58">
+        <v>90</v>
+      </c>
+      <c r="Z58">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58</v>
-      </c>
-      <c r="U58" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000</v>
-      </c>
-      <c r="V58" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000</v>
-      </c>
-      <c r="W58" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810</v>
-      </c>
-      <c r="X58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="10:24" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="4"/>
+        <v>1.3698630136986301</v>
+      </c>
+    </row>
+    <row r="59" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J59">
         <v>54</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="3"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>11000</v>
+      </c>
+      <c r="N59">
+        <f>SUM(M$5:$M59)</f>
+        <v>43.333333333333336</v>
       </c>
       <c r="O59">
         <v>54</v>
@@ -3576,32 +4454,47 @@
         <v>825</v>
       </c>
       <c r="T59" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6</v>
+      </c>
+      <c r="U59" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000</v>
+      </c>
+      <c r="V59" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000</v>
+      </c>
+      <c r="W59" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825</v>
+      </c>
+      <c r="X59" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y59">
+        <v>90</v>
+      </c>
+      <c r="Z59">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6</v>
-      </c>
-      <c r="U59" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000</v>
-      </c>
-      <c r="V59" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000</v>
-      </c>
-      <c r="W59" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825</v>
-      </c>
-      <c r="X59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="10:24" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="4"/>
+        <v>1.3513513513513513</v>
+      </c>
+    </row>
+    <row r="60" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J60">
         <v>55</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="3"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+      <c r="N60">
+        <f>SUM(M$5:$M60)</f>
+        <v>43.333333333333336</v>
       </c>
       <c r="O60">
         <v>55</v>
@@ -3619,32 +4512,47 @@
         <v>840</v>
       </c>
       <c r="T60" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62</v>
+      </c>
+      <c r="U60" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000</v>
+      </c>
+      <c r="V60" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000</v>
+      </c>
+      <c r="W60" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840</v>
+      </c>
+      <c r="X60" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y60">
+        <v>90</v>
+      </c>
+      <c r="Z60">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62</v>
-      </c>
-      <c r="U60" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000</v>
-      </c>
-      <c r="V60" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000</v>
-      </c>
-      <c r="W60" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840</v>
-      </c>
-      <c r="X60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="10:24" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="61" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J61">
         <v>56</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="3"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+      <c r="N61">
+        <f>SUM(M$5:$M61)</f>
+        <v>43.333333333333336</v>
       </c>
       <c r="O61">
         <v>56</v>
@@ -3662,32 +4570,47 @@
         <v>855</v>
       </c>
       <c r="T61" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64</v>
+      </c>
+      <c r="U61" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000</v>
+      </c>
+      <c r="V61" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000</v>
+      </c>
+      <c r="W61" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855</v>
+      </c>
+      <c r="X61" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y61">
+        <v>90</v>
+      </c>
+      <c r="Z61">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64</v>
-      </c>
-      <c r="U61" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000</v>
-      </c>
-      <c r="V61" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000</v>
-      </c>
-      <c r="W61" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855</v>
-      </c>
-      <c r="X61" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="10:24" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="4"/>
+        <v>1.3157894736842106</v>
+      </c>
+    </row>
+    <row r="62" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J62">
         <v>57</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="3"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+      <c r="N62">
+        <f>SUM(M$5:$M62)</f>
+        <v>43.333333333333336</v>
       </c>
       <c r="O62">
         <v>57</v>
@@ -3705,32 +4628,47 @@
         <v>870</v>
       </c>
       <c r="T62" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66</v>
+      </c>
+      <c r="U62" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000</v>
+      </c>
+      <c r="V62" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000</v>
+      </c>
+      <c r="W62" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870</v>
+      </c>
+      <c r="X62" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y62">
+        <v>90</v>
+      </c>
+      <c r="Z62">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66</v>
-      </c>
-      <c r="U62" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000</v>
-      </c>
-      <c r="V62" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000</v>
-      </c>
-      <c r="W62" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870</v>
-      </c>
-      <c r="X62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="10:24" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="4"/>
+        <v>1.2987012987012987</v>
+      </c>
+    </row>
+    <row r="63" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J63">
         <v>58</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="3"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+      <c r="N63">
+        <f>SUM(M$5:$M63)</f>
+        <v>43.333333333333336</v>
       </c>
       <c r="O63">
         <v>58</v>
@@ -3748,32 +4686,47 @@
         <v>885</v>
       </c>
       <c r="T63" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68</v>
+      </c>
+      <c r="U63" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000</v>
+      </c>
+      <c r="V63" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000</v>
+      </c>
+      <c r="W63" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885</v>
+      </c>
+      <c r="X63" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y63">
+        <v>90</v>
+      </c>
+      <c r="Z63">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68</v>
-      </c>
-      <c r="U63" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000</v>
-      </c>
-      <c r="V63" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000</v>
-      </c>
-      <c r="W63" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885</v>
-      </c>
-      <c r="X63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="10:24" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="4"/>
+        <v>1.2820512820512822</v>
+      </c>
+    </row>
+    <row r="64" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J64">
         <v>59</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="3"/>
-        <v>10000</v>
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+      <c r="N64">
+        <f>SUM(M$5:$M64)</f>
+        <v>43.333333333333336</v>
       </c>
       <c r="O64">
         <v>59</v>
@@ -3791,34 +4744,57 @@
         <v>900</v>
       </c>
       <c r="T64" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7</v>
+      </c>
+      <c r="U64" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000</v>
+      </c>
+      <c r="V64" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000</v>
+      </c>
+      <c r="W64" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900</v>
+      </c>
+      <c r="X64" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y64">
+        <v>90</v>
+      </c>
+      <c r="Z64">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7</v>
-      </c>
-      <c r="U64" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000</v>
-      </c>
-      <c r="V64" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000</v>
-      </c>
-      <c r="W64" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900</v>
-      </c>
-      <c r="X64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="10:24" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="4"/>
+        <v>1.2658227848101267</v>
+      </c>
+    </row>
+    <row r="65" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J65">
         <v>60</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="3"/>
-        <v>11000</v>
-      </c>
-      <c r="O65">
+        <f t="shared" si="5"/>
+        <v>13000</v>
+      </c>
+      <c r="L65" s="1">
+        <f>SUM(K65:K74)</f>
+        <v>135000</v>
+      </c>
+      <c r="M65">
+        <f>L65*4/$H$25</f>
+        <v>15</v>
+      </c>
+      <c r="N65">
+        <f>SUM(M$5:$M65)</f>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="O65" s="6">
         <v>60</v>
       </c>
       <c r="P65">
@@ -3834,32 +4810,47 @@
         <v>915</v>
       </c>
       <c r="T65" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72</v>
+      </c>
+      <c r="U65" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000</v>
+      </c>
+      <c r="V65" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000</v>
+      </c>
+      <c r="W65" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915</v>
+      </c>
+      <c r="X65" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y65">
+        <v>120</v>
+      </c>
+      <c r="Z65">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72</v>
-      </c>
-      <c r="U65" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000</v>
-      </c>
-      <c r="V65" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000</v>
-      </c>
-      <c r="W65" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915</v>
-      </c>
-      <c r="X65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="10:24" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="AA65" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J66">
         <v>61</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="3"/>
-        <v>11000</v>
+        <f t="shared" si="5"/>
+        <v>13000</v>
+      </c>
+      <c r="N66">
+        <f>SUM(M$5:$M66)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="O66">
         <v>61</v>
@@ -3877,32 +4868,47 @@
         <v>930</v>
       </c>
       <c r="T66" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74</v>
+      </c>
+      <c r="U66" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000</v>
+      </c>
+      <c r="V66" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000</v>
+      </c>
+      <c r="W66" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930</v>
+      </c>
+      <c r="X66" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y66">
+        <v>120</v>
+      </c>
+      <c r="Z66">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74</v>
-      </c>
-      <c r="U66" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000</v>
-      </c>
-      <c r="V66" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000</v>
-      </c>
-      <c r="W66" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930</v>
-      </c>
-      <c r="X66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="10:24" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="4"/>
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="67" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J67">
         <v>62</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="3"/>
-        <v>11000</v>
+        <f t="shared" si="5"/>
+        <v>13000</v>
+      </c>
+      <c r="N67">
+        <f>SUM(M$5:$M67)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="O67">
         <v>62</v>
@@ -3920,32 +4926,47 @@
         <v>945</v>
       </c>
       <c r="T67" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76</v>
+      </c>
+      <c r="U67" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000</v>
+      </c>
+      <c r="V67" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000</v>
+      </c>
+      <c r="W67" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945</v>
+      </c>
+      <c r="X67" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y67">
+        <v>120</v>
+      </c>
+      <c r="Z67">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76</v>
-      </c>
-      <c r="U67" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000</v>
-      </c>
-      <c r="V67" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000</v>
-      </c>
-      <c r="W67" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945</v>
-      </c>
-      <c r="X67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="10:24" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="4"/>
+        <v>1.0309278350515463</v>
+      </c>
+    </row>
+    <row r="68" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J68">
         <v>63</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="3"/>
-        <v>11000</v>
+        <f t="shared" si="5"/>
+        <v>13000</v>
+      </c>
+      <c r="N68">
+        <f>SUM(M$5:$M68)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="O68">
         <v>63</v>
@@ -3963,32 +4984,47 @@
         <v>960</v>
       </c>
       <c r="T68" t="str">
+        <f t="shared" si="6"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78</v>
+      </c>
+      <c r="U68" t="str">
+        <f t="shared" si="6"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000</v>
+      </c>
+      <c r="V68" t="str">
+        <f t="shared" si="6"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000</v>
+      </c>
+      <c r="W68" t="str">
+        <f t="shared" si="6"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960</v>
+      </c>
+      <c r="X68" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y68">
+        <v>120</v>
+      </c>
+      <c r="Z68">
         <f t="shared" si="2"/>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78</v>
-      </c>
-      <c r="U68" t="str">
-        <f t="shared" si="2"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000</v>
-      </c>
-      <c r="V68" t="str">
-        <f t="shared" si="2"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000</v>
-      </c>
-      <c r="W68" t="str">
-        <f t="shared" si="2"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960</v>
-      </c>
-      <c r="X68" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="10:24" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="4"/>
+        <v>1.0204081632653061</v>
+      </c>
+    </row>
+    <row r="69" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J69">
         <v>64</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="3"/>
-        <v>11000</v>
+        <f t="shared" si="5"/>
+        <v>13000</v>
+      </c>
+      <c r="N69">
+        <f>SUM(M$5:$M69)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="O69">
         <v>64</v>
@@ -4006,32 +5042,47 @@
         <v>975</v>
       </c>
       <c r="T69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8</v>
       </c>
       <c r="U69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000</v>
       </c>
       <c r="V69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000</v>
       </c>
       <c r="W69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975</v>
       </c>
       <c r="X69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y69">
+        <v>120</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" ref="Z69:Z104" si="7">Y69+P69*100</f>
+        <v>200</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="4"/>
+        <v>1.0101010101010102</v>
+      </c>
+    </row>
+    <row r="70" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J70">
         <v>65</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="3"/>
-        <v>11000</v>
+        <f t="shared" si="5"/>
+        <v>14000</v>
+      </c>
+      <c r="N70">
+        <f>SUM(M$5:$M70)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="O70">
         <v>65</v>
@@ -4049,32 +5100,47 @@
         <v>990</v>
       </c>
       <c r="T70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T70:W104" si="8">T69&amp;","&amp;P70</f>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82</v>
       </c>
       <c r="U70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000</v>
       </c>
       <c r="V70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000</v>
       </c>
       <c r="W70" t="str">
-        <f t="shared" ref="W70" si="5">W69&amp;","&amp;S70</f>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990</v>
       </c>
       <c r="X70" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y70">
+        <v>120</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="7"/>
+        <v>202</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J71">
         <v>66</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="3"/>
-        <v>11000</v>
+        <f t="shared" si="5"/>
+        <v>14000</v>
+      </c>
+      <c r="N71">
+        <f>SUM(M$5:$M71)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="O71">
         <v>66</v>
@@ -4092,32 +5158,47 @@
         <v>1005</v>
       </c>
       <c r="T71" t="str">
-        <f t="shared" ref="T71:W104" si="6">T70&amp;","&amp;P71</f>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84</v>
       </c>
       <c r="U71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000</v>
       </c>
       <c r="V71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000</v>
       </c>
       <c r="W71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005</v>
       </c>
       <c r="X71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y71">
+        <v>120</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="7"/>
+        <v>204</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" ref="AA71:AA104" si="9">(Z71-Z70)*100/Z70</f>
+        <v>0.99009900990099009</v>
+      </c>
+    </row>
+    <row r="72" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J72">
         <v>67</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="3"/>
-        <v>11000</v>
+        <f t="shared" si="5"/>
+        <v>14000</v>
+      </c>
+      <c r="N72">
+        <f>SUM(M$5:$M72)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="O72">
         <v>67</v>
@@ -4135,32 +5216,47 @@
         <v>1020</v>
       </c>
       <c r="T72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86</v>
       </c>
       <c r="U72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000</v>
       </c>
       <c r="V72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000</v>
       </c>
       <c r="W72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020</v>
       </c>
       <c r="X72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y72">
+        <v>120</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="7"/>
+        <v>206</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="9"/>
+        <v>0.98039215686274506</v>
+      </c>
+    </row>
+    <row r="73" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J73">
         <v>68</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="3"/>
-        <v>11000</v>
+        <f t="shared" si="5"/>
+        <v>14000</v>
+      </c>
+      <c r="N73">
+        <f>SUM(M$5:$M73)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="O73">
         <v>68</v>
@@ -4178,32 +5274,47 @@
         <v>1035</v>
       </c>
       <c r="T73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88</v>
       </c>
       <c r="U73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000</v>
       </c>
       <c r="V73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000</v>
       </c>
       <c r="W73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035</v>
       </c>
       <c r="X73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y73">
+        <v>120</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="9"/>
+        <v>0.970873786407767</v>
+      </c>
+    </row>
+    <row r="74" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J74">
         <v>69</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="3"/>
-        <v>11000</v>
+        <f t="shared" si="5"/>
+        <v>14000</v>
+      </c>
+      <c r="N74">
+        <f>SUM(M$5:$M74)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="O74">
         <v>69</v>
@@ -4221,34 +5332,57 @@
         <v>1050</v>
       </c>
       <c r="T74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9</v>
       </c>
       <c r="U74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000</v>
       </c>
       <c r="V74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000</v>
       </c>
       <c r="W74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050</v>
       </c>
       <c r="X74" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y74">
+        <v>120</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="9"/>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="75" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J75">
         <v>70</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="3"/>
-        <v>12000</v>
-      </c>
-      <c r="O75">
+        <f t="shared" ref="K75:K104" si="10">K70+1000</f>
+        <v>15000</v>
+      </c>
+      <c r="L75" s="1">
+        <f>SUM(K75:K84)</f>
+        <v>155000</v>
+      </c>
+      <c r="M75">
+        <f>L75*4/$H$25</f>
+        <v>17.222222222222221</v>
+      </c>
+      <c r="N75">
+        <f>SUM(M$5:$M75)</f>
+        <v>75.555555555555557</v>
+      </c>
+      <c r="O75" s="6">
         <v>70</v>
       </c>
       <c r="P75">
@@ -4264,32 +5398,47 @@
         <v>1065</v>
       </c>
       <c r="T75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92</v>
       </c>
       <c r="U75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000</v>
       </c>
       <c r="V75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000</v>
       </c>
       <c r="W75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065</v>
       </c>
       <c r="X75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y75">
+        <v>160</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="7"/>
+        <v>252</v>
+      </c>
+      <c r="AA75" s="6">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J76">
         <v>71</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="3"/>
-        <v>12000</v>
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="N76">
+        <f>SUM(M$5:$M76)</f>
+        <v>75.555555555555557</v>
       </c>
       <c r="O76">
         <v>71</v>
@@ -4307,32 +5456,47 @@
         <v>1080</v>
       </c>
       <c r="T76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94</v>
       </c>
       <c r="U76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000</v>
       </c>
       <c r="V76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000</v>
       </c>
       <c r="W76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080</v>
       </c>
       <c r="X76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y76">
+        <v>160</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="7"/>
+        <v>254</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="9"/>
+        <v>0.79365079365079361</v>
+      </c>
+    </row>
+    <row r="77" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J77">
         <v>72</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="3"/>
-        <v>12000</v>
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="N77">
+        <f>SUM(M$5:$M77)</f>
+        <v>75.555555555555557</v>
       </c>
       <c r="O77">
         <v>72</v>
@@ -4350,32 +5514,47 @@
         <v>1095</v>
       </c>
       <c r="T77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96</v>
       </c>
       <c r="U77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000</v>
       </c>
       <c r="V77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000</v>
       </c>
       <c r="W77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095</v>
       </c>
       <c r="X77" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y77">
+        <v>160</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="7"/>
+        <v>256</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="9"/>
+        <v>0.78740157480314965</v>
+      </c>
+    </row>
+    <row r="78" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J78">
         <v>73</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="3"/>
-        <v>12000</v>
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="N78">
+        <f>SUM(M$5:$M78)</f>
+        <v>75.555555555555557</v>
       </c>
       <c r="O78">
         <v>73</v>
@@ -4393,32 +5572,47 @@
         <v>1110</v>
       </c>
       <c r="T78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98</v>
       </c>
       <c r="U78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000</v>
       </c>
       <c r="V78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000</v>
       </c>
       <c r="W78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110</v>
       </c>
       <c r="X78" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y78">
+        <v>160</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="7"/>
+        <v>258</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="9"/>
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="79" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J79">
         <v>74</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="3"/>
-        <v>12000</v>
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="N79">
+        <f>SUM(M$5:$M79)</f>
+        <v>75.555555555555557</v>
       </c>
       <c r="O79">
         <v>74</v>
@@ -4436,32 +5630,47 @@
         <v>1125</v>
       </c>
       <c r="T79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1</v>
       </c>
       <c r="U79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000</v>
       </c>
       <c r="V79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000</v>
       </c>
       <c r="W79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125</v>
       </c>
       <c r="X79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y79">
+        <v>160</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="7"/>
+        <v>260</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="9"/>
+        <v>0.77519379844961245</v>
+      </c>
+    </row>
+    <row r="80" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J80">
         <v>75</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" ref="K80:K104" si="7">K70+1000</f>
-        <v>12000</v>
+        <f t="shared" si="10"/>
+        <v>16000</v>
+      </c>
+      <c r="N80">
+        <f>SUM(M$5:$M80)</f>
+        <v>75.555555555555557</v>
       </c>
       <c r="O80">
         <v>75</v>
@@ -4479,32 +5688,47 @@
         <v>1140</v>
       </c>
       <c r="T80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02</v>
       </c>
       <c r="U80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000</v>
       </c>
       <c r="V80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000</v>
       </c>
       <c r="W80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140</v>
       </c>
       <c r="X80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y80">
+        <v>160</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="7"/>
+        <v>262</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="9"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="81" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J81">
         <v>76</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="7"/>
-        <v>12000</v>
+        <f t="shared" si="10"/>
+        <v>16000</v>
+      </c>
+      <c r="N81">
+        <f>SUM(M$5:$M81)</f>
+        <v>75.555555555555557</v>
       </c>
       <c r="O81">
         <v>76</v>
@@ -4522,32 +5746,47 @@
         <v>1155</v>
       </c>
       <c r="T81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04</v>
       </c>
       <c r="U81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000</v>
       </c>
       <c r="V81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000</v>
       </c>
       <c r="W81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155</v>
       </c>
       <c r="X81" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y81">
+        <v>160</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="7"/>
+        <v>264</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="9"/>
+        <v>0.76335877862595425</v>
+      </c>
+    </row>
+    <row r="82" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J82">
         <v>77</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="7"/>
-        <v>12000</v>
+        <f t="shared" si="10"/>
+        <v>16000</v>
+      </c>
+      <c r="N82">
+        <f>SUM(M$5:$M82)</f>
+        <v>75.555555555555557</v>
       </c>
       <c r="O82">
         <v>77</v>
@@ -4565,32 +5804,47 @@
         <v>1170</v>
       </c>
       <c r="T82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06</v>
       </c>
       <c r="U82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000</v>
       </c>
       <c r="V82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000</v>
       </c>
       <c r="W82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170</v>
       </c>
       <c r="X82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y82">
+        <v>160</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="7"/>
+        <v>266</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="9"/>
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="83" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J83">
         <v>78</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="7"/>
-        <v>12000</v>
+        <f t="shared" si="10"/>
+        <v>16000</v>
+      </c>
+      <c r="N83">
+        <f>SUM(M$5:$M83)</f>
+        <v>75.555555555555557</v>
       </c>
       <c r="O83">
         <v>78</v>
@@ -4608,32 +5862,47 @@
         <v>1185</v>
       </c>
       <c r="T83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08</v>
       </c>
       <c r="U83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000</v>
       </c>
       <c r="V83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000</v>
       </c>
       <c r="W83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185</v>
       </c>
       <c r="X83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y83">
+        <v>160</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="7"/>
+        <v>268</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="9"/>
+        <v>0.75187969924812026</v>
+      </c>
+    </row>
+    <row r="84" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J84">
         <v>79</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="7"/>
-        <v>12000</v>
+        <f t="shared" si="10"/>
+        <v>16000</v>
+      </c>
+      <c r="N84">
+        <f>SUM(M$5:$M84)</f>
+        <v>75.555555555555557</v>
       </c>
       <c r="O84">
         <v>79</v>
@@ -4651,34 +5920,57 @@
         <v>1200</v>
       </c>
       <c r="T84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1</v>
       </c>
       <c r="U84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000</v>
       </c>
       <c r="V84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000</v>
       </c>
       <c r="W84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200</v>
       </c>
       <c r="X84" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y84">
+        <v>160</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="7"/>
+        <v>270</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="9"/>
+        <v>0.74626865671641796</v>
+      </c>
+    </row>
+    <row r="85" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J85">
         <v>80</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="7"/>
-        <v>13000</v>
-      </c>
-      <c r="O85">
+        <f t="shared" si="10"/>
+        <v>17000</v>
+      </c>
+      <c r="L85" s="1">
+        <f>SUM(K85:K94)</f>
+        <v>175000</v>
+      </c>
+      <c r="M85">
+        <f>L85*4/$H$25</f>
+        <v>19.444444444444443</v>
+      </c>
+      <c r="N85">
+        <f>SUM(M$5:$M85)</f>
+        <v>95</v>
+      </c>
+      <c r="O85" s="6">
         <v>80</v>
       </c>
       <c r="P85">
@@ -4694,32 +5986,47 @@
         <v>1215</v>
       </c>
       <c r="T85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12</v>
       </c>
       <c r="U85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000</v>
       </c>
       <c r="V85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000</v>
       </c>
       <c r="W85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215</v>
       </c>
       <c r="X85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y85">
+        <v>230</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="7"/>
+        <v>342</v>
+      </c>
+      <c r="AA85" s="6">
+        <f t="shared" si="9"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="86" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J86">
         <v>81</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="7"/>
-        <v>13000</v>
+        <f t="shared" si="10"/>
+        <v>17000</v>
+      </c>
+      <c r="N86">
+        <f>SUM(M$5:$M86)</f>
+        <v>95</v>
       </c>
       <c r="O86">
         <v>81</v>
@@ -4737,32 +6044,47 @@
         <v>1230</v>
       </c>
       <c r="T86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14</v>
       </c>
       <c r="U86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000</v>
       </c>
       <c r="V86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000</v>
       </c>
       <c r="W86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230</v>
       </c>
       <c r="X86" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y86">
+        <v>230</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="7"/>
+        <v>344</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" si="9"/>
+        <v>0.58479532163742687</v>
+      </c>
+    </row>
+    <row r="87" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J87">
         <v>82</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="7"/>
-        <v>13000</v>
+        <f t="shared" si="10"/>
+        <v>17000</v>
+      </c>
+      <c r="N87">
+        <f>SUM(M$5:$M87)</f>
+        <v>95</v>
       </c>
       <c r="O87">
         <v>82</v>
@@ -4780,32 +6102,47 @@
         <v>1245</v>
       </c>
       <c r="T87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16</v>
       </c>
       <c r="U87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000</v>
       </c>
       <c r="V87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000</v>
       </c>
       <c r="W87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245</v>
       </c>
       <c r="X87" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y87">
+        <v>230</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="7"/>
+        <v>346</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="9"/>
+        <v>0.58139534883720934</v>
+      </c>
+    </row>
+    <row r="88" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J88">
         <v>83</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="7"/>
-        <v>13000</v>
+        <f t="shared" si="10"/>
+        <v>17000</v>
+      </c>
+      <c r="N88">
+        <f>SUM(M$5:$M88)</f>
+        <v>95</v>
       </c>
       <c r="O88">
         <v>83</v>
@@ -4823,32 +6160,47 @@
         <v>1260</v>
       </c>
       <c r="T88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18</v>
       </c>
       <c r="U88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000</v>
       </c>
       <c r="V88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000</v>
       </c>
       <c r="W88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260</v>
       </c>
       <c r="X88" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y88">
+        <v>230</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="7"/>
+        <v>348</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="9"/>
+        <v>0.5780346820809249</v>
+      </c>
+    </row>
+    <row r="89" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J89">
         <v>84</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="7"/>
-        <v>13000</v>
+        <f t="shared" si="10"/>
+        <v>17000</v>
+      </c>
+      <c r="N89">
+        <f>SUM(M$5:$M89)</f>
+        <v>95</v>
       </c>
       <c r="O89">
         <v>84</v>
@@ -4866,32 +6218,47 @@
         <v>1275</v>
       </c>
       <c r="T89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2</v>
       </c>
       <c r="U89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000</v>
       </c>
       <c r="V89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000</v>
       </c>
       <c r="W89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275</v>
       </c>
       <c r="X89" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y89">
+        <v>230</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="7"/>
+        <v>350</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="9"/>
+        <v>0.57471264367816088</v>
+      </c>
+    </row>
+    <row r="90" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J90">
         <v>85</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="7"/>
-        <v>13000</v>
+        <f t="shared" si="10"/>
+        <v>18000</v>
+      </c>
+      <c r="N90">
+        <f>SUM(M$5:$M90)</f>
+        <v>95</v>
       </c>
       <c r="O90">
         <v>85</v>
@@ -4909,32 +6276,47 @@
         <v>1290</v>
       </c>
       <c r="T90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22</v>
       </c>
       <c r="U90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000</v>
       </c>
       <c r="V90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000</v>
       </c>
       <c r="W90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290</v>
       </c>
       <c r="X90" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y90">
+        <v>230</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="7"/>
+        <v>352</v>
+      </c>
+      <c r="AA90">
+        <f t="shared" si="9"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="91" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J91">
         <v>86</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="7"/>
-        <v>13000</v>
+        <f t="shared" si="10"/>
+        <v>18000</v>
+      </c>
+      <c r="N91">
+        <f>SUM(M$5:$M91)</f>
+        <v>95</v>
       </c>
       <c r="O91">
         <v>86</v>
@@ -4952,32 +6334,47 @@
         <v>1305</v>
       </c>
       <c r="T91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24</v>
       </c>
       <c r="U91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000</v>
       </c>
       <c r="V91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000</v>
       </c>
       <c r="W91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305</v>
       </c>
       <c r="X91" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y91">
+        <v>230</v>
+      </c>
+      <c r="Z91">
+        <f t="shared" si="7"/>
+        <v>354</v>
+      </c>
+      <c r="AA91">
+        <f t="shared" si="9"/>
+        <v>0.56818181818181823</v>
+      </c>
+    </row>
+    <row r="92" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J92">
         <v>87</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="7"/>
-        <v>13000</v>
+        <f t="shared" si="10"/>
+        <v>18000</v>
+      </c>
+      <c r="N92">
+        <f>SUM(M$5:$M92)</f>
+        <v>95</v>
       </c>
       <c r="O92">
         <v>87</v>
@@ -4995,32 +6392,47 @@
         <v>1320</v>
       </c>
       <c r="T92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26</v>
       </c>
       <c r="U92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000</v>
       </c>
       <c r="V92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000</v>
       </c>
       <c r="W92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320</v>
       </c>
       <c r="X92" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y92">
+        <v>230</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="7"/>
+        <v>356</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" si="9"/>
+        <v>0.56497175141242939</v>
+      </c>
+    </row>
+    <row r="93" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J93">
         <v>88</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="7"/>
-        <v>13000</v>
+        <f t="shared" si="10"/>
+        <v>18000</v>
+      </c>
+      <c r="N93">
+        <f>SUM(M$5:$M93)</f>
+        <v>95</v>
       </c>
       <c r="O93">
         <v>88</v>
@@ -5038,32 +6450,47 @@
         <v>1335</v>
       </c>
       <c r="T93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28</v>
       </c>
       <c r="U93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000</v>
       </c>
       <c r="V93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000</v>
       </c>
       <c r="W93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335</v>
       </c>
       <c r="X93" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y93">
+        <v>230</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="7"/>
+        <v>358</v>
+      </c>
+      <c r="AA93">
+        <f t="shared" si="9"/>
+        <v>0.5617977528089888</v>
+      </c>
+    </row>
+    <row r="94" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J94">
         <v>89</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="7"/>
-        <v>13000</v>
+        <f t="shared" si="10"/>
+        <v>18000</v>
+      </c>
+      <c r="N94">
+        <f>SUM(M$5:$M94)</f>
+        <v>95</v>
       </c>
       <c r="O94">
         <v>89</v>
@@ -5081,34 +6508,57 @@
         <v>1350</v>
       </c>
       <c r="T94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3</v>
       </c>
       <c r="U94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000</v>
       </c>
       <c r="V94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000</v>
       </c>
       <c r="W94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350</v>
       </c>
       <c r="X94" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y94">
+        <v>230</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="AA94">
+        <f t="shared" si="9"/>
+        <v>0.55865921787709494</v>
+      </c>
+    </row>
+    <row r="95" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J95">
         <v>90</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="7"/>
-        <v>14000</v>
-      </c>
-      <c r="O95">
+        <f t="shared" si="10"/>
+        <v>19000</v>
+      </c>
+      <c r="L95" s="1">
+        <f>SUM(K95:K104)</f>
+        <v>195000</v>
+      </c>
+      <c r="M95">
+        <f>L95*4/$H$25</f>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="N95">
+        <f>SUM(M$5:$M95)</f>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="O95" s="6">
         <v>90</v>
       </c>
       <c r="P95">
@@ -5124,32 +6574,47 @@
         <v>1365</v>
       </c>
       <c r="T95" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32</v>
       </c>
       <c r="U95" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000</v>
       </c>
       <c r="V95" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000</v>
       </c>
       <c r="W95" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365</v>
       </c>
       <c r="X95" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y95">
+        <v>320</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="7"/>
+        <v>452</v>
+      </c>
+      <c r="AA95" s="6">
+        <f t="shared" si="9"/>
+        <v>25.555555555555557</v>
+      </c>
+    </row>
+    <row r="96" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J96">
         <v>91</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="7"/>
-        <v>14000</v>
+        <f t="shared" si="10"/>
+        <v>19000</v>
+      </c>
+      <c r="N96">
+        <f>SUM(M$5:$M96)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="O96">
         <v>91</v>
@@ -5167,32 +6632,47 @@
         <v>1380</v>
       </c>
       <c r="T96" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34</v>
       </c>
       <c r="U96" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000</v>
       </c>
       <c r="V96" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000</v>
       </c>
       <c r="W96" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380</v>
       </c>
       <c r="X96" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y96">
+        <v>320</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="7"/>
+        <v>454</v>
+      </c>
+      <c r="AA96">
+        <f t="shared" si="9"/>
+        <v>0.44247787610619471</v>
+      </c>
+    </row>
+    <row r="97" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J97">
         <v>92</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="7"/>
-        <v>14000</v>
+        <f t="shared" si="10"/>
+        <v>19000</v>
+      </c>
+      <c r="N97">
+        <f>SUM(M$5:$M97)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="O97">
         <v>92</v>
@@ -5210,32 +6690,47 @@
         <v>1395</v>
       </c>
       <c r="T97" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36</v>
       </c>
       <c r="U97" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000</v>
       </c>
       <c r="V97" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000</v>
       </c>
       <c r="W97" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395</v>
       </c>
       <c r="X97" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="98" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y97">
+        <v>320</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="7"/>
+        <v>456</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="9"/>
+        <v>0.44052863436123346</v>
+      </c>
+    </row>
+    <row r="98" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J98">
         <v>93</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="7"/>
-        <v>14000</v>
+        <f t="shared" si="10"/>
+        <v>19000</v>
+      </c>
+      <c r="N98">
+        <f>SUM(M$5:$M98)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="O98">
         <v>93</v>
@@ -5253,32 +6748,47 @@
         <v>1410</v>
       </c>
       <c r="T98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38</v>
       </c>
       <c r="U98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000</v>
       </c>
       <c r="V98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000</v>
       </c>
       <c r="W98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410</v>
       </c>
       <c r="X98" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y98">
+        <v>320</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="7"/>
+        <v>458</v>
+      </c>
+      <c r="AA98">
+        <f t="shared" si="9"/>
+        <v>0.43859649122807015</v>
+      </c>
+    </row>
+    <row r="99" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J99">
         <v>94</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="7"/>
-        <v>14000</v>
+        <f t="shared" si="10"/>
+        <v>19000</v>
+      </c>
+      <c r="N99">
+        <f>SUM(M$5:$M99)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="O99">
         <v>94</v>
@@ -5296,32 +6806,47 @@
         <v>1425</v>
       </c>
       <c r="T99" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4</v>
       </c>
       <c r="U99" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000</v>
       </c>
       <c r="V99" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000</v>
       </c>
       <c r="W99" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425</v>
       </c>
       <c r="X99" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y99">
+        <v>320</v>
+      </c>
+      <c r="Z99">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" si="9"/>
+        <v>0.4366812227074236</v>
+      </c>
+    </row>
+    <row r="100" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J100">
         <v>95</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="7"/>
-        <v>14000</v>
+        <f t="shared" si="10"/>
+        <v>20000</v>
+      </c>
+      <c r="N100">
+        <f>SUM(M$5:$M100)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="O100">
         <v>95</v>
@@ -5339,32 +6864,47 @@
         <v>1440</v>
       </c>
       <c r="T100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42</v>
       </c>
       <c r="U100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000</v>
       </c>
       <c r="V100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000</v>
       </c>
       <c r="W100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440</v>
       </c>
       <c r="X100" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y100">
+        <v>320</v>
+      </c>
+      <c r="Z100">
+        <f t="shared" si="7"/>
+        <v>462</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="9"/>
+        <v>0.43478260869565216</v>
+      </c>
+    </row>
+    <row r="101" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J101">
         <v>96</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="7"/>
-        <v>14000</v>
+        <f t="shared" si="10"/>
+        <v>20000</v>
+      </c>
+      <c r="N101">
+        <f>SUM(M$5:$M101)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="O101">
         <v>96</v>
@@ -5382,32 +6922,47 @@
         <v>1455</v>
       </c>
       <c r="T101" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44</v>
       </c>
       <c r="U101" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000</v>
       </c>
       <c r="V101" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000</v>
       </c>
       <c r="W101" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455</v>
       </c>
       <c r="X101" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y101">
+        <v>320</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" si="7"/>
+        <v>464</v>
+      </c>
+      <c r="AA101">
+        <f t="shared" si="9"/>
+        <v>0.4329004329004329</v>
+      </c>
+    </row>
+    <row r="102" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J102">
         <v>97</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="7"/>
-        <v>14000</v>
+        <f t="shared" si="10"/>
+        <v>20000</v>
+      </c>
+      <c r="N102">
+        <f>SUM(M$5:$M102)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="O102">
         <v>97</v>
@@ -5425,32 +6980,47 @@
         <v>1470</v>
       </c>
       <c r="T102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46</v>
       </c>
       <c r="U102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000</v>
       </c>
       <c r="V102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000</v>
       </c>
       <c r="W102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470</v>
       </c>
       <c r="X102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y102">
+        <v>320</v>
+      </c>
+      <c r="Z102">
+        <f t="shared" si="7"/>
+        <v>466</v>
+      </c>
+      <c r="AA102">
+        <f t="shared" si="9"/>
+        <v>0.43103448275862066</v>
+      </c>
+    </row>
+    <row r="103" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J103">
         <v>98</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" si="7"/>
-        <v>14000</v>
+        <f t="shared" si="10"/>
+        <v>20000</v>
+      </c>
+      <c r="N103">
+        <f>SUM(M$5:$M103)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="O103">
         <v>98</v>
@@ -5468,32 +7038,47 @@
         <v>1485</v>
       </c>
       <c r="T103" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48</v>
       </c>
       <c r="U103" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000</v>
       </c>
       <c r="V103" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000</v>
       </c>
       <c r="W103" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485</v>
       </c>
       <c r="X103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="10:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="Y103">
+        <v>320</v>
+      </c>
+      <c r="Z103">
+        <f t="shared" si="7"/>
+        <v>468</v>
+      </c>
+      <c r="AA103">
+        <f t="shared" si="9"/>
+        <v>0.42918454935622319</v>
+      </c>
+    </row>
+    <row r="104" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J104">
         <v>99</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="7"/>
-        <v>14000</v>
+        <f t="shared" si="10"/>
+        <v>20000</v>
+      </c>
+      <c r="N104">
+        <f>SUM(M$5:$M104)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="O104">
         <v>99</v>
@@ -5511,23 +7096,34 @@
         <v>1500</v>
       </c>
       <c r="T104" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5</v>
       </c>
       <c r="U104" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000</v>
       </c>
       <c r="V104" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000</v>
       </c>
       <c r="W104" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500</v>
       </c>
       <c r="X104" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="Y104">
+        <v>320</v>
+      </c>
+      <c r="Z104">
+        <f t="shared" si="7"/>
+        <v>470</v>
+      </c>
+      <c r="AA104">
+        <f t="shared" si="9"/>
+        <v>0.42735042735042733</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetAwakeTable.xlsx
+++ b/Assets/06.Table/PetAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FF11A3-DA11-4AF1-A30B-8FAE4EB0583E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8412932-551B-4C89-A3EB-7134DD59EF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="32">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,20 +131,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5</t>
-  </si>
-  <si>
-    <t>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000</t>
-  </si>
-  <si>
-    <t>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000</t>
   </si>
   <si>
     <t>복붙용</t>
@@ -161,6 +149,18 @@
   <si>
     <t>총합</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4,3.42,3.44,3.46,3.48,3.5</t>
+  </si>
+  <si>
+    <t>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000</t>
+  </si>
+  <si>
+    <t>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250</t>
+  </si>
+  <si>
+    <t>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -625,7 +625,7 @@
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -642,7 +642,7 @@
         <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -659,7 +659,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -676,7 +676,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -687,10 +687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C80F775-A6C9-4707-A5A5-F54433AC4EB9}">
-  <dimension ref="A1:AA104"/>
+  <dimension ref="A1:AA204"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="Y75" sqref="Y75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -737,7 +737,7 @@
         <v>22</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="s">
         <v>19</v>
@@ -766,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1">
         <f>SUM(K5:K104)*4</f>
@@ -789,29 +789,29 @@
         <v>8</v>
       </c>
       <c r="T4" t="str">
-        <f>T104</f>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5</v>
+        <f>T154</f>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5</v>
       </c>
       <c r="U4" t="str">
-        <f t="shared" ref="U4:W4" si="0">U104</f>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000</v>
+        <f t="shared" ref="U4:W4" si="0">U154</f>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000</v>
       </c>
       <c r="V4" t="str">
         <f t="shared" si="0"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000</v>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="0"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500</v>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250</v>
       </c>
       <c r="X4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" t="s">
-        <v>30</v>
-      </c>
       <c r="Z4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -878,7 +878,7 @@
         <v>15</v>
       </c>
       <c r="X5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>15,30</v>
       </c>
       <c r="X6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>15,30,45</v>
       </c>
       <c r="X7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>15,30,45,60</v>
       </c>
       <c r="X8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>15,30,45,60,75</v>
       </c>
       <c r="X9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>15,30,45,60,75,90</v>
       </c>
       <c r="X10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y10">
         <v>10</v>
@@ -1295,7 +1295,7 @@
         <v>15,30,45,60,75,90,105</v>
       </c>
       <c r="X11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y11">
         <v>10</v>
@@ -1363,7 +1363,7 @@
         <v>15,30,45,60,75,90,105,120</v>
       </c>
       <c r="X12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y12">
         <v>10</v>
@@ -1431,7 +1431,7 @@
         <v>15,30,45,60,75,90,105,120,135</v>
       </c>
       <c r="X13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y13">
         <v>10</v>
@@ -1499,7 +1499,7 @@
         <v>15,30,45,60,75,90,105,120,135,150</v>
       </c>
       <c r="X14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y14">
         <v>10</v>
@@ -1575,7 +1575,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165</v>
       </c>
       <c r="X15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y15">
         <v>15</v>
@@ -1643,7 +1643,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180</v>
       </c>
       <c r="X16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y16">
         <v>15</v>
@@ -1711,7 +1711,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195</v>
       </c>
       <c r="X17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y17">
         <v>15</v>
@@ -1779,7 +1779,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210</v>
       </c>
       <c r="X18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y18">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225</v>
       </c>
       <c r="X19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y19">
         <v>15</v>
@@ -1923,7 +1923,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240</v>
       </c>
       <c r="X20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y20">
         <v>20</v>
@@ -1991,7 +1991,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255</v>
       </c>
       <c r="X21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y21">
         <v>20</v>
@@ -2059,7 +2059,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270</v>
       </c>
       <c r="X22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y22">
         <v>20</v>
@@ -2127,7 +2127,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285</v>
       </c>
       <c r="X23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y23">
         <v>20</v>
@@ -2195,7 +2195,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300</v>
       </c>
       <c r="X24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y24">
         <v>20</v>
@@ -2271,7 +2271,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315</v>
       </c>
       <c r="X25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y25">
         <v>30</v>
@@ -2339,7 +2339,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330</v>
       </c>
       <c r="X26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y26">
         <v>30</v>
@@ -2407,7 +2407,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345</v>
       </c>
       <c r="X27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y27">
         <v>30</v>
@@ -2475,7 +2475,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360</v>
       </c>
       <c r="X28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y28">
         <v>30</v>
@@ -2543,7 +2543,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375</v>
       </c>
       <c r="X29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y29">
         <v>30</v>
@@ -2611,7 +2611,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390</v>
       </c>
       <c r="X30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y30">
         <v>30</v>
@@ -2679,7 +2679,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405</v>
       </c>
       <c r="X31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y31">
         <v>30</v>
@@ -2747,7 +2747,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420</v>
       </c>
       <c r="X32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y32">
         <v>30</v>
@@ -2815,7 +2815,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435</v>
       </c>
       <c r="X33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y33">
         <v>30</v>
@@ -2883,7 +2883,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450</v>
       </c>
       <c r="X34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y34">
         <v>30</v>
@@ -2959,7 +2959,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465</v>
       </c>
       <c r="X35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y35">
         <v>45</v>
@@ -3027,7 +3027,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480</v>
       </c>
       <c r="X36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y36">
         <v>45</v>
@@ -3095,7 +3095,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495</v>
       </c>
       <c r="X37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y37">
         <v>45</v>
@@ -3163,7 +3163,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510</v>
       </c>
       <c r="X38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y38">
         <v>45</v>
@@ -3231,7 +3231,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525</v>
       </c>
       <c r="X39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y39">
         <v>45</v>
@@ -3299,7 +3299,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540</v>
       </c>
       <c r="X40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y40">
         <v>45</v>
@@ -3367,7 +3367,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555</v>
       </c>
       <c r="X41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y41">
         <v>45</v>
@@ -3435,7 +3435,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570</v>
       </c>
       <c r="X42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y42">
         <v>45</v>
@@ -3503,7 +3503,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585</v>
       </c>
       <c r="X43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y43">
         <v>45</v>
@@ -3571,7 +3571,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600</v>
       </c>
       <c r="X44" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y44">
         <v>45</v>
@@ -3647,7 +3647,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615</v>
       </c>
       <c r="X45" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y45">
         <v>65</v>
@@ -3706,7 +3706,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630</v>
       </c>
       <c r="X46" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y46">
         <v>65</v>
@@ -3765,7 +3765,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645</v>
       </c>
       <c r="X47" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y47">
         <v>65</v>
@@ -3824,7 +3824,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660</v>
       </c>
       <c r="X48" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y48">
         <v>65</v>
@@ -3882,7 +3882,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675</v>
       </c>
       <c r="X49" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y49">
         <v>65</v>
@@ -3940,7 +3940,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690</v>
       </c>
       <c r="X50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y50">
         <v>65</v>
@@ -3998,7 +3998,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705</v>
       </c>
       <c r="X51" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y51">
         <v>65</v>
@@ -4056,7 +4056,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720</v>
       </c>
       <c r="X52" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y52">
         <v>65</v>
@@ -4114,7 +4114,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735</v>
       </c>
       <c r="X53" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y53">
         <v>65</v>
@@ -4172,7 +4172,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750</v>
       </c>
       <c r="X54" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y54">
         <v>65</v>
@@ -4238,7 +4238,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765</v>
       </c>
       <c r="X55" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y55">
         <v>90</v>
@@ -4296,7 +4296,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780</v>
       </c>
       <c r="X56" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y56">
         <v>90</v>
@@ -4354,7 +4354,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795</v>
       </c>
       <c r="X57" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y57">
         <v>90</v>
@@ -4412,7 +4412,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810</v>
       </c>
       <c r="X58" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y58">
         <v>90</v>
@@ -4470,7 +4470,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825</v>
       </c>
       <c r="X59" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y59">
         <v>90</v>
@@ -4528,7 +4528,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840</v>
       </c>
       <c r="X60" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y60">
         <v>90</v>
@@ -4586,7 +4586,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855</v>
       </c>
       <c r="X61" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y61">
         <v>90</v>
@@ -4644,7 +4644,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870</v>
       </c>
       <c r="X62" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y62">
         <v>90</v>
@@ -4702,7 +4702,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885</v>
       </c>
       <c r="X63" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y63">
         <v>90</v>
@@ -4760,7 +4760,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900</v>
       </c>
       <c r="X64" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y64">
         <v>90</v>
@@ -4826,7 +4826,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915</v>
       </c>
       <c r="X65" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y65">
         <v>120</v>
@@ -4884,7 +4884,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930</v>
       </c>
       <c r="X66" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y66">
         <v>120</v>
@@ -4942,7 +4942,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945</v>
       </c>
       <c r="X67" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y67">
         <v>120</v>
@@ -5000,7 +5000,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960</v>
       </c>
       <c r="X68" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y68">
         <v>120</v>
@@ -5058,7 +5058,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975</v>
       </c>
       <c r="X69" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y69">
         <v>120</v>
@@ -5116,7 +5116,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990</v>
       </c>
       <c r="X70" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y70">
         <v>120</v>
@@ -5174,7 +5174,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005</v>
       </c>
       <c r="X71" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y71">
         <v>120</v>
@@ -5184,7 +5184,7 @@
         <v>204</v>
       </c>
       <c r="AA71">
-        <f t="shared" ref="AA71:AA104" si="9">(Z71-Z70)*100/Z70</f>
+        <f t="shared" ref="AA71:AA105" si="9">(Z71-Z70)*100/Z70</f>
         <v>0.99009900990099009</v>
       </c>
     </row>
@@ -5232,7 +5232,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020</v>
       </c>
       <c r="X72" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y72">
         <v>120</v>
@@ -5290,7 +5290,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035</v>
       </c>
       <c r="X73" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y73">
         <v>120</v>
@@ -5348,7 +5348,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050</v>
       </c>
       <c r="X74" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y74">
         <v>120</v>
@@ -5367,7 +5367,7 @@
         <v>70</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" ref="K75:K104" si="10">K70+1000</f>
+        <f t="shared" ref="K75:K138" si="10">K70+1000</f>
         <v>15000</v>
       </c>
       <c r="L75" s="1">
@@ -5414,7 +5414,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065</v>
       </c>
       <c r="X75" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y75">
         <v>160</v>
@@ -5472,7 +5472,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080</v>
       </c>
       <c r="X76" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y76">
         <v>160</v>
@@ -5530,7 +5530,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095</v>
       </c>
       <c r="X77" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y77">
         <v>160</v>
@@ -5588,7 +5588,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110</v>
       </c>
       <c r="X78" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y78">
         <v>160</v>
@@ -5646,7 +5646,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125</v>
       </c>
       <c r="X79" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y79">
         <v>160</v>
@@ -5704,7 +5704,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140</v>
       </c>
       <c r="X80" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y80">
         <v>160</v>
@@ -5762,7 +5762,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155</v>
       </c>
       <c r="X81" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y81">
         <v>160</v>
@@ -5820,7 +5820,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170</v>
       </c>
       <c r="X82" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y82">
         <v>160</v>
@@ -5878,7 +5878,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185</v>
       </c>
       <c r="X83" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y83">
         <v>160</v>
@@ -5936,7 +5936,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200</v>
       </c>
       <c r="X84" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y84">
         <v>160</v>
@@ -6002,7 +6002,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215</v>
       </c>
       <c r="X85" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y85">
         <v>230</v>
@@ -6060,7 +6060,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230</v>
       </c>
       <c r="X86" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y86">
         <v>230</v>
@@ -6118,7 +6118,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245</v>
       </c>
       <c r="X87" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y87">
         <v>230</v>
@@ -6176,7 +6176,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260</v>
       </c>
       <c r="X88" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y88">
         <v>230</v>
@@ -6234,7 +6234,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275</v>
       </c>
       <c r="X89" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y89">
         <v>230</v>
@@ -6292,7 +6292,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290</v>
       </c>
       <c r="X90" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y90">
         <v>230</v>
@@ -6350,7 +6350,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305</v>
       </c>
       <c r="X91" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y91">
         <v>230</v>
@@ -6408,7 +6408,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320</v>
       </c>
       <c r="X92" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y92">
         <v>230</v>
@@ -6466,7 +6466,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335</v>
       </c>
       <c r="X93" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y93">
         <v>230</v>
@@ -6524,7 +6524,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350</v>
       </c>
       <c r="X94" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y94">
         <v>230</v>
@@ -6590,7 +6590,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365</v>
       </c>
       <c r="X95" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y95">
         <v>320</v>
@@ -6648,7 +6648,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380</v>
       </c>
       <c r="X96" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y96">
         <v>320</v>
@@ -6706,7 +6706,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395</v>
       </c>
       <c r="X97" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y97">
         <v>320</v>
@@ -6764,7 +6764,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410</v>
       </c>
       <c r="X98" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y98">
         <v>320</v>
@@ -6822,7 +6822,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425</v>
       </c>
       <c r="X99" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y99">
         <v>320</v>
@@ -6841,7 +6841,7 @@
         <v>95</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="10"/>
+        <f>K95+1000</f>
         <v>20000</v>
       </c>
       <c r="N100">
@@ -6880,7 +6880,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440</v>
       </c>
       <c r="X100" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y100">
         <v>320</v>
@@ -6899,7 +6899,7 @@
         <v>96</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="10"/>
+        <f>K96+1000</f>
         <v>20000</v>
       </c>
       <c r="N101">
@@ -6938,7 +6938,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455</v>
       </c>
       <c r="X101" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y101">
         <v>320</v>
@@ -6996,7 +6996,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470</v>
       </c>
       <c r="X102" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y102">
         <v>320</v>
@@ -7054,7 +7054,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485</v>
       </c>
       <c r="X103" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y103">
         <v>320</v>
@@ -7112,7 +7112,7 @@
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500</v>
       </c>
       <c r="X104" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y104">
         <v>320</v>
@@ -7124,6 +7124,5916 @@
       <c r="AA104">
         <f t="shared" si="9"/>
         <v>0.42735042735042733</v>
+      </c>
+    </row>
+    <row r="105" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J105">
+        <v>100</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>21000</v>
+      </c>
+      <c r="L105" s="1">
+        <f>SUM(K105:K114)</f>
+        <v>215000</v>
+      </c>
+      <c r="M105">
+        <f>L105*4/$H$25</f>
+        <v>23.888888888888889</v>
+      </c>
+      <c r="N105">
+        <f>SUM(M$5:$M105)</f>
+        <v>140.55555555555557</v>
+      </c>
+      <c r="O105">
+        <v>100</v>
+      </c>
+      <c r="P105">
+        <v>1.52</v>
+      </c>
+      <c r="Q105">
+        <v>101000000000000</v>
+      </c>
+      <c r="R105">
+        <v>510000</v>
+      </c>
+      <c r="S105">
+        <v>1515</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" ref="T105:T118" si="11">T104&amp;","&amp;P105</f>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" ref="U105:U118" si="12">U104&amp;","&amp;Q105</f>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000</v>
+      </c>
+      <c r="V105" t="str">
+        <f t="shared" ref="V105:V118" si="13">V104&amp;","&amp;R105</f>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000</v>
+      </c>
+      <c r="W105" t="str">
+        <f t="shared" ref="W105:W118" si="14">W104&amp;","&amp;S105</f>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515</v>
+      </c>
+      <c r="X105" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y105">
+        <v>430</v>
+      </c>
+      <c r="Z105">
+        <f t="shared" ref="Z105:Z118" si="15">Y105+P105*100</f>
+        <v>582</v>
+      </c>
+      <c r="AA105" s="6">
+        <f t="shared" si="9"/>
+        <v>23.829787234042552</v>
+      </c>
+    </row>
+    <row r="106" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J106">
+        <v>101</v>
+      </c>
+      <c r="K106" s="1">
+        <f t="shared" si="10"/>
+        <v>21000</v>
+      </c>
+      <c r="N106">
+        <f>SUM(M$5:$M106)</f>
+        <v>140.55555555555557</v>
+      </c>
+      <c r="O106">
+        <v>101</v>
+      </c>
+      <c r="P106">
+        <v>1.54</v>
+      </c>
+      <c r="Q106">
+        <v>102000000000000</v>
+      </c>
+      <c r="R106">
+        <v>515000</v>
+      </c>
+      <c r="S106">
+        <v>1530</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="11"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="12"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000</v>
+      </c>
+      <c r="V106" t="str">
+        <f t="shared" si="13"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000</v>
+      </c>
+      <c r="W106" t="str">
+        <f t="shared" si="14"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530</v>
+      </c>
+      <c r="X106" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y106">
+        <v>430</v>
+      </c>
+      <c r="Z106">
+        <f t="shared" si="15"/>
+        <v>584</v>
+      </c>
+      <c r="AA106">
+        <f t="shared" ref="AA105:AA118" si="16">(Z106-Z105)*100/Z105</f>
+        <v>0.3436426116838488</v>
+      </c>
+    </row>
+    <row r="107" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J107">
+        <v>102</v>
+      </c>
+      <c r="K107" s="1">
+        <f>K102+1000</f>
+        <v>21000</v>
+      </c>
+      <c r="N107">
+        <f>SUM(M$5:$M107)</f>
+        <v>140.55555555555557</v>
+      </c>
+      <c r="O107">
+        <v>102</v>
+      </c>
+      <c r="P107">
+        <v>1.56</v>
+      </c>
+      <c r="Q107">
+        <v>103000000000000</v>
+      </c>
+      <c r="R107">
+        <v>520000</v>
+      </c>
+      <c r="S107">
+        <v>1545</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="11"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="12"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000</v>
+      </c>
+      <c r="V107" t="str">
+        <f t="shared" si="13"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000</v>
+      </c>
+      <c r="W107" t="str">
+        <f t="shared" si="14"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545</v>
+      </c>
+      <c r="X107" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y107">
+        <v>430</v>
+      </c>
+      <c r="Z107">
+        <f t="shared" si="15"/>
+        <v>586</v>
+      </c>
+      <c r="AA107">
+        <f t="shared" si="16"/>
+        <v>0.34246575342465752</v>
+      </c>
+    </row>
+    <row r="108" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J108">
+        <v>103</v>
+      </c>
+      <c r="K108" s="1">
+        <f>K103+1000</f>
+        <v>21000</v>
+      </c>
+      <c r="N108">
+        <f>SUM(M$5:$M108)</f>
+        <v>140.55555555555557</v>
+      </c>
+      <c r="O108">
+        <v>103</v>
+      </c>
+      <c r="P108">
+        <v>1.58</v>
+      </c>
+      <c r="Q108">
+        <v>104000000000000</v>
+      </c>
+      <c r="R108">
+        <v>525000</v>
+      </c>
+      <c r="S108">
+        <v>1560</v>
+      </c>
+      <c r="T108" t="str">
+        <f t="shared" si="11"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58</v>
+      </c>
+      <c r="U108" t="str">
+        <f t="shared" si="12"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000</v>
+      </c>
+      <c r="V108" t="str">
+        <f t="shared" si="13"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000</v>
+      </c>
+      <c r="W108" t="str">
+        <f t="shared" si="14"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560</v>
+      </c>
+      <c r="X108" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y108">
+        <v>430</v>
+      </c>
+      <c r="Z108">
+        <f t="shared" si="15"/>
+        <v>588</v>
+      </c>
+      <c r="AA108">
+        <f t="shared" si="16"/>
+        <v>0.34129692832764508</v>
+      </c>
+    </row>
+    <row r="109" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J109">
+        <v>104</v>
+      </c>
+      <c r="K109" s="1">
+        <f t="shared" si="10"/>
+        <v>21000</v>
+      </c>
+      <c r="N109">
+        <f>SUM(M$5:$M109)</f>
+        <v>140.55555555555557</v>
+      </c>
+      <c r="O109">
+        <v>104</v>
+      </c>
+      <c r="P109">
+        <v>1.6</v>
+      </c>
+      <c r="Q109">
+        <v>105000000000000</v>
+      </c>
+      <c r="R109">
+        <v>530000</v>
+      </c>
+      <c r="S109">
+        <v>1575</v>
+      </c>
+      <c r="T109" t="str">
+        <f t="shared" si="11"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6</v>
+      </c>
+      <c r="U109" t="str">
+        <f t="shared" si="12"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000</v>
+      </c>
+      <c r="V109" t="str">
+        <f t="shared" si="13"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000</v>
+      </c>
+      <c r="W109" t="str">
+        <f t="shared" si="14"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575</v>
+      </c>
+      <c r="X109" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y109">
+        <v>430</v>
+      </c>
+      <c r="Z109">
+        <f t="shared" si="15"/>
+        <v>590</v>
+      </c>
+      <c r="AA109">
+        <f t="shared" si="16"/>
+        <v>0.3401360544217687</v>
+      </c>
+    </row>
+    <row r="110" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J110">
+        <v>105</v>
+      </c>
+      <c r="K110" s="1">
+        <f t="shared" si="10"/>
+        <v>22000</v>
+      </c>
+      <c r="N110">
+        <f>SUM(M$5:$M110)</f>
+        <v>140.55555555555557</v>
+      </c>
+      <c r="O110">
+        <v>105</v>
+      </c>
+      <c r="P110">
+        <v>1.62</v>
+      </c>
+      <c r="Q110">
+        <v>106000000000000</v>
+      </c>
+      <c r="R110">
+        <v>535000</v>
+      </c>
+      <c r="S110">
+        <v>1590</v>
+      </c>
+      <c r="T110" t="str">
+        <f t="shared" si="11"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62</v>
+      </c>
+      <c r="U110" t="str">
+        <f t="shared" si="12"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000</v>
+      </c>
+      <c r="V110" t="str">
+        <f t="shared" si="13"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000</v>
+      </c>
+      <c r="W110" t="str">
+        <f t="shared" si="14"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590</v>
+      </c>
+      <c r="X110" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y110">
+        <v>430</v>
+      </c>
+      <c r="Z110">
+        <f t="shared" si="15"/>
+        <v>592</v>
+      </c>
+      <c r="AA110">
+        <f t="shared" si="16"/>
+        <v>0.33898305084745761</v>
+      </c>
+    </row>
+    <row r="111" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J111">
+        <v>106</v>
+      </c>
+      <c r="K111" s="1">
+        <f t="shared" si="10"/>
+        <v>22000</v>
+      </c>
+      <c r="N111">
+        <f>SUM(M$5:$M111)</f>
+        <v>140.55555555555557</v>
+      </c>
+      <c r="O111">
+        <v>106</v>
+      </c>
+      <c r="P111">
+        <v>1.64</v>
+      </c>
+      <c r="Q111">
+        <v>107000000000000</v>
+      </c>
+      <c r="R111">
+        <v>540000</v>
+      </c>
+      <c r="S111">
+        <v>1605</v>
+      </c>
+      <c r="T111" t="str">
+        <f t="shared" si="11"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64</v>
+      </c>
+      <c r="U111" t="str">
+        <f t="shared" si="12"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000</v>
+      </c>
+      <c r="V111" t="str">
+        <f t="shared" si="13"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000</v>
+      </c>
+      <c r="W111" t="str">
+        <f t="shared" si="14"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605</v>
+      </c>
+      <c r="X111" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y111">
+        <v>430</v>
+      </c>
+      <c r="Z111">
+        <f t="shared" si="15"/>
+        <v>594</v>
+      </c>
+      <c r="AA111">
+        <f t="shared" si="16"/>
+        <v>0.33783783783783783</v>
+      </c>
+    </row>
+    <row r="112" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J112">
+        <v>107</v>
+      </c>
+      <c r="K112" s="1">
+        <f t="shared" si="10"/>
+        <v>22000</v>
+      </c>
+      <c r="N112">
+        <f>SUM(M$5:$M112)</f>
+        <v>140.55555555555557</v>
+      </c>
+      <c r="O112">
+        <v>107</v>
+      </c>
+      <c r="P112">
+        <v>1.66</v>
+      </c>
+      <c r="Q112">
+        <v>108000000000000</v>
+      </c>
+      <c r="R112">
+        <v>545000</v>
+      </c>
+      <c r="S112">
+        <v>1620</v>
+      </c>
+      <c r="T112" t="str">
+        <f t="shared" si="11"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66</v>
+      </c>
+      <c r="U112" t="str">
+        <f t="shared" si="12"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000</v>
+      </c>
+      <c r="V112" t="str">
+        <f t="shared" si="13"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000</v>
+      </c>
+      <c r="W112" t="str">
+        <f t="shared" si="14"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620</v>
+      </c>
+      <c r="X112" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y112">
+        <v>430</v>
+      </c>
+      <c r="Z112">
+        <f t="shared" si="15"/>
+        <v>596</v>
+      </c>
+      <c r="AA112">
+        <f t="shared" si="16"/>
+        <v>0.33670033670033672</v>
+      </c>
+    </row>
+    <row r="113" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J113">
+        <v>108</v>
+      </c>
+      <c r="K113" s="1">
+        <f t="shared" si="10"/>
+        <v>22000</v>
+      </c>
+      <c r="N113">
+        <f>SUM(M$5:$M113)</f>
+        <v>140.55555555555557</v>
+      </c>
+      <c r="O113">
+        <v>108</v>
+      </c>
+      <c r="P113">
+        <v>1.68</v>
+      </c>
+      <c r="Q113">
+        <v>109000000000000</v>
+      </c>
+      <c r="R113">
+        <v>550000</v>
+      </c>
+      <c r="S113">
+        <v>1635</v>
+      </c>
+      <c r="T113" t="str">
+        <f t="shared" si="11"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68</v>
+      </c>
+      <c r="U113" t="str">
+        <f t="shared" si="12"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000</v>
+      </c>
+      <c r="V113" t="str">
+        <f t="shared" si="13"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000</v>
+      </c>
+      <c r="W113" t="str">
+        <f t="shared" si="14"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635</v>
+      </c>
+      <c r="X113" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y113">
+        <v>430</v>
+      </c>
+      <c r="Z113">
+        <f t="shared" si="15"/>
+        <v>598</v>
+      </c>
+      <c r="AA113">
+        <f t="shared" si="16"/>
+        <v>0.33557046979865773</v>
+      </c>
+    </row>
+    <row r="114" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J114">
+        <v>109</v>
+      </c>
+      <c r="K114" s="1">
+        <f t="shared" si="10"/>
+        <v>22000</v>
+      </c>
+      <c r="N114">
+        <f>SUM(M$5:$M114)</f>
+        <v>140.55555555555557</v>
+      </c>
+      <c r="O114">
+        <v>109</v>
+      </c>
+      <c r="P114">
+        <v>1.7</v>
+      </c>
+      <c r="Q114">
+        <v>110000000000000</v>
+      </c>
+      <c r="R114">
+        <v>555000</v>
+      </c>
+      <c r="S114">
+        <v>1650</v>
+      </c>
+      <c r="T114" t="str">
+        <f t="shared" si="11"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7</v>
+      </c>
+      <c r="U114" t="str">
+        <f t="shared" si="12"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000</v>
+      </c>
+      <c r="V114" t="str">
+        <f t="shared" si="13"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000</v>
+      </c>
+      <c r="W114" t="str">
+        <f t="shared" si="14"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650</v>
+      </c>
+      <c r="X114" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y114">
+        <v>430</v>
+      </c>
+      <c r="Z114">
+        <f t="shared" si="15"/>
+        <v>600</v>
+      </c>
+      <c r="AA114">
+        <f t="shared" si="16"/>
+        <v>0.33444816053511706</v>
+      </c>
+    </row>
+    <row r="115" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J115">
+        <v>110</v>
+      </c>
+      <c r="K115" s="1">
+        <f t="shared" si="10"/>
+        <v>23000</v>
+      </c>
+      <c r="L115" s="1">
+        <f>SUM(K115:K124)</f>
+        <v>235000</v>
+      </c>
+      <c r="M115">
+        <f>L115*4/$H$25</f>
+        <v>26.111111111111111</v>
+      </c>
+      <c r="N115">
+        <f>SUM(M$5:$M115)</f>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="O115">
+        <v>110</v>
+      </c>
+      <c r="P115">
+        <v>1.72</v>
+      </c>
+      <c r="Q115">
+        <v>111000000000000</v>
+      </c>
+      <c r="R115">
+        <v>560000</v>
+      </c>
+      <c r="S115">
+        <v>1665</v>
+      </c>
+      <c r="T115" t="str">
+        <f t="shared" si="11"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72</v>
+      </c>
+      <c r="U115" t="str">
+        <f t="shared" si="12"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000</v>
+      </c>
+      <c r="V115" t="str">
+        <f t="shared" si="13"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000</v>
+      </c>
+      <c r="W115" t="str">
+        <f t="shared" si="14"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665</v>
+      </c>
+      <c r="X115" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y115">
+        <v>570</v>
+      </c>
+      <c r="Z115">
+        <f t="shared" si="15"/>
+        <v>742</v>
+      </c>
+      <c r="AA115" s="6">
+        <f t="shared" si="16"/>
+        <v>23.666666666666668</v>
+      </c>
+    </row>
+    <row r="116" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J116">
+        <v>111</v>
+      </c>
+      <c r="K116" s="1">
+        <f t="shared" si="10"/>
+        <v>23000</v>
+      </c>
+      <c r="N116">
+        <f>SUM(M$5:$M116)</f>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="O116">
+        <v>111</v>
+      </c>
+      <c r="P116">
+        <v>1.74</v>
+      </c>
+      <c r="Q116">
+        <v>112000000000000</v>
+      </c>
+      <c r="R116">
+        <v>565000</v>
+      </c>
+      <c r="S116">
+        <v>1680</v>
+      </c>
+      <c r="T116" t="str">
+        <f t="shared" si="11"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74</v>
+      </c>
+      <c r="U116" t="str">
+        <f t="shared" si="12"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000</v>
+      </c>
+      <c r="V116" t="str">
+        <f t="shared" si="13"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000</v>
+      </c>
+      <c r="W116" t="str">
+        <f t="shared" si="14"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680</v>
+      </c>
+      <c r="X116" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y116">
+        <v>570</v>
+      </c>
+      <c r="Z116">
+        <f t="shared" si="15"/>
+        <v>744</v>
+      </c>
+      <c r="AA116">
+        <f t="shared" si="16"/>
+        <v>0.26954177897574122</v>
+      </c>
+    </row>
+    <row r="117" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J117">
+        <v>112</v>
+      </c>
+      <c r="K117" s="1">
+        <f t="shared" si="10"/>
+        <v>23000</v>
+      </c>
+      <c r="N117">
+        <f>SUM(M$5:$M117)</f>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="O117">
+        <v>112</v>
+      </c>
+      <c r="P117">
+        <v>1.76</v>
+      </c>
+      <c r="Q117">
+        <v>113000000000000</v>
+      </c>
+      <c r="R117">
+        <v>570000</v>
+      </c>
+      <c r="S117">
+        <v>1695</v>
+      </c>
+      <c r="T117" t="str">
+        <f t="shared" si="11"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76</v>
+      </c>
+      <c r="U117" t="str">
+        <f t="shared" si="12"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000</v>
+      </c>
+      <c r="V117" t="str">
+        <f t="shared" si="13"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000</v>
+      </c>
+      <c r="W117" t="str">
+        <f t="shared" si="14"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695</v>
+      </c>
+      <c r="X117" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y117">
+        <v>570</v>
+      </c>
+      <c r="Z117">
+        <f t="shared" si="15"/>
+        <v>746</v>
+      </c>
+      <c r="AA117">
+        <f t="shared" si="16"/>
+        <v>0.26881720430107525</v>
+      </c>
+    </row>
+    <row r="118" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J118">
+        <v>113</v>
+      </c>
+      <c r="K118" s="1">
+        <f t="shared" si="10"/>
+        <v>23000</v>
+      </c>
+      <c r="N118">
+        <f>SUM(M$5:$M118)</f>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="O118">
+        <v>113</v>
+      </c>
+      <c r="P118">
+        <v>1.78</v>
+      </c>
+      <c r="Q118">
+        <v>114000000000000</v>
+      </c>
+      <c r="R118">
+        <v>575000</v>
+      </c>
+      <c r="S118">
+        <v>1710</v>
+      </c>
+      <c r="T118" t="str">
+        <f t="shared" si="11"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78</v>
+      </c>
+      <c r="U118" t="str">
+        <f t="shared" si="12"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000</v>
+      </c>
+      <c r="V118" t="str">
+        <f t="shared" si="13"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000</v>
+      </c>
+      <c r="W118" t="str">
+        <f t="shared" si="14"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710</v>
+      </c>
+      <c r="X118" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y118">
+        <v>570</v>
+      </c>
+      <c r="Z118">
+        <f t="shared" si="15"/>
+        <v>748</v>
+      </c>
+      <c r="AA118">
+        <f t="shared" si="16"/>
+        <v>0.26809651474530832</v>
+      </c>
+    </row>
+    <row r="119" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J119">
+        <v>114</v>
+      </c>
+      <c r="K119" s="1">
+        <f t="shared" si="10"/>
+        <v>23000</v>
+      </c>
+      <c r="N119">
+        <f>SUM(M$5:$M119)</f>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="O119">
+        <v>114</v>
+      </c>
+      <c r="P119">
+        <v>1.8</v>
+      </c>
+      <c r="Q119">
+        <v>115000000000000</v>
+      </c>
+      <c r="R119">
+        <v>580000</v>
+      </c>
+      <c r="S119">
+        <v>1725</v>
+      </c>
+      <c r="T119" t="str">
+        <f t="shared" ref="T119:T182" si="17">T118&amp;","&amp;P119</f>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8</v>
+      </c>
+      <c r="U119" t="str">
+        <f t="shared" ref="U119:U182" si="18">U118&amp;","&amp;Q119</f>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000</v>
+      </c>
+      <c r="V119" t="str">
+        <f t="shared" ref="V119:V182" si="19">V118&amp;","&amp;R119</f>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000</v>
+      </c>
+      <c r="W119" t="str">
+        <f t="shared" ref="W119:W182" si="20">W118&amp;","&amp;S119</f>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725</v>
+      </c>
+      <c r="X119" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y119">
+        <v>570</v>
+      </c>
+      <c r="Z119">
+        <f t="shared" ref="Z119:Z182" si="21">Y119+P119*100</f>
+        <v>750</v>
+      </c>
+      <c r="AA119">
+        <f t="shared" ref="AA119:AA182" si="22">(Z119-Z118)*100/Z118</f>
+        <v>0.26737967914438504</v>
+      </c>
+    </row>
+    <row r="120" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J120">
+        <v>115</v>
+      </c>
+      <c r="K120" s="1">
+        <f t="shared" si="10"/>
+        <v>24000</v>
+      </c>
+      <c r="N120">
+        <f>SUM(M$5:$M120)</f>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="O120">
+        <v>115</v>
+      </c>
+      <c r="P120">
+        <v>1.82</v>
+      </c>
+      <c r="Q120">
+        <v>116000000000000</v>
+      </c>
+      <c r="R120">
+        <v>585000</v>
+      </c>
+      <c r="S120">
+        <v>1740</v>
+      </c>
+      <c r="T120" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82</v>
+      </c>
+      <c r="U120" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000</v>
+      </c>
+      <c r="V120" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000</v>
+      </c>
+      <c r="W120" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740</v>
+      </c>
+      <c r="X120" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y120">
+        <v>570</v>
+      </c>
+      <c r="Z120">
+        <f t="shared" si="21"/>
+        <v>752</v>
+      </c>
+      <c r="AA120">
+        <f t="shared" si="22"/>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="121" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J121">
+        <v>116</v>
+      </c>
+      <c r="K121" s="1">
+        <f t="shared" si="10"/>
+        <v>24000</v>
+      </c>
+      <c r="N121">
+        <f>SUM(M$5:$M121)</f>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="O121">
+        <v>116</v>
+      </c>
+      <c r="P121">
+        <v>1.84</v>
+      </c>
+      <c r="Q121">
+        <v>117000000000000</v>
+      </c>
+      <c r="R121">
+        <v>590000</v>
+      </c>
+      <c r="S121">
+        <v>1755</v>
+      </c>
+      <c r="T121" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84</v>
+      </c>
+      <c r="U121" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000</v>
+      </c>
+      <c r="V121" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000</v>
+      </c>
+      <c r="W121" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755</v>
+      </c>
+      <c r="X121" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y121">
+        <v>570</v>
+      </c>
+      <c r="Z121">
+        <f t="shared" si="21"/>
+        <v>754</v>
+      </c>
+      <c r="AA121">
+        <f t="shared" si="22"/>
+        <v>0.26595744680851063</v>
+      </c>
+    </row>
+    <row r="122" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J122">
+        <v>117</v>
+      </c>
+      <c r="K122" s="1">
+        <f t="shared" si="10"/>
+        <v>24000</v>
+      </c>
+      <c r="N122">
+        <f>SUM(M$5:$M122)</f>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="O122">
+        <v>117</v>
+      </c>
+      <c r="P122">
+        <v>1.86</v>
+      </c>
+      <c r="Q122">
+        <v>118000000000000</v>
+      </c>
+      <c r="R122">
+        <v>595000</v>
+      </c>
+      <c r="S122">
+        <v>1770</v>
+      </c>
+      <c r="T122" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86</v>
+      </c>
+      <c r="U122" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000</v>
+      </c>
+      <c r="V122" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000</v>
+      </c>
+      <c r="W122" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770</v>
+      </c>
+      <c r="X122" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y122">
+        <v>570</v>
+      </c>
+      <c r="Z122">
+        <f t="shared" si="21"/>
+        <v>756</v>
+      </c>
+      <c r="AA122">
+        <f t="shared" si="22"/>
+        <v>0.26525198938992045</v>
+      </c>
+    </row>
+    <row r="123" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J123">
+        <v>118</v>
+      </c>
+      <c r="K123" s="1">
+        <f t="shared" si="10"/>
+        <v>24000</v>
+      </c>
+      <c r="N123">
+        <f>SUM(M$5:$M123)</f>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="O123">
+        <v>118</v>
+      </c>
+      <c r="P123">
+        <v>1.88</v>
+      </c>
+      <c r="Q123">
+        <v>119000000000000</v>
+      </c>
+      <c r="R123">
+        <v>600000</v>
+      </c>
+      <c r="S123">
+        <v>1785</v>
+      </c>
+      <c r="T123" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88</v>
+      </c>
+      <c r="U123" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000</v>
+      </c>
+      <c r="V123" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000</v>
+      </c>
+      <c r="W123" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785</v>
+      </c>
+      <c r="X123" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y123">
+        <v>570</v>
+      </c>
+      <c r="Z123">
+        <f t="shared" si="21"/>
+        <v>758</v>
+      </c>
+      <c r="AA123">
+        <f t="shared" si="22"/>
+        <v>0.26455026455026454</v>
+      </c>
+    </row>
+    <row r="124" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J124">
+        <v>119</v>
+      </c>
+      <c r="K124" s="1">
+        <f t="shared" si="10"/>
+        <v>24000</v>
+      </c>
+      <c r="N124">
+        <f>SUM(M$5:$M124)</f>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="O124">
+        <v>119</v>
+      </c>
+      <c r="P124">
+        <v>1.9</v>
+      </c>
+      <c r="Q124">
+        <v>120000000000000</v>
+      </c>
+      <c r="R124">
+        <v>605000</v>
+      </c>
+      <c r="S124">
+        <v>1800</v>
+      </c>
+      <c r="T124" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9</v>
+      </c>
+      <c r="U124" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000</v>
+      </c>
+      <c r="V124" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000</v>
+      </c>
+      <c r="W124" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800</v>
+      </c>
+      <c r="X124" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y124">
+        <v>570</v>
+      </c>
+      <c r="Z124">
+        <f t="shared" si="21"/>
+        <v>760</v>
+      </c>
+      <c r="AA124">
+        <f t="shared" si="22"/>
+        <v>0.26385224274406333</v>
+      </c>
+    </row>
+    <row r="125" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J125">
+        <v>120</v>
+      </c>
+      <c r="K125" s="1">
+        <f t="shared" si="10"/>
+        <v>25000</v>
+      </c>
+      <c r="L125" s="1">
+        <f>SUM(K125:K134)</f>
+        <v>255000</v>
+      </c>
+      <c r="M125">
+        <f>L125*4/$H$25</f>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="N125">
+        <f>SUM(M$5:$M125)</f>
+        <v>195.00000000000003</v>
+      </c>
+      <c r="O125">
+        <v>120</v>
+      </c>
+      <c r="P125">
+        <v>1.92</v>
+      </c>
+      <c r="Q125">
+        <v>121000000000000</v>
+      </c>
+      <c r="R125">
+        <v>610000</v>
+      </c>
+      <c r="S125">
+        <v>1815</v>
+      </c>
+      <c r="T125" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92</v>
+      </c>
+      <c r="U125" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000</v>
+      </c>
+      <c r="V125" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000</v>
+      </c>
+      <c r="W125" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815</v>
+      </c>
+      <c r="X125" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y125">
+        <v>720</v>
+      </c>
+      <c r="Z125">
+        <f t="shared" si="21"/>
+        <v>912</v>
+      </c>
+      <c r="AA125" s="6">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J126">
+        <v>121</v>
+      </c>
+      <c r="K126" s="1">
+        <f t="shared" si="10"/>
+        <v>25000</v>
+      </c>
+      <c r="N126">
+        <f>SUM(M$5:$M126)</f>
+        <v>195.00000000000003</v>
+      </c>
+      <c r="O126">
+        <v>121</v>
+      </c>
+      <c r="P126">
+        <v>1.94</v>
+      </c>
+      <c r="Q126">
+        <v>122000000000000</v>
+      </c>
+      <c r="R126">
+        <v>615000</v>
+      </c>
+      <c r="S126">
+        <v>1830</v>
+      </c>
+      <c r="T126" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94</v>
+      </c>
+      <c r="U126" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000</v>
+      </c>
+      <c r="V126" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000</v>
+      </c>
+      <c r="W126" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830</v>
+      </c>
+      <c r="X126" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y126">
+        <v>720</v>
+      </c>
+      <c r="Z126">
+        <f t="shared" si="21"/>
+        <v>914</v>
+      </c>
+      <c r="AA126">
+        <f t="shared" si="22"/>
+        <v>0.21929824561403508</v>
+      </c>
+    </row>
+    <row r="127" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J127">
+        <v>122</v>
+      </c>
+      <c r="K127" s="1">
+        <f t="shared" si="10"/>
+        <v>25000</v>
+      </c>
+      <c r="N127">
+        <f>SUM(M$5:$M127)</f>
+        <v>195.00000000000003</v>
+      </c>
+      <c r="O127">
+        <v>122</v>
+      </c>
+      <c r="P127">
+        <v>1.96</v>
+      </c>
+      <c r="Q127">
+        <v>123000000000000</v>
+      </c>
+      <c r="R127">
+        <v>620000</v>
+      </c>
+      <c r="S127">
+        <v>1845</v>
+      </c>
+      <c r="T127" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96</v>
+      </c>
+      <c r="U127" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000</v>
+      </c>
+      <c r="V127" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000</v>
+      </c>
+      <c r="W127" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845</v>
+      </c>
+      <c r="X127" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y127">
+        <v>720</v>
+      </c>
+      <c r="Z127">
+        <f t="shared" si="21"/>
+        <v>916</v>
+      </c>
+      <c r="AA127">
+        <f t="shared" si="22"/>
+        <v>0.21881838074398249</v>
+      </c>
+    </row>
+    <row r="128" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J128">
+        <v>123</v>
+      </c>
+      <c r="K128" s="1">
+        <f t="shared" si="10"/>
+        <v>25000</v>
+      </c>
+      <c r="N128">
+        <f>SUM(M$5:$M128)</f>
+        <v>195.00000000000003</v>
+      </c>
+      <c r="O128">
+        <v>123</v>
+      </c>
+      <c r="P128">
+        <v>1.98</v>
+      </c>
+      <c r="Q128">
+        <v>124000000000000</v>
+      </c>
+      <c r="R128">
+        <v>625000</v>
+      </c>
+      <c r="S128">
+        <v>1860</v>
+      </c>
+      <c r="T128" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98</v>
+      </c>
+      <c r="U128" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000</v>
+      </c>
+      <c r="V128" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000</v>
+      </c>
+      <c r="W128" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860</v>
+      </c>
+      <c r="X128" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y128">
+        <v>720</v>
+      </c>
+      <c r="Z128">
+        <f t="shared" si="21"/>
+        <v>918</v>
+      </c>
+      <c r="AA128">
+        <f t="shared" si="22"/>
+        <v>0.2183406113537118</v>
+      </c>
+    </row>
+    <row r="129" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J129">
+        <v>124</v>
+      </c>
+      <c r="K129" s="1">
+        <f t="shared" si="10"/>
+        <v>25000</v>
+      </c>
+      <c r="N129">
+        <f>SUM(M$5:$M129)</f>
+        <v>195.00000000000003</v>
+      </c>
+      <c r="O129">
+        <v>124</v>
+      </c>
+      <c r="P129">
+        <v>2</v>
+      </c>
+      <c r="Q129">
+        <v>125000000000000</v>
+      </c>
+      <c r="R129">
+        <v>630000</v>
+      </c>
+      <c r="S129">
+        <v>1875</v>
+      </c>
+      <c r="T129" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2</v>
+      </c>
+      <c r="U129" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000</v>
+      </c>
+      <c r="V129" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000</v>
+      </c>
+      <c r="W129" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875</v>
+      </c>
+      <c r="X129" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y129">
+        <v>720</v>
+      </c>
+      <c r="Z129">
+        <f t="shared" si="21"/>
+        <v>920</v>
+      </c>
+      <c r="AA129">
+        <f t="shared" si="22"/>
+        <v>0.2178649237472767</v>
+      </c>
+    </row>
+    <row r="130" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J130">
+        <v>125</v>
+      </c>
+      <c r="K130" s="1">
+        <f t="shared" si="10"/>
+        <v>26000</v>
+      </c>
+      <c r="N130">
+        <f>SUM(M$5:$M130)</f>
+        <v>195.00000000000003</v>
+      </c>
+      <c r="O130">
+        <v>125</v>
+      </c>
+      <c r="P130">
+        <v>2.02</v>
+      </c>
+      <c r="Q130">
+        <v>126000000000000</v>
+      </c>
+      <c r="R130">
+        <v>635000</v>
+      </c>
+      <c r="S130">
+        <v>1890</v>
+      </c>
+      <c r="T130" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02</v>
+      </c>
+      <c r="U130" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000</v>
+      </c>
+      <c r="V130" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000</v>
+      </c>
+      <c r="W130" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890</v>
+      </c>
+      <c r="X130" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y130">
+        <v>720</v>
+      </c>
+      <c r="Z130">
+        <f t="shared" si="21"/>
+        <v>922</v>
+      </c>
+      <c r="AA130">
+        <f t="shared" si="22"/>
+        <v>0.21739130434782608</v>
+      </c>
+    </row>
+    <row r="131" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J131">
+        <v>126</v>
+      </c>
+      <c r="K131" s="1">
+        <f t="shared" si="10"/>
+        <v>26000</v>
+      </c>
+      <c r="N131">
+        <f>SUM(M$5:$M131)</f>
+        <v>195.00000000000003</v>
+      </c>
+      <c r="O131">
+        <v>126</v>
+      </c>
+      <c r="P131">
+        <v>2.04</v>
+      </c>
+      <c r="Q131">
+        <v>127000000000000</v>
+      </c>
+      <c r="R131">
+        <v>640000</v>
+      </c>
+      <c r="S131">
+        <v>1905</v>
+      </c>
+      <c r="T131" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04</v>
+      </c>
+      <c r="U131" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000</v>
+      </c>
+      <c r="V131" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000</v>
+      </c>
+      <c r="W131" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905</v>
+      </c>
+      <c r="X131" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y131">
+        <v>720</v>
+      </c>
+      <c r="Z131">
+        <f t="shared" si="21"/>
+        <v>924</v>
+      </c>
+      <c r="AA131">
+        <f t="shared" si="22"/>
+        <v>0.21691973969631237</v>
+      </c>
+    </row>
+    <row r="132" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J132">
+        <v>127</v>
+      </c>
+      <c r="K132" s="1">
+        <f t="shared" si="10"/>
+        <v>26000</v>
+      </c>
+      <c r="N132">
+        <f>SUM(M$5:$M132)</f>
+        <v>195.00000000000003</v>
+      </c>
+      <c r="O132">
+        <v>127</v>
+      </c>
+      <c r="P132">
+        <v>2.06</v>
+      </c>
+      <c r="Q132">
+        <v>128000000000000</v>
+      </c>
+      <c r="R132">
+        <v>645000</v>
+      </c>
+      <c r="S132">
+        <v>1920</v>
+      </c>
+      <c r="T132" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06</v>
+      </c>
+      <c r="U132" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000</v>
+      </c>
+      <c r="V132" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000</v>
+      </c>
+      <c r="W132" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920</v>
+      </c>
+      <c r="X132" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y132">
+        <v>720</v>
+      </c>
+      <c r="Z132">
+        <f t="shared" si="21"/>
+        <v>926</v>
+      </c>
+      <c r="AA132">
+        <f t="shared" si="22"/>
+        <v>0.21645021645021645</v>
+      </c>
+    </row>
+    <row r="133" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J133">
+        <v>128</v>
+      </c>
+      <c r="K133" s="1">
+        <f t="shared" si="10"/>
+        <v>26000</v>
+      </c>
+      <c r="N133">
+        <f>SUM(M$5:$M133)</f>
+        <v>195.00000000000003</v>
+      </c>
+      <c r="O133">
+        <v>128</v>
+      </c>
+      <c r="P133">
+        <v>2.08</v>
+      </c>
+      <c r="Q133">
+        <v>129000000000000</v>
+      </c>
+      <c r="R133">
+        <v>650000</v>
+      </c>
+      <c r="S133">
+        <v>1935</v>
+      </c>
+      <c r="T133" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08</v>
+      </c>
+      <c r="U133" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000</v>
+      </c>
+      <c r="V133" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000</v>
+      </c>
+      <c r="W133" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935</v>
+      </c>
+      <c r="X133" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y133">
+        <v>720</v>
+      </c>
+      <c r="Z133">
+        <f t="shared" si="21"/>
+        <v>928</v>
+      </c>
+      <c r="AA133">
+        <f t="shared" si="22"/>
+        <v>0.21598272138228941</v>
+      </c>
+    </row>
+    <row r="134" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J134">
+        <v>129</v>
+      </c>
+      <c r="K134" s="1">
+        <f t="shared" si="10"/>
+        <v>26000</v>
+      </c>
+      <c r="N134">
+        <f>SUM(M$5:$M134)</f>
+        <v>195.00000000000003</v>
+      </c>
+      <c r="O134">
+        <v>129</v>
+      </c>
+      <c r="P134">
+        <v>2.1</v>
+      </c>
+      <c r="Q134">
+        <v>130000000000000</v>
+      </c>
+      <c r="R134">
+        <v>655000</v>
+      </c>
+      <c r="S134">
+        <v>1950</v>
+      </c>
+      <c r="T134" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1</v>
+      </c>
+      <c r="U134" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000</v>
+      </c>
+      <c r="V134" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000</v>
+      </c>
+      <c r="W134" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950</v>
+      </c>
+      <c r="X134" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y134">
+        <v>720</v>
+      </c>
+      <c r="Z134">
+        <f t="shared" si="21"/>
+        <v>930</v>
+      </c>
+      <c r="AA134">
+        <f t="shared" si="22"/>
+        <v>0.21551724137931033</v>
+      </c>
+    </row>
+    <row r="135" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J135">
+        <v>130</v>
+      </c>
+      <c r="K135" s="1">
+        <f t="shared" si="10"/>
+        <v>27000</v>
+      </c>
+      <c r="L135" s="1">
+        <f>SUM(K135:K144)</f>
+        <v>275000</v>
+      </c>
+      <c r="M135">
+        <f>L135*4/$H$25</f>
+        <v>30.555555555555557</v>
+      </c>
+      <c r="N135">
+        <f>SUM(M$5:$M135)</f>
+        <v>225.5555555555556</v>
+      </c>
+      <c r="O135">
+        <v>130</v>
+      </c>
+      <c r="P135">
+        <v>2.12</v>
+      </c>
+      <c r="Q135">
+        <v>131000000000000</v>
+      </c>
+      <c r="R135">
+        <v>660000</v>
+      </c>
+      <c r="S135">
+        <v>1965</v>
+      </c>
+      <c r="T135" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12</v>
+      </c>
+      <c r="U135" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000</v>
+      </c>
+      <c r="V135" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000</v>
+      </c>
+      <c r="W135" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965</v>
+      </c>
+      <c r="X135" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y135">
+        <v>900</v>
+      </c>
+      <c r="Z135">
+        <f t="shared" si="21"/>
+        <v>1112</v>
+      </c>
+      <c r="AA135" s="6">
+        <f t="shared" si="22"/>
+        <v>19.56989247311828</v>
+      </c>
+    </row>
+    <row r="136" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J136">
+        <v>131</v>
+      </c>
+      <c r="K136" s="1">
+        <f t="shared" si="10"/>
+        <v>27000</v>
+      </c>
+      <c r="N136">
+        <f>SUM(M$5:$M136)</f>
+        <v>225.5555555555556</v>
+      </c>
+      <c r="O136">
+        <v>131</v>
+      </c>
+      <c r="P136">
+        <v>2.14</v>
+      </c>
+      <c r="Q136">
+        <v>132000000000000</v>
+      </c>
+      <c r="R136">
+        <v>665000</v>
+      </c>
+      <c r="S136">
+        <v>1980</v>
+      </c>
+      <c r="T136" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14</v>
+      </c>
+      <c r="U136" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000</v>
+      </c>
+      <c r="V136" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000</v>
+      </c>
+      <c r="W136" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980</v>
+      </c>
+      <c r="X136" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y136">
+        <v>900</v>
+      </c>
+      <c r="Z136">
+        <f t="shared" si="21"/>
+        <v>1114</v>
+      </c>
+      <c r="AA136">
+        <f t="shared" si="22"/>
+        <v>0.17985611510791366</v>
+      </c>
+    </row>
+    <row r="137" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J137">
+        <v>132</v>
+      </c>
+      <c r="K137" s="1">
+        <f t="shared" si="10"/>
+        <v>27000</v>
+      </c>
+      <c r="N137">
+        <f>SUM(M$5:$M137)</f>
+        <v>225.5555555555556</v>
+      </c>
+      <c r="O137">
+        <v>132</v>
+      </c>
+      <c r="P137">
+        <v>2.16</v>
+      </c>
+      <c r="Q137">
+        <v>133000000000000</v>
+      </c>
+      <c r="R137">
+        <v>670000</v>
+      </c>
+      <c r="S137">
+        <v>1995</v>
+      </c>
+      <c r="T137" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16</v>
+      </c>
+      <c r="U137" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000</v>
+      </c>
+      <c r="V137" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000</v>
+      </c>
+      <c r="W137" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995</v>
+      </c>
+      <c r="X137" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y137">
+        <v>900</v>
+      </c>
+      <c r="Z137">
+        <f t="shared" si="21"/>
+        <v>1116</v>
+      </c>
+      <c r="AA137">
+        <f t="shared" si="22"/>
+        <v>0.17953321364452424</v>
+      </c>
+    </row>
+    <row r="138" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J138">
+        <v>133</v>
+      </c>
+      <c r="K138" s="1">
+        <f t="shared" si="10"/>
+        <v>27000</v>
+      </c>
+      <c r="N138">
+        <f>SUM(M$5:$M138)</f>
+        <v>225.5555555555556</v>
+      </c>
+      <c r="O138">
+        <v>133</v>
+      </c>
+      <c r="P138">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="Q138">
+        <v>134000000000000</v>
+      </c>
+      <c r="R138">
+        <v>675000</v>
+      </c>
+      <c r="S138">
+        <v>2010</v>
+      </c>
+      <c r="T138" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18</v>
+      </c>
+      <c r="U138" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000</v>
+      </c>
+      <c r="V138" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000</v>
+      </c>
+      <c r="W138" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010</v>
+      </c>
+      <c r="X138" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y138">
+        <v>900</v>
+      </c>
+      <c r="Z138">
+        <f t="shared" si="21"/>
+        <v>1118</v>
+      </c>
+      <c r="AA138">
+        <f t="shared" si="22"/>
+        <v>0.17921146953405018</v>
+      </c>
+    </row>
+    <row r="139" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J139">
+        <v>134</v>
+      </c>
+      <c r="K139" s="1">
+        <f t="shared" ref="K139:K202" si="23">K134+1000</f>
+        <v>27000</v>
+      </c>
+      <c r="N139">
+        <f>SUM(M$5:$M139)</f>
+        <v>225.5555555555556</v>
+      </c>
+      <c r="O139">
+        <v>134</v>
+      </c>
+      <c r="P139">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q139">
+        <v>135000000000000</v>
+      </c>
+      <c r="R139">
+        <v>680000</v>
+      </c>
+      <c r="S139">
+        <v>2025</v>
+      </c>
+      <c r="T139" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2</v>
+      </c>
+      <c r="U139" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000</v>
+      </c>
+      <c r="V139" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000</v>
+      </c>
+      <c r="W139" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025</v>
+      </c>
+      <c r="X139" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y139">
+        <v>900</v>
+      </c>
+      <c r="Z139">
+        <f t="shared" si="21"/>
+        <v>1120</v>
+      </c>
+      <c r="AA139">
+        <f t="shared" si="22"/>
+        <v>0.17889087656529518</v>
+      </c>
+    </row>
+    <row r="140" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J140">
+        <v>135</v>
+      </c>
+      <c r="K140" s="1">
+        <f t="shared" si="23"/>
+        <v>28000</v>
+      </c>
+      <c r="N140">
+        <f>SUM(M$5:$M140)</f>
+        <v>225.5555555555556</v>
+      </c>
+      <c r="O140">
+        <v>135</v>
+      </c>
+      <c r="P140">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="Q140">
+        <v>136000000000000</v>
+      </c>
+      <c r="R140">
+        <v>685000</v>
+      </c>
+      <c r="S140">
+        <v>2040</v>
+      </c>
+      <c r="T140" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22</v>
+      </c>
+      <c r="U140" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000</v>
+      </c>
+      <c r="V140" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000</v>
+      </c>
+      <c r="W140" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040</v>
+      </c>
+      <c r="X140" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y140">
+        <v>900</v>
+      </c>
+      <c r="Z140">
+        <f t="shared" si="21"/>
+        <v>1122</v>
+      </c>
+      <c r="AA140">
+        <f t="shared" si="22"/>
+        <v>0.17857142857142858</v>
+      </c>
+    </row>
+    <row r="141" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J141">
+        <v>136</v>
+      </c>
+      <c r="K141" s="1">
+        <f t="shared" si="23"/>
+        <v>28000</v>
+      </c>
+      <c r="N141">
+        <f>SUM(M$5:$M141)</f>
+        <v>225.5555555555556</v>
+      </c>
+      <c r="O141">
+        <v>136</v>
+      </c>
+      <c r="P141">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Q141">
+        <v>137000000000000</v>
+      </c>
+      <c r="R141">
+        <v>690000</v>
+      </c>
+      <c r="S141">
+        <v>2055</v>
+      </c>
+      <c r="T141" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24</v>
+      </c>
+      <c r="U141" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000</v>
+      </c>
+      <c r="V141" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000</v>
+      </c>
+      <c r="W141" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055</v>
+      </c>
+      <c r="X141" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y141">
+        <v>900</v>
+      </c>
+      <c r="Z141">
+        <f t="shared" si="21"/>
+        <v>1124</v>
+      </c>
+      <c r="AA141">
+        <f t="shared" si="22"/>
+        <v>0.17825311942959002</v>
+      </c>
+    </row>
+    <row r="142" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J142">
+        <v>137</v>
+      </c>
+      <c r="K142" s="1">
+        <f t="shared" si="23"/>
+        <v>28000</v>
+      </c>
+      <c r="N142">
+        <f>SUM(M$5:$M142)</f>
+        <v>225.5555555555556</v>
+      </c>
+      <c r="O142">
+        <v>137</v>
+      </c>
+      <c r="P142">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="Q142">
+        <v>138000000000000</v>
+      </c>
+      <c r="R142">
+        <v>695000</v>
+      </c>
+      <c r="S142">
+        <v>2070</v>
+      </c>
+      <c r="T142" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26</v>
+      </c>
+      <c r="U142" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000</v>
+      </c>
+      <c r="V142" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000</v>
+      </c>
+      <c r="W142" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070</v>
+      </c>
+      <c r="X142" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y142">
+        <v>900</v>
+      </c>
+      <c r="Z142">
+        <f t="shared" si="21"/>
+        <v>1126</v>
+      </c>
+      <c r="AA142">
+        <f t="shared" si="22"/>
+        <v>0.17793594306049823</v>
+      </c>
+    </row>
+    <row r="143" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J143">
+        <v>138</v>
+      </c>
+      <c r="K143" s="1">
+        <f t="shared" si="23"/>
+        <v>28000</v>
+      </c>
+      <c r="N143">
+        <f>SUM(M$5:$M143)</f>
+        <v>225.5555555555556</v>
+      </c>
+      <c r="O143">
+        <v>138</v>
+      </c>
+      <c r="P143">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q143">
+        <v>139000000000000</v>
+      </c>
+      <c r="R143">
+        <v>700000</v>
+      </c>
+      <c r="S143">
+        <v>2085</v>
+      </c>
+      <c r="T143" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28</v>
+      </c>
+      <c r="U143" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000</v>
+      </c>
+      <c r="V143" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000</v>
+      </c>
+      <c r="W143" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085</v>
+      </c>
+      <c r="X143" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y143">
+        <v>900</v>
+      </c>
+      <c r="Z143">
+        <f t="shared" si="21"/>
+        <v>1128</v>
+      </c>
+      <c r="AA143">
+        <f t="shared" si="22"/>
+        <v>0.17761989342806395</v>
+      </c>
+    </row>
+    <row r="144" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J144">
+        <v>139</v>
+      </c>
+      <c r="K144" s="1">
+        <f t="shared" si="23"/>
+        <v>28000</v>
+      </c>
+      <c r="N144">
+        <f>SUM(M$5:$M144)</f>
+        <v>225.5555555555556</v>
+      </c>
+      <c r="O144">
+        <v>139</v>
+      </c>
+      <c r="P144">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q144">
+        <v>140000000000000</v>
+      </c>
+      <c r="R144">
+        <v>705000</v>
+      </c>
+      <c r="S144">
+        <v>2100</v>
+      </c>
+      <c r="T144" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3</v>
+      </c>
+      <c r="U144" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000</v>
+      </c>
+      <c r="V144" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000</v>
+      </c>
+      <c r="W144" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100</v>
+      </c>
+      <c r="X144" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y144">
+        <v>900</v>
+      </c>
+      <c r="Z144">
+        <f t="shared" si="21"/>
+        <v>1130</v>
+      </c>
+      <c r="AA144">
+        <f t="shared" si="22"/>
+        <v>0.1773049645390071</v>
+      </c>
+    </row>
+    <row r="145" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J145">
+        <v>140</v>
+      </c>
+      <c r="K145" s="1">
+        <f t="shared" si="23"/>
+        <v>29000</v>
+      </c>
+      <c r="L145" s="1">
+        <f>SUM(K145:K154)</f>
+        <v>295000</v>
+      </c>
+      <c r="M145">
+        <f>L145*4/$H$25</f>
+        <v>32.777777777777779</v>
+      </c>
+      <c r="N145">
+        <f>SUM(M$5:$M145)</f>
+        <v>258.33333333333337</v>
+      </c>
+      <c r="O145">
+        <v>140</v>
+      </c>
+      <c r="P145">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Q145">
+        <v>141000000000000</v>
+      </c>
+      <c r="R145">
+        <v>710000</v>
+      </c>
+      <c r="S145">
+        <v>2115</v>
+      </c>
+      <c r="T145" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32</v>
+      </c>
+      <c r="U145" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000</v>
+      </c>
+      <c r="V145" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000</v>
+      </c>
+      <c r="W145" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115</v>
+      </c>
+      <c r="X145" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y145">
+        <v>1100</v>
+      </c>
+      <c r="Z145">
+        <f t="shared" si="21"/>
+        <v>1332</v>
+      </c>
+      <c r="AA145" s="6">
+        <f t="shared" si="22"/>
+        <v>17.876106194690266</v>
+      </c>
+    </row>
+    <row r="146" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J146">
+        <v>141</v>
+      </c>
+      <c r="K146" s="1">
+        <f t="shared" si="23"/>
+        <v>29000</v>
+      </c>
+      <c r="N146">
+        <f>SUM(M$5:$M146)</f>
+        <v>258.33333333333337</v>
+      </c>
+      <c r="O146">
+        <v>141</v>
+      </c>
+      <c r="P146">
+        <v>2.34</v>
+      </c>
+      <c r="Q146">
+        <v>142000000000000</v>
+      </c>
+      <c r="R146">
+        <v>715000</v>
+      </c>
+      <c r="S146">
+        <v>2130</v>
+      </c>
+      <c r="T146" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34</v>
+      </c>
+      <c r="U146" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000</v>
+      </c>
+      <c r="V146" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000</v>
+      </c>
+      <c r="W146" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130</v>
+      </c>
+      <c r="X146" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y146">
+        <v>1100</v>
+      </c>
+      <c r="Z146">
+        <f t="shared" si="21"/>
+        <v>1334</v>
+      </c>
+      <c r="AA146">
+        <f t="shared" si="22"/>
+        <v>0.15015015015015015</v>
+      </c>
+    </row>
+    <row r="147" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J147">
+        <v>142</v>
+      </c>
+      <c r="K147" s="1">
+        <f t="shared" si="23"/>
+        <v>29000</v>
+      </c>
+      <c r="N147">
+        <f>SUM(M$5:$M147)</f>
+        <v>258.33333333333337</v>
+      </c>
+      <c r="O147">
+        <v>142</v>
+      </c>
+      <c r="P147">
+        <v>2.36</v>
+      </c>
+      <c r="Q147">
+        <v>143000000000000</v>
+      </c>
+      <c r="R147">
+        <v>720000</v>
+      </c>
+      <c r="S147">
+        <v>2145</v>
+      </c>
+      <c r="T147" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36</v>
+      </c>
+      <c r="U147" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000</v>
+      </c>
+      <c r="V147" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000</v>
+      </c>
+      <c r="W147" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145</v>
+      </c>
+      <c r="X147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y147">
+        <v>1100</v>
+      </c>
+      <c r="Z147">
+        <f t="shared" si="21"/>
+        <v>1336</v>
+      </c>
+      <c r="AA147">
+        <f t="shared" si="22"/>
+        <v>0.14992503748125938</v>
+      </c>
+    </row>
+    <row r="148" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J148">
+        <v>143</v>
+      </c>
+      <c r="K148" s="1">
+        <f t="shared" si="23"/>
+        <v>29000</v>
+      </c>
+      <c r="N148">
+        <f>SUM(M$5:$M148)</f>
+        <v>258.33333333333337</v>
+      </c>
+      <c r="O148">
+        <v>143</v>
+      </c>
+      <c r="P148">
+        <v>2.38</v>
+      </c>
+      <c r="Q148">
+        <v>144000000000000</v>
+      </c>
+      <c r="R148">
+        <v>725000</v>
+      </c>
+      <c r="S148">
+        <v>2160</v>
+      </c>
+      <c r="T148" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38</v>
+      </c>
+      <c r="U148" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000</v>
+      </c>
+      <c r="V148" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000</v>
+      </c>
+      <c r="W148" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160</v>
+      </c>
+      <c r="X148" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y148">
+        <v>1100</v>
+      </c>
+      <c r="Z148">
+        <f t="shared" si="21"/>
+        <v>1338</v>
+      </c>
+      <c r="AA148">
+        <f t="shared" si="22"/>
+        <v>0.1497005988023952</v>
+      </c>
+    </row>
+    <row r="149" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J149">
+        <v>144</v>
+      </c>
+      <c r="K149" s="1">
+        <f t="shared" si="23"/>
+        <v>29000</v>
+      </c>
+      <c r="N149">
+        <f>SUM(M$5:$M149)</f>
+        <v>258.33333333333337</v>
+      </c>
+      <c r="O149">
+        <v>144</v>
+      </c>
+      <c r="P149">
+        <v>2.4</v>
+      </c>
+      <c r="Q149">
+        <v>145000000000000</v>
+      </c>
+      <c r="R149">
+        <v>730000</v>
+      </c>
+      <c r="S149">
+        <v>2175</v>
+      </c>
+      <c r="T149" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4</v>
+      </c>
+      <c r="U149" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000</v>
+      </c>
+      <c r="V149" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000</v>
+      </c>
+      <c r="W149" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175</v>
+      </c>
+      <c r="X149" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y149">
+        <v>1100</v>
+      </c>
+      <c r="Z149">
+        <f t="shared" si="21"/>
+        <v>1340</v>
+      </c>
+      <c r="AA149">
+        <f t="shared" si="22"/>
+        <v>0.14947683109118087</v>
+      </c>
+    </row>
+    <row r="150" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J150">
+        <v>145</v>
+      </c>
+      <c r="K150" s="1">
+        <f t="shared" si="23"/>
+        <v>30000</v>
+      </c>
+      <c r="N150">
+        <f>SUM(M$5:$M150)</f>
+        <v>258.33333333333337</v>
+      </c>
+      <c r="O150">
+        <v>145</v>
+      </c>
+      <c r="P150">
+        <v>2.42</v>
+      </c>
+      <c r="Q150">
+        <v>146000000000000</v>
+      </c>
+      <c r="R150">
+        <v>735000</v>
+      </c>
+      <c r="S150">
+        <v>2190</v>
+      </c>
+      <c r="T150" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42</v>
+      </c>
+      <c r="U150" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000</v>
+      </c>
+      <c r="V150" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000</v>
+      </c>
+      <c r="W150" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190</v>
+      </c>
+      <c r="X150" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y150">
+        <v>1100</v>
+      </c>
+      <c r="Z150">
+        <f t="shared" si="21"/>
+        <v>1342</v>
+      </c>
+      <c r="AA150">
+        <f t="shared" si="22"/>
+        <v>0.14925373134328357</v>
+      </c>
+    </row>
+    <row r="151" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J151">
+        <v>146</v>
+      </c>
+      <c r="K151" s="1">
+        <f t="shared" si="23"/>
+        <v>30000</v>
+      </c>
+      <c r="N151">
+        <f>SUM(M$5:$M151)</f>
+        <v>258.33333333333337</v>
+      </c>
+      <c r="O151">
+        <v>146</v>
+      </c>
+      <c r="P151">
+        <v>2.44</v>
+      </c>
+      <c r="Q151">
+        <v>147000000000000</v>
+      </c>
+      <c r="R151">
+        <v>740000</v>
+      </c>
+      <c r="S151">
+        <v>2205</v>
+      </c>
+      <c r="T151" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44</v>
+      </c>
+      <c r="U151" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000</v>
+      </c>
+      <c r="V151" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000</v>
+      </c>
+      <c r="W151" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205</v>
+      </c>
+      <c r="X151" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y151">
+        <v>1100</v>
+      </c>
+      <c r="Z151">
+        <f t="shared" si="21"/>
+        <v>1344</v>
+      </c>
+      <c r="AA151">
+        <f t="shared" si="22"/>
+        <v>0.14903129657228018</v>
+      </c>
+    </row>
+    <row r="152" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J152">
+        <v>147</v>
+      </c>
+      <c r="K152" s="1">
+        <f t="shared" si="23"/>
+        <v>30000</v>
+      </c>
+      <c r="N152">
+        <f>SUM(M$5:$M152)</f>
+        <v>258.33333333333337</v>
+      </c>
+      <c r="O152">
+        <v>147</v>
+      </c>
+      <c r="P152">
+        <v>2.46</v>
+      </c>
+      <c r="Q152">
+        <v>148000000000000</v>
+      </c>
+      <c r="R152">
+        <v>745000</v>
+      </c>
+      <c r="S152">
+        <v>2220</v>
+      </c>
+      <c r="T152" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46</v>
+      </c>
+      <c r="U152" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000</v>
+      </c>
+      <c r="V152" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000</v>
+      </c>
+      <c r="W152" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220</v>
+      </c>
+      <c r="X152" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y152">
+        <v>1100</v>
+      </c>
+      <c r="Z152">
+        <f t="shared" si="21"/>
+        <v>1346</v>
+      </c>
+      <c r="AA152">
+        <f t="shared" si="22"/>
+        <v>0.14880952380952381</v>
+      </c>
+    </row>
+    <row r="153" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J153">
+        <v>148</v>
+      </c>
+      <c r="K153" s="1">
+        <f t="shared" si="23"/>
+        <v>30000</v>
+      </c>
+      <c r="N153">
+        <f>SUM(M$5:$M153)</f>
+        <v>258.33333333333337</v>
+      </c>
+      <c r="O153">
+        <v>148</v>
+      </c>
+      <c r="P153">
+        <v>2.48</v>
+      </c>
+      <c r="Q153">
+        <v>149000000000000</v>
+      </c>
+      <c r="R153">
+        <v>750000</v>
+      </c>
+      <c r="S153">
+        <v>2235</v>
+      </c>
+      <c r="T153" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48</v>
+      </c>
+      <c r="U153" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000</v>
+      </c>
+      <c r="V153" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000</v>
+      </c>
+      <c r="W153" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235</v>
+      </c>
+      <c r="X153" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y153">
+        <v>1100</v>
+      </c>
+      <c r="Z153">
+        <f t="shared" si="21"/>
+        <v>1348</v>
+      </c>
+      <c r="AA153">
+        <f t="shared" si="22"/>
+        <v>0.14858841010401189</v>
+      </c>
+    </row>
+    <row r="154" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J154">
+        <v>149</v>
+      </c>
+      <c r="K154" s="1">
+        <f t="shared" si="23"/>
+        <v>30000</v>
+      </c>
+      <c r="N154">
+        <f>SUM(M$5:$M154)</f>
+        <v>258.33333333333337</v>
+      </c>
+      <c r="O154">
+        <v>149</v>
+      </c>
+      <c r="P154">
+        <v>2.5</v>
+      </c>
+      <c r="Q154">
+        <v>150000000000000</v>
+      </c>
+      <c r="R154">
+        <v>755000</v>
+      </c>
+      <c r="S154">
+        <v>2250</v>
+      </c>
+      <c r="T154" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5</v>
+      </c>
+      <c r="U154" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000</v>
+      </c>
+      <c r="V154" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000</v>
+      </c>
+      <c r="W154" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250</v>
+      </c>
+      <c r="X154" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y154">
+        <v>1100</v>
+      </c>
+      <c r="Z154">
+        <f t="shared" si="21"/>
+        <v>1350</v>
+      </c>
+      <c r="AA154">
+        <f t="shared" si="22"/>
+        <v>0.14836795252225518</v>
+      </c>
+    </row>
+    <row r="155" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J155">
+        <v>150</v>
+      </c>
+      <c r="K155" s="1">
+        <f t="shared" si="23"/>
+        <v>31000</v>
+      </c>
+      <c r="L155" s="1">
+        <f>SUM(K155:K164)</f>
+        <v>315000</v>
+      </c>
+      <c r="M155">
+        <f>L155*4/$H$25</f>
+        <v>35</v>
+      </c>
+      <c r="N155">
+        <f>SUM(M$5:$M155)</f>
+        <v>293.33333333333337</v>
+      </c>
+      <c r="O155">
+        <v>150</v>
+      </c>
+      <c r="P155">
+        <v>2.52</v>
+      </c>
+      <c r="Q155">
+        <v>151000000000000</v>
+      </c>
+      <c r="R155">
+        <v>760000</v>
+      </c>
+      <c r="S155">
+        <v>2265</v>
+      </c>
+      <c r="T155" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52</v>
+      </c>
+      <c r="U155" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000</v>
+      </c>
+      <c r="V155" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000</v>
+      </c>
+      <c r="W155" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265</v>
+      </c>
+      <c r="X155" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y155">
+        <v>1350</v>
+      </c>
+      <c r="Z155">
+        <f t="shared" si="21"/>
+        <v>1602</v>
+      </c>
+      <c r="AA155" s="6">
+        <f t="shared" si="22"/>
+        <v>18.666666666666668</v>
+      </c>
+    </row>
+    <row r="156" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J156">
+        <v>151</v>
+      </c>
+      <c r="K156" s="1">
+        <f t="shared" si="23"/>
+        <v>31000</v>
+      </c>
+      <c r="N156">
+        <f>SUM(M$5:$M156)</f>
+        <v>293.33333333333337</v>
+      </c>
+      <c r="O156">
+        <v>151</v>
+      </c>
+      <c r="P156">
+        <v>2.54</v>
+      </c>
+      <c r="Q156">
+        <v>152000000000000</v>
+      </c>
+      <c r="R156">
+        <v>765000</v>
+      </c>
+      <c r="S156">
+        <v>2280</v>
+      </c>
+      <c r="T156" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54</v>
+      </c>
+      <c r="U156" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000</v>
+      </c>
+      <c r="V156" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000</v>
+      </c>
+      <c r="W156" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280</v>
+      </c>
+      <c r="X156" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y156">
+        <v>1350</v>
+      </c>
+      <c r="Z156">
+        <f t="shared" si="21"/>
+        <v>1604</v>
+      </c>
+      <c r="AA156">
+        <f t="shared" si="22"/>
+        <v>0.12484394506866417</v>
+      </c>
+    </row>
+    <row r="157" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J157">
+        <v>152</v>
+      </c>
+      <c r="K157" s="1">
+        <f t="shared" si="23"/>
+        <v>31000</v>
+      </c>
+      <c r="N157">
+        <f>SUM(M$5:$M157)</f>
+        <v>293.33333333333337</v>
+      </c>
+      <c r="O157">
+        <v>152</v>
+      </c>
+      <c r="P157">
+        <v>2.56</v>
+      </c>
+      <c r="Q157">
+        <v>153000000000000</v>
+      </c>
+      <c r="R157">
+        <v>770000</v>
+      </c>
+      <c r="S157">
+        <v>2295</v>
+      </c>
+      <c r="T157" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56</v>
+      </c>
+      <c r="U157" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000</v>
+      </c>
+      <c r="V157" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000</v>
+      </c>
+      <c r="W157" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295</v>
+      </c>
+      <c r="X157" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y157">
+        <v>1350</v>
+      </c>
+      <c r="Z157">
+        <f t="shared" si="21"/>
+        <v>1606</v>
+      </c>
+      <c r="AA157">
+        <f t="shared" si="22"/>
+        <v>0.12468827930174564</v>
+      </c>
+    </row>
+    <row r="158" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J158">
+        <v>153</v>
+      </c>
+      <c r="K158" s="1">
+        <f t="shared" si="23"/>
+        <v>31000</v>
+      </c>
+      <c r="N158">
+        <f>SUM(M$5:$M158)</f>
+        <v>293.33333333333337</v>
+      </c>
+      <c r="O158">
+        <v>153</v>
+      </c>
+      <c r="P158">
+        <v>2.58</v>
+      </c>
+      <c r="Q158">
+        <v>154000000000000</v>
+      </c>
+      <c r="R158">
+        <v>775000</v>
+      </c>
+      <c r="S158">
+        <v>2310</v>
+      </c>
+      <c r="T158" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58</v>
+      </c>
+      <c r="U158" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000</v>
+      </c>
+      <c r="V158" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000</v>
+      </c>
+      <c r="W158" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310</v>
+      </c>
+      <c r="X158" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y158">
+        <v>1350</v>
+      </c>
+      <c r="Z158">
+        <f t="shared" si="21"/>
+        <v>1608</v>
+      </c>
+      <c r="AA158">
+        <f t="shared" si="22"/>
+        <v>0.12453300124533001</v>
+      </c>
+    </row>
+    <row r="159" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J159">
+        <v>154</v>
+      </c>
+      <c r="K159" s="1">
+        <f t="shared" si="23"/>
+        <v>31000</v>
+      </c>
+      <c r="N159">
+        <f>SUM(M$5:$M159)</f>
+        <v>293.33333333333337</v>
+      </c>
+      <c r="O159">
+        <v>154</v>
+      </c>
+      <c r="P159">
+        <v>2.6</v>
+      </c>
+      <c r="Q159">
+        <v>155000000000000</v>
+      </c>
+      <c r="R159">
+        <v>780000</v>
+      </c>
+      <c r="S159">
+        <v>2325</v>
+      </c>
+      <c r="T159" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6</v>
+      </c>
+      <c r="U159" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000</v>
+      </c>
+      <c r="V159" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000</v>
+      </c>
+      <c r="W159" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325</v>
+      </c>
+      <c r="X159" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y159">
+        <v>1350</v>
+      </c>
+      <c r="Z159">
+        <f t="shared" si="21"/>
+        <v>1610</v>
+      </c>
+      <c r="AA159">
+        <f t="shared" si="22"/>
+        <v>0.12437810945273632</v>
+      </c>
+    </row>
+    <row r="160" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J160">
+        <v>155</v>
+      </c>
+      <c r="K160" s="1">
+        <f t="shared" si="23"/>
+        <v>32000</v>
+      </c>
+      <c r="N160">
+        <f>SUM(M$5:$M160)</f>
+        <v>293.33333333333337</v>
+      </c>
+      <c r="O160">
+        <v>155</v>
+      </c>
+      <c r="P160">
+        <v>2.62</v>
+      </c>
+      <c r="Q160">
+        <v>156000000000000</v>
+      </c>
+      <c r="R160">
+        <v>785000</v>
+      </c>
+      <c r="S160">
+        <v>2340</v>
+      </c>
+      <c r="T160" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62</v>
+      </c>
+      <c r="U160" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000</v>
+      </c>
+      <c r="V160" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000</v>
+      </c>
+      <c r="W160" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340</v>
+      </c>
+      <c r="X160" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y160">
+        <v>1350</v>
+      </c>
+      <c r="Z160">
+        <f t="shared" si="21"/>
+        <v>1612</v>
+      </c>
+      <c r="AA160">
+        <f t="shared" si="22"/>
+        <v>0.12422360248447205</v>
+      </c>
+    </row>
+    <row r="161" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J161">
+        <v>156</v>
+      </c>
+      <c r="K161" s="1">
+        <f t="shared" si="23"/>
+        <v>32000</v>
+      </c>
+      <c r="N161">
+        <f>SUM(M$5:$M161)</f>
+        <v>293.33333333333337</v>
+      </c>
+      <c r="O161">
+        <v>156</v>
+      </c>
+      <c r="P161">
+        <v>2.64</v>
+      </c>
+      <c r="Q161">
+        <v>157000000000000</v>
+      </c>
+      <c r="R161">
+        <v>790000</v>
+      </c>
+      <c r="S161">
+        <v>2355</v>
+      </c>
+      <c r="T161" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64</v>
+      </c>
+      <c r="U161" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000</v>
+      </c>
+      <c r="V161" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000</v>
+      </c>
+      <c r="W161" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355</v>
+      </c>
+      <c r="X161" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y161">
+        <v>1350</v>
+      </c>
+      <c r="Z161">
+        <f t="shared" si="21"/>
+        <v>1614</v>
+      </c>
+      <c r="AA161">
+        <f t="shared" si="22"/>
+        <v>0.12406947890818859</v>
+      </c>
+    </row>
+    <row r="162" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J162">
+        <v>157</v>
+      </c>
+      <c r="K162" s="1">
+        <f t="shared" si="23"/>
+        <v>32000</v>
+      </c>
+      <c r="N162">
+        <f>SUM(M$5:$M162)</f>
+        <v>293.33333333333337</v>
+      </c>
+      <c r="O162">
+        <v>157</v>
+      </c>
+      <c r="P162">
+        <v>2.66</v>
+      </c>
+      <c r="Q162">
+        <v>158000000000000</v>
+      </c>
+      <c r="R162">
+        <v>795000</v>
+      </c>
+      <c r="S162">
+        <v>2370</v>
+      </c>
+      <c r="T162" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66</v>
+      </c>
+      <c r="U162" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000</v>
+      </c>
+      <c r="V162" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000</v>
+      </c>
+      <c r="W162" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370</v>
+      </c>
+      <c r="X162" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y162">
+        <v>1350</v>
+      </c>
+      <c r="Z162">
+        <f t="shared" si="21"/>
+        <v>1616</v>
+      </c>
+      <c r="AA162">
+        <f t="shared" si="22"/>
+        <v>0.12391573729863693</v>
+      </c>
+    </row>
+    <row r="163" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J163">
+        <v>158</v>
+      </c>
+      <c r="K163" s="1">
+        <f t="shared" si="23"/>
+        <v>32000</v>
+      </c>
+      <c r="N163">
+        <f>SUM(M$5:$M163)</f>
+        <v>293.33333333333337</v>
+      </c>
+      <c r="O163">
+        <v>158</v>
+      </c>
+      <c r="P163">
+        <v>2.68</v>
+      </c>
+      <c r="Q163">
+        <v>159000000000000</v>
+      </c>
+      <c r="R163">
+        <v>800000</v>
+      </c>
+      <c r="S163">
+        <v>2385</v>
+      </c>
+      <c r="T163" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68</v>
+      </c>
+      <c r="U163" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000</v>
+      </c>
+      <c r="V163" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000</v>
+      </c>
+      <c r="W163" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385</v>
+      </c>
+      <c r="X163" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y163">
+        <v>1350</v>
+      </c>
+      <c r="Z163">
+        <f t="shared" si="21"/>
+        <v>1618</v>
+      </c>
+      <c r="AA163">
+        <f t="shared" si="22"/>
+        <v>0.12376237623762376</v>
+      </c>
+    </row>
+    <row r="164" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J164">
+        <v>159</v>
+      </c>
+      <c r="K164" s="1">
+        <f t="shared" si="23"/>
+        <v>32000</v>
+      </c>
+      <c r="N164">
+        <f>SUM(M$5:$M164)</f>
+        <v>293.33333333333337</v>
+      </c>
+      <c r="O164">
+        <v>159</v>
+      </c>
+      <c r="P164">
+        <v>2.7</v>
+      </c>
+      <c r="Q164">
+        <v>160000000000000</v>
+      </c>
+      <c r="R164">
+        <v>805000</v>
+      </c>
+      <c r="S164">
+        <v>2400</v>
+      </c>
+      <c r="T164" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7</v>
+      </c>
+      <c r="U164" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000</v>
+      </c>
+      <c r="V164" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000</v>
+      </c>
+      <c r="W164" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400</v>
+      </c>
+      <c r="X164" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y164">
+        <v>1350</v>
+      </c>
+      <c r="Z164">
+        <f t="shared" si="21"/>
+        <v>1620</v>
+      </c>
+      <c r="AA164">
+        <f t="shared" si="22"/>
+        <v>0.12360939431396786</v>
+      </c>
+    </row>
+    <row r="165" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J165">
+        <v>160</v>
+      </c>
+      <c r="K165" s="1">
+        <f t="shared" si="23"/>
+        <v>33000</v>
+      </c>
+      <c r="L165" s="1">
+        <f>SUM(K165:K174)</f>
+        <v>335000</v>
+      </c>
+      <c r="M165">
+        <f>L165*4/$H$25</f>
+        <v>37.222222222222221</v>
+      </c>
+      <c r="N165">
+        <f>SUM(M$5:$M165)</f>
+        <v>330.5555555555556</v>
+      </c>
+      <c r="O165">
+        <v>160</v>
+      </c>
+      <c r="P165">
+        <v>2.72</v>
+      </c>
+      <c r="Q165">
+        <v>161000000000000</v>
+      </c>
+      <c r="R165">
+        <v>810000</v>
+      </c>
+      <c r="S165">
+        <v>2415</v>
+      </c>
+      <c r="T165" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72</v>
+      </c>
+      <c r="U165" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000</v>
+      </c>
+      <c r="V165" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000</v>
+      </c>
+      <c r="W165" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415</v>
+      </c>
+      <c r="X165" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y165">
+        <v>1600</v>
+      </c>
+      <c r="Z165">
+        <f t="shared" si="21"/>
+        <v>1872</v>
+      </c>
+      <c r="AA165" s="6">
+        <f t="shared" si="22"/>
+        <v>15.555555555555555</v>
+      </c>
+    </row>
+    <row r="166" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J166">
+        <v>161</v>
+      </c>
+      <c r="K166" s="1">
+        <f t="shared" si="23"/>
+        <v>33000</v>
+      </c>
+      <c r="N166">
+        <f>SUM(M$5:$M166)</f>
+        <v>330.5555555555556</v>
+      </c>
+      <c r="O166">
+        <v>161</v>
+      </c>
+      <c r="P166">
+        <v>2.74</v>
+      </c>
+      <c r="Q166">
+        <v>162000000000000</v>
+      </c>
+      <c r="R166">
+        <v>815000</v>
+      </c>
+      <c r="S166">
+        <v>2430</v>
+      </c>
+      <c r="T166" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74</v>
+      </c>
+      <c r="U166" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000</v>
+      </c>
+      <c r="V166" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000</v>
+      </c>
+      <c r="W166" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430</v>
+      </c>
+      <c r="X166" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y166">
+        <v>1600</v>
+      </c>
+      <c r="Z166">
+        <f t="shared" si="21"/>
+        <v>1874</v>
+      </c>
+      <c r="AA166">
+        <f t="shared" si="22"/>
+        <v>0.10683760683760683</v>
+      </c>
+    </row>
+    <row r="167" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J167">
+        <v>162</v>
+      </c>
+      <c r="K167" s="1">
+        <f t="shared" si="23"/>
+        <v>33000</v>
+      </c>
+      <c r="N167">
+        <f>SUM(M$5:$M167)</f>
+        <v>330.5555555555556</v>
+      </c>
+      <c r="O167">
+        <v>162</v>
+      </c>
+      <c r="P167">
+        <v>2.76</v>
+      </c>
+      <c r="Q167">
+        <v>163000000000000</v>
+      </c>
+      <c r="R167">
+        <v>820000</v>
+      </c>
+      <c r="S167">
+        <v>2445</v>
+      </c>
+      <c r="T167" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76</v>
+      </c>
+      <c r="U167" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000</v>
+      </c>
+      <c r="V167" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000</v>
+      </c>
+      <c r="W167" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445</v>
+      </c>
+      <c r="X167" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y167">
+        <v>1600</v>
+      </c>
+      <c r="Z167">
+        <f t="shared" si="21"/>
+        <v>1876</v>
+      </c>
+      <c r="AA167">
+        <f t="shared" si="22"/>
+        <v>0.10672358591248667</v>
+      </c>
+    </row>
+    <row r="168" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J168">
+        <v>163</v>
+      </c>
+      <c r="K168" s="1">
+        <f t="shared" si="23"/>
+        <v>33000</v>
+      </c>
+      <c r="N168">
+        <f>SUM(M$5:$M168)</f>
+        <v>330.5555555555556</v>
+      </c>
+      <c r="O168">
+        <v>163</v>
+      </c>
+      <c r="P168">
+        <v>2.78</v>
+      </c>
+      <c r="Q168">
+        <v>164000000000000</v>
+      </c>
+      <c r="R168">
+        <v>825000</v>
+      </c>
+      <c r="S168">
+        <v>2460</v>
+      </c>
+      <c r="T168" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78</v>
+      </c>
+      <c r="U168" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000</v>
+      </c>
+      <c r="V168" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000</v>
+      </c>
+      <c r="W168" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460</v>
+      </c>
+      <c r="X168" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y168">
+        <v>1600</v>
+      </c>
+      <c r="Z168">
+        <f t="shared" si="21"/>
+        <v>1878</v>
+      </c>
+      <c r="AA168">
+        <f t="shared" si="22"/>
+        <v>0.10660980810234541</v>
+      </c>
+    </row>
+    <row r="169" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J169">
+        <v>164</v>
+      </c>
+      <c r="K169" s="1">
+        <f t="shared" si="23"/>
+        <v>33000</v>
+      </c>
+      <c r="N169">
+        <f>SUM(M$5:$M169)</f>
+        <v>330.5555555555556</v>
+      </c>
+      <c r="O169">
+        <v>164</v>
+      </c>
+      <c r="P169">
+        <v>2.8</v>
+      </c>
+      <c r="Q169">
+        <v>165000000000000</v>
+      </c>
+      <c r="R169">
+        <v>830000</v>
+      </c>
+      <c r="S169">
+        <v>2475</v>
+      </c>
+      <c r="T169" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8</v>
+      </c>
+      <c r="U169" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000</v>
+      </c>
+      <c r="V169" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000</v>
+      </c>
+      <c r="W169" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475</v>
+      </c>
+      <c r="X169" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y169">
+        <v>1600</v>
+      </c>
+      <c r="Z169">
+        <f t="shared" si="21"/>
+        <v>1880</v>
+      </c>
+      <c r="AA169">
+        <f t="shared" si="22"/>
+        <v>0.10649627263045794</v>
+      </c>
+    </row>
+    <row r="170" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J170">
+        <v>165</v>
+      </c>
+      <c r="K170" s="1">
+        <f t="shared" si="23"/>
+        <v>34000</v>
+      </c>
+      <c r="N170">
+        <f>SUM(M$5:$M170)</f>
+        <v>330.5555555555556</v>
+      </c>
+      <c r="O170">
+        <v>165</v>
+      </c>
+      <c r="P170">
+        <v>2.82</v>
+      </c>
+      <c r="Q170">
+        <v>166000000000000</v>
+      </c>
+      <c r="R170">
+        <v>835000</v>
+      </c>
+      <c r="S170">
+        <v>2490</v>
+      </c>
+      <c r="T170" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82</v>
+      </c>
+      <c r="U170" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000</v>
+      </c>
+      <c r="V170" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000</v>
+      </c>
+      <c r="W170" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490</v>
+      </c>
+      <c r="X170" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y170">
+        <v>1600</v>
+      </c>
+      <c r="Z170">
+        <f t="shared" si="21"/>
+        <v>1882</v>
+      </c>
+      <c r="AA170">
+        <f t="shared" si="22"/>
+        <v>0.10638297872340426</v>
+      </c>
+    </row>
+    <row r="171" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J171">
+        <v>166</v>
+      </c>
+      <c r="K171" s="1">
+        <f t="shared" si="23"/>
+        <v>34000</v>
+      </c>
+      <c r="N171">
+        <f>SUM(M$5:$M171)</f>
+        <v>330.5555555555556</v>
+      </c>
+      <c r="O171">
+        <v>166</v>
+      </c>
+      <c r="P171">
+        <v>2.84</v>
+      </c>
+      <c r="Q171">
+        <v>167000000000000</v>
+      </c>
+      <c r="R171">
+        <v>840000</v>
+      </c>
+      <c r="S171">
+        <v>2505</v>
+      </c>
+      <c r="T171" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84</v>
+      </c>
+      <c r="U171" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000</v>
+      </c>
+      <c r="V171" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000</v>
+      </c>
+      <c r="W171" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505</v>
+      </c>
+      <c r="X171" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y171">
+        <v>1600</v>
+      </c>
+      <c r="Z171">
+        <f t="shared" si="21"/>
+        <v>1884</v>
+      </c>
+      <c r="AA171">
+        <f t="shared" si="22"/>
+        <v>0.10626992561105207</v>
+      </c>
+    </row>
+    <row r="172" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J172">
+        <v>167</v>
+      </c>
+      <c r="K172" s="1">
+        <f t="shared" si="23"/>
+        <v>34000</v>
+      </c>
+      <c r="N172">
+        <f>SUM(M$5:$M172)</f>
+        <v>330.5555555555556</v>
+      </c>
+      <c r="O172">
+        <v>167</v>
+      </c>
+      <c r="P172">
+        <v>2.86</v>
+      </c>
+      <c r="Q172">
+        <v>168000000000000</v>
+      </c>
+      <c r="R172">
+        <v>845000</v>
+      </c>
+      <c r="S172">
+        <v>2520</v>
+      </c>
+      <c r="T172" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86</v>
+      </c>
+      <c r="U172" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000</v>
+      </c>
+      <c r="V172" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000</v>
+      </c>
+      <c r="W172" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520</v>
+      </c>
+      <c r="X172" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y172">
+        <v>1600</v>
+      </c>
+      <c r="Z172">
+        <f t="shared" si="21"/>
+        <v>1886</v>
+      </c>
+      <c r="AA172">
+        <f t="shared" si="22"/>
+        <v>0.10615711252653928</v>
+      </c>
+    </row>
+    <row r="173" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J173">
+        <v>168</v>
+      </c>
+      <c r="K173" s="1">
+        <f t="shared" si="23"/>
+        <v>34000</v>
+      </c>
+      <c r="N173">
+        <f>SUM(M$5:$M173)</f>
+        <v>330.5555555555556</v>
+      </c>
+      <c r="O173">
+        <v>168</v>
+      </c>
+      <c r="P173">
+        <v>2.88</v>
+      </c>
+      <c r="Q173">
+        <v>169000000000000</v>
+      </c>
+      <c r="R173">
+        <v>850000</v>
+      </c>
+      <c r="S173">
+        <v>2535</v>
+      </c>
+      <c r="T173" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88</v>
+      </c>
+      <c r="U173" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000</v>
+      </c>
+      <c r="V173" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000</v>
+      </c>
+      <c r="W173" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535</v>
+      </c>
+      <c r="X173" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y173">
+        <v>1600</v>
+      </c>
+      <c r="Z173">
+        <f t="shared" si="21"/>
+        <v>1888</v>
+      </c>
+      <c r="AA173">
+        <f t="shared" si="22"/>
+        <v>0.10604453870625663</v>
+      </c>
+    </row>
+    <row r="174" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J174">
+        <v>169</v>
+      </c>
+      <c r="K174" s="1">
+        <f t="shared" si="23"/>
+        <v>34000</v>
+      </c>
+      <c r="N174">
+        <f>SUM(M$5:$M174)</f>
+        <v>330.5555555555556</v>
+      </c>
+      <c r="O174">
+        <v>169</v>
+      </c>
+      <c r="P174">
+        <v>2.9</v>
+      </c>
+      <c r="Q174">
+        <v>170000000000000</v>
+      </c>
+      <c r="R174">
+        <v>855000</v>
+      </c>
+      <c r="S174">
+        <v>2550</v>
+      </c>
+      <c r="T174" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9</v>
+      </c>
+      <c r="U174" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000</v>
+      </c>
+      <c r="V174" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000</v>
+      </c>
+      <c r="W174" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550</v>
+      </c>
+      <c r="X174" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y174">
+        <v>1600</v>
+      </c>
+      <c r="Z174">
+        <f t="shared" si="21"/>
+        <v>1890</v>
+      </c>
+      <c r="AA174">
+        <f t="shared" si="22"/>
+        <v>0.1059322033898305</v>
+      </c>
+    </row>
+    <row r="175" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J175">
+        <v>170</v>
+      </c>
+      <c r="K175" s="1">
+        <f t="shared" si="23"/>
+        <v>35000</v>
+      </c>
+      <c r="L175" s="1">
+        <f>SUM(K175:K184)</f>
+        <v>355000</v>
+      </c>
+      <c r="M175">
+        <f>L175*4/$H$25</f>
+        <v>39.444444444444443</v>
+      </c>
+      <c r="N175">
+        <f>SUM(M$5:$M175)</f>
+        <v>370.00000000000006</v>
+      </c>
+      <c r="O175">
+        <v>170</v>
+      </c>
+      <c r="P175">
+        <v>2.92</v>
+      </c>
+      <c r="Q175">
+        <v>171000000000000</v>
+      </c>
+      <c r="R175">
+        <v>860000</v>
+      </c>
+      <c r="S175">
+        <v>2565</v>
+      </c>
+      <c r="T175" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92</v>
+      </c>
+      <c r="U175" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000</v>
+      </c>
+      <c r="V175" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000</v>
+      </c>
+      <c r="W175" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565</v>
+      </c>
+      <c r="X175" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y175">
+        <f>Y165+250</f>
+        <v>1850</v>
+      </c>
+      <c r="Z175">
+        <f t="shared" si="21"/>
+        <v>2142</v>
+      </c>
+      <c r="AA175" s="6">
+        <f t="shared" si="22"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="176" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J176">
+        <v>171</v>
+      </c>
+      <c r="K176" s="1">
+        <f t="shared" si="23"/>
+        <v>35000</v>
+      </c>
+      <c r="N176">
+        <f>SUM(M$5:$M176)</f>
+        <v>370.00000000000006</v>
+      </c>
+      <c r="O176">
+        <v>171</v>
+      </c>
+      <c r="P176">
+        <v>2.94</v>
+      </c>
+      <c r="Q176">
+        <v>172000000000000</v>
+      </c>
+      <c r="R176">
+        <v>865000</v>
+      </c>
+      <c r="S176">
+        <v>2580</v>
+      </c>
+      <c r="T176" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94</v>
+      </c>
+      <c r="U176" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000</v>
+      </c>
+      <c r="V176" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000</v>
+      </c>
+      <c r="W176" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580</v>
+      </c>
+      <c r="X176" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y176">
+        <f t="shared" ref="Y176:Y204" si="24">Y166+250</f>
+        <v>1850</v>
+      </c>
+      <c r="Z176">
+        <f t="shared" si="21"/>
+        <v>2144</v>
+      </c>
+      <c r="AA176">
+        <f t="shared" si="22"/>
+        <v>9.3370681605975725E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J177">
+        <v>172</v>
+      </c>
+      <c r="K177" s="1">
+        <f t="shared" si="23"/>
+        <v>35000</v>
+      </c>
+      <c r="N177">
+        <f>SUM(M$5:$M177)</f>
+        <v>370.00000000000006</v>
+      </c>
+      <c r="O177">
+        <v>172</v>
+      </c>
+      <c r="P177">
+        <v>2.96</v>
+      </c>
+      <c r="Q177">
+        <v>173000000000000</v>
+      </c>
+      <c r="R177">
+        <v>870000</v>
+      </c>
+      <c r="S177">
+        <v>2595</v>
+      </c>
+      <c r="T177" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96</v>
+      </c>
+      <c r="U177" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000</v>
+      </c>
+      <c r="V177" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000</v>
+      </c>
+      <c r="W177" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595</v>
+      </c>
+      <c r="X177" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y177">
+        <f t="shared" si="24"/>
+        <v>1850</v>
+      </c>
+      <c r="Z177">
+        <f t="shared" si="21"/>
+        <v>2146</v>
+      </c>
+      <c r="AA177">
+        <f t="shared" si="22"/>
+        <v>9.3283582089552244E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J178">
+        <v>173</v>
+      </c>
+      <c r="K178" s="1">
+        <f t="shared" si="23"/>
+        <v>35000</v>
+      </c>
+      <c r="N178">
+        <f>SUM(M$5:$M178)</f>
+        <v>370.00000000000006</v>
+      </c>
+      <c r="O178">
+        <v>173</v>
+      </c>
+      <c r="P178">
+        <v>2.98</v>
+      </c>
+      <c r="Q178">
+        <v>174000000000000</v>
+      </c>
+      <c r="R178">
+        <v>875000</v>
+      </c>
+      <c r="S178">
+        <v>2610</v>
+      </c>
+      <c r="T178" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98</v>
+      </c>
+      <c r="U178" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000</v>
+      </c>
+      <c r="V178" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000</v>
+      </c>
+      <c r="W178" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610</v>
+      </c>
+      <c r="X178" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y178">
+        <f t="shared" si="24"/>
+        <v>1850</v>
+      </c>
+      <c r="Z178">
+        <f t="shared" si="21"/>
+        <v>2148</v>
+      </c>
+      <c r="AA178">
+        <f t="shared" si="22"/>
+        <v>9.3196644920782848E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J179">
+        <v>174</v>
+      </c>
+      <c r="K179" s="1">
+        <f t="shared" si="23"/>
+        <v>35000</v>
+      </c>
+      <c r="N179">
+        <f>SUM(M$5:$M179)</f>
+        <v>370.00000000000006</v>
+      </c>
+      <c r="O179">
+        <v>174</v>
+      </c>
+      <c r="P179">
+        <v>3</v>
+      </c>
+      <c r="Q179">
+        <v>175000000000000</v>
+      </c>
+      <c r="R179">
+        <v>880000</v>
+      </c>
+      <c r="S179">
+        <v>2625</v>
+      </c>
+      <c r="T179" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3</v>
+      </c>
+      <c r="U179" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000</v>
+      </c>
+      <c r="V179" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000</v>
+      </c>
+      <c r="W179" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625</v>
+      </c>
+      <c r="X179" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y179">
+        <f t="shared" si="24"/>
+        <v>1850</v>
+      </c>
+      <c r="Z179">
+        <f t="shared" si="21"/>
+        <v>2150</v>
+      </c>
+      <c r="AA179">
+        <f t="shared" si="22"/>
+        <v>9.3109869646182494E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J180">
+        <v>175</v>
+      </c>
+      <c r="K180" s="1">
+        <f t="shared" si="23"/>
+        <v>36000</v>
+      </c>
+      <c r="N180">
+        <f>SUM(M$5:$M180)</f>
+        <v>370.00000000000006</v>
+      </c>
+      <c r="O180">
+        <v>175</v>
+      </c>
+      <c r="P180">
+        <v>3.02</v>
+      </c>
+      <c r="Q180">
+        <v>176000000000000</v>
+      </c>
+      <c r="R180">
+        <v>885000</v>
+      </c>
+      <c r="S180">
+        <v>2640</v>
+      </c>
+      <c r="T180" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02</v>
+      </c>
+      <c r="U180" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000</v>
+      </c>
+      <c r="V180" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000</v>
+      </c>
+      <c r="W180" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640</v>
+      </c>
+      <c r="X180" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y180">
+        <f t="shared" si="24"/>
+        <v>1850</v>
+      </c>
+      <c r="Z180">
+        <f t="shared" si="21"/>
+        <v>2152</v>
+      </c>
+      <c r="AA180">
+        <f t="shared" si="22"/>
+        <v>9.3023255813953487E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J181">
+        <v>176</v>
+      </c>
+      <c r="K181" s="1">
+        <f t="shared" si="23"/>
+        <v>36000</v>
+      </c>
+      <c r="N181">
+        <f>SUM(M$5:$M181)</f>
+        <v>370.00000000000006</v>
+      </c>
+      <c r="O181">
+        <v>176</v>
+      </c>
+      <c r="P181">
+        <v>3.04</v>
+      </c>
+      <c r="Q181">
+        <v>177000000000000</v>
+      </c>
+      <c r="R181">
+        <v>890000</v>
+      </c>
+      <c r="S181">
+        <v>2655</v>
+      </c>
+      <c r="T181" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04</v>
+      </c>
+      <c r="U181" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000</v>
+      </c>
+      <c r="V181" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000</v>
+      </c>
+      <c r="W181" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655</v>
+      </c>
+      <c r="X181" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y181">
+        <f t="shared" si="24"/>
+        <v>1850</v>
+      </c>
+      <c r="Z181">
+        <f t="shared" si="21"/>
+        <v>2154</v>
+      </c>
+      <c r="AA181">
+        <f t="shared" si="22"/>
+        <v>9.2936802973977689E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J182">
+        <v>177</v>
+      </c>
+      <c r="K182" s="1">
+        <f t="shared" si="23"/>
+        <v>36000</v>
+      </c>
+      <c r="N182">
+        <f>SUM(M$5:$M182)</f>
+        <v>370.00000000000006</v>
+      </c>
+      <c r="O182">
+        <v>177</v>
+      </c>
+      <c r="P182">
+        <v>3.06</v>
+      </c>
+      <c r="Q182">
+        <v>178000000000000</v>
+      </c>
+      <c r="R182">
+        <v>895000</v>
+      </c>
+      <c r="S182">
+        <v>2670</v>
+      </c>
+      <c r="T182" t="str">
+        <f t="shared" si="17"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06</v>
+      </c>
+      <c r="U182" t="str">
+        <f t="shared" si="18"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000</v>
+      </c>
+      <c r="V182" t="str">
+        <f t="shared" si="19"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000</v>
+      </c>
+      <c r="W182" t="str">
+        <f t="shared" si="20"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670</v>
+      </c>
+      <c r="X182" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y182">
+        <f t="shared" si="24"/>
+        <v>1850</v>
+      </c>
+      <c r="Z182">
+        <f t="shared" si="21"/>
+        <v>2156</v>
+      </c>
+      <c r="AA182">
+        <f t="shared" si="22"/>
+        <v>9.2850510677808723E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J183">
+        <v>178</v>
+      </c>
+      <c r="K183" s="1">
+        <f t="shared" si="23"/>
+        <v>36000</v>
+      </c>
+      <c r="N183">
+        <f>SUM(M$5:$M183)</f>
+        <v>370.00000000000006</v>
+      </c>
+      <c r="O183">
+        <v>178</v>
+      </c>
+      <c r="P183">
+        <v>3.08</v>
+      </c>
+      <c r="Q183">
+        <v>179000000000000</v>
+      </c>
+      <c r="R183">
+        <v>900000</v>
+      </c>
+      <c r="S183">
+        <v>2685</v>
+      </c>
+      <c r="T183" t="str">
+        <f t="shared" ref="T183:T204" si="25">T182&amp;","&amp;P183</f>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08</v>
+      </c>
+      <c r="U183" t="str">
+        <f t="shared" ref="U183:U204" si="26">U182&amp;","&amp;Q183</f>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000</v>
+      </c>
+      <c r="V183" t="str">
+        <f t="shared" ref="V183:V204" si="27">V182&amp;","&amp;R183</f>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000</v>
+      </c>
+      <c r="W183" t="str">
+        <f t="shared" ref="W183:W203" si="28">W182&amp;","&amp;S183</f>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685</v>
+      </c>
+      <c r="X183" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y183">
+        <f t="shared" si="24"/>
+        <v>1850</v>
+      </c>
+      <c r="Z183">
+        <f t="shared" ref="Z183:Z204" si="29">Y183+P183*100</f>
+        <v>2158</v>
+      </c>
+      <c r="AA183">
+        <f t="shared" ref="AA183:AA204" si="30">(Z183-Z182)*100/Z182</f>
+        <v>9.2764378478664186E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J184">
+        <v>179</v>
+      </c>
+      <c r="K184" s="1">
+        <f t="shared" si="23"/>
+        <v>36000</v>
+      </c>
+      <c r="N184">
+        <f>SUM(M$5:$M184)</f>
+        <v>370.00000000000006</v>
+      </c>
+      <c r="O184">
+        <v>179</v>
+      </c>
+      <c r="P184">
+        <v>3.1</v>
+      </c>
+      <c r="Q184">
+        <v>180000000000000</v>
+      </c>
+      <c r="R184">
+        <v>905000</v>
+      </c>
+      <c r="S184">
+        <v>2700</v>
+      </c>
+      <c r="T184" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1</v>
+      </c>
+      <c r="U184" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000</v>
+      </c>
+      <c r="V184" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000</v>
+      </c>
+      <c r="W184" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700</v>
+      </c>
+      <c r="X184" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y184">
+        <f t="shared" si="24"/>
+        <v>1850</v>
+      </c>
+      <c r="Z184">
+        <f t="shared" si="29"/>
+        <v>2160</v>
+      </c>
+      <c r="AA184">
+        <f t="shared" si="30"/>
+        <v>9.2678405931417976E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J185">
+        <v>180</v>
+      </c>
+      <c r="K185" s="1">
+        <f t="shared" si="23"/>
+        <v>37000</v>
+      </c>
+      <c r="L185" s="1">
+        <f>SUM(K185:K194)</f>
+        <v>375000</v>
+      </c>
+      <c r="M185">
+        <f>L185*4/$H$25</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="N185">
+        <f>SUM(M$5:$M185)</f>
+        <v>411.66666666666674</v>
+      </c>
+      <c r="O185">
+        <v>180</v>
+      </c>
+      <c r="P185">
+        <v>3.12</v>
+      </c>
+      <c r="Q185">
+        <v>181000000000000</v>
+      </c>
+      <c r="R185">
+        <v>910000</v>
+      </c>
+      <c r="S185">
+        <v>2715</v>
+      </c>
+      <c r="T185" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12</v>
+      </c>
+      <c r="U185" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000</v>
+      </c>
+      <c r="V185" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000</v>
+      </c>
+      <c r="W185" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715</v>
+      </c>
+      <c r="X185" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y185">
+        <f t="shared" si="24"/>
+        <v>2100</v>
+      </c>
+      <c r="Z185">
+        <f t="shared" si="29"/>
+        <v>2412</v>
+      </c>
+      <c r="AA185" s="6">
+        <f t="shared" si="30"/>
+        <v>11.666666666666666</v>
+      </c>
+    </row>
+    <row r="186" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J186">
+        <v>181</v>
+      </c>
+      <c r="K186" s="1">
+        <f t="shared" si="23"/>
+        <v>37000</v>
+      </c>
+      <c r="N186">
+        <f>SUM(M$5:$M186)</f>
+        <v>411.66666666666674</v>
+      </c>
+      <c r="O186">
+        <v>181</v>
+      </c>
+      <c r="P186">
+        <v>3.14</v>
+      </c>
+      <c r="Q186">
+        <v>182000000000000</v>
+      </c>
+      <c r="R186">
+        <v>915000</v>
+      </c>
+      <c r="S186">
+        <v>2730</v>
+      </c>
+      <c r="T186" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14</v>
+      </c>
+      <c r="U186" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000</v>
+      </c>
+      <c r="V186" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000</v>
+      </c>
+      <c r="W186" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730</v>
+      </c>
+      <c r="X186" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y186">
+        <f t="shared" si="24"/>
+        <v>2100</v>
+      </c>
+      <c r="Z186">
+        <f t="shared" si="29"/>
+        <v>2414</v>
+      </c>
+      <c r="AA186">
+        <f t="shared" si="30"/>
+        <v>8.2918739635157543E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J187">
+        <v>182</v>
+      </c>
+      <c r="K187" s="1">
+        <f>K182+1000</f>
+        <v>37000</v>
+      </c>
+      <c r="N187">
+        <f>SUM(M$5:$M187)</f>
+        <v>411.66666666666674</v>
+      </c>
+      <c r="O187">
+        <v>182</v>
+      </c>
+      <c r="P187">
+        <v>3.16</v>
+      </c>
+      <c r="Q187">
+        <v>183000000000000</v>
+      </c>
+      <c r="R187">
+        <v>920000</v>
+      </c>
+      <c r="S187">
+        <v>2745</v>
+      </c>
+      <c r="T187" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16</v>
+      </c>
+      <c r="U187" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000</v>
+      </c>
+      <c r="V187" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000</v>
+      </c>
+      <c r="W187" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745</v>
+      </c>
+      <c r="X187" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y187">
+        <f t="shared" si="24"/>
+        <v>2100</v>
+      </c>
+      <c r="Z187">
+        <f t="shared" si="29"/>
+        <v>2416</v>
+      </c>
+      <c r="AA187">
+        <f t="shared" si="30"/>
+        <v>8.2850041425020712E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J188">
+        <v>183</v>
+      </c>
+      <c r="K188" s="1">
+        <f>K183+1000</f>
+        <v>37000</v>
+      </c>
+      <c r="N188">
+        <f>SUM(M$5:$M188)</f>
+        <v>411.66666666666674</v>
+      </c>
+      <c r="O188">
+        <v>183</v>
+      </c>
+      <c r="P188">
+        <v>3.18</v>
+      </c>
+      <c r="Q188">
+        <v>184000000000000</v>
+      </c>
+      <c r="R188">
+        <v>925000</v>
+      </c>
+      <c r="S188">
+        <v>2760</v>
+      </c>
+      <c r="T188" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18</v>
+      </c>
+      <c r="U188" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000</v>
+      </c>
+      <c r="V188" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000</v>
+      </c>
+      <c r="W188" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760</v>
+      </c>
+      <c r="X188" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y188">
+        <f t="shared" si="24"/>
+        <v>2100</v>
+      </c>
+      <c r="Z188">
+        <f t="shared" si="29"/>
+        <v>2418</v>
+      </c>
+      <c r="AA188">
+        <f t="shared" si="30"/>
+        <v>8.2781456953642391E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J189">
+        <v>184</v>
+      </c>
+      <c r="K189" s="1">
+        <f t="shared" si="23"/>
+        <v>37000</v>
+      </c>
+      <c r="N189">
+        <f>SUM(M$5:$M189)</f>
+        <v>411.66666666666674</v>
+      </c>
+      <c r="O189">
+        <v>184</v>
+      </c>
+      <c r="P189">
+        <v>3.2</v>
+      </c>
+      <c r="Q189">
+        <v>185000000000000</v>
+      </c>
+      <c r="R189">
+        <v>930000</v>
+      </c>
+      <c r="S189">
+        <v>2775</v>
+      </c>
+      <c r="T189" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2</v>
+      </c>
+      <c r="U189" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000</v>
+      </c>
+      <c r="V189" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000</v>
+      </c>
+      <c r="W189" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775</v>
+      </c>
+      <c r="X189" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y189">
+        <f t="shared" si="24"/>
+        <v>2100</v>
+      </c>
+      <c r="Z189">
+        <f t="shared" si="29"/>
+        <v>2420</v>
+      </c>
+      <c r="AA189">
+        <f t="shared" si="30"/>
+        <v>8.2712985938792394E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J190">
+        <v>185</v>
+      </c>
+      <c r="K190" s="1">
+        <f t="shared" si="23"/>
+        <v>38000</v>
+      </c>
+      <c r="N190">
+        <f>SUM(M$5:$M190)</f>
+        <v>411.66666666666674</v>
+      </c>
+      <c r="O190">
+        <v>185</v>
+      </c>
+      <c r="P190">
+        <v>3.22</v>
+      </c>
+      <c r="Q190">
+        <v>186000000000000</v>
+      </c>
+      <c r="R190">
+        <v>935000</v>
+      </c>
+      <c r="S190">
+        <v>2790</v>
+      </c>
+      <c r="T190" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22</v>
+      </c>
+      <c r="U190" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000</v>
+      </c>
+      <c r="V190" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000</v>
+      </c>
+      <c r="W190" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790</v>
+      </c>
+      <c r="X190" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y190">
+        <f t="shared" si="24"/>
+        <v>2100</v>
+      </c>
+      <c r="Z190">
+        <f t="shared" si="29"/>
+        <v>2422</v>
+      </c>
+      <c r="AA190">
+        <f t="shared" si="30"/>
+        <v>8.2644628099173556E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J191">
+        <v>186</v>
+      </c>
+      <c r="K191" s="1">
+        <f t="shared" si="23"/>
+        <v>38000</v>
+      </c>
+      <c r="N191">
+        <f>SUM(M$5:$M191)</f>
+        <v>411.66666666666674</v>
+      </c>
+      <c r="O191">
+        <v>186</v>
+      </c>
+      <c r="P191">
+        <v>3.24</v>
+      </c>
+      <c r="Q191">
+        <v>187000000000000</v>
+      </c>
+      <c r="R191">
+        <v>940000</v>
+      </c>
+      <c r="S191">
+        <v>2805</v>
+      </c>
+      <c r="T191" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24</v>
+      </c>
+      <c r="U191" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000</v>
+      </c>
+      <c r="V191" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000</v>
+      </c>
+      <c r="W191" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805</v>
+      </c>
+      <c r="X191" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y191">
+        <f t="shared" si="24"/>
+        <v>2100</v>
+      </c>
+      <c r="Z191">
+        <f t="shared" si="29"/>
+        <v>2424</v>
+      </c>
+      <c r="AA191">
+        <f t="shared" si="30"/>
+        <v>8.2576383154417843E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J192">
+        <v>187</v>
+      </c>
+      <c r="K192" s="1">
+        <f t="shared" si="23"/>
+        <v>38000</v>
+      </c>
+      <c r="N192">
+        <f>SUM(M$5:$M192)</f>
+        <v>411.66666666666674</v>
+      </c>
+      <c r="O192">
+        <v>187</v>
+      </c>
+      <c r="P192">
+        <v>3.26</v>
+      </c>
+      <c r="Q192">
+        <v>188000000000000</v>
+      </c>
+      <c r="R192">
+        <v>945000</v>
+      </c>
+      <c r="S192">
+        <v>2820</v>
+      </c>
+      <c r="T192" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26</v>
+      </c>
+      <c r="U192" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000</v>
+      </c>
+      <c r="V192" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000</v>
+      </c>
+      <c r="W192" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820</v>
+      </c>
+      <c r="X192" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y192">
+        <f t="shared" si="24"/>
+        <v>2100</v>
+      </c>
+      <c r="Z192">
+        <f t="shared" si="29"/>
+        <v>2426</v>
+      </c>
+      <c r="AA192">
+        <f t="shared" si="30"/>
+        <v>8.2508250825082508E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J193">
+        <v>188</v>
+      </c>
+      <c r="K193" s="1">
+        <f t="shared" si="23"/>
+        <v>38000</v>
+      </c>
+      <c r="N193">
+        <f>SUM(M$5:$M193)</f>
+        <v>411.66666666666674</v>
+      </c>
+      <c r="O193">
+        <v>188</v>
+      </c>
+      <c r="P193">
+        <v>3.28</v>
+      </c>
+      <c r="Q193">
+        <v>189000000000000</v>
+      </c>
+      <c r="R193">
+        <v>950000</v>
+      </c>
+      <c r="S193">
+        <v>2835</v>
+      </c>
+      <c r="T193" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28</v>
+      </c>
+      <c r="U193" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000</v>
+      </c>
+      <c r="V193" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000</v>
+      </c>
+      <c r="W193" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835</v>
+      </c>
+      <c r="X193" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y193">
+        <f t="shared" si="24"/>
+        <v>2100</v>
+      </c>
+      <c r="Z193">
+        <f t="shared" si="29"/>
+        <v>2428</v>
+      </c>
+      <c r="AA193">
+        <f t="shared" si="30"/>
+        <v>8.244023083264633E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J194">
+        <v>189</v>
+      </c>
+      <c r="K194" s="1">
+        <f>K189+1000</f>
+        <v>38000</v>
+      </c>
+      <c r="N194">
+        <f>SUM(M$5:$M194)</f>
+        <v>411.66666666666674</v>
+      </c>
+      <c r="O194">
+        <v>189</v>
+      </c>
+      <c r="P194">
+        <v>3.3</v>
+      </c>
+      <c r="Q194">
+        <v>190000000000000</v>
+      </c>
+      <c r="R194">
+        <v>955000</v>
+      </c>
+      <c r="S194">
+        <v>2850</v>
+      </c>
+      <c r="T194" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3</v>
+      </c>
+      <c r="U194" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000</v>
+      </c>
+      <c r="V194" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000</v>
+      </c>
+      <c r="W194" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850</v>
+      </c>
+      <c r="X194" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y194">
+        <f t="shared" si="24"/>
+        <v>2100</v>
+      </c>
+      <c r="Z194">
+        <f t="shared" si="29"/>
+        <v>2430</v>
+      </c>
+      <c r="AA194">
+        <f t="shared" si="30"/>
+        <v>8.2372322899505759E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J195">
+        <v>190</v>
+      </c>
+      <c r="K195" s="1">
+        <f>K190+1000</f>
+        <v>39000</v>
+      </c>
+      <c r="L195" s="1">
+        <f>SUM(K195:K204)</f>
+        <v>395000</v>
+      </c>
+      <c r="M195">
+        <f>L195*4/$H$25</f>
+        <v>43.888888888888886</v>
+      </c>
+      <c r="N195">
+        <f>SUM(M$5:$M195)</f>
+        <v>455.55555555555566</v>
+      </c>
+      <c r="O195">
+        <v>190</v>
+      </c>
+      <c r="P195">
+        <v>3.32</v>
+      </c>
+      <c r="Q195">
+        <v>191000000000000</v>
+      </c>
+      <c r="R195">
+        <v>960000</v>
+      </c>
+      <c r="S195">
+        <v>2865</v>
+      </c>
+      <c r="T195" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32</v>
+      </c>
+      <c r="U195" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000</v>
+      </c>
+      <c r="V195" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000</v>
+      </c>
+      <c r="W195" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865</v>
+      </c>
+      <c r="X195" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y195">
+        <f t="shared" si="24"/>
+        <v>2350</v>
+      </c>
+      <c r="Z195">
+        <f t="shared" si="29"/>
+        <v>2682</v>
+      </c>
+      <c r="AA195" s="6">
+        <f t="shared" si="30"/>
+        <v>10.37037037037037</v>
+      </c>
+    </row>
+    <row r="196" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J196">
+        <v>191</v>
+      </c>
+      <c r="K196" s="1">
+        <f t="shared" si="23"/>
+        <v>39000</v>
+      </c>
+      <c r="N196">
+        <f>SUM(M$5:$M196)</f>
+        <v>455.55555555555566</v>
+      </c>
+      <c r="O196">
+        <v>191</v>
+      </c>
+      <c r="P196">
+        <v>3.34</v>
+      </c>
+      <c r="Q196">
+        <v>192000000000000</v>
+      </c>
+      <c r="R196">
+        <v>965000</v>
+      </c>
+      <c r="S196">
+        <v>2880</v>
+      </c>
+      <c r="T196" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34</v>
+      </c>
+      <c r="U196" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000</v>
+      </c>
+      <c r="V196" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000</v>
+      </c>
+      <c r="W196" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880</v>
+      </c>
+      <c r="X196" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y196">
+        <f t="shared" si="24"/>
+        <v>2350</v>
+      </c>
+      <c r="Z196">
+        <f t="shared" si="29"/>
+        <v>2684</v>
+      </c>
+      <c r="AA196">
+        <f t="shared" si="30"/>
+        <v>7.4571215510812833E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J197">
+        <v>192</v>
+      </c>
+      <c r="K197" s="1">
+        <f t="shared" si="23"/>
+        <v>39000</v>
+      </c>
+      <c r="N197">
+        <f>SUM(M$5:$M197)</f>
+        <v>455.55555555555566</v>
+      </c>
+      <c r="O197">
+        <v>192</v>
+      </c>
+      <c r="P197">
+        <v>3.36</v>
+      </c>
+      <c r="Q197">
+        <v>193000000000000</v>
+      </c>
+      <c r="R197">
+        <v>970000</v>
+      </c>
+      <c r="S197">
+        <v>2895</v>
+      </c>
+      <c r="T197" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36</v>
+      </c>
+      <c r="U197" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000</v>
+      </c>
+      <c r="V197" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000</v>
+      </c>
+      <c r="W197" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895</v>
+      </c>
+      <c r="X197" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y197">
+        <f t="shared" si="24"/>
+        <v>2350</v>
+      </c>
+      <c r="Z197">
+        <f t="shared" si="29"/>
+        <v>2686</v>
+      </c>
+      <c r="AA197">
+        <f t="shared" si="30"/>
+        <v>7.4515648286140088E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J198">
+        <v>193</v>
+      </c>
+      <c r="K198" s="1">
+        <f t="shared" si="23"/>
+        <v>39000</v>
+      </c>
+      <c r="N198">
+        <f>SUM(M$5:$M198)</f>
+        <v>455.55555555555566</v>
+      </c>
+      <c r="O198">
+        <v>193</v>
+      </c>
+      <c r="P198">
+        <v>3.38</v>
+      </c>
+      <c r="Q198">
+        <v>194000000000000</v>
+      </c>
+      <c r="R198">
+        <v>975000</v>
+      </c>
+      <c r="S198">
+        <v>2910</v>
+      </c>
+      <c r="T198" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38</v>
+      </c>
+      <c r="U198" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000</v>
+      </c>
+      <c r="V198" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000</v>
+      </c>
+      <c r="W198" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910</v>
+      </c>
+      <c r="X198" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y198">
+        <f t="shared" si="24"/>
+        <v>2350</v>
+      </c>
+      <c r="Z198">
+        <f t="shared" si="29"/>
+        <v>2688</v>
+      </c>
+      <c r="AA198">
+        <f t="shared" si="30"/>
+        <v>7.4460163812360383E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J199">
+        <v>194</v>
+      </c>
+      <c r="K199" s="1">
+        <f t="shared" si="23"/>
+        <v>39000</v>
+      </c>
+      <c r="N199">
+        <f>SUM(M$5:$M199)</f>
+        <v>455.55555555555566</v>
+      </c>
+      <c r="O199">
+        <v>194</v>
+      </c>
+      <c r="P199">
+        <v>3.4</v>
+      </c>
+      <c r="Q199">
+        <v>195000000000000</v>
+      </c>
+      <c r="R199">
+        <v>980000</v>
+      </c>
+      <c r="S199">
+        <v>2925</v>
+      </c>
+      <c r="T199" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4</v>
+      </c>
+      <c r="U199" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000</v>
+      </c>
+      <c r="V199" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000</v>
+      </c>
+      <c r="W199" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925</v>
+      </c>
+      <c r="X199" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y199">
+        <f t="shared" si="24"/>
+        <v>2350</v>
+      </c>
+      <c r="Z199">
+        <f t="shared" si="29"/>
+        <v>2690</v>
+      </c>
+      <c r="AA199">
+        <f t="shared" si="30"/>
+        <v>7.4404761904761904E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J200">
+        <v>195</v>
+      </c>
+      <c r="K200" s="1">
+        <f t="shared" si="23"/>
+        <v>40000</v>
+      </c>
+      <c r="N200">
+        <f>SUM(M$5:$M200)</f>
+        <v>455.55555555555566</v>
+      </c>
+      <c r="O200">
+        <v>195</v>
+      </c>
+      <c r="P200">
+        <v>3.42</v>
+      </c>
+      <c r="Q200">
+        <v>196000000000000</v>
+      </c>
+      <c r="R200">
+        <v>985000</v>
+      </c>
+      <c r="S200">
+        <v>2940</v>
+      </c>
+      <c r="T200" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4,3.42</v>
+      </c>
+      <c r="U200" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000</v>
+      </c>
+      <c r="V200" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000</v>
+      </c>
+      <c r="W200" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925,2940</v>
+      </c>
+      <c r="X200" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y200">
+        <f t="shared" si="24"/>
+        <v>2350</v>
+      </c>
+      <c r="Z200">
+        <f t="shared" si="29"/>
+        <v>2692</v>
+      </c>
+      <c r="AA200">
+        <f t="shared" si="30"/>
+        <v>7.434944237918216E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J201">
+        <v>196</v>
+      </c>
+      <c r="K201" s="1">
+        <f t="shared" si="23"/>
+        <v>40000</v>
+      </c>
+      <c r="N201">
+        <f>SUM(M$5:$M201)</f>
+        <v>455.55555555555566</v>
+      </c>
+      <c r="O201">
+        <v>196</v>
+      </c>
+      <c r="P201">
+        <v>3.44</v>
+      </c>
+      <c r="Q201">
+        <v>197000000000000</v>
+      </c>
+      <c r="R201">
+        <v>990000</v>
+      </c>
+      <c r="S201">
+        <v>2955</v>
+      </c>
+      <c r="T201" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4,3.42,3.44</v>
+      </c>
+      <c r="U201" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000,197000000000000</v>
+      </c>
+      <c r="V201" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000,990000</v>
+      </c>
+      <c r="W201" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925,2940,2955</v>
+      </c>
+      <c r="X201" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y201">
+        <f t="shared" si="24"/>
+        <v>2350</v>
+      </c>
+      <c r="Z201">
+        <f t="shared" si="29"/>
+        <v>2694</v>
+      </c>
+      <c r="AA201">
+        <f t="shared" si="30"/>
+        <v>7.4294205052005943E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J202">
+        <v>197</v>
+      </c>
+      <c r="K202" s="1">
+        <f t="shared" si="23"/>
+        <v>40000</v>
+      </c>
+      <c r="N202">
+        <f>SUM(M$5:$M202)</f>
+        <v>455.55555555555566</v>
+      </c>
+      <c r="O202">
+        <v>197</v>
+      </c>
+      <c r="P202">
+        <v>3.46</v>
+      </c>
+      <c r="Q202">
+        <v>198000000000000</v>
+      </c>
+      <c r="R202">
+        <v>995000</v>
+      </c>
+      <c r="S202">
+        <v>2970</v>
+      </c>
+      <c r="T202" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4,3.42,3.44,3.46</v>
+      </c>
+      <c r="U202" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000,197000000000000,198000000000000</v>
+      </c>
+      <c r="V202" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000,990000,995000</v>
+      </c>
+      <c r="W202" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925,2940,2955,2970</v>
+      </c>
+      <c r="X202" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y202">
+        <f t="shared" si="24"/>
+        <v>2350</v>
+      </c>
+      <c r="Z202">
+        <f t="shared" si="29"/>
+        <v>2696</v>
+      </c>
+      <c r="AA202">
+        <f t="shared" si="30"/>
+        <v>7.4239049740163321E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J203">
+        <v>198</v>
+      </c>
+      <c r="K203" s="1">
+        <f t="shared" ref="K203:K204" si="31">K198+1000</f>
+        <v>40000</v>
+      </c>
+      <c r="N203">
+        <f>SUM(M$5:$M203)</f>
+        <v>455.55555555555566</v>
+      </c>
+      <c r="O203">
+        <v>198</v>
+      </c>
+      <c r="P203">
+        <v>3.48</v>
+      </c>
+      <c r="Q203">
+        <v>199000000000000</v>
+      </c>
+      <c r="R203">
+        <v>1000000</v>
+      </c>
+      <c r="S203">
+        <v>2985</v>
+      </c>
+      <c r="T203" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4,3.42,3.44,3.46,3.48</v>
+      </c>
+      <c r="U203" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000,197000000000000,198000000000000,199000000000000</v>
+      </c>
+      <c r="V203" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000,990000,995000,1000000</v>
+      </c>
+      <c r="W203" t="str">
+        <f t="shared" si="28"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925,2940,2955,2970,2985</v>
+      </c>
+      <c r="X203" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y203">
+        <f t="shared" si="24"/>
+        <v>2350</v>
+      </c>
+      <c r="Z203">
+        <f t="shared" si="29"/>
+        <v>2698</v>
+      </c>
+      <c r="AA203">
+        <f t="shared" si="30"/>
+        <v>7.418397626112759E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="J204">
+        <v>199</v>
+      </c>
+      <c r="K204" s="1">
+        <f t="shared" si="31"/>
+        <v>40000</v>
+      </c>
+      <c r="N204">
+        <f>SUM(M$5:$M204)</f>
+        <v>455.55555555555566</v>
+      </c>
+      <c r="O204">
+        <v>199</v>
+      </c>
+      <c r="P204">
+        <v>3.5</v>
+      </c>
+      <c r="Q204">
+        <v>200000000000000</v>
+      </c>
+      <c r="R204">
+        <v>1005000</v>
+      </c>
+      <c r="S204">
+        <v>3000</v>
+      </c>
+      <c r="T204" t="str">
+        <f t="shared" si="25"/>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4,3.42,3.44,3.46,3.48,3.5</v>
+      </c>
+      <c r="U204" t="str">
+        <f t="shared" si="26"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000,197000000000000,198000000000000,199000000000000,200000000000000</v>
+      </c>
+      <c r="V204" t="str">
+        <f t="shared" si="27"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000,990000,995000,1000000,1005000</v>
+      </c>
+      <c r="W204" t="str">
+        <f>W203&amp;","&amp;S204</f>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925,2940,2955,2970,2985,3000</v>
+      </c>
+      <c r="X204" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y204">
+        <f t="shared" si="24"/>
+        <v>2350</v>
+      </c>
+      <c r="Z204">
+        <f t="shared" si="29"/>
+        <v>2700</v>
+      </c>
+      <c r="AA204">
+        <f t="shared" si="30"/>
+        <v>7.412898443291327E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetAwakeTable.xlsx
+++ b/Assets/06.Table/PetAwakeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8412932-551B-4C89-A3EB-7134DD59EF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1928AA03-F3C0-4A05-9DF6-590F413446CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="PetAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="32">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,9 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4,3.42,3.44,3.46,3.48,3.5</t>
-  </si>
-  <si>
     <t>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000</t>
   </si>
   <si>
@@ -161,6 +180,9 @@
   </si>
   <si>
     <t>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000</t>
+  </si>
+  <si>
+    <t>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5</t>
   </si>
 </sst>
 </file>
@@ -584,7 +606,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -625,7 +647,7 @@
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -642,7 +664,7 @@
         <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -659,7 +681,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -676,7 +698,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -687,10 +709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C80F775-A6C9-4707-A5A5-F54433AC4EB9}">
-  <dimension ref="A1:AA204"/>
+  <dimension ref="A1:AG204"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y75" sqref="Y75"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -707,7 +729,7 @@
     <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -716,14 +738,14 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="F2" s="2"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="P3" t="s">
         <v>19</v>
       </c>
@@ -742,8 +764,20 @@
       <c r="Y3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -813,8 +847,24 @@
       <c r="Z4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD4" cm="1">
+        <f t="array" ref="AD4:AD153">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(PetAwakeTable!E2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>10000</v>
+      </c>
+      <c r="AE4" cm="1">
+        <f t="array" ref="AE4:AE153">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(PetAwakeTable!E3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>0.01</v>
+      </c>
+      <c r="AF4" cm="1">
+        <f t="array" ref="AF4:AF153">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(PetAwakeTable!E4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>1000000000000</v>
+      </c>
+      <c r="AG4" cm="1">
+        <f t="array" ref="AG4:AG153">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(PetAwakeTable!E5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -887,8 +937,20 @@
         <f t="shared" ref="Z5:Z68" si="2">Y5+P5*100</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD5">
+        <v>15000</v>
+      </c>
+      <c r="AE5">
+        <v>0.02</v>
+      </c>
+      <c r="AF5">
+        <v>2000000000000</v>
+      </c>
+      <c r="AG5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -957,8 +1019,20 @@
         <f>(Z6-Z5)*100/Z5</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD6">
+        <v>20000</v>
+      </c>
+      <c r="AE6">
+        <v>0.03</v>
+      </c>
+      <c r="AF6">
+        <v>3000000000000</v>
+      </c>
+      <c r="AG6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F7" s="5">
         <v>193</v>
       </c>
@@ -1024,8 +1098,20 @@
         <f t="shared" ref="AA7:AA70" si="4">(Z7-Z6)*100/Z6</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD7">
+        <v>25000</v>
+      </c>
+      <c r="AE7">
+        <v>0.04</v>
+      </c>
+      <c r="AF7">
+        <v>4000000000000</v>
+      </c>
+      <c r="AG7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F8" s="5">
         <v>194</v>
       </c>
@@ -1091,8 +1177,20 @@
         <f t="shared" si="4"/>
         <v>33.333333333333336</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD8">
+        <v>30000</v>
+      </c>
+      <c r="AE8">
+        <v>0.05</v>
+      </c>
+      <c r="AF8">
+        <v>5000000000000</v>
+      </c>
+      <c r="AG8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F9" s="5">
         <v>195</v>
       </c>
@@ -1158,8 +1256,20 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD9">
+        <v>35000</v>
+      </c>
+      <c r="AE9">
+        <v>0.06</v>
+      </c>
+      <c r="AF9">
+        <v>6000000000000</v>
+      </c>
+      <c r="AG9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1237,8 +1347,20 @@
         <f t="shared" si="4"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD10">
+        <v>40000</v>
+      </c>
+      <c r="AE10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF10">
+        <v>7000000000000</v>
+      </c>
+      <c r="AG10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3000000</v>
       </c>
@@ -1308,8 +1430,20 @@
         <f t="shared" si="4"/>
         <v>6.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD11">
+        <v>45000</v>
+      </c>
+      <c r="AE11">
+        <v>0.08</v>
+      </c>
+      <c r="AF11">
+        <v>8000000000000</v>
+      </c>
+      <c r="AG11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F12" s="5">
         <v>198</v>
       </c>
@@ -1376,8 +1510,20 @@
         <f t="shared" si="4"/>
         <v>5.882352941176471</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD12">
+        <v>50000</v>
+      </c>
+      <c r="AE12">
+        <v>0.09</v>
+      </c>
+      <c r="AF12">
+        <v>9000000000000</v>
+      </c>
+      <c r="AG12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F13" s="5">
         <v>199</v>
       </c>
@@ -1444,8 +1590,20 @@
         <f t="shared" si="4"/>
         <v>5.5555555555555554</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD13">
+        <v>55000</v>
+      </c>
+      <c r="AE13">
+        <v>0.1</v>
+      </c>
+      <c r="AF13">
+        <v>10000000000000</v>
+      </c>
+      <c r="AG13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F14" s="5">
         <v>200</v>
       </c>
@@ -1512,8 +1670,20 @@
         <f t="shared" si="4"/>
         <v>5.2631578947368425</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD14">
+        <v>60000</v>
+      </c>
+      <c r="AE14">
+        <v>0.11</v>
+      </c>
+      <c r="AF14">
+        <v>11000000000000</v>
+      </c>
+      <c r="AG14">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F15" s="5">
         <v>201</v>
       </c>
@@ -1588,8 +1758,20 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD15">
+        <v>65000</v>
+      </c>
+      <c r="AE15">
+        <v>0.12</v>
+      </c>
+      <c r="AF15">
+        <v>12000000000000</v>
+      </c>
+      <c r="AG15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F16" s="5">
         <v>202</v>
       </c>
@@ -1656,8 +1838,20 @@
         <f t="shared" si="4"/>
         <v>3.8461538461538463</v>
       </c>
-    </row>
-    <row r="17" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD16">
+        <v>70000</v>
+      </c>
+      <c r="AE16">
+        <v>0.13</v>
+      </c>
+      <c r="AF16">
+        <v>13000000000000</v>
+      </c>
+      <c r="AG16">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F17" s="5">
         <v>203</v>
       </c>
@@ -1724,8 +1918,20 @@
         <f t="shared" si="4"/>
         <v>3.7037037037037037</v>
       </c>
-    </row>
-    <row r="18" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD17">
+        <v>75000</v>
+      </c>
+      <c r="AE17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AF17">
+        <v>14000000000000</v>
+      </c>
+      <c r="AG17">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F18" s="5">
         <v>204</v>
       </c>
@@ -1792,8 +1998,20 @@
         <f t="shared" si="4"/>
         <v>3.5714285714285716</v>
       </c>
-    </row>
-    <row r="19" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD18">
+        <v>80000</v>
+      </c>
+      <c r="AE18">
+        <v>0.15</v>
+      </c>
+      <c r="AF18">
+        <v>15000000000000</v>
+      </c>
+      <c r="AG18">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F19" s="5">
         <v>205</v>
       </c>
@@ -1860,8 +2078,20 @@
         <f t="shared" si="4"/>
         <v>3.4482758620689653</v>
       </c>
-    </row>
-    <row r="20" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD19">
+        <v>85000</v>
+      </c>
+      <c r="AE19">
+        <v>0.16</v>
+      </c>
+      <c r="AF19">
+        <v>16000000000000</v>
+      </c>
+      <c r="AG19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F20" s="5">
         <v>206</v>
       </c>
@@ -1936,8 +2166,20 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD20">
+        <v>90000</v>
+      </c>
+      <c r="AE20">
+        <v>0.17</v>
+      </c>
+      <c r="AF20">
+        <v>17000000000000</v>
+      </c>
+      <c r="AG20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F21" s="5">
         <v>207</v>
       </c>
@@ -2004,8 +2246,20 @@
         <f t="shared" si="4"/>
         <v>2.7777777777777777</v>
       </c>
-    </row>
-    <row r="22" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD21">
+        <v>95000</v>
+      </c>
+      <c r="AE21">
+        <v>0.18</v>
+      </c>
+      <c r="AF21">
+        <v>18000000000000</v>
+      </c>
+      <c r="AG21">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F22" s="5">
         <v>208</v>
       </c>
@@ -2072,8 +2326,20 @@
         <f t="shared" si="4"/>
         <v>2.7027027027027026</v>
       </c>
-    </row>
-    <row r="23" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD22">
+        <v>100000</v>
+      </c>
+      <c r="AE22">
+        <v>0.19</v>
+      </c>
+      <c r="AF22">
+        <v>19000000000000</v>
+      </c>
+      <c r="AG22">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F23" s="5">
         <v>209</v>
       </c>
@@ -2140,8 +2406,20 @@
         <f t="shared" si="4"/>
         <v>2.6315789473684212</v>
       </c>
-    </row>
-    <row r="24" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD23">
+        <v>105000</v>
+      </c>
+      <c r="AE23">
+        <v>0.2</v>
+      </c>
+      <c r="AF23">
+        <v>20000000000000</v>
+      </c>
+      <c r="AG23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F24" s="5">
         <v>210</v>
       </c>
@@ -2208,8 +2486,20 @@
         <f t="shared" si="4"/>
         <v>2.5641025641025643</v>
       </c>
-    </row>
-    <row r="25" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD24">
+        <v>110000</v>
+      </c>
+      <c r="AE24">
+        <v>0.21</v>
+      </c>
+      <c r="AF24">
+        <v>21000000000000</v>
+      </c>
+      <c r="AG24">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F25" s="5">
         <v>211</v>
       </c>
@@ -2284,8 +2574,20 @@
         <f t="shared" si="4"/>
         <v>27.5</v>
       </c>
-    </row>
-    <row r="26" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD25">
+        <v>115000</v>
+      </c>
+      <c r="AE25">
+        <v>0.22</v>
+      </c>
+      <c r="AF25">
+        <v>22000000000000</v>
+      </c>
+      <c r="AG25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F26" s="5">
         <v>212</v>
       </c>
@@ -2352,8 +2654,20 @@
         <f t="shared" si="4"/>
         <v>1.9607843137254901</v>
       </c>
-    </row>
-    <row r="27" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD26">
+        <v>120000</v>
+      </c>
+      <c r="AE26">
+        <v>0.23</v>
+      </c>
+      <c r="AF26">
+        <v>23000000000000</v>
+      </c>
+      <c r="AG26">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F27" s="5">
         <v>213</v>
       </c>
@@ -2420,8 +2734,20 @@
         <f t="shared" si="4"/>
         <v>1.9230769230769231</v>
       </c>
-    </row>
-    <row r="28" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD27">
+        <v>125000</v>
+      </c>
+      <c r="AE27">
+        <v>0.24</v>
+      </c>
+      <c r="AF27">
+        <v>24000000000000</v>
+      </c>
+      <c r="AG27">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F28" s="5">
         <v>214</v>
       </c>
@@ -2488,8 +2814,20 @@
         <f t="shared" si="4"/>
         <v>1.8867924528301887</v>
       </c>
-    </row>
-    <row r="29" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD28">
+        <v>130000</v>
+      </c>
+      <c r="AE28">
+        <v>0.25</v>
+      </c>
+      <c r="AF28">
+        <v>25000000000000</v>
+      </c>
+      <c r="AG28">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F29" s="5">
         <v>215</v>
       </c>
@@ -2556,8 +2894,20 @@
         <f t="shared" si="4"/>
         <v>1.8518518518518519</v>
       </c>
-    </row>
-    <row r="30" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD29">
+        <v>135000</v>
+      </c>
+      <c r="AE29">
+        <v>0.26</v>
+      </c>
+      <c r="AF29">
+        <v>26000000000000</v>
+      </c>
+      <c r="AG29">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F30" s="5">
         <v>216</v>
       </c>
@@ -2624,8 +2974,20 @@
         <f t="shared" si="4"/>
         <v>1.8181818181818181</v>
       </c>
-    </row>
-    <row r="31" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD30">
+        <v>140000</v>
+      </c>
+      <c r="AE30">
+        <v>0.27</v>
+      </c>
+      <c r="AF30">
+        <v>27000000000000</v>
+      </c>
+      <c r="AG30">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F31" s="5">
         <v>217</v>
       </c>
@@ -2692,8 +3054,20 @@
         <f t="shared" si="4"/>
         <v>1.7857142857142858</v>
       </c>
-    </row>
-    <row r="32" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD31">
+        <v>145000</v>
+      </c>
+      <c r="AE31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AF31">
+        <v>28000000000000</v>
+      </c>
+      <c r="AG31">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F32" s="5">
         <v>218</v>
       </c>
@@ -2760,8 +3134,20 @@
         <f t="shared" si="4"/>
         <v>1.7543859649122806</v>
       </c>
-    </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD32">
+        <v>150000</v>
+      </c>
+      <c r="AE32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AF32">
+        <v>29000000000000</v>
+      </c>
+      <c r="AG32">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="33" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F33" s="5">
         <v>219</v>
       </c>
@@ -2828,8 +3214,20 @@
         <f t="shared" si="4"/>
         <v>1.7241379310344827</v>
       </c>
-    </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD33">
+        <v>155000</v>
+      </c>
+      <c r="AE33">
+        <v>0.3</v>
+      </c>
+      <c r="AF33">
+        <v>30000000000000</v>
+      </c>
+      <c r="AG33">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F34" s="5">
         <v>220</v>
       </c>
@@ -2896,8 +3294,20 @@
         <f t="shared" si="4"/>
         <v>1.6949152542372881</v>
       </c>
-    </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD34">
+        <v>160000</v>
+      </c>
+      <c r="AE34">
+        <v>0.31</v>
+      </c>
+      <c r="AF34">
+        <v>31000000000000</v>
+      </c>
+      <c r="AG34">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F35" s="5">
         <v>221</v>
       </c>
@@ -2972,8 +3382,20 @@
         <f t="shared" si="4"/>
         <v>26.666666666666668</v>
       </c>
-    </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD35">
+        <v>165000</v>
+      </c>
+      <c r="AE35">
+        <v>0.32</v>
+      </c>
+      <c r="AF35">
+        <v>32000000000000</v>
+      </c>
+      <c r="AG35">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F36" s="5">
         <v>222</v>
       </c>
@@ -3040,8 +3462,20 @@
         <f t="shared" si="4"/>
         <v>1.3157894736842106</v>
       </c>
-    </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD36">
+        <v>170000</v>
+      </c>
+      <c r="AE36">
+        <v>0.33</v>
+      </c>
+      <c r="AF36">
+        <v>33000000000000</v>
+      </c>
+      <c r="AG36">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="37" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F37" s="5">
         <v>223</v>
       </c>
@@ -3108,8 +3542,20 @@
         <f t="shared" si="4"/>
         <v>1.2987012987012987</v>
       </c>
-    </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD37">
+        <v>175000</v>
+      </c>
+      <c r="AE37">
+        <v>0.34</v>
+      </c>
+      <c r="AF37">
+        <v>34000000000000</v>
+      </c>
+      <c r="AG37">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="38" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F38" s="5">
         <v>224</v>
       </c>
@@ -3176,8 +3622,20 @@
         <f t="shared" si="4"/>
         <v>1.2820512820512822</v>
       </c>
-    </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD38">
+        <v>180000</v>
+      </c>
+      <c r="AE38">
+        <v>0.35</v>
+      </c>
+      <c r="AF38">
+        <v>35000000000000</v>
+      </c>
+      <c r="AG38">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="39" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F39" s="5">
         <v>225</v>
       </c>
@@ -3244,8 +3702,20 @@
         <f t="shared" si="4"/>
         <v>1.2658227848101267</v>
       </c>
-    </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD39">
+        <v>185000</v>
+      </c>
+      <c r="AE39">
+        <v>0.36</v>
+      </c>
+      <c r="AF39">
+        <v>36000000000000</v>
+      </c>
+      <c r="AG39">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="40" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F40" s="5">
         <v>226</v>
       </c>
@@ -3312,8 +3782,20 @@
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD40">
+        <v>190000</v>
+      </c>
+      <c r="AE40">
+        <v>0.37</v>
+      </c>
+      <c r="AF40">
+        <v>37000000000000</v>
+      </c>
+      <c r="AG40">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="41" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F41" s="5">
         <v>227</v>
       </c>
@@ -3380,8 +3862,20 @@
         <f t="shared" si="4"/>
         <v>1.2345679012345678</v>
       </c>
-    </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD41">
+        <v>195000</v>
+      </c>
+      <c r="AE41">
+        <v>0.38</v>
+      </c>
+      <c r="AF41">
+        <v>38000000000000</v>
+      </c>
+      <c r="AG41">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="42" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F42" s="5">
         <v>228</v>
       </c>
@@ -3448,8 +3942,20 @@
         <f t="shared" si="4"/>
         <v>1.2195121951219512</v>
       </c>
-    </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD42">
+        <v>200000</v>
+      </c>
+      <c r="AE42">
+        <v>0.39</v>
+      </c>
+      <c r="AF42">
+        <v>39000000000000</v>
+      </c>
+      <c r="AG42">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="43" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F43" s="5">
         <v>229</v>
       </c>
@@ -3516,8 +4022,20 @@
         <f t="shared" si="4"/>
         <v>1.2048192771084338</v>
       </c>
-    </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD43">
+        <v>205000</v>
+      </c>
+      <c r="AE43">
+        <v>0.4</v>
+      </c>
+      <c r="AF43">
+        <v>40000000000000</v>
+      </c>
+      <c r="AG43">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F44" s="5">
         <v>230</v>
       </c>
@@ -3584,8 +4102,20 @@
         <f t="shared" si="4"/>
         <v>1.1904761904761905</v>
       </c>
-    </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD44">
+        <v>210000</v>
+      </c>
+      <c r="AE44">
+        <v>0.41</v>
+      </c>
+      <c r="AF44">
+        <v>41000000000000</v>
+      </c>
+      <c r="AG44">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="45" spans="6:33" x14ac:dyDescent="0.3">
       <c r="F45" s="5">
         <v>231</v>
       </c>
@@ -3660,8 +4190,20 @@
         <f t="shared" si="4"/>
         <v>24.705882352941178</v>
       </c>
-    </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD45">
+        <v>215000</v>
+      </c>
+      <c r="AE45">
+        <v>0.42</v>
+      </c>
+      <c r="AF45">
+        <v>42000000000000</v>
+      </c>
+      <c r="AG45">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="46" spans="6:33" x14ac:dyDescent="0.3">
       <c r="H46" s="1"/>
       <c r="J46">
         <v>41</v>
@@ -3719,8 +4261,20 @@
         <f t="shared" si="4"/>
         <v>0.94339622641509435</v>
       </c>
-    </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD46">
+        <v>220000</v>
+      </c>
+      <c r="AE46">
+        <v>0.43</v>
+      </c>
+      <c r="AF46">
+        <v>43000000000000</v>
+      </c>
+      <c r="AG46">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="47" spans="6:33" x14ac:dyDescent="0.3">
       <c r="H47" s="1"/>
       <c r="J47">
         <v>42</v>
@@ -3778,8 +4332,20 @@
         <f t="shared" si="4"/>
         <v>0.93457943925233644</v>
       </c>
-    </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="AD47">
+        <v>225000</v>
+      </c>
+      <c r="AE47">
+        <v>0.44</v>
+      </c>
+      <c r="AF47">
+        <v>44000000000000</v>
+      </c>
+      <c r="AG47">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="48" spans="6:33" x14ac:dyDescent="0.3">
       <c r="H48" s="1"/>
       <c r="J48">
         <v>43</v>
@@ -3837,8 +4403,20 @@
         <f t="shared" si="4"/>
         <v>0.92592592592592593</v>
       </c>
-    </row>
-    <row r="49" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD48">
+        <v>230000</v>
+      </c>
+      <c r="AE48">
+        <v>0.45</v>
+      </c>
+      <c r="AF48">
+        <v>45000000000000</v>
+      </c>
+      <c r="AG48">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="49" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J49">
         <v>44</v>
       </c>
@@ -3895,8 +4473,20 @@
         <f t="shared" si="4"/>
         <v>0.91743119266055051</v>
       </c>
-    </row>
-    <row r="50" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD49">
+        <v>235000</v>
+      </c>
+      <c r="AE49">
+        <v>0.46</v>
+      </c>
+      <c r="AF49">
+        <v>46000000000000</v>
+      </c>
+      <c r="AG49">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="50" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J50">
         <v>45</v>
       </c>
@@ -3953,8 +4543,20 @@
         <f t="shared" si="4"/>
         <v>0.90909090909090906</v>
       </c>
-    </row>
-    <row r="51" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD50">
+        <v>240000</v>
+      </c>
+      <c r="AE50">
+        <v>0.47</v>
+      </c>
+      <c r="AF50">
+        <v>47000000000000</v>
+      </c>
+      <c r="AG50">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="51" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J51">
         <v>46</v>
       </c>
@@ -4011,8 +4613,20 @@
         <f t="shared" si="4"/>
         <v>0.90090090090090091</v>
       </c>
-    </row>
-    <row r="52" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD51">
+        <v>245000</v>
+      </c>
+      <c r="AE51">
+        <v>0.48</v>
+      </c>
+      <c r="AF51">
+        <v>48000000000000</v>
+      </c>
+      <c r="AG51">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="52" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J52">
         <v>47</v>
       </c>
@@ -4069,8 +4683,20 @@
         <f t="shared" si="4"/>
         <v>0.8928571428571429</v>
       </c>
-    </row>
-    <row r="53" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD52">
+        <v>250000</v>
+      </c>
+      <c r="AE52">
+        <v>0.49</v>
+      </c>
+      <c r="AF52">
+        <v>49000000000000</v>
+      </c>
+      <c r="AG52">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="53" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J53">
         <v>48</v>
       </c>
@@ -4127,8 +4753,20 @@
         <f t="shared" si="4"/>
         <v>0.88495575221238942</v>
       </c>
-    </row>
-    <row r="54" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD53">
+        <v>255000</v>
+      </c>
+      <c r="AE53">
+        <v>0.5</v>
+      </c>
+      <c r="AF53">
+        <v>50000000000000</v>
+      </c>
+      <c r="AG53">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="54" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J54">
         <v>49</v>
       </c>
@@ -4185,8 +4823,20 @@
         <f t="shared" si="4"/>
         <v>0.8771929824561403</v>
       </c>
-    </row>
-    <row r="55" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD54">
+        <v>260000</v>
+      </c>
+      <c r="AE54">
+        <v>0.52</v>
+      </c>
+      <c r="AF54">
+        <v>51000000000000</v>
+      </c>
+      <c r="AG54">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="55" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J55" s="6">
         <v>50</v>
       </c>
@@ -4251,8 +4901,20 @@
         <f t="shared" si="4"/>
         <v>23.478260869565219</v>
       </c>
-    </row>
-    <row r="56" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD55">
+        <v>265000</v>
+      </c>
+      <c r="AE55">
+        <v>0.54</v>
+      </c>
+      <c r="AF55">
+        <v>52000000000000</v>
+      </c>
+      <c r="AG55">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="56" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J56">
         <v>51</v>
       </c>
@@ -4309,8 +4971,20 @@
         <f t="shared" si="4"/>
         <v>1.408450704225352</v>
       </c>
-    </row>
-    <row r="57" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD56">
+        <v>270000</v>
+      </c>
+      <c r="AE56">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AF56">
+        <v>53000000000000</v>
+      </c>
+      <c r="AG56">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="57" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J57">
         <v>52</v>
       </c>
@@ -4367,8 +5041,20 @@
         <f t="shared" si="4"/>
         <v>1.3888888888888888</v>
       </c>
-    </row>
-    <row r="58" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD57">
+        <v>275000</v>
+      </c>
+      <c r="AE57">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AF57">
+        <v>54000000000000</v>
+      </c>
+      <c r="AG57">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="58" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J58">
         <v>53</v>
       </c>
@@ -4425,8 +5111,20 @@
         <f t="shared" si="4"/>
         <v>1.3698630136986301</v>
       </c>
-    </row>
-    <row r="59" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD58">
+        <v>280000</v>
+      </c>
+      <c r="AE58">
+        <v>0.6</v>
+      </c>
+      <c r="AF58">
+        <v>55000000000000</v>
+      </c>
+      <c r="AG58">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="59" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J59">
         <v>54</v>
       </c>
@@ -4483,8 +5181,20 @@
         <f t="shared" si="4"/>
         <v>1.3513513513513513</v>
       </c>
-    </row>
-    <row r="60" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD59">
+        <v>285000</v>
+      </c>
+      <c r="AE59">
+        <v>0.62</v>
+      </c>
+      <c r="AF59">
+        <v>56000000000000</v>
+      </c>
+      <c r="AG59">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="60" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J60">
         <v>55</v>
       </c>
@@ -4541,8 +5251,20 @@
         <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="61" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD60">
+        <v>290000</v>
+      </c>
+      <c r="AE60">
+        <v>0.64</v>
+      </c>
+      <c r="AF60">
+        <v>57000000000000</v>
+      </c>
+      <c r="AG60">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="61" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J61">
         <v>56</v>
       </c>
@@ -4599,8 +5321,20 @@
         <f t="shared" si="4"/>
         <v>1.3157894736842106</v>
       </c>
-    </row>
-    <row r="62" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD61">
+        <v>295000</v>
+      </c>
+      <c r="AE61">
+        <v>0.66</v>
+      </c>
+      <c r="AF61">
+        <v>58000000000000</v>
+      </c>
+      <c r="AG61">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="62" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J62">
         <v>57</v>
       </c>
@@ -4657,8 +5391,20 @@
         <f t="shared" si="4"/>
         <v>1.2987012987012987</v>
       </c>
-    </row>
-    <row r="63" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD62">
+        <v>300000</v>
+      </c>
+      <c r="AE62">
+        <v>0.68</v>
+      </c>
+      <c r="AF62">
+        <v>59000000000000</v>
+      </c>
+      <c r="AG62">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="63" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J63">
         <v>58</v>
       </c>
@@ -4715,8 +5461,20 @@
         <f t="shared" si="4"/>
         <v>1.2820512820512822</v>
       </c>
-    </row>
-    <row r="64" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD63">
+        <v>305000</v>
+      </c>
+      <c r="AE63">
+        <v>0.7</v>
+      </c>
+      <c r="AF63">
+        <v>60000000000000</v>
+      </c>
+      <c r="AG63">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="64" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J64">
         <v>59</v>
       </c>
@@ -4773,8 +5531,20 @@
         <f t="shared" si="4"/>
         <v>1.2658227848101267</v>
       </c>
-    </row>
-    <row r="65" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD64">
+        <v>310000</v>
+      </c>
+      <c r="AE64">
+        <v>0.72</v>
+      </c>
+      <c r="AF64">
+        <v>61000000000000</v>
+      </c>
+      <c r="AG64">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="65" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J65">
         <v>60</v>
       </c>
@@ -4839,8 +5609,20 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD65">
+        <v>315000</v>
+      </c>
+      <c r="AE65">
+        <v>0.74</v>
+      </c>
+      <c r="AF65">
+        <v>62000000000000</v>
+      </c>
+      <c r="AG65">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="66" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J66">
         <v>61</v>
       </c>
@@ -4897,8 +5679,20 @@
         <f t="shared" si="4"/>
         <v>1.0416666666666667</v>
       </c>
-    </row>
-    <row r="67" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD66">
+        <v>320000</v>
+      </c>
+      <c r="AE66">
+        <v>0.76</v>
+      </c>
+      <c r="AF66">
+        <v>63000000000000</v>
+      </c>
+      <c r="AG66">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="67" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J67">
         <v>62</v>
       </c>
@@ -4955,8 +5749,20 @@
         <f t="shared" si="4"/>
         <v>1.0309278350515463</v>
       </c>
-    </row>
-    <row r="68" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD67">
+        <v>325000</v>
+      </c>
+      <c r="AE67">
+        <v>0.78</v>
+      </c>
+      <c r="AF67">
+        <v>64000000000000</v>
+      </c>
+      <c r="AG67">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="68" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J68">
         <v>63</v>
       </c>
@@ -5013,8 +5819,20 @@
         <f t="shared" si="4"/>
         <v>1.0204081632653061</v>
       </c>
-    </row>
-    <row r="69" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD68">
+        <v>330000</v>
+      </c>
+      <c r="AE68">
+        <v>0.8</v>
+      </c>
+      <c r="AF68">
+        <v>65000000000000</v>
+      </c>
+      <c r="AG68">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="69" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J69">
         <v>64</v>
       </c>
@@ -5071,8 +5889,20 @@
         <f t="shared" si="4"/>
         <v>1.0101010101010102</v>
       </c>
-    </row>
-    <row r="70" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD69">
+        <v>335000</v>
+      </c>
+      <c r="AE69">
+        <v>0.82</v>
+      </c>
+      <c r="AF69">
+        <v>66000000000000</v>
+      </c>
+      <c r="AG69">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="70" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J70">
         <v>65</v>
       </c>
@@ -5129,8 +5959,20 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD70">
+        <v>340000</v>
+      </c>
+      <c r="AE70">
+        <v>0.84</v>
+      </c>
+      <c r="AF70">
+        <v>67000000000000</v>
+      </c>
+      <c r="AG70">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="71" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J71">
         <v>66</v>
       </c>
@@ -5187,8 +6029,20 @@
         <f t="shared" ref="AA71:AA105" si="9">(Z71-Z70)*100/Z70</f>
         <v>0.99009900990099009</v>
       </c>
-    </row>
-    <row r="72" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD71">
+        <v>345000</v>
+      </c>
+      <c r="AE71">
+        <v>0.86</v>
+      </c>
+      <c r="AF71">
+        <v>68000000000000</v>
+      </c>
+      <c r="AG71">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="72" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J72">
         <v>67</v>
       </c>
@@ -5245,8 +6099,20 @@
         <f t="shared" si="9"/>
         <v>0.98039215686274506</v>
       </c>
-    </row>
-    <row r="73" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD72">
+        <v>350000</v>
+      </c>
+      <c r="AE72">
+        <v>0.88</v>
+      </c>
+      <c r="AF72">
+        <v>69000000000000</v>
+      </c>
+      <c r="AG72">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="73" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J73">
         <v>68</v>
       </c>
@@ -5303,8 +6169,20 @@
         <f t="shared" si="9"/>
         <v>0.970873786407767</v>
       </c>
-    </row>
-    <row r="74" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD73">
+        <v>355000</v>
+      </c>
+      <c r="AE73">
+        <v>0.9</v>
+      </c>
+      <c r="AF73">
+        <v>70000000000000</v>
+      </c>
+      <c r="AG73">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="74" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J74">
         <v>69</v>
       </c>
@@ -5361,8 +6239,20 @@
         <f t="shared" si="9"/>
         <v>0.96153846153846156</v>
       </c>
-    </row>
-    <row r="75" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD74">
+        <v>360000</v>
+      </c>
+      <c r="AE74">
+        <v>0.92</v>
+      </c>
+      <c r="AF74">
+        <v>71000000000000</v>
+      </c>
+      <c r="AG74">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="75" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J75">
         <v>70</v>
       </c>
@@ -5427,8 +6317,20 @@
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD75">
+        <v>365000</v>
+      </c>
+      <c r="AE75">
+        <v>0.94</v>
+      </c>
+      <c r="AF75">
+        <v>72000000000000</v>
+      </c>
+      <c r="AG75">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="76" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J76">
         <v>71</v>
       </c>
@@ -5485,8 +6387,20 @@
         <f t="shared" si="9"/>
         <v>0.79365079365079361</v>
       </c>
-    </row>
-    <row r="77" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD76">
+        <v>370000</v>
+      </c>
+      <c r="AE76">
+        <v>0.96</v>
+      </c>
+      <c r="AF76">
+        <v>73000000000000</v>
+      </c>
+      <c r="AG76">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="77" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J77">
         <v>72</v>
       </c>
@@ -5543,8 +6457,20 @@
         <f t="shared" si="9"/>
         <v>0.78740157480314965</v>
       </c>
-    </row>
-    <row r="78" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD77">
+        <v>375000</v>
+      </c>
+      <c r="AE77">
+        <v>0.98</v>
+      </c>
+      <c r="AF77">
+        <v>74000000000000</v>
+      </c>
+      <c r="AG77">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="78" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J78">
         <v>73</v>
       </c>
@@ -5601,8 +6527,20 @@
         <f t="shared" si="9"/>
         <v>0.78125</v>
       </c>
-    </row>
-    <row r="79" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD78">
+        <v>380000</v>
+      </c>
+      <c r="AE78">
+        <v>1</v>
+      </c>
+      <c r="AF78">
+        <v>75000000000000</v>
+      </c>
+      <c r="AG78">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="79" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J79">
         <v>74</v>
       </c>
@@ -5659,8 +6597,20 @@
         <f t="shared" si="9"/>
         <v>0.77519379844961245</v>
       </c>
-    </row>
-    <row r="80" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD79">
+        <v>385000</v>
+      </c>
+      <c r="AE79">
+        <v>1.02</v>
+      </c>
+      <c r="AF79">
+        <v>76000000000000</v>
+      </c>
+      <c r="AG79">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="80" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J80">
         <v>75</v>
       </c>
@@ -5717,8 +6667,20 @@
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
       </c>
-    </row>
-    <row r="81" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD80">
+        <v>390000</v>
+      </c>
+      <c r="AE80">
+        <v>1.04</v>
+      </c>
+      <c r="AF80">
+        <v>77000000000000</v>
+      </c>
+      <c r="AG80">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="81" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J81">
         <v>76</v>
       </c>
@@ -5775,8 +6737,20 @@
         <f t="shared" si="9"/>
         <v>0.76335877862595425</v>
       </c>
-    </row>
-    <row r="82" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD81">
+        <v>395000</v>
+      </c>
+      <c r="AE81">
+        <v>1.06</v>
+      </c>
+      <c r="AF81">
+        <v>78000000000000</v>
+      </c>
+      <c r="AG81">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="82" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J82">
         <v>77</v>
       </c>
@@ -5833,8 +6807,20 @@
         <f t="shared" si="9"/>
         <v>0.75757575757575757</v>
       </c>
-    </row>
-    <row r="83" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD82">
+        <v>400000</v>
+      </c>
+      <c r="AE82">
+        <v>1.08</v>
+      </c>
+      <c r="AF82">
+        <v>79000000000000</v>
+      </c>
+      <c r="AG82">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="83" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J83">
         <v>78</v>
       </c>
@@ -5891,8 +6877,20 @@
         <f t="shared" si="9"/>
         <v>0.75187969924812026</v>
       </c>
-    </row>
-    <row r="84" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD83">
+        <v>405000</v>
+      </c>
+      <c r="AE83">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF83">
+        <v>80000000000000</v>
+      </c>
+      <c r="AG83">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="84" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J84">
         <v>79</v>
       </c>
@@ -5949,8 +6947,20 @@
         <f t="shared" si="9"/>
         <v>0.74626865671641796</v>
       </c>
-    </row>
-    <row r="85" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD84">
+        <v>410000</v>
+      </c>
+      <c r="AE84">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AF84">
+        <v>81000000000000</v>
+      </c>
+      <c r="AG84">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="85" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J85">
         <v>80</v>
       </c>
@@ -6015,8 +7025,20 @@
         <f t="shared" si="9"/>
         <v>26.666666666666668</v>
       </c>
-    </row>
-    <row r="86" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD85">
+        <v>415000</v>
+      </c>
+      <c r="AE85">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AF85">
+        <v>82000000000000</v>
+      </c>
+      <c r="AG85">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="86" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J86">
         <v>81</v>
       </c>
@@ -6073,8 +7095,20 @@
         <f t="shared" si="9"/>
         <v>0.58479532163742687</v>
       </c>
-    </row>
-    <row r="87" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD86">
+        <v>420000</v>
+      </c>
+      <c r="AE86">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AF86">
+        <v>83000000000000</v>
+      </c>
+      <c r="AG86">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="87" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J87">
         <v>82</v>
       </c>
@@ -6131,8 +7165,20 @@
         <f t="shared" si="9"/>
         <v>0.58139534883720934</v>
       </c>
-    </row>
-    <row r="88" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD87">
+        <v>425000</v>
+      </c>
+      <c r="AE87">
+        <v>1.18</v>
+      </c>
+      <c r="AF87">
+        <v>84000000000000</v>
+      </c>
+      <c r="AG87">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="88" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J88">
         <v>83</v>
       </c>
@@ -6189,8 +7235,20 @@
         <f t="shared" si="9"/>
         <v>0.5780346820809249</v>
       </c>
-    </row>
-    <row r="89" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD88">
+        <v>430000</v>
+      </c>
+      <c r="AE88">
+        <v>1.2</v>
+      </c>
+      <c r="AF88">
+        <v>85000000000000</v>
+      </c>
+      <c r="AG88">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="89" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J89">
         <v>84</v>
       </c>
@@ -6247,8 +7305,20 @@
         <f t="shared" si="9"/>
         <v>0.57471264367816088</v>
       </c>
-    </row>
-    <row r="90" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD89">
+        <v>435000</v>
+      </c>
+      <c r="AE89">
+        <v>1.22</v>
+      </c>
+      <c r="AF89">
+        <v>86000000000000</v>
+      </c>
+      <c r="AG89">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="90" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J90">
         <v>85</v>
       </c>
@@ -6305,8 +7375,20 @@
         <f t="shared" si="9"/>
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="91" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD90">
+        <v>440000</v>
+      </c>
+      <c r="AE90">
+        <v>1.24</v>
+      </c>
+      <c r="AF90">
+        <v>87000000000000</v>
+      </c>
+      <c r="AG90">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="91" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J91">
         <v>86</v>
       </c>
@@ -6363,8 +7445,20 @@
         <f t="shared" si="9"/>
         <v>0.56818181818181823</v>
       </c>
-    </row>
-    <row r="92" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD91">
+        <v>445000</v>
+      </c>
+      <c r="AE91">
+        <v>1.26</v>
+      </c>
+      <c r="AF91">
+        <v>88000000000000</v>
+      </c>
+      <c r="AG91">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="92" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J92">
         <v>87</v>
       </c>
@@ -6421,8 +7515,20 @@
         <f t="shared" si="9"/>
         <v>0.56497175141242939</v>
       </c>
-    </row>
-    <row r="93" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD92">
+        <v>450000</v>
+      </c>
+      <c r="AE92">
+        <v>1.28</v>
+      </c>
+      <c r="AF92">
+        <v>89000000000000</v>
+      </c>
+      <c r="AG92">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="93" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J93">
         <v>88</v>
       </c>
@@ -6479,8 +7585,20 @@
         <f t="shared" si="9"/>
         <v>0.5617977528089888</v>
       </c>
-    </row>
-    <row r="94" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD93">
+        <v>455000</v>
+      </c>
+      <c r="AE93">
+        <v>1.3</v>
+      </c>
+      <c r="AF93">
+        <v>90000000000000</v>
+      </c>
+      <c r="AG93">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="94" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J94">
         <v>89</v>
       </c>
@@ -6537,8 +7655,20 @@
         <f t="shared" si="9"/>
         <v>0.55865921787709494</v>
       </c>
-    </row>
-    <row r="95" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD94">
+        <v>460000</v>
+      </c>
+      <c r="AE94">
+        <v>1.32</v>
+      </c>
+      <c r="AF94">
+        <v>91000000000000</v>
+      </c>
+      <c r="AG94">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="95" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J95">
         <v>90</v>
       </c>
@@ -6603,8 +7733,20 @@
         <f t="shared" si="9"/>
         <v>25.555555555555557</v>
       </c>
-    </row>
-    <row r="96" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD95">
+        <v>465000</v>
+      </c>
+      <c r="AE95">
+        <v>1.34</v>
+      </c>
+      <c r="AF95">
+        <v>92000000000000</v>
+      </c>
+      <c r="AG95">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="96" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J96">
         <v>91</v>
       </c>
@@ -6661,8 +7803,20 @@
         <f t="shared" si="9"/>
         <v>0.44247787610619471</v>
       </c>
-    </row>
-    <row r="97" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD96">
+        <v>470000</v>
+      </c>
+      <c r="AE96">
+        <v>1.36</v>
+      </c>
+      <c r="AF96">
+        <v>93000000000000</v>
+      </c>
+      <c r="AG96">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="97" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J97">
         <v>92</v>
       </c>
@@ -6719,8 +7873,20 @@
         <f t="shared" si="9"/>
         <v>0.44052863436123346</v>
       </c>
-    </row>
-    <row r="98" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD97">
+        <v>475000</v>
+      </c>
+      <c r="AE97">
+        <v>1.38</v>
+      </c>
+      <c r="AF97">
+        <v>94000000000000</v>
+      </c>
+      <c r="AG97">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="98" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J98">
         <v>93</v>
       </c>
@@ -6777,8 +7943,20 @@
         <f t="shared" si="9"/>
         <v>0.43859649122807015</v>
       </c>
-    </row>
-    <row r="99" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD98">
+        <v>480000</v>
+      </c>
+      <c r="AE98">
+        <v>1.4</v>
+      </c>
+      <c r="AF98">
+        <v>95000000000000</v>
+      </c>
+      <c r="AG98">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="99" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J99">
         <v>94</v>
       </c>
@@ -6835,8 +8013,20 @@
         <f t="shared" si="9"/>
         <v>0.4366812227074236</v>
       </c>
-    </row>
-    <row r="100" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD99">
+        <v>485000</v>
+      </c>
+      <c r="AE99">
+        <v>1.42</v>
+      </c>
+      <c r="AF99">
+        <v>96000000000000</v>
+      </c>
+      <c r="AG99">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="100" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J100">
         <v>95</v>
       </c>
@@ -6893,8 +8083,20 @@
         <f t="shared" si="9"/>
         <v>0.43478260869565216</v>
       </c>
-    </row>
-    <row r="101" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD100">
+        <v>490000</v>
+      </c>
+      <c r="AE100">
+        <v>1.44</v>
+      </c>
+      <c r="AF100">
+        <v>97000000000000</v>
+      </c>
+      <c r="AG100">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="101" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J101">
         <v>96</v>
       </c>
@@ -6951,8 +8153,20 @@
         <f t="shared" si="9"/>
         <v>0.4329004329004329</v>
       </c>
-    </row>
-    <row r="102" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD101">
+        <v>495000</v>
+      </c>
+      <c r="AE101">
+        <v>1.46</v>
+      </c>
+      <c r="AF101">
+        <v>98000000000000</v>
+      </c>
+      <c r="AG101">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="102" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J102">
         <v>97</v>
       </c>
@@ -7009,8 +8223,20 @@
         <f t="shared" si="9"/>
         <v>0.43103448275862066</v>
       </c>
-    </row>
-    <row r="103" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD102">
+        <v>500000</v>
+      </c>
+      <c r="AE102">
+        <v>1.48</v>
+      </c>
+      <c r="AF102">
+        <v>99000000000000</v>
+      </c>
+      <c r="AG102">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="103" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J103">
         <v>98</v>
       </c>
@@ -7067,8 +8293,20 @@
         <f t="shared" si="9"/>
         <v>0.42918454935622319</v>
       </c>
-    </row>
-    <row r="104" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD103">
+        <v>505000</v>
+      </c>
+      <c r="AE103">
+        <v>1.5</v>
+      </c>
+      <c r="AF103">
+        <v>100000000000000</v>
+      </c>
+      <c r="AG103">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="104" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J104">
         <v>99</v>
       </c>
@@ -7125,8 +8363,20 @@
         <f t="shared" si="9"/>
         <v>0.42735042735042733</v>
       </c>
-    </row>
-    <row r="105" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD104">
+        <v>510000</v>
+      </c>
+      <c r="AE104">
+        <v>1.52</v>
+      </c>
+      <c r="AF104">
+        <v>101000000000000</v>
+      </c>
+      <c r="AG104">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="105" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J105">
         <v>100</v>
       </c>
@@ -7191,8 +8441,20 @@
         <f t="shared" si="9"/>
         <v>23.829787234042552</v>
       </c>
-    </row>
-    <row r="106" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD105">
+        <v>515000</v>
+      </c>
+      <c r="AE105">
+        <v>1.54</v>
+      </c>
+      <c r="AF105">
+        <v>102000000000000</v>
+      </c>
+      <c r="AG105">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="106" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J106">
         <v>101</v>
       </c>
@@ -7246,11 +8508,23 @@
         <v>584</v>
       </c>
       <c r="AA106">
-        <f t="shared" ref="AA105:AA118" si="16">(Z106-Z105)*100/Z105</f>
+        <f t="shared" ref="AA106:AA118" si="16">(Z106-Z105)*100/Z105</f>
         <v>0.3436426116838488</v>
       </c>
-    </row>
-    <row r="107" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD106">
+        <v>520000</v>
+      </c>
+      <c r="AE106">
+        <v>1.56</v>
+      </c>
+      <c r="AF106">
+        <v>103000000000000</v>
+      </c>
+      <c r="AG106">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="107" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J107">
         <v>102</v>
       </c>
@@ -7307,8 +8581,20 @@
         <f t="shared" si="16"/>
         <v>0.34246575342465752</v>
       </c>
-    </row>
-    <row r="108" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD107">
+        <v>525000</v>
+      </c>
+      <c r="AE107">
+        <v>1.58</v>
+      </c>
+      <c r="AF107">
+        <v>104000000000000</v>
+      </c>
+      <c r="AG107">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="108" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J108">
         <v>103</v>
       </c>
@@ -7365,8 +8651,20 @@
         <f t="shared" si="16"/>
         <v>0.34129692832764508</v>
       </c>
-    </row>
-    <row r="109" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD108">
+        <v>530000</v>
+      </c>
+      <c r="AE108">
+        <v>1.6</v>
+      </c>
+      <c r="AF108">
+        <v>105000000000000</v>
+      </c>
+      <c r="AG108">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="109" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J109">
         <v>104</v>
       </c>
@@ -7423,8 +8721,20 @@
         <f t="shared" si="16"/>
         <v>0.3401360544217687</v>
       </c>
-    </row>
-    <row r="110" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD109">
+        <v>535000</v>
+      </c>
+      <c r="AE109">
+        <v>1.62</v>
+      </c>
+      <c r="AF109">
+        <v>106000000000000</v>
+      </c>
+      <c r="AG109">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="110" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J110">
         <v>105</v>
       </c>
@@ -7481,8 +8791,20 @@
         <f t="shared" si="16"/>
         <v>0.33898305084745761</v>
       </c>
-    </row>
-    <row r="111" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD110">
+        <v>540000</v>
+      </c>
+      <c r="AE110">
+        <v>1.64</v>
+      </c>
+      <c r="AF110">
+        <v>107000000000000</v>
+      </c>
+      <c r="AG110">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="111" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J111">
         <v>106</v>
       </c>
@@ -7539,8 +8861,20 @@
         <f t="shared" si="16"/>
         <v>0.33783783783783783</v>
       </c>
-    </row>
-    <row r="112" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD111">
+        <v>545000</v>
+      </c>
+      <c r="AE111">
+        <v>1.66</v>
+      </c>
+      <c r="AF111">
+        <v>108000000000000</v>
+      </c>
+      <c r="AG111">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="112" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J112">
         <v>107</v>
       </c>
@@ -7597,8 +8931,20 @@
         <f t="shared" si="16"/>
         <v>0.33670033670033672</v>
       </c>
-    </row>
-    <row r="113" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD112">
+        <v>550000</v>
+      </c>
+      <c r="AE112">
+        <v>1.68</v>
+      </c>
+      <c r="AF112">
+        <v>109000000000000</v>
+      </c>
+      <c r="AG112">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="113" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J113">
         <v>108</v>
       </c>
@@ -7655,8 +9001,20 @@
         <f t="shared" si="16"/>
         <v>0.33557046979865773</v>
       </c>
-    </row>
-    <row r="114" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD113">
+        <v>555000</v>
+      </c>
+      <c r="AE113">
+        <v>1.7</v>
+      </c>
+      <c r="AF113">
+        <v>110000000000000</v>
+      </c>
+      <c r="AG113">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="114" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J114">
         <v>109</v>
       </c>
@@ -7713,8 +9071,20 @@
         <f t="shared" si="16"/>
         <v>0.33444816053511706</v>
       </c>
-    </row>
-    <row r="115" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD114">
+        <v>560000</v>
+      </c>
+      <c r="AE114">
+        <v>1.72</v>
+      </c>
+      <c r="AF114">
+        <v>111000000000000</v>
+      </c>
+      <c r="AG114">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="115" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J115">
         <v>110</v>
       </c>
@@ -7779,8 +9149,20 @@
         <f t="shared" si="16"/>
         <v>23.666666666666668</v>
       </c>
-    </row>
-    <row r="116" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD115">
+        <v>565000</v>
+      </c>
+      <c r="AE115">
+        <v>1.74</v>
+      </c>
+      <c r="AF115">
+        <v>112000000000000</v>
+      </c>
+      <c r="AG115">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="116" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J116">
         <v>111</v>
       </c>
@@ -7837,8 +9219,20 @@
         <f t="shared" si="16"/>
         <v>0.26954177897574122</v>
       </c>
-    </row>
-    <row r="117" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD116">
+        <v>570000</v>
+      </c>
+      <c r="AE116">
+        <v>1.76</v>
+      </c>
+      <c r="AF116">
+        <v>113000000000000</v>
+      </c>
+      <c r="AG116">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="117" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J117">
         <v>112</v>
       </c>
@@ -7895,8 +9289,20 @@
         <f t="shared" si="16"/>
         <v>0.26881720430107525</v>
       </c>
-    </row>
-    <row r="118" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD117">
+        <v>575000</v>
+      </c>
+      <c r="AE117">
+        <v>1.78</v>
+      </c>
+      <c r="AF117">
+        <v>114000000000000</v>
+      </c>
+      <c r="AG117">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="118" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J118">
         <v>113</v>
       </c>
@@ -7953,8 +9359,20 @@
         <f t="shared" si="16"/>
         <v>0.26809651474530832</v>
       </c>
-    </row>
-    <row r="119" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD118">
+        <v>580000</v>
+      </c>
+      <c r="AE118">
+        <v>1.8</v>
+      </c>
+      <c r="AF118">
+        <v>115000000000000</v>
+      </c>
+      <c r="AG118">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="119" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J119">
         <v>114</v>
       </c>
@@ -8011,8 +9429,20 @@
         <f t="shared" ref="AA119:AA182" si="22">(Z119-Z118)*100/Z118</f>
         <v>0.26737967914438504</v>
       </c>
-    </row>
-    <row r="120" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD119">
+        <v>585000</v>
+      </c>
+      <c r="AE119">
+        <v>1.82</v>
+      </c>
+      <c r="AF119">
+        <v>116000000000000</v>
+      </c>
+      <c r="AG119">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="120" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J120">
         <v>115</v>
       </c>
@@ -8069,8 +9499,20 @@
         <f t="shared" si="22"/>
         <v>0.26666666666666666</v>
       </c>
-    </row>
-    <row r="121" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD120">
+        <v>590000</v>
+      </c>
+      <c r="AE120">
+        <v>1.84</v>
+      </c>
+      <c r="AF120">
+        <v>117000000000000</v>
+      </c>
+      <c r="AG120">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="121" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J121">
         <v>116</v>
       </c>
@@ -8127,8 +9569,20 @@
         <f t="shared" si="22"/>
         <v>0.26595744680851063</v>
       </c>
-    </row>
-    <row r="122" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD121">
+        <v>595000</v>
+      </c>
+      <c r="AE121">
+        <v>1.86</v>
+      </c>
+      <c r="AF121">
+        <v>118000000000000</v>
+      </c>
+      <c r="AG121">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="122" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J122">
         <v>117</v>
       </c>
@@ -8185,8 +9639,20 @@
         <f t="shared" si="22"/>
         <v>0.26525198938992045</v>
       </c>
-    </row>
-    <row r="123" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD122">
+        <v>600000</v>
+      </c>
+      <c r="AE122">
+        <v>1.88</v>
+      </c>
+      <c r="AF122">
+        <v>119000000000000</v>
+      </c>
+      <c r="AG122">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="123" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J123">
         <v>118</v>
       </c>
@@ -8243,8 +9709,20 @@
         <f t="shared" si="22"/>
         <v>0.26455026455026454</v>
       </c>
-    </row>
-    <row r="124" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD123">
+        <v>605000</v>
+      </c>
+      <c r="AE123">
+        <v>1.9</v>
+      </c>
+      <c r="AF123">
+        <v>120000000000000</v>
+      </c>
+      <c r="AG123">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="124" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J124">
         <v>119</v>
       </c>
@@ -8301,8 +9779,20 @@
         <f t="shared" si="22"/>
         <v>0.26385224274406333</v>
       </c>
-    </row>
-    <row r="125" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD124">
+        <v>610000</v>
+      </c>
+      <c r="AE124">
+        <v>1.92</v>
+      </c>
+      <c r="AF124">
+        <v>121000000000000</v>
+      </c>
+      <c r="AG124">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="125" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J125">
         <v>120</v>
       </c>
@@ -8367,8 +9857,20 @@
         <f t="shared" si="22"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="126" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD125">
+        <v>615000</v>
+      </c>
+      <c r="AE125">
+        <v>1.94</v>
+      </c>
+      <c r="AF125">
+        <v>122000000000000</v>
+      </c>
+      <c r="AG125">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="126" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J126">
         <v>121</v>
       </c>
@@ -8425,8 +9927,20 @@
         <f t="shared" si="22"/>
         <v>0.21929824561403508</v>
       </c>
-    </row>
-    <row r="127" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD126">
+        <v>620000</v>
+      </c>
+      <c r="AE126">
+        <v>1.96</v>
+      </c>
+      <c r="AF126">
+        <v>123000000000000</v>
+      </c>
+      <c r="AG126">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="127" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J127">
         <v>122</v>
       </c>
@@ -8483,8 +9997,20 @@
         <f t="shared" si="22"/>
         <v>0.21881838074398249</v>
       </c>
-    </row>
-    <row r="128" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD127">
+        <v>625000</v>
+      </c>
+      <c r="AE127">
+        <v>1.98</v>
+      </c>
+      <c r="AF127">
+        <v>124000000000000</v>
+      </c>
+      <c r="AG127">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="128" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J128">
         <v>123</v>
       </c>
@@ -8541,8 +10067,20 @@
         <f t="shared" si="22"/>
         <v>0.2183406113537118</v>
       </c>
-    </row>
-    <row r="129" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD128">
+        <v>630000</v>
+      </c>
+      <c r="AE128">
+        <v>2</v>
+      </c>
+      <c r="AF128">
+        <v>125000000000000</v>
+      </c>
+      <c r="AG128">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="129" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J129">
         <v>124</v>
       </c>
@@ -8599,8 +10137,20 @@
         <f t="shared" si="22"/>
         <v>0.2178649237472767</v>
       </c>
-    </row>
-    <row r="130" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD129">
+        <v>635000</v>
+      </c>
+      <c r="AE129">
+        <v>2.02</v>
+      </c>
+      <c r="AF129">
+        <v>126000000000000</v>
+      </c>
+      <c r="AG129">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="130" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J130">
         <v>125</v>
       </c>
@@ -8657,8 +10207,20 @@
         <f t="shared" si="22"/>
         <v>0.21739130434782608</v>
       </c>
-    </row>
-    <row r="131" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD130">
+        <v>640000</v>
+      </c>
+      <c r="AE130">
+        <v>2.04</v>
+      </c>
+      <c r="AF130">
+        <v>127000000000000</v>
+      </c>
+      <c r="AG130">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="131" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J131">
         <v>126</v>
       </c>
@@ -8715,8 +10277,20 @@
         <f t="shared" si="22"/>
         <v>0.21691973969631237</v>
       </c>
-    </row>
-    <row r="132" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD131">
+        <v>645000</v>
+      </c>
+      <c r="AE131">
+        <v>2.06</v>
+      </c>
+      <c r="AF131">
+        <v>128000000000000</v>
+      </c>
+      <c r="AG131">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="132" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J132">
         <v>127</v>
       </c>
@@ -8773,8 +10347,20 @@
         <f t="shared" si="22"/>
         <v>0.21645021645021645</v>
       </c>
-    </row>
-    <row r="133" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD132">
+        <v>650000</v>
+      </c>
+      <c r="AE132">
+        <v>2.08</v>
+      </c>
+      <c r="AF132">
+        <v>129000000000000</v>
+      </c>
+      <c r="AG132">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="133" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J133">
         <v>128</v>
       </c>
@@ -8831,8 +10417,20 @@
         <f t="shared" si="22"/>
         <v>0.21598272138228941</v>
       </c>
-    </row>
-    <row r="134" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD133">
+        <v>655000</v>
+      </c>
+      <c r="AE133">
+        <v>2.1</v>
+      </c>
+      <c r="AF133">
+        <v>130000000000000</v>
+      </c>
+      <c r="AG133">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="134" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J134">
         <v>129</v>
       </c>
@@ -8889,8 +10487,20 @@
         <f t="shared" si="22"/>
         <v>0.21551724137931033</v>
       </c>
-    </row>
-    <row r="135" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD134">
+        <v>660000</v>
+      </c>
+      <c r="AE134">
+        <v>2.12</v>
+      </c>
+      <c r="AF134">
+        <v>131000000000000</v>
+      </c>
+      <c r="AG134">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="135" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J135">
         <v>130</v>
       </c>
@@ -8955,8 +10565,20 @@
         <f t="shared" si="22"/>
         <v>19.56989247311828</v>
       </c>
-    </row>
-    <row r="136" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD135">
+        <v>665000</v>
+      </c>
+      <c r="AE135">
+        <v>2.14</v>
+      </c>
+      <c r="AF135">
+        <v>132000000000000</v>
+      </c>
+      <c r="AG135">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="136" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J136">
         <v>131</v>
       </c>
@@ -9013,8 +10635,20 @@
         <f t="shared" si="22"/>
         <v>0.17985611510791366</v>
       </c>
-    </row>
-    <row r="137" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD136">
+        <v>670000</v>
+      </c>
+      <c r="AE136">
+        <v>2.16</v>
+      </c>
+      <c r="AF136">
+        <v>133000000000000</v>
+      </c>
+      <c r="AG136">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="137" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J137">
         <v>132</v>
       </c>
@@ -9071,8 +10705,20 @@
         <f t="shared" si="22"/>
         <v>0.17953321364452424</v>
       </c>
-    </row>
-    <row r="138" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD137">
+        <v>675000</v>
+      </c>
+      <c r="AE137">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AF137">
+        <v>134000000000000</v>
+      </c>
+      <c r="AG137">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="138" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J138">
         <v>133</v>
       </c>
@@ -9129,8 +10775,20 @@
         <f t="shared" si="22"/>
         <v>0.17921146953405018</v>
       </c>
-    </row>
-    <row r="139" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD138">
+        <v>680000</v>
+      </c>
+      <c r="AE138">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF138">
+        <v>135000000000000</v>
+      </c>
+      <c r="AG138">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="139" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J139">
         <v>134</v>
       </c>
@@ -9187,8 +10845,20 @@
         <f t="shared" si="22"/>
         <v>0.17889087656529518</v>
       </c>
-    </row>
-    <row r="140" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD139">
+        <v>685000</v>
+      </c>
+      <c r="AE139">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AF139">
+        <v>136000000000000</v>
+      </c>
+      <c r="AG139">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="140" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J140">
         <v>135</v>
       </c>
@@ -9245,8 +10915,20 @@
         <f t="shared" si="22"/>
         <v>0.17857142857142858</v>
       </c>
-    </row>
-    <row r="141" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD140">
+        <v>690000</v>
+      </c>
+      <c r="AE140">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AF140">
+        <v>137000000000000</v>
+      </c>
+      <c r="AG140">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="141" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J141">
         <v>136</v>
       </c>
@@ -9303,8 +10985,20 @@
         <f t="shared" si="22"/>
         <v>0.17825311942959002</v>
       </c>
-    </row>
-    <row r="142" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD141">
+        <v>695000</v>
+      </c>
+      <c r="AE141">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AF141">
+        <v>138000000000000</v>
+      </c>
+      <c r="AG141">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="142" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J142">
         <v>137</v>
       </c>
@@ -9361,8 +11055,20 @@
         <f t="shared" si="22"/>
         <v>0.17793594306049823</v>
       </c>
-    </row>
-    <row r="143" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD142">
+        <v>700000</v>
+      </c>
+      <c r="AE142">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AF142">
+        <v>139000000000000</v>
+      </c>
+      <c r="AG142">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="143" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J143">
         <v>138</v>
       </c>
@@ -9419,8 +11125,20 @@
         <f t="shared" si="22"/>
         <v>0.17761989342806395</v>
       </c>
-    </row>
-    <row r="144" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD143">
+        <v>705000</v>
+      </c>
+      <c r="AE143">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AF143">
+        <v>140000000000000</v>
+      </c>
+      <c r="AG143">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="144" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J144">
         <v>139</v>
       </c>
@@ -9477,8 +11195,20 @@
         <f t="shared" si="22"/>
         <v>0.1773049645390071</v>
       </c>
-    </row>
-    <row r="145" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD144">
+        <v>710000</v>
+      </c>
+      <c r="AE144">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AF144">
+        <v>141000000000000</v>
+      </c>
+      <c r="AG144">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="145" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J145">
         <v>140</v>
       </c>
@@ -9543,8 +11273,20 @@
         <f t="shared" si="22"/>
         <v>17.876106194690266</v>
       </c>
-    </row>
-    <row r="146" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD145">
+        <v>715000</v>
+      </c>
+      <c r="AE145">
+        <v>2.34</v>
+      </c>
+      <c r="AF145">
+        <v>142000000000000</v>
+      </c>
+      <c r="AG145">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="146" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J146">
         <v>141</v>
       </c>
@@ -9601,8 +11343,20 @@
         <f t="shared" si="22"/>
         <v>0.15015015015015015</v>
       </c>
-    </row>
-    <row r="147" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD146">
+        <v>720000</v>
+      </c>
+      <c r="AE146">
+        <v>2.36</v>
+      </c>
+      <c r="AF146">
+        <v>143000000000000</v>
+      </c>
+      <c r="AG146">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="147" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J147">
         <v>142</v>
       </c>
@@ -9659,8 +11413,20 @@
         <f t="shared" si="22"/>
         <v>0.14992503748125938</v>
       </c>
-    </row>
-    <row r="148" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD147">
+        <v>725000</v>
+      </c>
+      <c r="AE147">
+        <v>2.38</v>
+      </c>
+      <c r="AF147">
+        <v>144000000000000</v>
+      </c>
+      <c r="AG147">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="148" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J148">
         <v>143</v>
       </c>
@@ -9717,8 +11483,20 @@
         <f t="shared" si="22"/>
         <v>0.1497005988023952</v>
       </c>
-    </row>
-    <row r="149" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD148">
+        <v>730000</v>
+      </c>
+      <c r="AE148">
+        <v>2.4</v>
+      </c>
+      <c r="AF148">
+        <v>145000000000000</v>
+      </c>
+      <c r="AG148">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="149" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J149">
         <v>144</v>
       </c>
@@ -9775,8 +11553,20 @@
         <f t="shared" si="22"/>
         <v>0.14947683109118087</v>
       </c>
-    </row>
-    <row r="150" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD149">
+        <v>735000</v>
+      </c>
+      <c r="AE149">
+        <v>2.42</v>
+      </c>
+      <c r="AF149">
+        <v>146000000000000</v>
+      </c>
+      <c r="AG149">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="150" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J150">
         <v>145</v>
       </c>
@@ -9833,8 +11623,20 @@
         <f t="shared" si="22"/>
         <v>0.14925373134328357</v>
       </c>
-    </row>
-    <row r="151" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD150">
+        <v>740000</v>
+      </c>
+      <c r="AE150">
+        <v>2.44</v>
+      </c>
+      <c r="AF150">
+        <v>147000000000000</v>
+      </c>
+      <c r="AG150">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="151" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J151">
         <v>146</v>
       </c>
@@ -9891,8 +11693,20 @@
         <f t="shared" si="22"/>
         <v>0.14903129657228018</v>
       </c>
-    </row>
-    <row r="152" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD151">
+        <v>745000</v>
+      </c>
+      <c r="AE151">
+        <v>2.46</v>
+      </c>
+      <c r="AF151">
+        <v>148000000000000</v>
+      </c>
+      <c r="AG151">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="152" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J152">
         <v>147</v>
       </c>
@@ -9949,8 +11763,20 @@
         <f t="shared" si="22"/>
         <v>0.14880952380952381</v>
       </c>
-    </row>
-    <row r="153" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD152">
+        <v>750000</v>
+      </c>
+      <c r="AE152">
+        <v>2.48</v>
+      </c>
+      <c r="AF152">
+        <v>149000000000000</v>
+      </c>
+      <c r="AG152">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="153" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J153">
         <v>148</v>
       </c>
@@ -10007,8 +11833,20 @@
         <f t="shared" si="22"/>
         <v>0.14858841010401189</v>
       </c>
-    </row>
-    <row r="154" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AD153">
+        <v>755000</v>
+      </c>
+      <c r="AE153">
+        <v>2.5</v>
+      </c>
+      <c r="AF153">
+        <v>150000000000000</v>
+      </c>
+      <c r="AG153">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="154" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J154">
         <v>149</v>
       </c>
@@ -10066,7 +11904,7 @@
         <v>0.14836795252225518</v>
       </c>
     </row>
-    <row r="155" spans="10:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J155">
         <v>150</v>
       </c>
@@ -10132,7 +11970,7 @@
         <v>18.666666666666668</v>
       </c>
     </row>
-    <row r="156" spans="10:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J156">
         <v>151</v>
       </c>
@@ -10190,7 +12028,7 @@
         <v>0.12484394506866417</v>
       </c>
     </row>
-    <row r="157" spans="10:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J157">
         <v>152</v>
       </c>
@@ -10248,7 +12086,7 @@
         <v>0.12468827930174564</v>
       </c>
     </row>
-    <row r="158" spans="10:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J158">
         <v>153</v>
       </c>
@@ -10306,7 +12144,7 @@
         <v>0.12453300124533001</v>
       </c>
     </row>
-    <row r="159" spans="10:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J159">
         <v>154</v>
       </c>
@@ -10364,7 +12202,7 @@
         <v>0.12437810945273632</v>
       </c>
     </row>
-    <row r="160" spans="10:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J160">
         <v>155</v>
       </c>

--- a/Assets/06.Table/PetAwakeTable.xlsx
+++ b/Assets/06.Table/PetAwakeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1928AA03-F3C0-4A05-9DF6-590F413446CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A63ED1-8C3C-4727-84E7-45E3A35D8A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="PetAwakeTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -173,16 +173,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000</t>
+    <t>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4,3.42,3.44,3.46,3.48,3.5</t>
   </si>
   <si>
-    <t>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250</t>
+    <t>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000,197000000000000,198000000000000,199000000000000,200000000000000</t>
   </si>
   <si>
-    <t>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000</t>
+    <t>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000,990000,995000,1000000,1005000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5</t>
+    <t>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925,2940,2955,2970,2985,3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -605,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -647,7 +649,7 @@
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -664,7 +666,7 @@
         <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -681,7 +683,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -698,7 +700,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -711,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C80F775-A6C9-4707-A5A5-F54433AC4EB9}">
   <dimension ref="A1:AG204"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -823,20 +825,20 @@
         <v>8</v>
       </c>
       <c r="T4" t="str">
-        <f>T154</f>
-        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5</v>
+        <f>T204</f>
+        <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4,3.42,3.44,3.46,3.48,3.5</v>
       </c>
       <c r="U4" t="str">
-        <f t="shared" ref="U4:W4" si="0">U154</f>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000</v>
+        <f>U204</f>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000,197000000000000,198000000000000,199000000000000,200000000000000</v>
       </c>
       <c r="V4" t="str">
-        <f t="shared" si="0"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000</v>
+        <f>V204</f>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000,990000,995000,1000000,1005000</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" si="0"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250</v>
+        <f>W204</f>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925,2940,2955,2970,2985,3000</v>
       </c>
       <c r="X4" t="s">
         <v>23</v>
@@ -848,19 +850,19 @@
         <v>27</v>
       </c>
       <c r="AD4" cm="1">
-        <f t="array" ref="AD4:AD153">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(PetAwakeTable!E2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="AD4:AD203">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(PetAwakeTable!E2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>10000</v>
       </c>
       <c r="AE4" cm="1">
-        <f t="array" ref="AE4:AE153">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(PetAwakeTable!E3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="AE4:AE203">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(PetAwakeTable!E3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>0.01</v>
       </c>
       <c r="AF4" cm="1">
-        <f t="array" ref="AF4:AF153">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(PetAwakeTable!E4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="AF4:AF203">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(PetAwakeTable!E4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1000000000000</v>
       </c>
       <c r="AG4" cm="1">
-        <f t="array" ref="AG4:AG153">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(PetAwakeTable!E5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="AG4:AG203">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(PetAwakeTable!E5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>15</v>
       </c>
     </row>
@@ -875,7 +877,7 @@
         <v>0.01</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H43" si="1">G5*$A$11</f>
+        <f t="shared" ref="H5:H43" si="0">G5*$A$11</f>
         <v>30000</v>
       </c>
       <c r="J5">
@@ -934,8 +936,12 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <f t="shared" ref="Z5:Z68" si="2">Y5+P5*100</f>
+        <f t="shared" ref="Z5:Z68" si="1">Y5+P5*100</f>
         <v>1</v>
+      </c>
+      <c r="AB5">
+        <f>Y5/100</f>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>15000</v>
@@ -961,7 +967,7 @@
         <v>1.01E-2</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30300</v>
       </c>
       <c r="J6">
@@ -990,19 +996,19 @@
         <v>30</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" ref="T6:W37" si="3">T5&amp;","&amp;P6</f>
+        <f t="shared" ref="T6:W37" si="2">T5&amp;","&amp;P6</f>
         <v>0.01,0.02</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000</v>
       </c>
       <c r="V6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000</v>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30</v>
       </c>
       <c r="X6" t="s">
@@ -1012,13 +1018,17 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA6">
         <f>(Z6-Z5)*100/Z5</f>
         <v>100</v>
       </c>
+      <c r="AB6">
+        <f t="shared" ref="AB6:AB69" si="3">Y6/100</f>
+        <v>0</v>
+      </c>
       <c r="AD6">
         <v>20000</v>
       </c>
@@ -1040,7 +1050,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30600.000000000004</v>
       </c>
       <c r="J7">
@@ -1069,19 +1079,19 @@
         <v>45</v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000</v>
       </c>
       <c r="V7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000</v>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45</v>
       </c>
       <c r="X7" t="s">
@@ -1091,13 +1101,17 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA7">
         <f t="shared" ref="AA7:AA70" si="4">(Z7-Z6)*100/Z6</f>
         <v>50</v>
       </c>
+      <c r="AB7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AD7">
         <v>25000</v>
       </c>
@@ -1119,7 +1133,7 @@
         <v>1.03E-2</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30900</v>
       </c>
       <c r="J8">
@@ -1148,19 +1162,19 @@
         <v>60</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000</v>
       </c>
       <c r="V8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60</v>
       </c>
       <c r="X8" t="s">
@@ -1170,13 +1184,17 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA8">
         <f t="shared" si="4"/>
         <v>33.333333333333336</v>
       </c>
+      <c r="AB8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AD8">
         <v>30000</v>
       </c>
@@ -1198,7 +1216,7 @@
         <v>1.04E-2</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31200</v>
       </c>
       <c r="J9">
@@ -1227,19 +1245,19 @@
         <v>75</v>
       </c>
       <c r="T9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05</v>
       </c>
       <c r="U9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000</v>
       </c>
       <c r="V9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000</v>
       </c>
       <c r="W9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75</v>
       </c>
       <c r="X9" t="s">
@@ -1249,13 +1267,17 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AA9">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
+      <c r="AB9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AD9">
         <v>35000</v>
       </c>
@@ -1280,7 +1302,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31500.000000000004</v>
       </c>
       <c r="J10">
@@ -1318,19 +1340,19 @@
         <v>90</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000</v>
       </c>
       <c r="V10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000</v>
       </c>
       <c r="W10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90</v>
       </c>
       <c r="X10" t="s">
@@ -1340,13 +1362,17 @@
         <v>10</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="4"/>
         <v>220</v>
       </c>
+      <c r="AB10">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="AD10">
         <v>40000</v>
       </c>
@@ -1371,7 +1397,7 @@
         <v>1.06E-2</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31800</v>
       </c>
       <c r="J11">
@@ -1401,19 +1427,19 @@
         <v>105</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000</v>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000</v>
       </c>
       <c r="W11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105</v>
       </c>
       <c r="X11" t="s">
@@ -1423,13 +1449,17 @@
         <v>10</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="AA11">
         <f t="shared" si="4"/>
         <v>6.25</v>
       </c>
+      <c r="AB11">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="AD11">
         <v>45000</v>
       </c>
@@ -1451,7 +1481,7 @@
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32100</v>
       </c>
       <c r="J12">
@@ -1481,19 +1511,19 @@
         <v>120</v>
       </c>
       <c r="T12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000</v>
       </c>
       <c r="V12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000</v>
       </c>
       <c r="W12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120</v>
       </c>
       <c r="X12" t="s">
@@ -1503,13 +1533,17 @@
         <v>10</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="AA12">
         <f t="shared" si="4"/>
         <v>5.882352941176471</v>
       </c>
+      <c r="AB12">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="AD12">
         <v>50000</v>
       </c>
@@ -1531,7 +1565,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32400</v>
       </c>
       <c r="J13">
@@ -1561,19 +1595,19 @@
         <v>135</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000</v>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000</v>
       </c>
       <c r="W13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135</v>
       </c>
       <c r="X13" t="s">
@@ -1583,13 +1617,17 @@
         <v>10</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="AA13">
         <f t="shared" si="4"/>
         <v>5.5555555555555554</v>
       </c>
+      <c r="AB13">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="AD13">
         <v>55000</v>
       </c>
@@ -1611,7 +1649,7 @@
         <v>1.09E-2</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32700</v>
       </c>
       <c r="J14">
@@ -1641,19 +1679,19 @@
         <v>150</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000</v>
       </c>
       <c r="V14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000</v>
       </c>
       <c r="W14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150</v>
       </c>
       <c r="X14" t="s">
@@ -1663,13 +1701,17 @@
         <v>10</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AA14">
         <f t="shared" si="4"/>
         <v>5.2631578947368425</v>
       </c>
+      <c r="AB14">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="AD14">
         <v>60000</v>
       </c>
@@ -1691,7 +1733,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33000</v>
       </c>
       <c r="J15">
@@ -1729,19 +1771,19 @@
         <v>165</v>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000</v>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000</v>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165</v>
       </c>
       <c r="X15" t="s">
@@ -1751,13 +1793,17 @@
         <v>15</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
+      <c r="AB15">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
       <c r="AD15">
         <v>65000</v>
       </c>
@@ -1779,7 +1825,7 @@
         <v>1.11E-2</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33300</v>
       </c>
       <c r="J16">
@@ -1809,19 +1855,19 @@
         <v>180</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000</v>
       </c>
       <c r="W16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180</v>
       </c>
       <c r="X16" t="s">
@@ -1831,13 +1877,17 @@
         <v>15</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="AA16">
         <f t="shared" si="4"/>
         <v>3.8461538461538463</v>
       </c>
+      <c r="AB16">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
       <c r="AD16">
         <v>70000</v>
       </c>
@@ -1859,7 +1909,7 @@
         <v>1.12E-2</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33600</v>
       </c>
       <c r="J17">
@@ -1889,19 +1939,19 @@
         <v>195</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000</v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000</v>
       </c>
       <c r="W17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195</v>
       </c>
       <c r="X17" t="s">
@@ -1911,13 +1961,17 @@
         <v>15</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="AA17">
         <f t="shared" si="4"/>
         <v>3.7037037037037037</v>
       </c>
+      <c r="AB17">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
       <c r="AD17">
         <v>75000</v>
       </c>
@@ -1939,7 +1993,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33900</v>
       </c>
       <c r="J18">
@@ -1969,19 +2023,19 @@
         <v>210</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000</v>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000</v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210</v>
       </c>
       <c r="X18" t="s">
@@ -1991,13 +2045,17 @@
         <v>15</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="AA18">
         <f t="shared" si="4"/>
         <v>3.5714285714285716</v>
       </c>
+      <c r="AB18">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
       <c r="AD18">
         <v>80000</v>
       </c>
@@ -2019,7 +2077,7 @@
         <v>1.14E-2</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34200</v>
       </c>
       <c r="J19">
@@ -2049,19 +2107,19 @@
         <v>225</v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000</v>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000</v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225</v>
       </c>
       <c r="X19" t="s">
@@ -2071,13 +2129,17 @@
         <v>15</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AA19">
         <f t="shared" si="4"/>
         <v>3.4482758620689653</v>
       </c>
+      <c r="AB19">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
       <c r="AD19">
         <v>85000</v>
       </c>
@@ -2099,7 +2161,7 @@
         <v>1.15E-2</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34500</v>
       </c>
       <c r="J20">
@@ -2137,19 +2199,19 @@
         <v>240</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240</v>
       </c>
       <c r="X20" t="s">
@@ -2159,13 +2221,17 @@
         <v>20</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
+      <c r="AB20">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
       <c r="AD20">
         <v>90000</v>
       </c>
@@ -2187,7 +2253,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34800</v>
       </c>
       <c r="J21">
@@ -2217,19 +2283,19 @@
         <v>255</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255</v>
       </c>
       <c r="X21" t="s">
@@ -2239,13 +2305,17 @@
         <v>20</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="AA21">
         <f t="shared" si="4"/>
         <v>2.7777777777777777</v>
       </c>
+      <c r="AB21">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
       <c r="AD21">
         <v>95000</v>
       </c>
@@ -2267,7 +2337,7 @@
         <v>1.17E-2</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35100</v>
       </c>
       <c r="J22">
@@ -2297,19 +2367,19 @@
         <v>270</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270</v>
       </c>
       <c r="X22" t="s">
@@ -2319,13 +2389,17 @@
         <v>20</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="AA22">
         <f t="shared" si="4"/>
         <v>2.7027027027027026</v>
       </c>
+      <c r="AB22">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
       <c r="AD22">
         <v>100000</v>
       </c>
@@ -2347,7 +2421,7 @@
         <v>1.18E-2</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35400</v>
       </c>
       <c r="J23">
@@ -2377,19 +2451,19 @@
         <v>285</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000</v>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285</v>
       </c>
       <c r="X23" t="s">
@@ -2399,13 +2473,17 @@
         <v>20</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="AA23">
         <f t="shared" si="4"/>
         <v>2.6315789473684212</v>
       </c>
+      <c r="AB23">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
       <c r="AD23">
         <v>105000</v>
       </c>
@@ -2427,7 +2505,7 @@
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35700</v>
       </c>
       <c r="J24">
@@ -2457,19 +2535,19 @@
         <v>300</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300</v>
       </c>
       <c r="X24" t="s">
@@ -2479,13 +2557,17 @@
         <v>20</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="AA24">
         <f t="shared" si="4"/>
         <v>2.5641025641025643</v>
       </c>
+      <c r="AB24">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
       <c r="AD24">
         <v>110000</v>
       </c>
@@ -2507,7 +2589,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36000</v>
       </c>
       <c r="J25">
@@ -2545,19 +2627,19 @@
         <v>315</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000</v>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000</v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315</v>
       </c>
       <c r="X25" t="s">
@@ -2567,13 +2649,17 @@
         <v>30</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="4"/>
         <v>27.5</v>
       </c>
+      <c r="AB25">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="AD25">
         <v>115000</v>
       </c>
@@ -2595,7 +2681,7 @@
         <v>1.21E-2</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36300</v>
       </c>
       <c r="J26">
@@ -2625,19 +2711,19 @@
         <v>330</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330</v>
       </c>
       <c r="X26" t="s">
@@ -2647,13 +2733,17 @@
         <v>30</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="AA26">
         <f t="shared" si="4"/>
         <v>1.9607843137254901</v>
       </c>
+      <c r="AB26">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="AD26">
         <v>120000</v>
       </c>
@@ -2675,7 +2765,7 @@
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36600</v>
       </c>
       <c r="J27">
@@ -2705,19 +2795,19 @@
         <v>345</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000</v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345</v>
       </c>
       <c r="X27" t="s">
@@ -2727,13 +2817,17 @@
         <v>30</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AA27">
         <f t="shared" si="4"/>
         <v>1.9230769230769231</v>
       </c>
+      <c r="AB27">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="AD27">
         <v>125000</v>
       </c>
@@ -2755,7 +2849,7 @@
         <v>1.23E-2</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36900</v>
       </c>
       <c r="J28">
@@ -2785,19 +2879,19 @@
         <v>360</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360</v>
       </c>
       <c r="X28" t="s">
@@ -2807,13 +2901,17 @@
         <v>30</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="AA28">
         <f t="shared" si="4"/>
         <v>1.8867924528301887</v>
       </c>
+      <c r="AB28">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="AD28">
         <v>130000</v>
       </c>
@@ -2835,7 +2933,7 @@
         <v>1.24E-2</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37200</v>
       </c>
       <c r="J29">
@@ -2865,19 +2963,19 @@
         <v>375</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375</v>
       </c>
       <c r="X29" t="s">
@@ -2887,13 +2985,17 @@
         <v>30</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="AA29">
         <f t="shared" si="4"/>
         <v>1.8518518518518519</v>
       </c>
+      <c r="AB29">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="AD29">
         <v>135000</v>
       </c>
@@ -2915,7 +3017,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37500</v>
       </c>
       <c r="J30">
@@ -2945,19 +3047,19 @@
         <v>390</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390</v>
       </c>
       <c r="X30" t="s">
@@ -2967,13 +3069,17 @@
         <v>30</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="AA30">
         <f t="shared" si="4"/>
         <v>1.8181818181818181</v>
       </c>
+      <c r="AB30">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="AD30">
         <v>140000</v>
       </c>
@@ -2995,7 +3101,7 @@
         <v>1.26E-2</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37800</v>
       </c>
       <c r="J31">
@@ -3025,19 +3131,19 @@
         <v>405</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405</v>
       </c>
       <c r="X31" t="s">
@@ -3047,13 +3153,17 @@
         <v>30</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="AA31">
         <f t="shared" si="4"/>
         <v>1.7857142857142858</v>
       </c>
+      <c r="AB31">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="AD31">
         <v>145000</v>
       </c>
@@ -3075,7 +3185,7 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38100</v>
       </c>
       <c r="J32">
@@ -3105,19 +3215,19 @@
         <v>420</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000</v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420</v>
       </c>
       <c r="X32" t="s">
@@ -3127,13 +3237,17 @@
         <v>30</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="AA32">
         <f t="shared" si="4"/>
         <v>1.7543859649122806</v>
       </c>
+      <c r="AB32">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="AD32">
         <v>150000</v>
       </c>
@@ -3155,7 +3269,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38400</v>
       </c>
       <c r="J33">
@@ -3185,19 +3299,19 @@
         <v>435</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000</v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435</v>
       </c>
       <c r="X33" t="s">
@@ -3207,13 +3321,17 @@
         <v>30</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="AA33">
         <f t="shared" si="4"/>
         <v>1.7241379310344827</v>
       </c>
+      <c r="AB33">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="AD33">
         <v>155000</v>
       </c>
@@ -3235,7 +3353,7 @@
         <v>1.29E-2</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38700</v>
       </c>
       <c r="J34">
@@ -3265,19 +3383,19 @@
         <v>450</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000</v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450</v>
       </c>
       <c r="X34" t="s">
@@ -3287,13 +3405,17 @@
         <v>30</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="AA34">
         <f t="shared" si="4"/>
         <v>1.6949152542372881</v>
       </c>
+      <c r="AB34">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="AD34">
         <v>160000</v>
       </c>
@@ -3315,7 +3437,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39000</v>
       </c>
       <c r="J35">
@@ -3353,19 +3475,19 @@
         <v>465</v>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31</v>
       </c>
       <c r="U35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000</v>
       </c>
       <c r="V35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000</v>
       </c>
       <c r="W35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465</v>
       </c>
       <c r="X35" t="s">
@@ -3375,13 +3497,17 @@
         <v>45</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="AA35" s="6">
         <f t="shared" si="4"/>
         <v>26.666666666666668</v>
       </c>
+      <c r="AB35">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
       <c r="AD35">
         <v>165000</v>
       </c>
@@ -3403,7 +3529,7 @@
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39300</v>
       </c>
       <c r="J36">
@@ -3433,19 +3559,19 @@
         <v>480</v>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32</v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000</v>
       </c>
       <c r="V36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000</v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480</v>
       </c>
       <c r="X36" t="s">
@@ -3455,13 +3581,17 @@
         <v>45</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="AA36">
         <f t="shared" si="4"/>
         <v>1.3157894736842106</v>
       </c>
+      <c r="AB36">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
       <c r="AD36">
         <v>170000</v>
       </c>
@@ -3483,7 +3613,7 @@
         <v>1.32E-2</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39600</v>
       </c>
       <c r="J37">
@@ -3513,19 +3643,19 @@
         <v>495</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33</v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495</v>
       </c>
       <c r="X37" t="s">
@@ -3535,13 +3665,17 @@
         <v>45</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="AA37">
         <f t="shared" si="4"/>
         <v>1.2987012987012987</v>
       </c>
+      <c r="AB37">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
       <c r="AD37">
         <v>175000</v>
       </c>
@@ -3563,7 +3697,7 @@
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39900</v>
       </c>
       <c r="J38">
@@ -3615,13 +3749,17 @@
         <v>45</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="AA38">
         <f t="shared" si="4"/>
         <v>1.2820512820512822</v>
       </c>
+      <c r="AB38">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
       <c r="AD38">
         <v>180000</v>
       </c>
@@ -3643,7 +3781,7 @@
         <v>1.34E-2</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40200</v>
       </c>
       <c r="J39">
@@ -3695,13 +3833,17 @@
         <v>45</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="AA39">
         <f t="shared" si="4"/>
         <v>1.2658227848101267</v>
       </c>
+      <c r="AB39">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
       <c r="AD39">
         <v>185000</v>
       </c>
@@ -3723,7 +3865,7 @@
         <v>1.35E-2</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40500</v>
       </c>
       <c r="J40">
@@ -3775,13 +3917,17 @@
         <v>45</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="AA40">
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
+      <c r="AB40">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
       <c r="AD40">
         <v>190000</v>
       </c>
@@ -3803,7 +3949,7 @@
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40800</v>
       </c>
       <c r="J41">
@@ -3855,13 +4001,17 @@
         <v>45</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="AA41">
         <f t="shared" si="4"/>
         <v>1.2345679012345678</v>
       </c>
+      <c r="AB41">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
       <c r="AD41">
         <v>195000</v>
       </c>
@@ -3883,7 +4033,7 @@
         <v>1.37E-2</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41100</v>
       </c>
       <c r="J42">
@@ -3935,13 +4085,17 @@
         <v>45</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="AA42">
         <f t="shared" si="4"/>
         <v>1.2195121951219512</v>
       </c>
+      <c r="AB42">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
       <c r="AD42">
         <v>200000</v>
       </c>
@@ -3963,7 +4117,7 @@
         <v>1.38E-2</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41400</v>
       </c>
       <c r="J43">
@@ -4015,13 +4169,17 @@
         <v>45</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="AA43">
         <f t="shared" si="4"/>
         <v>1.2048192771084338</v>
       </c>
+      <c r="AB43">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
       <c r="AD43">
         <v>205000</v>
       </c>
@@ -4095,13 +4253,17 @@
         <v>45</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="AA44">
         <f t="shared" si="4"/>
         <v>1.1904761904761905</v>
       </c>
+      <c r="AB44">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
       <c r="AD44">
         <v>210000</v>
       </c>
@@ -4183,12 +4345,16 @@
         <v>65</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="AA45" s="6">
         <f t="shared" si="4"/>
         <v>24.705882352941178</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
       </c>
       <c r="AD45">
         <v>215000</v>
@@ -4254,12 +4420,16 @@
         <v>65</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="AA46">
         <f t="shared" si="4"/>
         <v>0.94339622641509435</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
       </c>
       <c r="AD46">
         <v>220000</v>
@@ -4325,12 +4495,16 @@
         <v>65</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="AA47">
         <f t="shared" si="4"/>
         <v>0.93457943925233644</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
       </c>
       <c r="AD47">
         <v>225000</v>
@@ -4396,13 +4570,17 @@
         <v>65</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="AA48">
         <f t="shared" si="4"/>
         <v>0.92592592592592593</v>
       </c>
+      <c r="AB48">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
       <c r="AD48">
         <v>230000</v>
       </c>
@@ -4466,13 +4644,17 @@
         <v>65</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="AA49">
         <f t="shared" si="4"/>
         <v>0.91743119266055051</v>
       </c>
+      <c r="AB49">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
       <c r="AD49">
         <v>235000</v>
       </c>
@@ -4536,13 +4718,17 @@
         <v>65</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="AA50">
         <f t="shared" si="4"/>
         <v>0.90909090909090906</v>
       </c>
+      <c r="AB50">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
       <c r="AD50">
         <v>240000</v>
       </c>
@@ -4606,13 +4792,17 @@
         <v>65</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="AA51">
         <f t="shared" si="4"/>
         <v>0.90090090090090091</v>
       </c>
+      <c r="AB51">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
       <c r="AD51">
         <v>245000</v>
       </c>
@@ -4676,13 +4866,17 @@
         <v>65</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="AA52">
         <f t="shared" si="4"/>
         <v>0.8928571428571429</v>
       </c>
+      <c r="AB52">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
       <c r="AD52">
         <v>250000</v>
       </c>
@@ -4746,13 +4940,17 @@
         <v>65</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="AA53">
         <f t="shared" si="4"/>
         <v>0.88495575221238942</v>
       </c>
+      <c r="AB53">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
       <c r="AD53">
         <v>255000</v>
       </c>
@@ -4816,13 +5014,17 @@
         <v>65</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="AA54">
         <f t="shared" si="4"/>
         <v>0.8771929824561403</v>
       </c>
+      <c r="AB54">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
       <c r="AD54">
         <v>260000</v>
       </c>
@@ -4894,13 +5096,17 @@
         <v>90</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>142</v>
       </c>
       <c r="AA55" s="6">
         <f t="shared" si="4"/>
         <v>23.478260869565219</v>
       </c>
+      <c r="AB55">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
       <c r="AD55">
         <v>265000</v>
       </c>
@@ -4964,13 +5170,17 @@
         <v>90</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="AA56">
         <f t="shared" si="4"/>
         <v>1.408450704225352</v>
       </c>
+      <c r="AB56">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
       <c r="AD56">
         <v>270000</v>
       </c>
@@ -5034,13 +5244,17 @@
         <v>90</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>146</v>
       </c>
       <c r="AA57">
         <f t="shared" si="4"/>
         <v>1.3888888888888888</v>
       </c>
+      <c r="AB57">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
       <c r="AD57">
         <v>275000</v>
       </c>
@@ -5104,13 +5318,17 @@
         <v>90</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="AA58">
         <f t="shared" si="4"/>
         <v>1.3698630136986301</v>
       </c>
+      <c r="AB58">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
       <c r="AD58">
         <v>280000</v>
       </c>
@@ -5174,13 +5392,17 @@
         <v>90</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="AA59">
         <f t="shared" si="4"/>
         <v>1.3513513513513513</v>
       </c>
+      <c r="AB59">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
       <c r="AD59">
         <v>285000</v>
       </c>
@@ -5244,13 +5466,17 @@
         <v>90</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>152</v>
       </c>
       <c r="AA60">
         <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
+      <c r="AB60">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
       <c r="AD60">
         <v>290000</v>
       </c>
@@ -5314,13 +5540,17 @@
         <v>90</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>154</v>
       </c>
       <c r="AA61">
         <f t="shared" si="4"/>
         <v>1.3157894736842106</v>
       </c>
+      <c r="AB61">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
       <c r="AD61">
         <v>295000</v>
       </c>
@@ -5384,13 +5614,17 @@
         <v>90</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="AA62">
         <f t="shared" si="4"/>
         <v>1.2987012987012987</v>
       </c>
+      <c r="AB62">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
       <c r="AD62">
         <v>300000</v>
       </c>
@@ -5454,13 +5688,17 @@
         <v>90</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>158</v>
       </c>
       <c r="AA63">
         <f t="shared" si="4"/>
         <v>1.2820512820512822</v>
       </c>
+      <c r="AB63">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
       <c r="AD63">
         <v>305000</v>
       </c>
@@ -5524,13 +5762,17 @@
         <v>90</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="AA64">
         <f t="shared" si="4"/>
         <v>1.2658227848101267</v>
       </c>
+      <c r="AB64">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
       <c r="AD64">
         <v>310000</v>
       </c>
@@ -5602,13 +5844,17 @@
         <v>120</v>
       </c>
       <c r="Z65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>192</v>
       </c>
       <c r="AA65" s="6">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
+      <c r="AB65">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
       <c r="AD65">
         <v>315000</v>
       </c>
@@ -5672,13 +5918,17 @@
         <v>120</v>
       </c>
       <c r="Z66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>194</v>
       </c>
       <c r="AA66">
         <f t="shared" si="4"/>
         <v>1.0416666666666667</v>
       </c>
+      <c r="AB66">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
       <c r="AD66">
         <v>320000</v>
       </c>
@@ -5742,13 +5992,17 @@
         <v>120</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>196</v>
       </c>
       <c r="AA67">
         <f t="shared" si="4"/>
         <v>1.0309278350515463</v>
       </c>
+      <c r="AB67">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
       <c r="AD67">
         <v>325000</v>
       </c>
@@ -5812,13 +6066,17 @@
         <v>120</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>198</v>
       </c>
       <c r="AA68">
         <f t="shared" si="4"/>
         <v>1.0204081632653061</v>
       </c>
+      <c r="AB68">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
       <c r="AD68">
         <v>330000</v>
       </c>
@@ -5889,6 +6147,10 @@
         <f t="shared" si="4"/>
         <v>1.0101010101010102</v>
       </c>
+      <c r="AB69">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
       <c r="AD69">
         <v>335000</v>
       </c>
@@ -5959,6 +6221,10 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="AB70">
+        <f t="shared" ref="AB70:AB133" si="9">Y70/100</f>
+        <v>1.2</v>
+      </c>
       <c r="AD70">
         <v>340000</v>
       </c>
@@ -6026,8 +6292,12 @@
         <v>204</v>
       </c>
       <c r="AA71">
-        <f t="shared" ref="AA71:AA105" si="9">(Z71-Z70)*100/Z70</f>
+        <f t="shared" ref="AA71:AA105" si="10">(Z71-Z70)*100/Z70</f>
         <v>0.99009900990099009</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
       </c>
       <c r="AD71">
         <v>345000</v>
@@ -6096,8 +6366,12 @@
         <v>206</v>
       </c>
       <c r="AA72">
+        <f t="shared" si="10"/>
+        <v>0.98039215686274506</v>
+      </c>
+      <c r="AB72">
         <f t="shared" si="9"/>
-        <v>0.98039215686274506</v>
+        <v>1.2</v>
       </c>
       <c r="AD72">
         <v>350000</v>
@@ -6166,8 +6440,12 @@
         <v>208</v>
       </c>
       <c r="AA73">
+        <f t="shared" si="10"/>
+        <v>0.970873786407767</v>
+      </c>
+      <c r="AB73">
         <f t="shared" si="9"/>
-        <v>0.970873786407767</v>
+        <v>1.2</v>
       </c>
       <c r="AD73">
         <v>355000</v>
@@ -6236,8 +6514,12 @@
         <v>210</v>
       </c>
       <c r="AA74">
+        <f t="shared" si="10"/>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="AB74">
         <f t="shared" si="9"/>
-        <v>0.96153846153846156</v>
+        <v>1.2</v>
       </c>
       <c r="AD74">
         <v>360000</v>
@@ -6257,7 +6539,7 @@
         <v>70</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" ref="K75:K138" si="10">K70+1000</f>
+        <f t="shared" ref="K75:K138" si="11">K70+1000</f>
         <v>15000</v>
       </c>
       <c r="L75" s="1">
@@ -6314,8 +6596,12 @@
         <v>252</v>
       </c>
       <c r="AA75" s="6">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="AB75">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>1.6</v>
       </c>
       <c r="AD75">
         <v>365000</v>
@@ -6335,7 +6621,7 @@
         <v>71</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15000</v>
       </c>
       <c r="N76">
@@ -6384,8 +6670,12 @@
         <v>254</v>
       </c>
       <c r="AA76">
+        <f t="shared" si="10"/>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="AB76">
         <f t="shared" si="9"/>
-        <v>0.79365079365079361</v>
+        <v>1.6</v>
       </c>
       <c r="AD76">
         <v>370000</v>
@@ -6405,7 +6695,7 @@
         <v>72</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15000</v>
       </c>
       <c r="N77">
@@ -6454,8 +6744,12 @@
         <v>256</v>
       </c>
       <c r="AA77">
+        <f t="shared" si="10"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="AB77">
         <f t="shared" si="9"/>
-        <v>0.78740157480314965</v>
+        <v>1.6</v>
       </c>
       <c r="AD77">
         <v>375000</v>
@@ -6475,7 +6769,7 @@
         <v>73</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15000</v>
       </c>
       <c r="N78">
@@ -6524,8 +6818,12 @@
         <v>258</v>
       </c>
       <c r="AA78">
+        <f t="shared" si="10"/>
+        <v>0.78125</v>
+      </c>
+      <c r="AB78">
         <f t="shared" si="9"/>
-        <v>0.78125</v>
+        <v>1.6</v>
       </c>
       <c r="AD78">
         <v>380000</v>
@@ -6545,7 +6843,7 @@
         <v>74</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15000</v>
       </c>
       <c r="N79">
@@ -6594,8 +6892,12 @@
         <v>260</v>
       </c>
       <c r="AA79">
+        <f t="shared" si="10"/>
+        <v>0.77519379844961245</v>
+      </c>
+      <c r="AB79">
         <f t="shared" si="9"/>
-        <v>0.77519379844961245</v>
+        <v>1.6</v>
       </c>
       <c r="AD79">
         <v>385000</v>
@@ -6615,7 +6917,7 @@
         <v>75</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16000</v>
       </c>
       <c r="N80">
@@ -6664,8 +6966,12 @@
         <v>262</v>
       </c>
       <c r="AA80">
+        <f t="shared" si="10"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="AB80">
         <f t="shared" si="9"/>
-        <v>0.76923076923076927</v>
+        <v>1.6</v>
       </c>
       <c r="AD80">
         <v>390000</v>
@@ -6685,7 +6991,7 @@
         <v>76</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16000</v>
       </c>
       <c r="N81">
@@ -6734,8 +7040,12 @@
         <v>264</v>
       </c>
       <c r="AA81">
+        <f t="shared" si="10"/>
+        <v>0.76335877862595425</v>
+      </c>
+      <c r="AB81">
         <f t="shared" si="9"/>
-        <v>0.76335877862595425</v>
+        <v>1.6</v>
       </c>
       <c r="AD81">
         <v>395000</v>
@@ -6755,7 +7065,7 @@
         <v>77</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16000</v>
       </c>
       <c r="N82">
@@ -6804,8 +7114,12 @@
         <v>266</v>
       </c>
       <c r="AA82">
+        <f t="shared" si="10"/>
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="AB82">
         <f t="shared" si="9"/>
-        <v>0.75757575757575757</v>
+        <v>1.6</v>
       </c>
       <c r="AD82">
         <v>400000</v>
@@ -6825,7 +7139,7 @@
         <v>78</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16000</v>
       </c>
       <c r="N83">
@@ -6874,8 +7188,12 @@
         <v>268</v>
       </c>
       <c r="AA83">
+        <f t="shared" si="10"/>
+        <v>0.75187969924812026</v>
+      </c>
+      <c r="AB83">
         <f t="shared" si="9"/>
-        <v>0.75187969924812026</v>
+        <v>1.6</v>
       </c>
       <c r="AD83">
         <v>405000</v>
@@ -6895,7 +7213,7 @@
         <v>79</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16000</v>
       </c>
       <c r="N84">
@@ -6944,8 +7262,12 @@
         <v>270</v>
       </c>
       <c r="AA84">
+        <f t="shared" si="10"/>
+        <v>0.74626865671641796</v>
+      </c>
+      <c r="AB84">
         <f t="shared" si="9"/>
-        <v>0.74626865671641796</v>
+        <v>1.6</v>
       </c>
       <c r="AD84">
         <v>410000</v>
@@ -6965,7 +7287,7 @@
         <v>80</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17000</v>
       </c>
       <c r="L85" s="1">
@@ -7022,8 +7344,12 @@
         <v>342</v>
       </c>
       <c r="AA85" s="6">
+        <f t="shared" si="10"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="AB85">
         <f t="shared" si="9"/>
-        <v>26.666666666666668</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AD85">
         <v>415000</v>
@@ -7043,7 +7369,7 @@
         <v>81</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17000</v>
       </c>
       <c r="N86">
@@ -7092,8 +7418,12 @@
         <v>344</v>
       </c>
       <c r="AA86">
+        <f t="shared" si="10"/>
+        <v>0.58479532163742687</v>
+      </c>
+      <c r="AB86">
         <f t="shared" si="9"/>
-        <v>0.58479532163742687</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AD86">
         <v>420000</v>
@@ -7113,7 +7443,7 @@
         <v>82</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17000</v>
       </c>
       <c r="N87">
@@ -7162,8 +7492,12 @@
         <v>346</v>
       </c>
       <c r="AA87">
+        <f t="shared" si="10"/>
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="AB87">
         <f t="shared" si="9"/>
-        <v>0.58139534883720934</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AD87">
         <v>425000</v>
@@ -7183,7 +7517,7 @@
         <v>83</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17000</v>
       </c>
       <c r="N88">
@@ -7232,8 +7566,12 @@
         <v>348</v>
       </c>
       <c r="AA88">
+        <f t="shared" si="10"/>
+        <v>0.5780346820809249</v>
+      </c>
+      <c r="AB88">
         <f t="shared" si="9"/>
-        <v>0.5780346820809249</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AD88">
         <v>430000</v>
@@ -7253,7 +7591,7 @@
         <v>84</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17000</v>
       </c>
       <c r="N89">
@@ -7302,8 +7640,12 @@
         <v>350</v>
       </c>
       <c r="AA89">
+        <f t="shared" si="10"/>
+        <v>0.57471264367816088</v>
+      </c>
+      <c r="AB89">
         <f t="shared" si="9"/>
-        <v>0.57471264367816088</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AD89">
         <v>435000</v>
@@ -7323,7 +7665,7 @@
         <v>85</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18000</v>
       </c>
       <c r="N90">
@@ -7372,8 +7714,12 @@
         <v>352</v>
       </c>
       <c r="AA90">
+        <f t="shared" si="10"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AB90">
         <f t="shared" si="9"/>
-        <v>0.5714285714285714</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AD90">
         <v>440000</v>
@@ -7393,7 +7739,7 @@
         <v>86</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18000</v>
       </c>
       <c r="N91">
@@ -7442,8 +7788,12 @@
         <v>354</v>
       </c>
       <c r="AA91">
+        <f t="shared" si="10"/>
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="AB91">
         <f t="shared" si="9"/>
-        <v>0.56818181818181823</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AD91">
         <v>445000</v>
@@ -7463,7 +7813,7 @@
         <v>87</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18000</v>
       </c>
       <c r="N92">
@@ -7512,8 +7862,12 @@
         <v>356</v>
       </c>
       <c r="AA92">
+        <f t="shared" si="10"/>
+        <v>0.56497175141242939</v>
+      </c>
+      <c r="AB92">
         <f t="shared" si="9"/>
-        <v>0.56497175141242939</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AD92">
         <v>450000</v>
@@ -7533,7 +7887,7 @@
         <v>88</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18000</v>
       </c>
       <c r="N93">
@@ -7582,8 +7936,12 @@
         <v>358</v>
       </c>
       <c r="AA93">
+        <f t="shared" si="10"/>
+        <v>0.5617977528089888</v>
+      </c>
+      <c r="AB93">
         <f t="shared" si="9"/>
-        <v>0.5617977528089888</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AD93">
         <v>455000</v>
@@ -7603,7 +7961,7 @@
         <v>89</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18000</v>
       </c>
       <c r="N94">
@@ -7652,8 +8010,12 @@
         <v>360</v>
       </c>
       <c r="AA94">
+        <f t="shared" si="10"/>
+        <v>0.55865921787709494</v>
+      </c>
+      <c r="AB94">
         <f t="shared" si="9"/>
-        <v>0.55865921787709494</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AD94">
         <v>460000</v>
@@ -7673,7 +8035,7 @@
         <v>90</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19000</v>
       </c>
       <c r="L95" s="1">
@@ -7730,8 +8092,12 @@
         <v>452</v>
       </c>
       <c r="AA95" s="6">
+        <f t="shared" si="10"/>
+        <v>25.555555555555557</v>
+      </c>
+      <c r="AB95">
         <f t="shared" si="9"/>
-        <v>25.555555555555557</v>
+        <v>3.2</v>
       </c>
       <c r="AD95">
         <v>465000</v>
@@ -7751,7 +8117,7 @@
         <v>91</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19000</v>
       </c>
       <c r="N96">
@@ -7800,8 +8166,12 @@
         <v>454</v>
       </c>
       <c r="AA96">
+        <f t="shared" si="10"/>
+        <v>0.44247787610619471</v>
+      </c>
+      <c r="AB96">
         <f t="shared" si="9"/>
-        <v>0.44247787610619471</v>
+        <v>3.2</v>
       </c>
       <c r="AD96">
         <v>470000</v>
@@ -7821,7 +8191,7 @@
         <v>92</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19000</v>
       </c>
       <c r="N97">
@@ -7870,8 +8240,12 @@
         <v>456</v>
       </c>
       <c r="AA97">
+        <f t="shared" si="10"/>
+        <v>0.44052863436123346</v>
+      </c>
+      <c r="AB97">
         <f t="shared" si="9"/>
-        <v>0.44052863436123346</v>
+        <v>3.2</v>
       </c>
       <c r="AD97">
         <v>475000</v>
@@ -7891,7 +8265,7 @@
         <v>93</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19000</v>
       </c>
       <c r="N98">
@@ -7940,8 +8314,12 @@
         <v>458</v>
       </c>
       <c r="AA98">
+        <f t="shared" si="10"/>
+        <v>0.43859649122807015</v>
+      </c>
+      <c r="AB98">
         <f t="shared" si="9"/>
-        <v>0.43859649122807015</v>
+        <v>3.2</v>
       </c>
       <c r="AD98">
         <v>480000</v>
@@ -7961,7 +8339,7 @@
         <v>94</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19000</v>
       </c>
       <c r="N99">
@@ -8010,8 +8388,12 @@
         <v>460</v>
       </c>
       <c r="AA99">
+        <f t="shared" si="10"/>
+        <v>0.4366812227074236</v>
+      </c>
+      <c r="AB99">
         <f t="shared" si="9"/>
-        <v>0.4366812227074236</v>
+        <v>3.2</v>
       </c>
       <c r="AD99">
         <v>485000</v>
@@ -8080,8 +8462,12 @@
         <v>462</v>
       </c>
       <c r="AA100">
+        <f t="shared" si="10"/>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="AB100">
         <f t="shared" si="9"/>
-        <v>0.43478260869565216</v>
+        <v>3.2</v>
       </c>
       <c r="AD100">
         <v>490000</v>
@@ -8150,8 +8536,12 @@
         <v>464</v>
       </c>
       <c r="AA101">
+        <f t="shared" si="10"/>
+        <v>0.4329004329004329</v>
+      </c>
+      <c r="AB101">
         <f t="shared" si="9"/>
-        <v>0.4329004329004329</v>
+        <v>3.2</v>
       </c>
       <c r="AD101">
         <v>495000</v>
@@ -8171,7 +8561,7 @@
         <v>97</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20000</v>
       </c>
       <c r="N102">
@@ -8220,8 +8610,12 @@
         <v>466</v>
       </c>
       <c r="AA102">
+        <f t="shared" si="10"/>
+        <v>0.43103448275862066</v>
+      </c>
+      <c r="AB102">
         <f t="shared" si="9"/>
-        <v>0.43103448275862066</v>
+        <v>3.2</v>
       </c>
       <c r="AD102">
         <v>500000</v>
@@ -8241,7 +8635,7 @@
         <v>98</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20000</v>
       </c>
       <c r="N103">
@@ -8290,8 +8684,12 @@
         <v>468</v>
       </c>
       <c r="AA103">
+        <f t="shared" si="10"/>
+        <v>0.42918454935622319</v>
+      </c>
+      <c r="AB103">
         <f t="shared" si="9"/>
-        <v>0.42918454935622319</v>
+        <v>3.2</v>
       </c>
       <c r="AD103">
         <v>505000</v>
@@ -8311,7 +8709,7 @@
         <v>99</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20000</v>
       </c>
       <c r="N104">
@@ -8360,8 +8758,12 @@
         <v>470</v>
       </c>
       <c r="AA104">
+        <f t="shared" si="10"/>
+        <v>0.42735042735042733</v>
+      </c>
+      <c r="AB104">
         <f t="shared" si="9"/>
-        <v>0.42735042735042733</v>
+        <v>3.2</v>
       </c>
       <c r="AD104">
         <v>510000</v>
@@ -8381,7 +8783,7 @@
         <v>100</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>21000</v>
       </c>
       <c r="L105" s="1">
@@ -8412,19 +8814,19 @@
         <v>1515</v>
       </c>
       <c r="T105" t="str">
-        <f t="shared" ref="T105:T118" si="11">T104&amp;","&amp;P105</f>
+        <f t="shared" ref="T105:T118" si="12">T104&amp;","&amp;P105</f>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52</v>
       </c>
       <c r="U105" t="str">
-        <f t="shared" ref="U105:U118" si="12">U104&amp;","&amp;Q105</f>
+        <f t="shared" ref="U105:U118" si="13">U104&amp;","&amp;Q105</f>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000</v>
       </c>
       <c r="V105" t="str">
-        <f t="shared" ref="V105:V118" si="13">V104&amp;","&amp;R105</f>
+        <f t="shared" ref="V105:V118" si="14">V104&amp;","&amp;R105</f>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000</v>
       </c>
       <c r="W105" t="str">
-        <f t="shared" ref="W105:W118" si="14">W104&amp;","&amp;S105</f>
+        <f t="shared" ref="W105:W118" si="15">W104&amp;","&amp;S105</f>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515</v>
       </c>
       <c r="X105" t="s">
@@ -8434,12 +8836,16 @@
         <v>430</v>
       </c>
       <c r="Z105">
-        <f t="shared" ref="Z105:Z118" si="15">Y105+P105*100</f>
+        <f t="shared" ref="Z105:Z118" si="16">Y105+P105*100</f>
         <v>582</v>
       </c>
       <c r="AA105" s="6">
+        <f t="shared" si="10"/>
+        <v>23.829787234042552</v>
+      </c>
+      <c r="AB105">
         <f t="shared" si="9"/>
-        <v>23.829787234042552</v>
+        <v>4.3</v>
       </c>
       <c r="AD105">
         <v>515000</v>
@@ -8459,7 +8865,7 @@
         <v>101</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>21000</v>
       </c>
       <c r="N106">
@@ -8482,19 +8888,19 @@
         <v>1530</v>
       </c>
       <c r="T106" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54</v>
       </c>
       <c r="U106" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000</v>
       </c>
       <c r="V106" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000</v>
       </c>
       <c r="W106" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530</v>
       </c>
       <c r="X106" t="s">
@@ -8504,12 +8910,16 @@
         <v>430</v>
       </c>
       <c r="Z106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>584</v>
       </c>
       <c r="AA106">
-        <f t="shared" ref="AA106:AA118" si="16">(Z106-Z105)*100/Z105</f>
+        <f t="shared" ref="AA106:AA118" si="17">(Z106-Z105)*100/Z105</f>
         <v>0.3436426116838488</v>
+      </c>
+      <c r="AB106">
+        <f t="shared" si="9"/>
+        <v>4.3</v>
       </c>
       <c r="AD106">
         <v>520000</v>
@@ -8552,19 +8962,19 @@
         <v>1545</v>
       </c>
       <c r="T107" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56</v>
       </c>
       <c r="U107" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000</v>
       </c>
       <c r="V107" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000</v>
       </c>
       <c r="W107" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545</v>
       </c>
       <c r="X107" t="s">
@@ -8574,12 +8984,16 @@
         <v>430</v>
       </c>
       <c r="Z107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>586</v>
       </c>
       <c r="AA107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.34246575342465752</v>
+      </c>
+      <c r="AB107">
+        <f t="shared" si="9"/>
+        <v>4.3</v>
       </c>
       <c r="AD107">
         <v>525000</v>
@@ -8622,19 +9036,19 @@
         <v>1560</v>
       </c>
       <c r="T108" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58</v>
       </c>
       <c r="U108" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000</v>
       </c>
       <c r="V108" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000</v>
       </c>
       <c r="W108" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560</v>
       </c>
       <c r="X108" t="s">
@@ -8644,12 +9058,16 @@
         <v>430</v>
       </c>
       <c r="Z108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>588</v>
       </c>
       <c r="AA108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.34129692832764508</v>
+      </c>
+      <c r="AB108">
+        <f t="shared" si="9"/>
+        <v>4.3</v>
       </c>
       <c r="AD108">
         <v>530000</v>
@@ -8669,7 +9087,7 @@
         <v>104</v>
       </c>
       <c r="K109" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>21000</v>
       </c>
       <c r="N109">
@@ -8692,19 +9110,19 @@
         <v>1575</v>
       </c>
       <c r="T109" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6</v>
       </c>
       <c r="U109" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000</v>
       </c>
       <c r="V109" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000</v>
       </c>
       <c r="W109" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575</v>
       </c>
       <c r="X109" t="s">
@@ -8714,12 +9132,16 @@
         <v>430</v>
       </c>
       <c r="Z109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>590</v>
       </c>
       <c r="AA109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.3401360544217687</v>
+      </c>
+      <c r="AB109">
+        <f t="shared" si="9"/>
+        <v>4.3</v>
       </c>
       <c r="AD109">
         <v>535000</v>
@@ -8739,7 +9161,7 @@
         <v>105</v>
       </c>
       <c r="K110" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22000</v>
       </c>
       <c r="N110">
@@ -8762,19 +9184,19 @@
         <v>1590</v>
       </c>
       <c r="T110" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62</v>
       </c>
       <c r="U110" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000</v>
       </c>
       <c r="V110" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000</v>
       </c>
       <c r="W110" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590</v>
       </c>
       <c r="X110" t="s">
@@ -8784,12 +9206,16 @@
         <v>430</v>
       </c>
       <c r="Z110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>592</v>
       </c>
       <c r="AA110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.33898305084745761</v>
+      </c>
+      <c r="AB110">
+        <f t="shared" si="9"/>
+        <v>4.3</v>
       </c>
       <c r="AD110">
         <v>540000</v>
@@ -8809,7 +9235,7 @@
         <v>106</v>
       </c>
       <c r="K111" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22000</v>
       </c>
       <c r="N111">
@@ -8832,19 +9258,19 @@
         <v>1605</v>
       </c>
       <c r="T111" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64</v>
       </c>
       <c r="U111" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000</v>
       </c>
       <c r="V111" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000</v>
       </c>
       <c r="W111" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605</v>
       </c>
       <c r="X111" t="s">
@@ -8854,12 +9280,16 @@
         <v>430</v>
       </c>
       <c r="Z111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>594</v>
       </c>
       <c r="AA111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.33783783783783783</v>
+      </c>
+      <c r="AB111">
+        <f t="shared" si="9"/>
+        <v>4.3</v>
       </c>
       <c r="AD111">
         <v>545000</v>
@@ -8879,7 +9309,7 @@
         <v>107</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22000</v>
       </c>
       <c r="N112">
@@ -8902,19 +9332,19 @@
         <v>1620</v>
       </c>
       <c r="T112" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66</v>
       </c>
       <c r="U112" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000</v>
       </c>
       <c r="V112" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000</v>
       </c>
       <c r="W112" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620</v>
       </c>
       <c r="X112" t="s">
@@ -8924,12 +9354,16 @@
         <v>430</v>
       </c>
       <c r="Z112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>596</v>
       </c>
       <c r="AA112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.33670033670033672</v>
+      </c>
+      <c r="AB112">
+        <f t="shared" si="9"/>
+        <v>4.3</v>
       </c>
       <c r="AD112">
         <v>550000</v>
@@ -8949,7 +9383,7 @@
         <v>108</v>
       </c>
       <c r="K113" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22000</v>
       </c>
       <c r="N113">
@@ -8972,19 +9406,19 @@
         <v>1635</v>
       </c>
       <c r="T113" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68</v>
       </c>
       <c r="U113" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000</v>
       </c>
       <c r="V113" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000</v>
       </c>
       <c r="W113" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635</v>
       </c>
       <c r="X113" t="s">
@@ -8994,12 +9428,16 @@
         <v>430</v>
       </c>
       <c r="Z113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>598</v>
       </c>
       <c r="AA113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.33557046979865773</v>
+      </c>
+      <c r="AB113">
+        <f t="shared" si="9"/>
+        <v>4.3</v>
       </c>
       <c r="AD113">
         <v>555000</v>
@@ -9019,7 +9457,7 @@
         <v>109</v>
       </c>
       <c r="K114" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22000</v>
       </c>
       <c r="N114">
@@ -9042,19 +9480,19 @@
         <v>1650</v>
       </c>
       <c r="T114" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7</v>
       </c>
       <c r="U114" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000</v>
       </c>
       <c r="V114" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000</v>
       </c>
       <c r="W114" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650</v>
       </c>
       <c r="X114" t="s">
@@ -9064,12 +9502,16 @@
         <v>430</v>
       </c>
       <c r="Z114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>600</v>
       </c>
       <c r="AA114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.33444816053511706</v>
+      </c>
+      <c r="AB114">
+        <f t="shared" si="9"/>
+        <v>4.3</v>
       </c>
       <c r="AD114">
         <v>560000</v>
@@ -9089,7 +9531,7 @@
         <v>110</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23000</v>
       </c>
       <c r="L115" s="1">
@@ -9120,19 +9562,19 @@
         <v>1665</v>
       </c>
       <c r="T115" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72</v>
       </c>
       <c r="U115" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000</v>
       </c>
       <c r="V115" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000</v>
       </c>
       <c r="W115" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665</v>
       </c>
       <c r="X115" t="s">
@@ -9142,12 +9584,16 @@
         <v>570</v>
       </c>
       <c r="Z115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>742</v>
       </c>
       <c r="AA115" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>23.666666666666668</v>
+      </c>
+      <c r="AB115">
+        <f t="shared" si="9"/>
+        <v>5.7</v>
       </c>
       <c r="AD115">
         <v>565000</v>
@@ -9167,7 +9613,7 @@
         <v>111</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23000</v>
       </c>
       <c r="N116">
@@ -9190,19 +9636,19 @@
         <v>1680</v>
       </c>
       <c r="T116" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74</v>
       </c>
       <c r="U116" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000</v>
       </c>
       <c r="V116" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000</v>
       </c>
       <c r="W116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680</v>
       </c>
       <c r="X116" t="s">
@@ -9212,12 +9658,16 @@
         <v>570</v>
       </c>
       <c r="Z116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>744</v>
       </c>
       <c r="AA116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.26954177897574122</v>
+      </c>
+      <c r="AB116">
+        <f t="shared" si="9"/>
+        <v>5.7</v>
       </c>
       <c r="AD116">
         <v>570000</v>
@@ -9237,7 +9687,7 @@
         <v>112</v>
       </c>
       <c r="K117" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23000</v>
       </c>
       <c r="N117">
@@ -9260,19 +9710,19 @@
         <v>1695</v>
       </c>
       <c r="T117" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76</v>
       </c>
       <c r="U117" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000</v>
       </c>
       <c r="V117" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000</v>
       </c>
       <c r="W117" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695</v>
       </c>
       <c r="X117" t="s">
@@ -9282,12 +9732,16 @@
         <v>570</v>
       </c>
       <c r="Z117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>746</v>
       </c>
       <c r="AA117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.26881720430107525</v>
+      </c>
+      <c r="AB117">
+        <f t="shared" si="9"/>
+        <v>5.7</v>
       </c>
       <c r="AD117">
         <v>575000</v>
@@ -9307,7 +9761,7 @@
         <v>113</v>
       </c>
       <c r="K118" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23000</v>
       </c>
       <c r="N118">
@@ -9330,19 +9784,19 @@
         <v>1710</v>
       </c>
       <c r="T118" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78</v>
       </c>
       <c r="U118" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000</v>
       </c>
       <c r="V118" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000</v>
       </c>
       <c r="W118" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710</v>
       </c>
       <c r="X118" t="s">
@@ -9352,12 +9806,16 @@
         <v>570</v>
       </c>
       <c r="Z118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>748</v>
       </c>
       <c r="AA118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.26809651474530832</v>
+      </c>
+      <c r="AB118">
+        <f t="shared" si="9"/>
+        <v>5.7</v>
       </c>
       <c r="AD118">
         <v>580000</v>
@@ -9377,7 +9835,7 @@
         <v>114</v>
       </c>
       <c r="K119" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23000</v>
       </c>
       <c r="N119">
@@ -9400,19 +9858,19 @@
         <v>1725</v>
       </c>
       <c r="T119" t="str">
-        <f t="shared" ref="T119:T182" si="17">T118&amp;","&amp;P119</f>
+        <f t="shared" ref="T119:T182" si="18">T118&amp;","&amp;P119</f>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8</v>
       </c>
       <c r="U119" t="str">
-        <f t="shared" ref="U119:U182" si="18">U118&amp;","&amp;Q119</f>
+        <f t="shared" ref="U119:U182" si="19">U118&amp;","&amp;Q119</f>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000</v>
       </c>
       <c r="V119" t="str">
-        <f t="shared" ref="V119:V182" si="19">V118&amp;","&amp;R119</f>
+        <f t="shared" ref="V119:V182" si="20">V118&amp;","&amp;R119</f>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000</v>
       </c>
       <c r="W119" t="str">
-        <f t="shared" ref="W119:W182" si="20">W118&amp;","&amp;S119</f>
+        <f t="shared" ref="W119:W182" si="21">W118&amp;","&amp;S119</f>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725</v>
       </c>
       <c r="X119" t="s">
@@ -9422,12 +9880,16 @@
         <v>570</v>
       </c>
       <c r="Z119">
-        <f t="shared" ref="Z119:Z182" si="21">Y119+P119*100</f>
+        <f t="shared" ref="Z119:Z182" si="22">Y119+P119*100</f>
         <v>750</v>
       </c>
       <c r="AA119">
-        <f t="shared" ref="AA119:AA182" si="22">(Z119-Z118)*100/Z118</f>
+        <f t="shared" ref="AA119:AA182" si="23">(Z119-Z118)*100/Z118</f>
         <v>0.26737967914438504</v>
+      </c>
+      <c r="AB119">
+        <f t="shared" si="9"/>
+        <v>5.7</v>
       </c>
       <c r="AD119">
         <v>585000</v>
@@ -9447,7 +9909,7 @@
         <v>115</v>
       </c>
       <c r="K120" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24000</v>
       </c>
       <c r="N120">
@@ -9470,19 +9932,19 @@
         <v>1740</v>
       </c>
       <c r="T120" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82</v>
       </c>
       <c r="U120" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000</v>
       </c>
       <c r="V120" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000</v>
       </c>
       <c r="W120" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740</v>
       </c>
       <c r="X120" t="s">
@@ -9492,12 +9954,16 @@
         <v>570</v>
       </c>
       <c r="Z120">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>752</v>
       </c>
       <c r="AA120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.26666666666666666</v>
+      </c>
+      <c r="AB120">
+        <f t="shared" si="9"/>
+        <v>5.7</v>
       </c>
       <c r="AD120">
         <v>590000</v>
@@ -9517,7 +9983,7 @@
         <v>116</v>
       </c>
       <c r="K121" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24000</v>
       </c>
       <c r="N121">
@@ -9540,19 +10006,19 @@
         <v>1755</v>
       </c>
       <c r="T121" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84</v>
       </c>
       <c r="U121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000</v>
       </c>
       <c r="V121" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000</v>
       </c>
       <c r="W121" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755</v>
       </c>
       <c r="X121" t="s">
@@ -9562,12 +10028,16 @@
         <v>570</v>
       </c>
       <c r="Z121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>754</v>
       </c>
       <c r="AA121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.26595744680851063</v>
+      </c>
+      <c r="AB121">
+        <f t="shared" si="9"/>
+        <v>5.7</v>
       </c>
       <c r="AD121">
         <v>595000</v>
@@ -9587,7 +10057,7 @@
         <v>117</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24000</v>
       </c>
       <c r="N122">
@@ -9610,19 +10080,19 @@
         <v>1770</v>
       </c>
       <c r="T122" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86</v>
       </c>
       <c r="U122" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000</v>
       </c>
       <c r="V122" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000</v>
       </c>
       <c r="W122" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770</v>
       </c>
       <c r="X122" t="s">
@@ -9632,12 +10102,16 @@
         <v>570</v>
       </c>
       <c r="Z122">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>756</v>
       </c>
       <c r="AA122">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.26525198938992045</v>
+      </c>
+      <c r="AB122">
+        <f t="shared" si="9"/>
+        <v>5.7</v>
       </c>
       <c r="AD122">
         <v>600000</v>
@@ -9657,7 +10131,7 @@
         <v>118</v>
       </c>
       <c r="K123" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24000</v>
       </c>
       <c r="N123">
@@ -9680,19 +10154,19 @@
         <v>1785</v>
       </c>
       <c r="T123" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88</v>
       </c>
       <c r="U123" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000</v>
       </c>
       <c r="V123" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000</v>
       </c>
       <c r="W123" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785</v>
       </c>
       <c r="X123" t="s">
@@ -9702,12 +10176,16 @@
         <v>570</v>
       </c>
       <c r="Z123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>758</v>
       </c>
       <c r="AA123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.26455026455026454</v>
+      </c>
+      <c r="AB123">
+        <f t="shared" si="9"/>
+        <v>5.7</v>
       </c>
       <c r="AD123">
         <v>605000</v>
@@ -9727,7 +10205,7 @@
         <v>119</v>
       </c>
       <c r="K124" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24000</v>
       </c>
       <c r="N124">
@@ -9750,19 +10228,19 @@
         <v>1800</v>
       </c>
       <c r="T124" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9</v>
       </c>
       <c r="U124" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000</v>
       </c>
       <c r="V124" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000</v>
       </c>
       <c r="W124" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800</v>
       </c>
       <c r="X124" t="s">
@@ -9772,12 +10250,16 @@
         <v>570</v>
       </c>
       <c r="Z124">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>760</v>
       </c>
       <c r="AA124">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.26385224274406333</v>
+      </c>
+      <c r="AB124">
+        <f t="shared" si="9"/>
+        <v>5.7</v>
       </c>
       <c r="AD124">
         <v>610000</v>
@@ -9797,7 +10279,7 @@
         <v>120</v>
       </c>
       <c r="K125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>25000</v>
       </c>
       <c r="L125" s="1">
@@ -9828,19 +10310,19 @@
         <v>1815</v>
       </c>
       <c r="T125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92</v>
       </c>
       <c r="U125" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000</v>
       </c>
       <c r="V125" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000</v>
       </c>
       <c r="W125" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815</v>
       </c>
       <c r="X125" t="s">
@@ -9850,12 +10332,16 @@
         <v>720</v>
       </c>
       <c r="Z125">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>912</v>
       </c>
       <c r="AA125" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
+      </c>
+      <c r="AB125">
+        <f t="shared" si="9"/>
+        <v>7.2</v>
       </c>
       <c r="AD125">
         <v>615000</v>
@@ -9875,7 +10361,7 @@
         <v>121</v>
       </c>
       <c r="K126" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>25000</v>
       </c>
       <c r="N126">
@@ -9898,19 +10384,19 @@
         <v>1830</v>
       </c>
       <c r="T126" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94</v>
       </c>
       <c r="U126" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000</v>
       </c>
       <c r="V126" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000</v>
       </c>
       <c r="W126" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830</v>
       </c>
       <c r="X126" t="s">
@@ -9920,12 +10406,16 @@
         <v>720</v>
       </c>
       <c r="Z126">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>914</v>
       </c>
       <c r="AA126">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.21929824561403508</v>
+      </c>
+      <c r="AB126">
+        <f t="shared" si="9"/>
+        <v>7.2</v>
       </c>
       <c r="AD126">
         <v>620000</v>
@@ -9945,7 +10435,7 @@
         <v>122</v>
       </c>
       <c r="K127" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>25000</v>
       </c>
       <c r="N127">
@@ -9968,19 +10458,19 @@
         <v>1845</v>
       </c>
       <c r="T127" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96</v>
       </c>
       <c r="U127" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000</v>
       </c>
       <c r="V127" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000</v>
       </c>
       <c r="W127" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845</v>
       </c>
       <c r="X127" t="s">
@@ -9990,12 +10480,16 @@
         <v>720</v>
       </c>
       <c r="Z127">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>916</v>
       </c>
       <c r="AA127">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.21881838074398249</v>
+      </c>
+      <c r="AB127">
+        <f t="shared" si="9"/>
+        <v>7.2</v>
       </c>
       <c r="AD127">
         <v>625000</v>
@@ -10015,7 +10509,7 @@
         <v>123</v>
       </c>
       <c r="K128" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>25000</v>
       </c>
       <c r="N128">
@@ -10038,19 +10532,19 @@
         <v>1860</v>
       </c>
       <c r="T128" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98</v>
       </c>
       <c r="U128" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000</v>
       </c>
       <c r="V128" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000</v>
       </c>
       <c r="W128" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860</v>
       </c>
       <c r="X128" t="s">
@@ -10060,12 +10554,16 @@
         <v>720</v>
       </c>
       <c r="Z128">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>918</v>
       </c>
       <c r="AA128">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2183406113537118</v>
+      </c>
+      <c r="AB128">
+        <f t="shared" si="9"/>
+        <v>7.2</v>
       </c>
       <c r="AD128">
         <v>630000</v>
@@ -10085,7 +10583,7 @@
         <v>124</v>
       </c>
       <c r="K129" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>25000</v>
       </c>
       <c r="N129">
@@ -10108,19 +10606,19 @@
         <v>1875</v>
       </c>
       <c r="T129" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2</v>
       </c>
       <c r="U129" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000</v>
       </c>
       <c r="V129" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000</v>
       </c>
       <c r="W129" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875</v>
       </c>
       <c r="X129" t="s">
@@ -10130,12 +10628,16 @@
         <v>720</v>
       </c>
       <c r="Z129">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>920</v>
       </c>
       <c r="AA129">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2178649237472767</v>
+      </c>
+      <c r="AB129">
+        <f t="shared" si="9"/>
+        <v>7.2</v>
       </c>
       <c r="AD129">
         <v>635000</v>
@@ -10155,7 +10657,7 @@
         <v>125</v>
       </c>
       <c r="K130" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26000</v>
       </c>
       <c r="N130">
@@ -10178,19 +10680,19 @@
         <v>1890</v>
       </c>
       <c r="T130" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02</v>
       </c>
       <c r="U130" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000</v>
       </c>
       <c r="V130" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000</v>
       </c>
       <c r="W130" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890</v>
       </c>
       <c r="X130" t="s">
@@ -10200,12 +10702,16 @@
         <v>720</v>
       </c>
       <c r="Z130">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>922</v>
       </c>
       <c r="AA130">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.21739130434782608</v>
+      </c>
+      <c r="AB130">
+        <f t="shared" si="9"/>
+        <v>7.2</v>
       </c>
       <c r="AD130">
         <v>640000</v>
@@ -10225,7 +10731,7 @@
         <v>126</v>
       </c>
       <c r="K131" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26000</v>
       </c>
       <c r="N131">
@@ -10248,19 +10754,19 @@
         <v>1905</v>
       </c>
       <c r="T131" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04</v>
       </c>
       <c r="U131" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000</v>
       </c>
       <c r="V131" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000</v>
       </c>
       <c r="W131" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905</v>
       </c>
       <c r="X131" t="s">
@@ -10270,12 +10776,16 @@
         <v>720</v>
       </c>
       <c r="Z131">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>924</v>
       </c>
       <c r="AA131">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.21691973969631237</v>
+      </c>
+      <c r="AB131">
+        <f t="shared" si="9"/>
+        <v>7.2</v>
       </c>
       <c r="AD131">
         <v>645000</v>
@@ -10295,7 +10805,7 @@
         <v>127</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26000</v>
       </c>
       <c r="N132">
@@ -10318,19 +10828,19 @@
         <v>1920</v>
       </c>
       <c r="T132" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06</v>
       </c>
       <c r="U132" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000</v>
       </c>
       <c r="V132" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000</v>
       </c>
       <c r="W132" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920</v>
       </c>
       <c r="X132" t="s">
@@ -10340,12 +10850,16 @@
         <v>720</v>
       </c>
       <c r="Z132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>926</v>
       </c>
       <c r="AA132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.21645021645021645</v>
+      </c>
+      <c r="AB132">
+        <f t="shared" si="9"/>
+        <v>7.2</v>
       </c>
       <c r="AD132">
         <v>650000</v>
@@ -10365,7 +10879,7 @@
         <v>128</v>
       </c>
       <c r="K133" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26000</v>
       </c>
       <c r="N133">
@@ -10388,19 +10902,19 @@
         <v>1935</v>
       </c>
       <c r="T133" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08</v>
       </c>
       <c r="U133" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000</v>
       </c>
       <c r="V133" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000</v>
       </c>
       <c r="W133" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935</v>
       </c>
       <c r="X133" t="s">
@@ -10410,12 +10924,16 @@
         <v>720</v>
       </c>
       <c r="Z133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>928</v>
       </c>
       <c r="AA133">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.21598272138228941</v>
+      </c>
+      <c r="AB133">
+        <f t="shared" si="9"/>
+        <v>7.2</v>
       </c>
       <c r="AD133">
         <v>655000</v>
@@ -10435,7 +10953,7 @@
         <v>129</v>
       </c>
       <c r="K134" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26000</v>
       </c>
       <c r="N134">
@@ -10458,19 +10976,19 @@
         <v>1950</v>
       </c>
       <c r="T134" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1</v>
       </c>
       <c r="U134" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000</v>
       </c>
       <c r="V134" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000</v>
       </c>
       <c r="W134" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950</v>
       </c>
       <c r="X134" t="s">
@@ -10480,12 +10998,16 @@
         <v>720</v>
       </c>
       <c r="Z134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>930</v>
       </c>
       <c r="AA134">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.21551724137931033</v>
+      </c>
+      <c r="AB134">
+        <f t="shared" ref="AB134:AB197" si="24">Y134/100</f>
+        <v>7.2</v>
       </c>
       <c r="AD134">
         <v>660000</v>
@@ -10505,7 +11027,7 @@
         <v>130</v>
       </c>
       <c r="K135" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>27000</v>
       </c>
       <c r="L135" s="1">
@@ -10536,19 +11058,19 @@
         <v>1965</v>
       </c>
       <c r="T135" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12</v>
       </c>
       <c r="U135" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000</v>
       </c>
       <c r="V135" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000</v>
       </c>
       <c r="W135" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965</v>
       </c>
       <c r="X135" t="s">
@@ -10558,12 +11080,16 @@
         <v>900</v>
       </c>
       <c r="Z135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1112</v>
       </c>
       <c r="AA135" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>19.56989247311828</v>
+      </c>
+      <c r="AB135">
+        <f t="shared" si="24"/>
+        <v>9</v>
       </c>
       <c r="AD135">
         <v>665000</v>
@@ -10583,7 +11109,7 @@
         <v>131</v>
       </c>
       <c r="K136" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>27000</v>
       </c>
       <c r="N136">
@@ -10606,19 +11132,19 @@
         <v>1980</v>
       </c>
       <c r="T136" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14</v>
       </c>
       <c r="U136" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000</v>
       </c>
       <c r="V136" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000</v>
       </c>
       <c r="W136" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980</v>
       </c>
       <c r="X136" t="s">
@@ -10628,12 +11154,16 @@
         <v>900</v>
       </c>
       <c r="Z136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1114</v>
       </c>
       <c r="AA136">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.17985611510791366</v>
+      </c>
+      <c r="AB136">
+        <f t="shared" si="24"/>
+        <v>9</v>
       </c>
       <c r="AD136">
         <v>670000</v>
@@ -10653,7 +11183,7 @@
         <v>132</v>
       </c>
       <c r="K137" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>27000</v>
       </c>
       <c r="N137">
@@ -10676,19 +11206,19 @@
         <v>1995</v>
       </c>
       <c r="T137" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16</v>
       </c>
       <c r="U137" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000</v>
       </c>
       <c r="V137" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000</v>
       </c>
       <c r="W137" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995</v>
       </c>
       <c r="X137" t="s">
@@ -10698,12 +11228,16 @@
         <v>900</v>
       </c>
       <c r="Z137">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1116</v>
       </c>
       <c r="AA137">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.17953321364452424</v>
+      </c>
+      <c r="AB137">
+        <f t="shared" si="24"/>
+        <v>9</v>
       </c>
       <c r="AD137">
         <v>675000</v>
@@ -10723,7 +11257,7 @@
         <v>133</v>
       </c>
       <c r="K138" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>27000</v>
       </c>
       <c r="N138">
@@ -10746,19 +11280,19 @@
         <v>2010</v>
       </c>
       <c r="T138" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18</v>
       </c>
       <c r="U138" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000</v>
       </c>
       <c r="V138" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000</v>
       </c>
       <c r="W138" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010</v>
       </c>
       <c r="X138" t="s">
@@ -10768,12 +11302,16 @@
         <v>900</v>
       </c>
       <c r="Z138">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1118</v>
       </c>
       <c r="AA138">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.17921146953405018</v>
+      </c>
+      <c r="AB138">
+        <f t="shared" si="24"/>
+        <v>9</v>
       </c>
       <c r="AD138">
         <v>680000</v>
@@ -10793,7 +11331,7 @@
         <v>134</v>
       </c>
       <c r="K139" s="1">
-        <f t="shared" ref="K139:K202" si="23">K134+1000</f>
+        <f t="shared" ref="K139:K202" si="25">K134+1000</f>
         <v>27000</v>
       </c>
       <c r="N139">
@@ -10816,19 +11354,19 @@
         <v>2025</v>
       </c>
       <c r="T139" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2</v>
       </c>
       <c r="U139" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000</v>
       </c>
       <c r="V139" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000</v>
       </c>
       <c r="W139" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025</v>
       </c>
       <c r="X139" t="s">
@@ -10838,12 +11376,16 @@
         <v>900</v>
       </c>
       <c r="Z139">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1120</v>
       </c>
       <c r="AA139">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.17889087656529518</v>
+      </c>
+      <c r="AB139">
+        <f t="shared" si="24"/>
+        <v>9</v>
       </c>
       <c r="AD139">
         <v>685000</v>
@@ -10863,7 +11405,7 @@
         <v>135</v>
       </c>
       <c r="K140" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>28000</v>
       </c>
       <c r="N140">
@@ -10886,19 +11428,19 @@
         <v>2040</v>
       </c>
       <c r="T140" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22</v>
       </c>
       <c r="U140" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000</v>
       </c>
       <c r="V140" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000</v>
       </c>
       <c r="W140" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040</v>
       </c>
       <c r="X140" t="s">
@@ -10908,12 +11450,16 @@
         <v>900</v>
       </c>
       <c r="Z140">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1122</v>
       </c>
       <c r="AA140">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.17857142857142858</v>
+      </c>
+      <c r="AB140">
+        <f t="shared" si="24"/>
+        <v>9</v>
       </c>
       <c r="AD140">
         <v>690000</v>
@@ -10933,7 +11479,7 @@
         <v>136</v>
       </c>
       <c r="K141" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>28000</v>
       </c>
       <c r="N141">
@@ -10956,19 +11502,19 @@
         <v>2055</v>
       </c>
       <c r="T141" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24</v>
       </c>
       <c r="U141" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000</v>
       </c>
       <c r="V141" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000</v>
       </c>
       <c r="W141" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055</v>
       </c>
       <c r="X141" t="s">
@@ -10978,12 +11524,16 @@
         <v>900</v>
       </c>
       <c r="Z141">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1124</v>
       </c>
       <c r="AA141">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.17825311942959002</v>
+      </c>
+      <c r="AB141">
+        <f t="shared" si="24"/>
+        <v>9</v>
       </c>
       <c r="AD141">
         <v>695000</v>
@@ -11003,7 +11553,7 @@
         <v>137</v>
       </c>
       <c r="K142" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>28000</v>
       </c>
       <c r="N142">
@@ -11026,19 +11576,19 @@
         <v>2070</v>
       </c>
       <c r="T142" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26</v>
       </c>
       <c r="U142" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000</v>
       </c>
       <c r="V142" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000</v>
       </c>
       <c r="W142" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070</v>
       </c>
       <c r="X142" t="s">
@@ -11048,12 +11598,16 @@
         <v>900</v>
       </c>
       <c r="Z142">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1126</v>
       </c>
       <c r="AA142">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.17793594306049823</v>
+      </c>
+      <c r="AB142">
+        <f t="shared" si="24"/>
+        <v>9</v>
       </c>
       <c r="AD142">
         <v>700000</v>
@@ -11073,7 +11627,7 @@
         <v>138</v>
       </c>
       <c r="K143" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>28000</v>
       </c>
       <c r="N143">
@@ -11096,19 +11650,19 @@
         <v>2085</v>
       </c>
       <c r="T143" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28</v>
       </c>
       <c r="U143" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000</v>
       </c>
       <c r="V143" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000</v>
       </c>
       <c r="W143" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085</v>
       </c>
       <c r="X143" t="s">
@@ -11118,12 +11672,16 @@
         <v>900</v>
       </c>
       <c r="Z143">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1128</v>
       </c>
       <c r="AA143">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.17761989342806395</v>
+      </c>
+      <c r="AB143">
+        <f t="shared" si="24"/>
+        <v>9</v>
       </c>
       <c r="AD143">
         <v>705000</v>
@@ -11143,7 +11701,7 @@
         <v>139</v>
       </c>
       <c r="K144" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>28000</v>
       </c>
       <c r="N144">
@@ -11166,19 +11724,19 @@
         <v>2100</v>
       </c>
       <c r="T144" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3</v>
       </c>
       <c r="U144" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000</v>
       </c>
       <c r="V144" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000</v>
       </c>
       <c r="W144" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100</v>
       </c>
       <c r="X144" t="s">
@@ -11188,12 +11746,16 @@
         <v>900</v>
       </c>
       <c r="Z144">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1130</v>
       </c>
       <c r="AA144">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.1773049645390071</v>
+      </c>
+      <c r="AB144">
+        <f t="shared" si="24"/>
+        <v>9</v>
       </c>
       <c r="AD144">
         <v>710000</v>
@@ -11213,7 +11775,7 @@
         <v>140</v>
       </c>
       <c r="K145" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>29000</v>
       </c>
       <c r="L145" s="1">
@@ -11244,19 +11806,19 @@
         <v>2115</v>
       </c>
       <c r="T145" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32</v>
       </c>
       <c r="U145" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000</v>
       </c>
       <c r="V145" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000</v>
       </c>
       <c r="W145" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115</v>
       </c>
       <c r="X145" t="s">
@@ -11266,12 +11828,16 @@
         <v>1100</v>
       </c>
       <c r="Z145">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1332</v>
       </c>
       <c r="AA145" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>17.876106194690266</v>
+      </c>
+      <c r="AB145">
+        <f t="shared" si="24"/>
+        <v>11</v>
       </c>
       <c r="AD145">
         <v>715000</v>
@@ -11291,7 +11857,7 @@
         <v>141</v>
       </c>
       <c r="K146" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>29000</v>
       </c>
       <c r="N146">
@@ -11314,19 +11880,19 @@
         <v>2130</v>
       </c>
       <c r="T146" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34</v>
       </c>
       <c r="U146" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000</v>
       </c>
       <c r="V146" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000</v>
       </c>
       <c r="W146" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130</v>
       </c>
       <c r="X146" t="s">
@@ -11336,12 +11902,16 @@
         <v>1100</v>
       </c>
       <c r="Z146">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1334</v>
       </c>
       <c r="AA146">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15015015015015015</v>
+      </c>
+      <c r="AB146">
+        <f t="shared" si="24"/>
+        <v>11</v>
       </c>
       <c r="AD146">
         <v>720000</v>
@@ -11361,7 +11931,7 @@
         <v>142</v>
       </c>
       <c r="K147" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>29000</v>
       </c>
       <c r="N147">
@@ -11384,19 +11954,19 @@
         <v>2145</v>
       </c>
       <c r="T147" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36</v>
       </c>
       <c r="U147" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000</v>
       </c>
       <c r="V147" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000</v>
       </c>
       <c r="W147" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145</v>
       </c>
       <c r="X147" t="s">
@@ -11406,12 +11976,16 @@
         <v>1100</v>
       </c>
       <c r="Z147">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1336</v>
       </c>
       <c r="AA147">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14992503748125938</v>
+      </c>
+      <c r="AB147">
+        <f t="shared" si="24"/>
+        <v>11</v>
       </c>
       <c r="AD147">
         <v>725000</v>
@@ -11431,7 +12005,7 @@
         <v>143</v>
       </c>
       <c r="K148" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>29000</v>
       </c>
       <c r="N148">
@@ -11454,19 +12028,19 @@
         <v>2160</v>
       </c>
       <c r="T148" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38</v>
       </c>
       <c r="U148" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000</v>
       </c>
       <c r="V148" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000</v>
       </c>
       <c r="W148" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160</v>
       </c>
       <c r="X148" t="s">
@@ -11476,12 +12050,16 @@
         <v>1100</v>
       </c>
       <c r="Z148">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1338</v>
       </c>
       <c r="AA148">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.1497005988023952</v>
+      </c>
+      <c r="AB148">
+        <f t="shared" si="24"/>
+        <v>11</v>
       </c>
       <c r="AD148">
         <v>730000</v>
@@ -11501,7 +12079,7 @@
         <v>144</v>
       </c>
       <c r="K149" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>29000</v>
       </c>
       <c r="N149">
@@ -11524,19 +12102,19 @@
         <v>2175</v>
       </c>
       <c r="T149" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4</v>
       </c>
       <c r="U149" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000</v>
       </c>
       <c r="V149" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000</v>
       </c>
       <c r="W149" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175</v>
       </c>
       <c r="X149" t="s">
@@ -11546,12 +12124,16 @@
         <v>1100</v>
       </c>
       <c r="Z149">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1340</v>
       </c>
       <c r="AA149">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14947683109118087</v>
+      </c>
+      <c r="AB149">
+        <f t="shared" si="24"/>
+        <v>11</v>
       </c>
       <c r="AD149">
         <v>735000</v>
@@ -11571,7 +12153,7 @@
         <v>145</v>
       </c>
       <c r="K150" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30000</v>
       </c>
       <c r="N150">
@@ -11594,19 +12176,19 @@
         <v>2190</v>
       </c>
       <c r="T150" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42</v>
       </c>
       <c r="U150" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000</v>
       </c>
       <c r="V150" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000</v>
       </c>
       <c r="W150" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190</v>
       </c>
       <c r="X150" t="s">
@@ -11616,12 +12198,16 @@
         <v>1100</v>
       </c>
       <c r="Z150">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1342</v>
       </c>
       <c r="AA150">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14925373134328357</v>
+      </c>
+      <c r="AB150">
+        <f t="shared" si="24"/>
+        <v>11</v>
       </c>
       <c r="AD150">
         <v>740000</v>
@@ -11641,7 +12227,7 @@
         <v>146</v>
       </c>
       <c r="K151" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30000</v>
       </c>
       <c r="N151">
@@ -11664,19 +12250,19 @@
         <v>2205</v>
       </c>
       <c r="T151" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44</v>
       </c>
       <c r="U151" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000</v>
       </c>
       <c r="V151" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000</v>
       </c>
       <c r="W151" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205</v>
       </c>
       <c r="X151" t="s">
@@ -11686,12 +12272,16 @@
         <v>1100</v>
       </c>
       <c r="Z151">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1344</v>
       </c>
       <c r="AA151">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14903129657228018</v>
+      </c>
+      <c r="AB151">
+        <f t="shared" si="24"/>
+        <v>11</v>
       </c>
       <c r="AD151">
         <v>745000</v>
@@ -11711,7 +12301,7 @@
         <v>147</v>
       </c>
       <c r="K152" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30000</v>
       </c>
       <c r="N152">
@@ -11734,19 +12324,19 @@
         <v>2220</v>
       </c>
       <c r="T152" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46</v>
       </c>
       <c r="U152" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000</v>
       </c>
       <c r="V152" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000</v>
       </c>
       <c r="W152" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220</v>
       </c>
       <c r="X152" t="s">
@@ -11756,12 +12346,16 @@
         <v>1100</v>
       </c>
       <c r="Z152">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1346</v>
       </c>
       <c r="AA152">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14880952380952381</v>
+      </c>
+      <c r="AB152">
+        <f t="shared" si="24"/>
+        <v>11</v>
       </c>
       <c r="AD152">
         <v>750000</v>
@@ -11781,7 +12375,7 @@
         <v>148</v>
       </c>
       <c r="K153" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30000</v>
       </c>
       <c r="N153">
@@ -11804,19 +12398,19 @@
         <v>2235</v>
       </c>
       <c r="T153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48</v>
       </c>
       <c r="U153" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000</v>
       </c>
       <c r="V153" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000</v>
       </c>
       <c r="W153" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235</v>
       </c>
       <c r="X153" t="s">
@@ -11826,12 +12420,16 @@
         <v>1100</v>
       </c>
       <c r="Z153">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1348</v>
       </c>
       <c r="AA153">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14858841010401189</v>
+      </c>
+      <c r="AB153">
+        <f t="shared" si="24"/>
+        <v>11</v>
       </c>
       <c r="AD153">
         <v>755000</v>
@@ -11851,7 +12449,7 @@
         <v>149</v>
       </c>
       <c r="K154" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30000</v>
       </c>
       <c r="N154">
@@ -11874,19 +12472,19 @@
         <v>2250</v>
       </c>
       <c r="T154" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5</v>
       </c>
       <c r="U154" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000</v>
       </c>
       <c r="V154" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000</v>
       </c>
       <c r="W154" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250</v>
       </c>
       <c r="X154" t="s">
@@ -11896,12 +12494,28 @@
         <v>1100</v>
       </c>
       <c r="Z154">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1350</v>
       </c>
       <c r="AA154">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14836795252225518</v>
+      </c>
+      <c r="AB154">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="AD154">
+        <v>760000</v>
+      </c>
+      <c r="AE154">
+        <v>2.52</v>
+      </c>
+      <c r="AF154">
+        <v>151000000000000</v>
+      </c>
+      <c r="AG154">
+        <v>2265</v>
       </c>
     </row>
     <row r="155" spans="10:33" x14ac:dyDescent="0.3">
@@ -11909,7 +12523,7 @@
         <v>150</v>
       </c>
       <c r="K155" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>31000</v>
       </c>
       <c r="L155" s="1">
@@ -11940,19 +12554,19 @@
         <v>2265</v>
       </c>
       <c r="T155" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52</v>
       </c>
       <c r="U155" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000</v>
       </c>
       <c r="V155" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000</v>
       </c>
       <c r="W155" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265</v>
       </c>
       <c r="X155" t="s">
@@ -11962,12 +12576,28 @@
         <v>1350</v>
       </c>
       <c r="Z155">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1602</v>
       </c>
       <c r="AA155" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>18.666666666666668</v>
+      </c>
+      <c r="AB155">
+        <f t="shared" si="24"/>
+        <v>13.5</v>
+      </c>
+      <c r="AD155">
+        <v>765000</v>
+      </c>
+      <c r="AE155">
+        <v>2.54</v>
+      </c>
+      <c r="AF155">
+        <v>152000000000000</v>
+      </c>
+      <c r="AG155">
+        <v>2280</v>
       </c>
     </row>
     <row r="156" spans="10:33" x14ac:dyDescent="0.3">
@@ -11975,7 +12605,7 @@
         <v>151</v>
       </c>
       <c r="K156" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>31000</v>
       </c>
       <c r="N156">
@@ -11998,19 +12628,19 @@
         <v>2280</v>
       </c>
       <c r="T156" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54</v>
       </c>
       <c r="U156" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000</v>
       </c>
       <c r="V156" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000</v>
       </c>
       <c r="W156" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280</v>
       </c>
       <c r="X156" t="s">
@@ -12020,12 +12650,28 @@
         <v>1350</v>
       </c>
       <c r="Z156">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1604</v>
       </c>
       <c r="AA156">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.12484394506866417</v>
+      </c>
+      <c r="AB156">
+        <f t="shared" si="24"/>
+        <v>13.5</v>
+      </c>
+      <c r="AD156">
+        <v>770000</v>
+      </c>
+      <c r="AE156">
+        <v>2.56</v>
+      </c>
+      <c r="AF156">
+        <v>153000000000000</v>
+      </c>
+      <c r="AG156">
+        <v>2295</v>
       </c>
     </row>
     <row r="157" spans="10:33" x14ac:dyDescent="0.3">
@@ -12033,7 +12679,7 @@
         <v>152</v>
       </c>
       <c r="K157" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>31000</v>
       </c>
       <c r="N157">
@@ -12056,19 +12702,19 @@
         <v>2295</v>
       </c>
       <c r="T157" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56</v>
       </c>
       <c r="U157" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000</v>
       </c>
       <c r="V157" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000</v>
       </c>
       <c r="W157" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295</v>
       </c>
       <c r="X157" t="s">
@@ -12078,12 +12724,28 @@
         <v>1350</v>
       </c>
       <c r="Z157">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1606</v>
       </c>
       <c r="AA157">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.12468827930174564</v>
+      </c>
+      <c r="AB157">
+        <f t="shared" si="24"/>
+        <v>13.5</v>
+      </c>
+      <c r="AD157">
+        <v>775000</v>
+      </c>
+      <c r="AE157">
+        <v>2.58</v>
+      </c>
+      <c r="AF157">
+        <v>154000000000000</v>
+      </c>
+      <c r="AG157">
+        <v>2310</v>
       </c>
     </row>
     <row r="158" spans="10:33" x14ac:dyDescent="0.3">
@@ -12091,7 +12753,7 @@
         <v>153</v>
       </c>
       <c r="K158" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>31000</v>
       </c>
       <c r="N158">
@@ -12114,19 +12776,19 @@
         <v>2310</v>
       </c>
       <c r="T158" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58</v>
       </c>
       <c r="U158" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000</v>
       </c>
       <c r="V158" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000</v>
       </c>
       <c r="W158" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310</v>
       </c>
       <c r="X158" t="s">
@@ -12136,12 +12798,28 @@
         <v>1350</v>
       </c>
       <c r="Z158">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1608</v>
       </c>
       <c r="AA158">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.12453300124533001</v>
+      </c>
+      <c r="AB158">
+        <f t="shared" si="24"/>
+        <v>13.5</v>
+      </c>
+      <c r="AD158">
+        <v>780000</v>
+      </c>
+      <c r="AE158">
+        <v>2.6</v>
+      </c>
+      <c r="AF158">
+        <v>155000000000000</v>
+      </c>
+      <c r="AG158">
+        <v>2325</v>
       </c>
     </row>
     <row r="159" spans="10:33" x14ac:dyDescent="0.3">
@@ -12149,7 +12827,7 @@
         <v>154</v>
       </c>
       <c r="K159" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>31000</v>
       </c>
       <c r="N159">
@@ -12172,19 +12850,19 @@
         <v>2325</v>
       </c>
       <c r="T159" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6</v>
       </c>
       <c r="U159" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000</v>
       </c>
       <c r="V159" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000</v>
       </c>
       <c r="W159" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325</v>
       </c>
       <c r="X159" t="s">
@@ -12194,12 +12872,28 @@
         <v>1350</v>
       </c>
       <c r="Z159">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1610</v>
       </c>
       <c r="AA159">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.12437810945273632</v>
+      </c>
+      <c r="AB159">
+        <f t="shared" si="24"/>
+        <v>13.5</v>
+      </c>
+      <c r="AD159">
+        <v>785000</v>
+      </c>
+      <c r="AE159">
+        <v>2.62</v>
+      </c>
+      <c r="AF159">
+        <v>156000000000000</v>
+      </c>
+      <c r="AG159">
+        <v>2340</v>
       </c>
     </row>
     <row r="160" spans="10:33" x14ac:dyDescent="0.3">
@@ -12207,7 +12901,7 @@
         <v>155</v>
       </c>
       <c r="K160" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>32000</v>
       </c>
       <c r="N160">
@@ -12230,19 +12924,19 @@
         <v>2340</v>
       </c>
       <c r="T160" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62</v>
       </c>
       <c r="U160" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000</v>
       </c>
       <c r="V160" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000</v>
       </c>
       <c r="W160" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340</v>
       </c>
       <c r="X160" t="s">
@@ -12252,20 +12946,36 @@
         <v>1350</v>
       </c>
       <c r="Z160">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1612</v>
       </c>
       <c r="AA160">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.12422360248447205</v>
       </c>
-    </row>
-    <row r="161" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB160">
+        <f t="shared" si="24"/>
+        <v>13.5</v>
+      </c>
+      <c r="AD160">
+        <v>790000</v>
+      </c>
+      <c r="AE160">
+        <v>2.64</v>
+      </c>
+      <c r="AF160">
+        <v>157000000000000</v>
+      </c>
+      <c r="AG160">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="161" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J161">
         <v>156</v>
       </c>
       <c r="K161" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>32000</v>
       </c>
       <c r="N161">
@@ -12288,19 +12998,19 @@
         <v>2355</v>
       </c>
       <c r="T161" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64</v>
       </c>
       <c r="U161" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000</v>
       </c>
       <c r="V161" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000</v>
       </c>
       <c r="W161" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355</v>
       </c>
       <c r="X161" t="s">
@@ -12310,20 +13020,36 @@
         <v>1350</v>
       </c>
       <c r="Z161">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1614</v>
       </c>
       <c r="AA161">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.12406947890818859</v>
       </c>
-    </row>
-    <row r="162" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB161">
+        <f t="shared" si="24"/>
+        <v>13.5</v>
+      </c>
+      <c r="AD161">
+        <v>795000</v>
+      </c>
+      <c r="AE161">
+        <v>2.66</v>
+      </c>
+      <c r="AF161">
+        <v>158000000000000</v>
+      </c>
+      <c r="AG161">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="162" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J162">
         <v>157</v>
       </c>
       <c r="K162" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>32000</v>
       </c>
       <c r="N162">
@@ -12346,19 +13072,19 @@
         <v>2370</v>
       </c>
       <c r="T162" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66</v>
       </c>
       <c r="U162" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000</v>
       </c>
       <c r="V162" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000</v>
       </c>
       <c r="W162" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370</v>
       </c>
       <c r="X162" t="s">
@@ -12368,20 +13094,36 @@
         <v>1350</v>
       </c>
       <c r="Z162">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1616</v>
       </c>
       <c r="AA162">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.12391573729863693</v>
       </c>
-    </row>
-    <row r="163" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB162">
+        <f t="shared" si="24"/>
+        <v>13.5</v>
+      </c>
+      <c r="AD162">
+        <v>800000</v>
+      </c>
+      <c r="AE162">
+        <v>2.68</v>
+      </c>
+      <c r="AF162">
+        <v>159000000000000</v>
+      </c>
+      <c r="AG162">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="163" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J163">
         <v>158</v>
       </c>
       <c r="K163" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>32000</v>
       </c>
       <c r="N163">
@@ -12404,19 +13146,19 @@
         <v>2385</v>
       </c>
       <c r="T163" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68</v>
       </c>
       <c r="U163" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000</v>
       </c>
       <c r="V163" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000</v>
       </c>
       <c r="W163" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385</v>
       </c>
       <c r="X163" t="s">
@@ -12426,20 +13168,36 @@
         <v>1350</v>
       </c>
       <c r="Z163">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1618</v>
       </c>
       <c r="AA163">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.12376237623762376</v>
       </c>
-    </row>
-    <row r="164" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB163">
+        <f t="shared" si="24"/>
+        <v>13.5</v>
+      </c>
+      <c r="AD163">
+        <v>805000</v>
+      </c>
+      <c r="AE163">
+        <v>2.7</v>
+      </c>
+      <c r="AF163">
+        <v>160000000000000</v>
+      </c>
+      <c r="AG163">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="164" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J164">
         <v>159</v>
       </c>
       <c r="K164" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>32000</v>
       </c>
       <c r="N164">
@@ -12462,19 +13220,19 @@
         <v>2400</v>
       </c>
       <c r="T164" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7</v>
       </c>
       <c r="U164" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000</v>
       </c>
       <c r="V164" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000</v>
       </c>
       <c r="W164" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400</v>
       </c>
       <c r="X164" t="s">
@@ -12484,20 +13242,36 @@
         <v>1350</v>
       </c>
       <c r="Z164">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1620</v>
       </c>
       <c r="AA164">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.12360939431396786</v>
       </c>
-    </row>
-    <row r="165" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB164">
+        <f t="shared" si="24"/>
+        <v>13.5</v>
+      </c>
+      <c r="AD164">
+        <v>810000</v>
+      </c>
+      <c r="AE164">
+        <v>2.72</v>
+      </c>
+      <c r="AF164">
+        <v>161000000000000</v>
+      </c>
+      <c r="AG164">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="165" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J165">
         <v>160</v>
       </c>
       <c r="K165" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>33000</v>
       </c>
       <c r="L165" s="1">
@@ -12528,19 +13302,19 @@
         <v>2415</v>
       </c>
       <c r="T165" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72</v>
       </c>
       <c r="U165" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000</v>
       </c>
       <c r="V165" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000</v>
       </c>
       <c r="W165" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415</v>
       </c>
       <c r="X165" t="s">
@@ -12550,20 +13324,36 @@
         <v>1600</v>
       </c>
       <c r="Z165">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1872</v>
       </c>
       <c r="AA165" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15.555555555555555</v>
       </c>
-    </row>
-    <row r="166" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB165">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="AD165">
+        <v>815000</v>
+      </c>
+      <c r="AE165">
+        <v>2.74</v>
+      </c>
+      <c r="AF165">
+        <v>162000000000000</v>
+      </c>
+      <c r="AG165">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="166" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J166">
         <v>161</v>
       </c>
       <c r="K166" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>33000</v>
       </c>
       <c r="N166">
@@ -12586,19 +13376,19 @@
         <v>2430</v>
       </c>
       <c r="T166" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74</v>
       </c>
       <c r="U166" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000</v>
       </c>
       <c r="V166" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000</v>
       </c>
       <c r="W166" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430</v>
       </c>
       <c r="X166" t="s">
@@ -12608,20 +13398,36 @@
         <v>1600</v>
       </c>
       <c r="Z166">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1874</v>
       </c>
       <c r="AA166">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.10683760683760683</v>
       </c>
-    </row>
-    <row r="167" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB166">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="AD166">
+        <v>820000</v>
+      </c>
+      <c r="AE166">
+        <v>2.76</v>
+      </c>
+      <c r="AF166">
+        <v>163000000000000</v>
+      </c>
+      <c r="AG166">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="167" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J167">
         <v>162</v>
       </c>
       <c r="K167" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>33000</v>
       </c>
       <c r="N167">
@@ -12644,19 +13450,19 @@
         <v>2445</v>
       </c>
       <c r="T167" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76</v>
       </c>
       <c r="U167" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000</v>
       </c>
       <c r="V167" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000</v>
       </c>
       <c r="W167" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445</v>
       </c>
       <c r="X167" t="s">
@@ -12666,20 +13472,36 @@
         <v>1600</v>
       </c>
       <c r="Z167">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1876</v>
       </c>
       <c r="AA167">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.10672358591248667</v>
       </c>
-    </row>
-    <row r="168" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB167">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="AD167">
+        <v>825000</v>
+      </c>
+      <c r="AE167">
+        <v>2.78</v>
+      </c>
+      <c r="AF167">
+        <v>164000000000000</v>
+      </c>
+      <c r="AG167">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="168" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J168">
         <v>163</v>
       </c>
       <c r="K168" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>33000</v>
       </c>
       <c r="N168">
@@ -12702,19 +13524,19 @@
         <v>2460</v>
       </c>
       <c r="T168" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78</v>
       </c>
       <c r="U168" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000</v>
       </c>
       <c r="V168" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000</v>
       </c>
       <c r="W168" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460</v>
       </c>
       <c r="X168" t="s">
@@ -12724,20 +13546,36 @@
         <v>1600</v>
       </c>
       <c r="Z168">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1878</v>
       </c>
       <c r="AA168">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.10660980810234541</v>
       </c>
-    </row>
-    <row r="169" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB168">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="AD168">
+        <v>830000</v>
+      </c>
+      <c r="AE168">
+        <v>2.8</v>
+      </c>
+      <c r="AF168">
+        <v>165000000000000</v>
+      </c>
+      <c r="AG168">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="169" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J169">
         <v>164</v>
       </c>
       <c r="K169" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>33000</v>
       </c>
       <c r="N169">
@@ -12760,19 +13598,19 @@
         <v>2475</v>
       </c>
       <c r="T169" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8</v>
       </c>
       <c r="U169" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000</v>
       </c>
       <c r="V169" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000</v>
       </c>
       <c r="W169" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475</v>
       </c>
       <c r="X169" t="s">
@@ -12782,20 +13620,36 @@
         <v>1600</v>
       </c>
       <c r="Z169">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1880</v>
       </c>
       <c r="AA169">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.10649627263045794</v>
       </c>
-    </row>
-    <row r="170" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB169">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="AD169">
+        <v>835000</v>
+      </c>
+      <c r="AE169">
+        <v>2.82</v>
+      </c>
+      <c r="AF169">
+        <v>166000000000000</v>
+      </c>
+      <c r="AG169">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="170" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J170">
         <v>165</v>
       </c>
       <c r="K170" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>34000</v>
       </c>
       <c r="N170">
@@ -12818,19 +13672,19 @@
         <v>2490</v>
       </c>
       <c r="T170" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82</v>
       </c>
       <c r="U170" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000</v>
       </c>
       <c r="V170" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000</v>
       </c>
       <c r="W170" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490</v>
       </c>
       <c r="X170" t="s">
@@ -12840,20 +13694,36 @@
         <v>1600</v>
       </c>
       <c r="Z170">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1882</v>
       </c>
       <c r="AA170">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.10638297872340426</v>
       </c>
-    </row>
-    <row r="171" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB170">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="AD170">
+        <v>840000</v>
+      </c>
+      <c r="AE170">
+        <v>2.84</v>
+      </c>
+      <c r="AF170">
+        <v>167000000000000</v>
+      </c>
+      <c r="AG170">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="171" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J171">
         <v>166</v>
       </c>
       <c r="K171" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>34000</v>
       </c>
       <c r="N171">
@@ -12876,19 +13746,19 @@
         <v>2505</v>
       </c>
       <c r="T171" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84</v>
       </c>
       <c r="U171" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000</v>
       </c>
       <c r="V171" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000</v>
       </c>
       <c r="W171" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505</v>
       </c>
       <c r="X171" t="s">
@@ -12898,20 +13768,36 @@
         <v>1600</v>
       </c>
       <c r="Z171">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1884</v>
       </c>
       <c r="AA171">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.10626992561105207</v>
       </c>
-    </row>
-    <row r="172" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB171">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="AD171">
+        <v>845000</v>
+      </c>
+      <c r="AE171">
+        <v>2.86</v>
+      </c>
+      <c r="AF171">
+        <v>168000000000000</v>
+      </c>
+      <c r="AG171">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="172" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J172">
         <v>167</v>
       </c>
       <c r="K172" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>34000</v>
       </c>
       <c r="N172">
@@ -12934,19 +13820,19 @@
         <v>2520</v>
       </c>
       <c r="T172" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86</v>
       </c>
       <c r="U172" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000</v>
       </c>
       <c r="V172" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000</v>
       </c>
       <c r="W172" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520</v>
       </c>
       <c r="X172" t="s">
@@ -12956,20 +13842,36 @@
         <v>1600</v>
       </c>
       <c r="Z172">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1886</v>
       </c>
       <c r="AA172">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.10615711252653928</v>
       </c>
-    </row>
-    <row r="173" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB172">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="AD172">
+        <v>850000</v>
+      </c>
+      <c r="AE172">
+        <v>2.88</v>
+      </c>
+      <c r="AF172">
+        <v>169000000000000</v>
+      </c>
+      <c r="AG172">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="173" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J173">
         <v>168</v>
       </c>
       <c r="K173" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>34000</v>
       </c>
       <c r="N173">
@@ -12992,19 +13894,19 @@
         <v>2535</v>
       </c>
       <c r="T173" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88</v>
       </c>
       <c r="U173" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000</v>
       </c>
       <c r="V173" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000</v>
       </c>
       <c r="W173" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535</v>
       </c>
       <c r="X173" t="s">
@@ -13014,20 +13916,36 @@
         <v>1600</v>
       </c>
       <c r="Z173">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1888</v>
       </c>
       <c r="AA173">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.10604453870625663</v>
       </c>
-    </row>
-    <row r="174" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB173">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="AD173">
+        <v>855000</v>
+      </c>
+      <c r="AE173">
+        <v>2.9</v>
+      </c>
+      <c r="AF173">
+        <v>170000000000000</v>
+      </c>
+      <c r="AG173">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="174" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J174">
         <v>169</v>
       </c>
       <c r="K174" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>34000</v>
       </c>
       <c r="N174">
@@ -13050,19 +13968,19 @@
         <v>2550</v>
       </c>
       <c r="T174" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9</v>
       </c>
       <c r="U174" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000</v>
       </c>
       <c r="V174" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000</v>
       </c>
       <c r="W174" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550</v>
       </c>
       <c r="X174" t="s">
@@ -13072,20 +13990,36 @@
         <v>1600</v>
       </c>
       <c r="Z174">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1890</v>
       </c>
       <c r="AA174">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.1059322033898305</v>
       </c>
-    </row>
-    <row r="175" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB174">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="AD174">
+        <v>860000</v>
+      </c>
+      <c r="AE174">
+        <v>2.92</v>
+      </c>
+      <c r="AF174">
+        <v>171000000000000</v>
+      </c>
+      <c r="AG174">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="175" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J175">
         <v>170</v>
       </c>
       <c r="K175" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>35000</v>
       </c>
       <c r="L175" s="1">
@@ -13116,19 +14050,19 @@
         <v>2565</v>
       </c>
       <c r="T175" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92</v>
       </c>
       <c r="U175" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000</v>
       </c>
       <c r="V175" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000</v>
       </c>
       <c r="W175" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565</v>
       </c>
       <c r="X175" t="s">
@@ -13139,20 +14073,36 @@
         <v>1850</v>
       </c>
       <c r="Z175">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2142</v>
       </c>
       <c r="AA175" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13.333333333333334</v>
       </c>
-    </row>
-    <row r="176" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB175">
+        <f t="shared" si="24"/>
+        <v>18.5</v>
+      </c>
+      <c r="AD175">
+        <v>865000</v>
+      </c>
+      <c r="AE175">
+        <v>2.94</v>
+      </c>
+      <c r="AF175">
+        <v>172000000000000</v>
+      </c>
+      <c r="AG175">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="176" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J176">
         <v>171</v>
       </c>
       <c r="K176" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>35000</v>
       </c>
       <c r="N176">
@@ -13175,43 +14125,59 @@
         <v>2580</v>
       </c>
       <c r="T176" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94</v>
       </c>
       <c r="U176" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000</v>
       </c>
       <c r="V176" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000</v>
       </c>
       <c r="W176" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580</v>
       </c>
       <c r="X176" t="s">
         <v>23</v>
       </c>
       <c r="Y176">
-        <f t="shared" ref="Y176:Y204" si="24">Y166+250</f>
+        <f t="shared" ref="Y176:Y204" si="26">Y166+250</f>
         <v>1850</v>
       </c>
       <c r="Z176">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2144</v>
       </c>
       <c r="AA176">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.3370681605975725E-2</v>
       </c>
-    </row>
-    <row r="177" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB176">
+        <f t="shared" si="24"/>
+        <v>18.5</v>
+      </c>
+      <c r="AD176">
+        <v>870000</v>
+      </c>
+      <c r="AE176">
+        <v>2.96</v>
+      </c>
+      <c r="AF176">
+        <v>173000000000000</v>
+      </c>
+      <c r="AG176">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="177" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J177">
         <v>172</v>
       </c>
       <c r="K177" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>35000</v>
       </c>
       <c r="N177">
@@ -13234,43 +14200,59 @@
         <v>2595</v>
       </c>
       <c r="T177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96</v>
       </c>
       <c r="U177" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000</v>
       </c>
       <c r="V177" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000</v>
       </c>
       <c r="W177" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595</v>
       </c>
       <c r="X177" t="s">
         <v>23</v>
       </c>
       <c r="Y177">
+        <f t="shared" si="26"/>
+        <v>1850</v>
+      </c>
+      <c r="Z177">
+        <f t="shared" si="22"/>
+        <v>2146</v>
+      </c>
+      <c r="AA177">
+        <f t="shared" si="23"/>
+        <v>9.3283582089552244E-2</v>
+      </c>
+      <c r="AB177">
         <f t="shared" si="24"/>
-        <v>1850</v>
-      </c>
-      <c r="Z177">
-        <f t="shared" si="21"/>
-        <v>2146</v>
-      </c>
-      <c r="AA177">
-        <f t="shared" si="22"/>
-        <v>9.3283582089552244E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="10:27" x14ac:dyDescent="0.3">
+        <v>18.5</v>
+      </c>
+      <c r="AD177">
+        <v>875000</v>
+      </c>
+      <c r="AE177">
+        <v>2.98</v>
+      </c>
+      <c r="AF177">
+        <v>174000000000000</v>
+      </c>
+      <c r="AG177">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="178" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J178">
         <v>173</v>
       </c>
       <c r="K178" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>35000</v>
       </c>
       <c r="N178">
@@ -13293,43 +14275,59 @@
         <v>2610</v>
       </c>
       <c r="T178" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98</v>
       </c>
       <c r="U178" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000</v>
       </c>
       <c r="V178" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000</v>
       </c>
       <c r="W178" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610</v>
       </c>
       <c r="X178" t="s">
         <v>23</v>
       </c>
       <c r="Y178">
+        <f t="shared" si="26"/>
+        <v>1850</v>
+      </c>
+      <c r="Z178">
+        <f t="shared" si="22"/>
+        <v>2148</v>
+      </c>
+      <c r="AA178">
+        <f t="shared" si="23"/>
+        <v>9.3196644920782848E-2</v>
+      </c>
+      <c r="AB178">
         <f t="shared" si="24"/>
-        <v>1850</v>
-      </c>
-      <c r="Z178">
-        <f t="shared" si="21"/>
-        <v>2148</v>
-      </c>
-      <c r="AA178">
-        <f t="shared" si="22"/>
-        <v>9.3196644920782848E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="10:27" x14ac:dyDescent="0.3">
+        <v>18.5</v>
+      </c>
+      <c r="AD178">
+        <v>880000</v>
+      </c>
+      <c r="AE178">
+        <v>3</v>
+      </c>
+      <c r="AF178">
+        <v>175000000000000</v>
+      </c>
+      <c r="AG178">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="179" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J179">
         <v>174</v>
       </c>
       <c r="K179" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>35000</v>
       </c>
       <c r="N179">
@@ -13352,43 +14350,59 @@
         <v>2625</v>
       </c>
       <c r="T179" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3</v>
       </c>
       <c r="U179" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000</v>
       </c>
       <c r="V179" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000</v>
       </c>
       <c r="W179" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625</v>
       </c>
       <c r="X179" t="s">
         <v>23</v>
       </c>
       <c r="Y179">
+        <f t="shared" si="26"/>
+        <v>1850</v>
+      </c>
+      <c r="Z179">
+        <f t="shared" si="22"/>
+        <v>2150</v>
+      </c>
+      <c r="AA179">
+        <f t="shared" si="23"/>
+        <v>9.3109869646182494E-2</v>
+      </c>
+      <c r="AB179">
         <f t="shared" si="24"/>
-        <v>1850</v>
-      </c>
-      <c r="Z179">
-        <f t="shared" si="21"/>
-        <v>2150</v>
-      </c>
-      <c r="AA179">
-        <f t="shared" si="22"/>
-        <v>9.3109869646182494E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="10:27" x14ac:dyDescent="0.3">
+        <v>18.5</v>
+      </c>
+      <c r="AD179">
+        <v>885000</v>
+      </c>
+      <c r="AE179">
+        <v>3.02</v>
+      </c>
+      <c r="AF179">
+        <v>176000000000000</v>
+      </c>
+      <c r="AG179">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="180" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J180">
         <v>175</v>
       </c>
       <c r="K180" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>36000</v>
       </c>
       <c r="N180">
@@ -13411,43 +14425,59 @@
         <v>2640</v>
       </c>
       <c r="T180" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02</v>
       </c>
       <c r="U180" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000</v>
       </c>
       <c r="V180" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000</v>
       </c>
       <c r="W180" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640</v>
       </c>
       <c r="X180" t="s">
         <v>23</v>
       </c>
       <c r="Y180">
+        <f t="shared" si="26"/>
+        <v>1850</v>
+      </c>
+      <c r="Z180">
+        <f t="shared" si="22"/>
+        <v>2152</v>
+      </c>
+      <c r="AA180">
+        <f t="shared" si="23"/>
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="AB180">
         <f t="shared" si="24"/>
-        <v>1850</v>
-      </c>
-      <c r="Z180">
-        <f t="shared" si="21"/>
-        <v>2152</v>
-      </c>
-      <c r="AA180">
-        <f t="shared" si="22"/>
-        <v>9.3023255813953487E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="10:27" x14ac:dyDescent="0.3">
+        <v>18.5</v>
+      </c>
+      <c r="AD180">
+        <v>890000</v>
+      </c>
+      <c r="AE180">
+        <v>3.04</v>
+      </c>
+      <c r="AF180">
+        <v>177000000000000</v>
+      </c>
+      <c r="AG180">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="181" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J181">
         <v>176</v>
       </c>
       <c r="K181" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>36000</v>
       </c>
       <c r="N181">
@@ -13470,43 +14500,59 @@
         <v>2655</v>
       </c>
       <c r="T181" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04</v>
       </c>
       <c r="U181" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000</v>
       </c>
       <c r="V181" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000</v>
       </c>
       <c r="W181" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655</v>
       </c>
       <c r="X181" t="s">
         <v>23</v>
       </c>
       <c r="Y181">
+        <f t="shared" si="26"/>
+        <v>1850</v>
+      </c>
+      <c r="Z181">
+        <f t="shared" si="22"/>
+        <v>2154</v>
+      </c>
+      <c r="AA181">
+        <f t="shared" si="23"/>
+        <v>9.2936802973977689E-2</v>
+      </c>
+      <c r="AB181">
         <f t="shared" si="24"/>
-        <v>1850</v>
-      </c>
-      <c r="Z181">
-        <f t="shared" si="21"/>
-        <v>2154</v>
-      </c>
-      <c r="AA181">
-        <f t="shared" si="22"/>
-        <v>9.2936802973977689E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="10:27" x14ac:dyDescent="0.3">
+        <v>18.5</v>
+      </c>
+      <c r="AD181">
+        <v>895000</v>
+      </c>
+      <c r="AE181">
+        <v>3.06</v>
+      </c>
+      <c r="AF181">
+        <v>178000000000000</v>
+      </c>
+      <c r="AG181">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="182" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J182">
         <v>177</v>
       </c>
       <c r="K182" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>36000</v>
       </c>
       <c r="N182">
@@ -13529,43 +14575,59 @@
         <v>2670</v>
       </c>
       <c r="T182" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06</v>
       </c>
       <c r="U182" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000</v>
       </c>
       <c r="V182" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000</v>
       </c>
       <c r="W182" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670</v>
       </c>
       <c r="X182" t="s">
         <v>23</v>
       </c>
       <c r="Y182">
+        <f t="shared" si="26"/>
+        <v>1850</v>
+      </c>
+      <c r="Z182">
+        <f t="shared" si="22"/>
+        <v>2156</v>
+      </c>
+      <c r="AA182">
+        <f t="shared" si="23"/>
+        <v>9.2850510677808723E-2</v>
+      </c>
+      <c r="AB182">
         <f t="shared" si="24"/>
-        <v>1850</v>
-      </c>
-      <c r="Z182">
-        <f t="shared" si="21"/>
-        <v>2156</v>
-      </c>
-      <c r="AA182">
-        <f t="shared" si="22"/>
-        <v>9.2850510677808723E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="10:27" x14ac:dyDescent="0.3">
+        <v>18.5</v>
+      </c>
+      <c r="AD182">
+        <v>900000</v>
+      </c>
+      <c r="AE182">
+        <v>3.08</v>
+      </c>
+      <c r="AF182">
+        <v>179000000000000</v>
+      </c>
+      <c r="AG182">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="183" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J183">
         <v>178</v>
       </c>
       <c r="K183" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>36000</v>
       </c>
       <c r="N183">
@@ -13588,43 +14650,59 @@
         <v>2685</v>
       </c>
       <c r="T183" t="str">
-        <f t="shared" ref="T183:T204" si="25">T182&amp;","&amp;P183</f>
+        <f t="shared" ref="T183:T204" si="27">T182&amp;","&amp;P183</f>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08</v>
       </c>
       <c r="U183" t="str">
-        <f t="shared" ref="U183:U204" si="26">U182&amp;","&amp;Q183</f>
+        <f t="shared" ref="U183:U204" si="28">U182&amp;","&amp;Q183</f>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000</v>
       </c>
       <c r="V183" t="str">
-        <f t="shared" ref="V183:V204" si="27">V182&amp;","&amp;R183</f>
+        <f t="shared" ref="V183:V203" si="29">V182&amp;","&amp;R183</f>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000</v>
       </c>
       <c r="W183" t="str">
-        <f t="shared" ref="W183:W203" si="28">W182&amp;","&amp;S183</f>
+        <f t="shared" ref="W183:W203" si="30">W182&amp;","&amp;S183</f>
         <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685</v>
       </c>
       <c r="X183" t="s">
         <v>23</v>
       </c>
       <c r="Y183">
+        <f t="shared" si="26"/>
+        <v>1850</v>
+      </c>
+      <c r="Z183">
+        <f t="shared" ref="Z183:Z204" si="31">Y183+P183*100</f>
+        <v>2158</v>
+      </c>
+      <c r="AA183">
+        <f t="shared" ref="AA183:AA204" si="32">(Z183-Z182)*100/Z182</f>
+        <v>9.2764378478664186E-2</v>
+      </c>
+      <c r="AB183">
         <f t="shared" si="24"/>
-        <v>1850</v>
-      </c>
-      <c r="Z183">
-        <f t="shared" ref="Z183:Z204" si="29">Y183+P183*100</f>
-        <v>2158</v>
-      </c>
-      <c r="AA183">
-        <f t="shared" ref="AA183:AA204" si="30">(Z183-Z182)*100/Z182</f>
-        <v>9.2764378478664186E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="10:27" x14ac:dyDescent="0.3">
+        <v>18.5</v>
+      </c>
+      <c r="AD183">
+        <v>905000</v>
+      </c>
+      <c r="AE183">
+        <v>3.1</v>
+      </c>
+      <c r="AF183">
+        <v>180000000000000</v>
+      </c>
+      <c r="AG183">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="184" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J184">
         <v>179</v>
       </c>
       <c r="K184" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>36000</v>
       </c>
       <c r="N184">
@@ -13647,43 +14725,59 @@
         <v>2700</v>
       </c>
       <c r="T184" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1</v>
       </c>
       <c r="U184" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000</v>
+      </c>
+      <c r="V184" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000</v>
+      </c>
+      <c r="W184" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700</v>
+      </c>
+      <c r="X184" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y184">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000</v>
-      </c>
-      <c r="V184" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000</v>
-      </c>
-      <c r="W184" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700</v>
-      </c>
-      <c r="X184" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y184">
+        <v>1850</v>
+      </c>
+      <c r="Z184">
+        <f t="shared" si="31"/>
+        <v>2160</v>
+      </c>
+      <c r="AA184">
+        <f t="shared" si="32"/>
+        <v>9.2678405931417976E-2</v>
+      </c>
+      <c r="AB184">
         <f t="shared" si="24"/>
-        <v>1850</v>
-      </c>
-      <c r="Z184">
-        <f t="shared" si="29"/>
-        <v>2160</v>
-      </c>
-      <c r="AA184">
-        <f t="shared" si="30"/>
-        <v>9.2678405931417976E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="10:27" x14ac:dyDescent="0.3">
+        <v>18.5</v>
+      </c>
+      <c r="AD184">
+        <v>910000</v>
+      </c>
+      <c r="AE184">
+        <v>3.12</v>
+      </c>
+      <c r="AF184">
+        <v>181000000000000</v>
+      </c>
+      <c r="AG184">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="185" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J185">
         <v>180</v>
       </c>
       <c r="K185" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>37000</v>
       </c>
       <c r="L185" s="1">
@@ -13714,43 +14808,59 @@
         <v>2715</v>
       </c>
       <c r="T185" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12</v>
       </c>
       <c r="U185" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000</v>
+      </c>
+      <c r="V185" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000</v>
+      </c>
+      <c r="W185" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715</v>
+      </c>
+      <c r="X185" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y185">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000</v>
-      </c>
-      <c r="V185" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000</v>
-      </c>
-      <c r="W185" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715</v>
-      </c>
-      <c r="X185" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y185">
+        <v>2100</v>
+      </c>
+      <c r="Z185">
+        <f t="shared" si="31"/>
+        <v>2412</v>
+      </c>
+      <c r="AA185" s="6">
+        <f t="shared" si="32"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="AB185">
         <f t="shared" si="24"/>
-        <v>2100</v>
-      </c>
-      <c r="Z185">
-        <f t="shared" si="29"/>
-        <v>2412</v>
-      </c>
-      <c r="AA185" s="6">
-        <f t="shared" si="30"/>
-        <v>11.666666666666666</v>
-      </c>
-    </row>
-    <row r="186" spans="10:27" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AD185">
+        <v>915000</v>
+      </c>
+      <c r="AE185">
+        <v>3.14</v>
+      </c>
+      <c r="AF185">
+        <v>182000000000000</v>
+      </c>
+      <c r="AG185">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="186" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J186">
         <v>181</v>
       </c>
       <c r="K186" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>37000</v>
       </c>
       <c r="N186">
@@ -13773,38 +14883,54 @@
         <v>2730</v>
       </c>
       <c r="T186" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14</v>
       </c>
       <c r="U186" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000</v>
+      </c>
+      <c r="V186" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000</v>
+      </c>
+      <c r="W186" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730</v>
+      </c>
+      <c r="X186" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y186">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000</v>
-      </c>
-      <c r="V186" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000</v>
-      </c>
-      <c r="W186" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730</v>
-      </c>
-      <c r="X186" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y186">
+        <v>2100</v>
+      </c>
+      <c r="Z186">
+        <f t="shared" si="31"/>
+        <v>2414</v>
+      </c>
+      <c r="AA186">
+        <f t="shared" si="32"/>
+        <v>8.2918739635157543E-2</v>
+      </c>
+      <c r="AB186">
         <f t="shared" si="24"/>
-        <v>2100</v>
-      </c>
-      <c r="Z186">
-        <f t="shared" si="29"/>
-        <v>2414</v>
-      </c>
-      <c r="AA186">
-        <f t="shared" si="30"/>
-        <v>8.2918739635157543E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="10:27" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AD186">
+        <v>920000</v>
+      </c>
+      <c r="AE186">
+        <v>3.16</v>
+      </c>
+      <c r="AF186">
+        <v>183000000000000</v>
+      </c>
+      <c r="AG186">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="187" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J187">
         <v>182</v>
       </c>
@@ -13832,38 +14958,54 @@
         <v>2745</v>
       </c>
       <c r="T187" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16</v>
       </c>
       <c r="U187" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000</v>
+      </c>
+      <c r="V187" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000</v>
+      </c>
+      <c r="W187" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745</v>
+      </c>
+      <c r="X187" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y187">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000</v>
-      </c>
-      <c r="V187" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000</v>
-      </c>
-      <c r="W187" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745</v>
-      </c>
-      <c r="X187" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y187">
+        <v>2100</v>
+      </c>
+      <c r="Z187">
+        <f t="shared" si="31"/>
+        <v>2416</v>
+      </c>
+      <c r="AA187">
+        <f t="shared" si="32"/>
+        <v>8.2850041425020712E-2</v>
+      </c>
+      <c r="AB187">
         <f t="shared" si="24"/>
-        <v>2100</v>
-      </c>
-      <c r="Z187">
-        <f t="shared" si="29"/>
-        <v>2416</v>
-      </c>
-      <c r="AA187">
-        <f t="shared" si="30"/>
-        <v>8.2850041425020712E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="10:27" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AD187">
+        <v>925000</v>
+      </c>
+      <c r="AE187">
+        <v>3.18</v>
+      </c>
+      <c r="AF187">
+        <v>184000000000000</v>
+      </c>
+      <c r="AG187">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="188" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J188">
         <v>183</v>
       </c>
@@ -13891,43 +15033,59 @@
         <v>2760</v>
       </c>
       <c r="T188" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18</v>
       </c>
       <c r="U188" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000</v>
+      </c>
+      <c r="V188" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000</v>
+      </c>
+      <c r="W188" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760</v>
+      </c>
+      <c r="X188" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y188">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000</v>
-      </c>
-      <c r="V188" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000</v>
-      </c>
-      <c r="W188" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760</v>
-      </c>
-      <c r="X188" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y188">
+        <v>2100</v>
+      </c>
+      <c r="Z188">
+        <f t="shared" si="31"/>
+        <v>2418</v>
+      </c>
+      <c r="AA188">
+        <f t="shared" si="32"/>
+        <v>8.2781456953642391E-2</v>
+      </c>
+      <c r="AB188">
         <f t="shared" si="24"/>
-        <v>2100</v>
-      </c>
-      <c r="Z188">
-        <f t="shared" si="29"/>
-        <v>2418</v>
-      </c>
-      <c r="AA188">
-        <f t="shared" si="30"/>
-        <v>8.2781456953642391E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="10:27" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AD188">
+        <v>930000</v>
+      </c>
+      <c r="AE188">
+        <v>3.2</v>
+      </c>
+      <c r="AF188">
+        <v>185000000000000</v>
+      </c>
+      <c r="AG188">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="189" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J189">
         <v>184</v>
       </c>
       <c r="K189" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>37000</v>
       </c>
       <c r="N189">
@@ -13950,43 +15108,59 @@
         <v>2775</v>
       </c>
       <c r="T189" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2</v>
       </c>
       <c r="U189" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000</v>
+      </c>
+      <c r="V189" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000</v>
+      </c>
+      <c r="W189" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775</v>
+      </c>
+      <c r="X189" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y189">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000</v>
-      </c>
-      <c r="V189" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000</v>
-      </c>
-      <c r="W189" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775</v>
-      </c>
-      <c r="X189" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y189">
+        <v>2100</v>
+      </c>
+      <c r="Z189">
+        <f t="shared" si="31"/>
+        <v>2420</v>
+      </c>
+      <c r="AA189">
+        <f t="shared" si="32"/>
+        <v>8.2712985938792394E-2</v>
+      </c>
+      <c r="AB189">
         <f t="shared" si="24"/>
-        <v>2100</v>
-      </c>
-      <c r="Z189">
-        <f t="shared" si="29"/>
-        <v>2420</v>
-      </c>
-      <c r="AA189">
-        <f t="shared" si="30"/>
-        <v>8.2712985938792394E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="10:27" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AD189">
+        <v>935000</v>
+      </c>
+      <c r="AE189">
+        <v>3.22</v>
+      </c>
+      <c r="AF189">
+        <v>186000000000000</v>
+      </c>
+      <c r="AG189">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="190" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J190">
         <v>185</v>
       </c>
       <c r="K190" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>38000</v>
       </c>
       <c r="N190">
@@ -14009,43 +15183,59 @@
         <v>2790</v>
       </c>
       <c r="T190" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22</v>
       </c>
       <c r="U190" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000</v>
+      </c>
+      <c r="V190" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000</v>
+      </c>
+      <c r="W190" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790</v>
+      </c>
+      <c r="X190" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y190">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000</v>
-      </c>
-      <c r="V190" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000</v>
-      </c>
-      <c r="W190" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790</v>
-      </c>
-      <c r="X190" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y190">
+        <v>2100</v>
+      </c>
+      <c r="Z190">
+        <f t="shared" si="31"/>
+        <v>2422</v>
+      </c>
+      <c r="AA190">
+        <f t="shared" si="32"/>
+        <v>8.2644628099173556E-2</v>
+      </c>
+      <c r="AB190">
         <f t="shared" si="24"/>
-        <v>2100</v>
-      </c>
-      <c r="Z190">
-        <f t="shared" si="29"/>
-        <v>2422</v>
-      </c>
-      <c r="AA190">
-        <f t="shared" si="30"/>
-        <v>8.2644628099173556E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="10:27" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AD190">
+        <v>940000</v>
+      </c>
+      <c r="AE190">
+        <v>3.24</v>
+      </c>
+      <c r="AF190">
+        <v>187000000000000</v>
+      </c>
+      <c r="AG190">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="191" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J191">
         <v>186</v>
       </c>
       <c r="K191" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>38000</v>
       </c>
       <c r="N191">
@@ -14068,43 +15258,59 @@
         <v>2805</v>
       </c>
       <c r="T191" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24</v>
       </c>
       <c r="U191" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000</v>
+      </c>
+      <c r="V191" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000</v>
+      </c>
+      <c r="W191" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805</v>
+      </c>
+      <c r="X191" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y191">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000</v>
-      </c>
-      <c r="V191" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000</v>
-      </c>
-      <c r="W191" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805</v>
-      </c>
-      <c r="X191" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y191">
+        <v>2100</v>
+      </c>
+      <c r="Z191">
+        <f t="shared" si="31"/>
+        <v>2424</v>
+      </c>
+      <c r="AA191">
+        <f t="shared" si="32"/>
+        <v>8.2576383154417843E-2</v>
+      </c>
+      <c r="AB191">
         <f t="shared" si="24"/>
-        <v>2100</v>
-      </c>
-      <c r="Z191">
-        <f t="shared" si="29"/>
-        <v>2424</v>
-      </c>
-      <c r="AA191">
-        <f t="shared" si="30"/>
-        <v>8.2576383154417843E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="10:27" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AD191">
+        <v>945000</v>
+      </c>
+      <c r="AE191">
+        <v>3.26</v>
+      </c>
+      <c r="AF191">
+        <v>188000000000000</v>
+      </c>
+      <c r="AG191">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="192" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J192">
         <v>187</v>
       </c>
       <c r="K192" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>38000</v>
       </c>
       <c r="N192">
@@ -14127,43 +15333,59 @@
         <v>2820</v>
       </c>
       <c r="T192" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26</v>
       </c>
       <c r="U192" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000</v>
+      </c>
+      <c r="V192" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000</v>
+      </c>
+      <c r="W192" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820</v>
+      </c>
+      <c r="X192" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y192">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000</v>
-      </c>
-      <c r="V192" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000</v>
-      </c>
-      <c r="W192" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820</v>
-      </c>
-      <c r="X192" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y192">
+        <v>2100</v>
+      </c>
+      <c r="Z192">
+        <f t="shared" si="31"/>
+        <v>2426</v>
+      </c>
+      <c r="AA192">
+        <f t="shared" si="32"/>
+        <v>8.2508250825082508E-2</v>
+      </c>
+      <c r="AB192">
         <f t="shared" si="24"/>
-        <v>2100</v>
-      </c>
-      <c r="Z192">
-        <f t="shared" si="29"/>
-        <v>2426</v>
-      </c>
-      <c r="AA192">
-        <f t="shared" si="30"/>
-        <v>8.2508250825082508E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="10:27" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AD192">
+        <v>950000</v>
+      </c>
+      <c r="AE192">
+        <v>3.28</v>
+      </c>
+      <c r="AF192">
+        <v>189000000000000</v>
+      </c>
+      <c r="AG192">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="193" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J193">
         <v>188</v>
       </c>
       <c r="K193" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>38000</v>
       </c>
       <c r="N193">
@@ -14186,38 +15408,54 @@
         <v>2835</v>
       </c>
       <c r="T193" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28</v>
       </c>
       <c r="U193" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000</v>
+      </c>
+      <c r="V193" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000</v>
+      </c>
+      <c r="W193" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835</v>
+      </c>
+      <c r="X193" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y193">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000</v>
-      </c>
-      <c r="V193" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000</v>
-      </c>
-      <c r="W193" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835</v>
-      </c>
-      <c r="X193" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y193">
+        <v>2100</v>
+      </c>
+      <c r="Z193">
+        <f t="shared" si="31"/>
+        <v>2428</v>
+      </c>
+      <c r="AA193">
+        <f t="shared" si="32"/>
+        <v>8.244023083264633E-2</v>
+      </c>
+      <c r="AB193">
         <f t="shared" si="24"/>
-        <v>2100</v>
-      </c>
-      <c r="Z193">
-        <f t="shared" si="29"/>
-        <v>2428</v>
-      </c>
-      <c r="AA193">
-        <f t="shared" si="30"/>
-        <v>8.244023083264633E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="10:27" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AD193">
+        <v>955000</v>
+      </c>
+      <c r="AE193">
+        <v>3.3</v>
+      </c>
+      <c r="AF193">
+        <v>190000000000000</v>
+      </c>
+      <c r="AG193">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="194" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J194">
         <v>189</v>
       </c>
@@ -14245,38 +15483,54 @@
         <v>2850</v>
       </c>
       <c r="T194" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3</v>
       </c>
       <c r="U194" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000</v>
+      </c>
+      <c r="V194" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000</v>
+      </c>
+      <c r="W194" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850</v>
+      </c>
+      <c r="X194" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y194">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000</v>
-      </c>
-      <c r="V194" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000</v>
-      </c>
-      <c r="W194" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850</v>
-      </c>
-      <c r="X194" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y194">
+        <v>2100</v>
+      </c>
+      <c r="Z194">
+        <f t="shared" si="31"/>
+        <v>2430</v>
+      </c>
+      <c r="AA194">
+        <f t="shared" si="32"/>
+        <v>8.2372322899505759E-2</v>
+      </c>
+      <c r="AB194">
         <f t="shared" si="24"/>
-        <v>2100</v>
-      </c>
-      <c r="Z194">
-        <f t="shared" si="29"/>
-        <v>2430</v>
-      </c>
-      <c r="AA194">
-        <f t="shared" si="30"/>
-        <v>8.2372322899505759E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="10:27" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AD194">
+        <v>960000</v>
+      </c>
+      <c r="AE194">
+        <v>3.32</v>
+      </c>
+      <c r="AF194">
+        <v>191000000000000</v>
+      </c>
+      <c r="AG194">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="195" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J195">
         <v>190</v>
       </c>
@@ -14312,43 +15566,59 @@
         <v>2865</v>
       </c>
       <c r="T195" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32</v>
       </c>
       <c r="U195" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000</v>
+      </c>
+      <c r="V195" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000</v>
+      </c>
+      <c r="W195" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865</v>
+      </c>
+      <c r="X195" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y195">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000</v>
-      </c>
-      <c r="V195" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000</v>
-      </c>
-      <c r="W195" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865</v>
-      </c>
-      <c r="X195" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y195">
+        <v>2350</v>
+      </c>
+      <c r="Z195">
+        <f t="shared" si="31"/>
+        <v>2682</v>
+      </c>
+      <c r="AA195" s="6">
+        <f t="shared" si="32"/>
+        <v>10.37037037037037</v>
+      </c>
+      <c r="AB195">
         <f t="shared" si="24"/>
-        <v>2350</v>
-      </c>
-      <c r="Z195">
-        <f t="shared" si="29"/>
-        <v>2682</v>
-      </c>
-      <c r="AA195" s="6">
-        <f t="shared" si="30"/>
-        <v>10.37037037037037</v>
-      </c>
-    </row>
-    <row r="196" spans="10:27" x14ac:dyDescent="0.3">
+        <v>23.5</v>
+      </c>
+      <c r="AD195">
+        <v>965000</v>
+      </c>
+      <c r="AE195">
+        <v>3.34</v>
+      </c>
+      <c r="AF195">
+        <v>192000000000000</v>
+      </c>
+      <c r="AG195">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="196" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J196">
         <v>191</v>
       </c>
       <c r="K196" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>39000</v>
       </c>
       <c r="N196">
@@ -14371,43 +15641,59 @@
         <v>2880</v>
       </c>
       <c r="T196" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34</v>
       </c>
       <c r="U196" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000</v>
+      </c>
+      <c r="V196" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000</v>
+      </c>
+      <c r="W196" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880</v>
+      </c>
+      <c r="X196" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y196">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000</v>
-      </c>
-      <c r="V196" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000</v>
-      </c>
-      <c r="W196" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880</v>
-      </c>
-      <c r="X196" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y196">
+        <v>2350</v>
+      </c>
+      <c r="Z196">
+        <f t="shared" si="31"/>
+        <v>2684</v>
+      </c>
+      <c r="AA196">
+        <f t="shared" si="32"/>
+        <v>7.4571215510812833E-2</v>
+      </c>
+      <c r="AB196">
         <f t="shared" si="24"/>
-        <v>2350</v>
-      </c>
-      <c r="Z196">
-        <f t="shared" si="29"/>
-        <v>2684</v>
-      </c>
-      <c r="AA196">
-        <f t="shared" si="30"/>
-        <v>7.4571215510812833E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="10:27" x14ac:dyDescent="0.3">
+        <v>23.5</v>
+      </c>
+      <c r="AD196">
+        <v>970000</v>
+      </c>
+      <c r="AE196">
+        <v>3.36</v>
+      </c>
+      <c r="AF196">
+        <v>193000000000000</v>
+      </c>
+      <c r="AG196">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="197" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J197">
         <v>192</v>
       </c>
       <c r="K197" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>39000</v>
       </c>
       <c r="N197">
@@ -14430,43 +15716,59 @@
         <v>2895</v>
       </c>
       <c r="T197" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36</v>
       </c>
       <c r="U197" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000</v>
+      </c>
+      <c r="V197" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000</v>
+      </c>
+      <c r="W197" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895</v>
+      </c>
+      <c r="X197" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y197">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000</v>
-      </c>
-      <c r="V197" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000</v>
-      </c>
-      <c r="W197" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895</v>
-      </c>
-      <c r="X197" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y197">
+        <v>2350</v>
+      </c>
+      <c r="Z197">
+        <f t="shared" si="31"/>
+        <v>2686</v>
+      </c>
+      <c r="AA197">
+        <f t="shared" si="32"/>
+        <v>7.4515648286140088E-2</v>
+      </c>
+      <c r="AB197">
         <f t="shared" si="24"/>
-        <v>2350</v>
-      </c>
-      <c r="Z197">
-        <f t="shared" si="29"/>
-        <v>2686</v>
-      </c>
-      <c r="AA197">
-        <f t="shared" si="30"/>
-        <v>7.4515648286140088E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="10:27" x14ac:dyDescent="0.3">
+        <v>23.5</v>
+      </c>
+      <c r="AD197">
+        <v>975000</v>
+      </c>
+      <c r="AE197">
+        <v>3.38</v>
+      </c>
+      <c r="AF197">
+        <v>194000000000000</v>
+      </c>
+      <c r="AG197">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="198" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J198">
         <v>193</v>
       </c>
       <c r="K198" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>39000</v>
       </c>
       <c r="N198">
@@ -14489,43 +15791,59 @@
         <v>2910</v>
       </c>
       <c r="T198" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38</v>
       </c>
       <c r="U198" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000</v>
+      </c>
+      <c r="V198" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000</v>
+      </c>
+      <c r="W198" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910</v>
+      </c>
+      <c r="X198" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y198">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000</v>
-      </c>
-      <c r="V198" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000</v>
-      </c>
-      <c r="W198" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910</v>
-      </c>
-      <c r="X198" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y198">
-        <f t="shared" si="24"/>
         <v>2350</v>
       </c>
       <c r="Z198">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2688</v>
       </c>
       <c r="AA198">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7.4460163812360383E-2</v>
       </c>
-    </row>
-    <row r="199" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB198">
+        <f t="shared" ref="AB198:AB204" si="33">Y198/100</f>
+        <v>23.5</v>
+      </c>
+      <c r="AD198">
+        <v>980000</v>
+      </c>
+      <c r="AE198">
+        <v>3.4</v>
+      </c>
+      <c r="AF198">
+        <v>195000000000000</v>
+      </c>
+      <c r="AG198">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="199" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J199">
         <v>194</v>
       </c>
       <c r="K199" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>39000</v>
       </c>
       <c r="N199">
@@ -14548,43 +15866,59 @@
         <v>2925</v>
       </c>
       <c r="T199" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4</v>
       </c>
       <c r="U199" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000</v>
+      </c>
+      <c r="V199" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000</v>
+      </c>
+      <c r="W199" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925</v>
+      </c>
+      <c r="X199" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y199">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000</v>
-      </c>
-      <c r="V199" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000</v>
-      </c>
-      <c r="W199" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925</v>
-      </c>
-      <c r="X199" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y199">
-        <f t="shared" si="24"/>
         <v>2350</v>
       </c>
       <c r="Z199">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2690</v>
       </c>
       <c r="AA199">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7.4404761904761904E-2</v>
       </c>
-    </row>
-    <row r="200" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB199">
+        <f t="shared" si="33"/>
+        <v>23.5</v>
+      </c>
+      <c r="AD199">
+        <v>985000</v>
+      </c>
+      <c r="AE199">
+        <v>3.42</v>
+      </c>
+      <c r="AF199">
+        <v>196000000000000</v>
+      </c>
+      <c r="AG199">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="200" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J200">
         <v>195</v>
       </c>
       <c r="K200" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>40000</v>
       </c>
       <c r="N200">
@@ -14607,43 +15941,59 @@
         <v>2940</v>
       </c>
       <c r="T200" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4,3.42</v>
       </c>
       <c r="U200" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000</v>
+      </c>
+      <c r="V200" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000</v>
+      </c>
+      <c r="W200" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925,2940</v>
+      </c>
+      <c r="X200" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y200">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000</v>
-      </c>
-      <c r="V200" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000</v>
-      </c>
-      <c r="W200" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925,2940</v>
-      </c>
-      <c r="X200" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y200">
-        <f t="shared" si="24"/>
         <v>2350</v>
       </c>
       <c r="Z200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2692</v>
       </c>
       <c r="AA200">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7.434944237918216E-2</v>
       </c>
-    </row>
-    <row r="201" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB200">
+        <f t="shared" si="33"/>
+        <v>23.5</v>
+      </c>
+      <c r="AD200">
+        <v>990000</v>
+      </c>
+      <c r="AE200">
+        <v>3.44</v>
+      </c>
+      <c r="AF200">
+        <v>197000000000000</v>
+      </c>
+      <c r="AG200">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="201" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J201">
         <v>196</v>
       </c>
       <c r="K201" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>40000</v>
       </c>
       <c r="N201">
@@ -14666,43 +16016,59 @@
         <v>2955</v>
       </c>
       <c r="T201" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4,3.42,3.44</v>
       </c>
       <c r="U201" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000,197000000000000</v>
+      </c>
+      <c r="V201" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000,990000</v>
+      </c>
+      <c r="W201" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925,2940,2955</v>
+      </c>
+      <c r="X201" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y201">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000,197000000000000</v>
-      </c>
-      <c r="V201" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000,990000</v>
-      </c>
-      <c r="W201" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925,2940,2955</v>
-      </c>
-      <c r="X201" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y201">
-        <f t="shared" si="24"/>
         <v>2350</v>
       </c>
       <c r="Z201">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2694</v>
       </c>
       <c r="AA201">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7.4294205052005943E-2</v>
       </c>
-    </row>
-    <row r="202" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB201">
+        <f t="shared" si="33"/>
+        <v>23.5</v>
+      </c>
+      <c r="AD201">
+        <v>995000</v>
+      </c>
+      <c r="AE201">
+        <v>3.46</v>
+      </c>
+      <c r="AF201">
+        <v>198000000000000</v>
+      </c>
+      <c r="AG201">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="202" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J202">
         <v>197</v>
       </c>
       <c r="K202" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>40000</v>
       </c>
       <c r="N202">
@@ -14725,43 +16091,59 @@
         <v>2970</v>
       </c>
       <c r="T202" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4,3.42,3.44,3.46</v>
       </c>
       <c r="U202" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000,197000000000000,198000000000000</v>
+      </c>
+      <c r="V202" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000,990000,995000</v>
+      </c>
+      <c r="W202" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925,2940,2955,2970</v>
+      </c>
+      <c r="X202" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y202">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000,197000000000000,198000000000000</v>
-      </c>
-      <c r="V202" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000,990000,995000</v>
-      </c>
-      <c r="W202" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925,2940,2955,2970</v>
-      </c>
-      <c r="X202" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y202">
-        <f t="shared" si="24"/>
         <v>2350</v>
       </c>
       <c r="Z202">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2696</v>
       </c>
       <c r="AA202">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7.4239049740163321E-2</v>
       </c>
-    </row>
-    <row r="203" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB202">
+        <f t="shared" si="33"/>
+        <v>23.5</v>
+      </c>
+      <c r="AD202">
+        <v>1000000</v>
+      </c>
+      <c r="AE202">
+        <v>3.48</v>
+      </c>
+      <c r="AF202">
+        <v>199000000000000</v>
+      </c>
+      <c r="AG202">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="203" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J203">
         <v>198</v>
       </c>
       <c r="K203" s="1">
-        <f t="shared" ref="K203:K204" si="31">K198+1000</f>
+        <f t="shared" ref="K203:K204" si="34">K198+1000</f>
         <v>40000</v>
       </c>
       <c r="N203">
@@ -14784,43 +16166,59 @@
         <v>2985</v>
       </c>
       <c r="T203" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4,3.42,3.44,3.46,3.48</v>
       </c>
       <c r="U203" t="str">
+        <f t="shared" si="28"/>
+        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000,197000000000000,198000000000000,199000000000000</v>
+      </c>
+      <c r="V203" t="str">
+        <f t="shared" si="29"/>
+        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000,990000,995000,1000000</v>
+      </c>
+      <c r="W203" t="str">
+        <f t="shared" si="30"/>
+        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925,2940,2955,2970,2985</v>
+      </c>
+      <c r="X203" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y203">
         <f t="shared" si="26"/>
-        <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000,197000000000000,198000000000000,199000000000000</v>
-      </c>
-      <c r="V203" t="str">
-        <f t="shared" si="27"/>
-        <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000,990000,995000,1000000</v>
-      </c>
-      <c r="W203" t="str">
-        <f t="shared" si="28"/>
-        <v>15,30,45,60,75,90,105,120,135,150,165,180,195,210,225,240,255,270,285,300,315,330,345,360,375,390,405,420,435,450,465,480,495,510,525,540,555,570,585,600,615,630,645,660,675,690,705,720,735,750,765,780,795,810,825,840,855,870,885,900,915,930,945,960,975,990,1005,1020,1035,1050,1065,1080,1095,1110,1125,1140,1155,1170,1185,1200,1215,1230,1245,1260,1275,1290,1305,1320,1335,1350,1365,1380,1395,1410,1425,1440,1455,1470,1485,1500,1515,1530,1545,1560,1575,1590,1605,1620,1635,1650,1665,1680,1695,1710,1725,1740,1755,1770,1785,1800,1815,1830,1845,1860,1875,1890,1905,1920,1935,1950,1965,1980,1995,2010,2025,2040,2055,2070,2085,2100,2115,2130,2145,2160,2175,2190,2205,2220,2235,2250,2265,2280,2295,2310,2325,2340,2355,2370,2385,2400,2415,2430,2445,2460,2475,2490,2505,2520,2535,2550,2565,2580,2595,2610,2625,2640,2655,2670,2685,2700,2715,2730,2745,2760,2775,2790,2805,2820,2835,2850,2865,2880,2895,2910,2925,2940,2955,2970,2985</v>
-      </c>
-      <c r="X203" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y203">
-        <f t="shared" si="24"/>
         <v>2350</v>
       </c>
       <c r="Z203">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2698</v>
       </c>
       <c r="AA203">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7.418397626112759E-2</v>
       </c>
-    </row>
-    <row r="204" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="AB203">
+        <f t="shared" si="33"/>
+        <v>23.5</v>
+      </c>
+      <c r="AD203">
+        <v>1005000</v>
+      </c>
+      <c r="AE203">
+        <v>3.5</v>
+      </c>
+      <c r="AF203">
+        <v>200000000000000</v>
+      </c>
+      <c r="AG203">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="204" spans="10:33" x14ac:dyDescent="0.3">
       <c r="J204">
         <v>199</v>
       </c>
       <c r="K204" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>40000</v>
       </c>
       <c r="N204">
@@ -14843,15 +16241,15 @@
         <v>3000</v>
       </c>
       <c r="T204" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.01,0.02,0.03,0.04,0.05,0.06,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.16,0.17,0.18,0.19,0.2,0.21,0.22,0.23,0.24,0.25,0.26,0.27,0.28,0.29,0.3,0.31,0.32,0.33,0.34,0.35,0.36,0.37,0.38,0.39,0.4,0.41,0.42,0.43,0.44,0.45,0.46,0.47,0.48,0.49,0.5,0.52,0.54,0.56,0.58,0.6,0.62,0.64,0.66,0.68,0.7,0.72,0.74,0.76,0.78,0.8,0.82,0.84,0.86,0.88,0.9,0.92,0.94,0.96,0.98,1,1.02,1.04,1.06,1.08,1.1,1.12,1.14,1.16,1.18,1.2,1.22,1.24,1.26,1.28,1.3,1.32,1.34,1.36,1.38,1.4,1.42,1.44,1.46,1.48,1.5,1.52,1.54,1.56,1.58,1.6,1.62,1.64,1.66,1.68,1.7,1.72,1.74,1.76,1.78,1.8,1.82,1.84,1.86,1.88,1.9,1.92,1.94,1.96,1.98,2,2.02,2.04,2.06,2.08,2.1,2.12,2.14,2.16,2.18,2.2,2.22,2.24,2.26,2.28,2.3,2.32,2.34,2.36,2.38,2.4,2.42,2.44,2.46,2.48,2.5,2.52,2.54,2.56,2.58,2.6,2.62,2.64,2.66,2.68,2.7,2.72,2.74,2.76,2.78,2.8,2.82,2.84,2.86,2.88,2.9,2.92,2.94,2.96,2.98,3,3.02,3.04,3.06,3.08,3.1,3.12,3.14,3.16,3.18,3.2,3.22,3.24,3.26,3.28,3.3,3.32,3.34,3.36,3.38,3.4,3.42,3.44,3.46,3.48,3.5</v>
       </c>
       <c r="U204" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000000000000,2000000000000,3000000000000,4000000000000,5000000000000,6000000000000,7000000000000,8000000000000,9000000000000,10000000000000,11000000000000,12000000000000,13000000000000,14000000000000,15000000000000,16000000000000,17000000000000,18000000000000,19000000000000,20000000000000,21000000000000,22000000000000,23000000000000,24000000000000,25000000000000,26000000000000,27000000000000,28000000000000,29000000000000,30000000000000,31000000000000,32000000000000,33000000000000,34000000000000,35000000000000,36000000000000,37000000000000,38000000000000,39000000000000,40000000000000,41000000000000,42000000000000,43000000000000,44000000000000,45000000000000,46000000000000,47000000000000,48000000000000,49000000000000,50000000000000,51000000000000,52000000000000,53000000000000,54000000000000,55000000000000,56000000000000,57000000000000,58000000000000,59000000000000,60000000000000,61000000000000,62000000000000,63000000000000,64000000000000,65000000000000,66000000000000,67000000000000,68000000000000,69000000000000,70000000000000,71000000000000,72000000000000,73000000000000,74000000000000,75000000000000,76000000000000,77000000000000,78000000000000,79000000000000,80000000000000,81000000000000,82000000000000,83000000000000,84000000000000,85000000000000,86000000000000,87000000000000,88000000000000,89000000000000,90000000000000,91000000000000,92000000000000,93000000000000,94000000000000,95000000000000,96000000000000,97000000000000,98000000000000,99000000000000,100000000000000,101000000000000,102000000000000,103000000000000,104000000000000,105000000000000,106000000000000,107000000000000,108000000000000,109000000000000,110000000000000,111000000000000,112000000000000,113000000000000,114000000000000,115000000000000,116000000000000,117000000000000,118000000000000,119000000000000,120000000000000,121000000000000,122000000000000,123000000000000,124000000000000,125000000000000,126000000000000,127000000000000,128000000000000,129000000000000,130000000000000,131000000000000,132000000000000,133000000000000,134000000000000,135000000000000,136000000000000,137000000000000,138000000000000,139000000000000,140000000000000,141000000000000,142000000000000,143000000000000,144000000000000,145000000000000,146000000000000,147000000000000,148000000000000,149000000000000,150000000000000,151000000000000,152000000000000,153000000000000,154000000000000,155000000000000,156000000000000,157000000000000,158000000000000,159000000000000,160000000000000,161000000000000,162000000000000,163000000000000,164000000000000,165000000000000,166000000000000,167000000000000,168000000000000,169000000000000,170000000000000,171000000000000,172000000000000,173000000000000,174000000000000,175000000000000,176000000000000,177000000000000,178000000000000,179000000000000,180000000000000,181000000000000,182000000000000,183000000000000,184000000000000,185000000000000,186000000000000,187000000000000,188000000000000,189000000000000,190000000000000,191000000000000,192000000000000,193000000000000,194000000000000,195000000000000,196000000000000,197000000000000,198000000000000,199000000000000,200000000000000</v>
       </c>
       <c r="V204" t="str">
-        <f t="shared" si="27"/>
+        <f>V203&amp;","&amp;R204</f>
         <v>10000,15000,20000,25000,30000,35000,40000,45000,50000,55000,60000,65000,70000,75000,80000,85000,90000,95000,100000,105000,110000,115000,120000,125000,130000,135000,140000,145000,150000,155000,160000,165000,170000,175000,180000,185000,190000,195000,200000,205000,210000,215000,220000,225000,230000,235000,240000,245000,250000,255000,260000,265000,270000,275000,280000,285000,290000,295000,300000,305000,310000,315000,320000,325000,330000,335000,340000,345000,350000,355000,360000,365000,370000,375000,380000,385000,390000,395000,400000,405000,410000,415000,420000,425000,430000,435000,440000,445000,450000,455000,460000,465000,470000,475000,480000,485000,490000,495000,500000,505000,510000,515000,520000,525000,530000,535000,540000,545000,550000,555000,560000,565000,570000,575000,580000,585000,590000,595000,600000,605000,610000,615000,620000,625000,630000,635000,640000,645000,650000,655000,660000,665000,670000,675000,680000,685000,690000,695000,700000,705000,710000,715000,720000,725000,730000,735000,740000,745000,750000,755000,760000,765000,770000,775000,780000,785000,790000,795000,800000,805000,810000,815000,820000,825000,830000,835000,840000,845000,850000,855000,860000,865000,870000,875000,880000,885000,890000,895000,900000,905000,910000,915000,920000,925000,930000,935000,940000,945000,950000,955000,960000,965000,970000,975000,980000,985000,990000,995000,1000000,1005000</v>
       </c>
       <c r="W204" t="str">
@@ -14862,16 +16260,20 @@
         <v>23</v>
       </c>
       <c r="Y204">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2350</v>
       </c>
       <c r="Z204">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2700</v>
       </c>
       <c r="AA204">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7.412898443291327E-2</v>
+      </c>
+      <c r="AB204">
+        <f t="shared" si="33"/>
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>
